--- a/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4972A671-7FA5-45C4-887E-2E89F9ECA58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCD280-B7B4-4904-88A3-52D39BE17B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -4835,6 +4835,12 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5084,12 +5090,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6083,7 +6083,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3433"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3445"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6148,7 +6148,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3434"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3446"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6213,7 +6213,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3435"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3447"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8855,7 +8855,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AW42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9053,108 +9053,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="269" t="s">
+      <c r="A32" s="271" t="s">
         <v>244</v>
       </c>
-      <c r="B32" s="269"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="269"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="269"/>
-      <c r="H32" s="269"/>
-      <c r="I32" s="269"/>
-      <c r="J32" s="269"/>
-      <c r="K32" s="269"/>
-      <c r="L32" s="269"/>
-      <c r="M32" s="269"/>
-      <c r="N32" s="269"/>
-      <c r="O32" s="269"/>
-      <c r="P32" s="269"/>
-      <c r="Q32" s="269"/>
-      <c r="R32" s="269"/>
-      <c r="S32" s="269"/>
-      <c r="T32" s="269"/>
-      <c r="U32" s="269"/>
-      <c r="V32" s="269"/>
-      <c r="W32" s="269"/>
-      <c r="X32" s="269"/>
-      <c r="Y32" s="269"/>
-      <c r="Z32" s="269"/>
-      <c r="AA32" s="269"/>
-      <c r="AB32" s="269"/>
-      <c r="AC32" s="269"/>
-      <c r="AD32" s="269"/>
-      <c r="AE32" s="269"/>
-      <c r="AF32" s="269"/>
-      <c r="AG32" s="269"/>
-      <c r="AH32" s="269"/>
-      <c r="AI32" s="269"/>
-      <c r="AJ32" s="269"/>
-      <c r="AK32" s="269"/>
-      <c r="AL32" s="269"/>
-      <c r="AM32" s="269"/>
-      <c r="AN32" s="269"/>
-      <c r="AO32" s="269"/>
-      <c r="AP32" s="269"/>
-      <c r="AQ32" s="269"/>
-      <c r="AR32" s="269"/>
-      <c r="AS32" s="269"/>
-      <c r="AT32" s="269"/>
-      <c r="AU32" s="269"/>
-      <c r="AV32" s="269"/>
-      <c r="AW32" s="269"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="271"/>
+      <c r="H32" s="271"/>
+      <c r="I32" s="271"/>
+      <c r="J32" s="271"/>
+      <c r="K32" s="271"/>
+      <c r="L32" s="271"/>
+      <c r="M32" s="271"/>
+      <c r="N32" s="271"/>
+      <c r="O32" s="271"/>
+      <c r="P32" s="271"/>
+      <c r="Q32" s="271"/>
+      <c r="R32" s="271"/>
+      <c r="S32" s="271"/>
+      <c r="T32" s="271"/>
+      <c r="U32" s="271"/>
+      <c r="V32" s="271"/>
+      <c r="W32" s="271"/>
+      <c r="X32" s="271"/>
+      <c r="Y32" s="271"/>
+      <c r="Z32" s="271"/>
+      <c r="AA32" s="271"/>
+      <c r="AB32" s="271"/>
+      <c r="AC32" s="271"/>
+      <c r="AD32" s="271"/>
+      <c r="AE32" s="271"/>
+      <c r="AF32" s="271"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="271"/>
+      <c r="AI32" s="271"/>
+      <c r="AJ32" s="271"/>
+      <c r="AK32" s="271"/>
+      <c r="AL32" s="271"/>
+      <c r="AM32" s="271"/>
+      <c r="AN32" s="271"/>
+      <c r="AO32" s="271"/>
+      <c r="AP32" s="271"/>
+      <c r="AQ32" s="271"/>
+      <c r="AR32" s="271"/>
+      <c r="AS32" s="271"/>
+      <c r="AT32" s="271"/>
+      <c r="AU32" s="271"/>
+      <c r="AV32" s="271"/>
+      <c r="AW32" s="271"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="270"/>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="270"/>
-      <c r="I33" s="270"/>
-      <c r="J33" s="270"/>
-      <c r="K33" s="270"/>
-      <c r="L33" s="270"/>
-      <c r="M33" s="270"/>
-      <c r="N33" s="270"/>
-      <c r="O33" s="270"/>
-      <c r="P33" s="270"/>
-      <c r="Q33" s="270"/>
-      <c r="R33" s="270"/>
-      <c r="S33" s="270"/>
-      <c r="T33" s="270"/>
-      <c r="U33" s="270"/>
-      <c r="V33" s="270"/>
-      <c r="W33" s="270"/>
-      <c r="X33" s="270"/>
-      <c r="Y33" s="270"/>
-      <c r="Z33" s="270"/>
-      <c r="AA33" s="270"/>
-      <c r="AB33" s="270"/>
-      <c r="AC33" s="270"/>
-      <c r="AD33" s="270"/>
-      <c r="AE33" s="270"/>
-      <c r="AF33" s="270"/>
-      <c r="AG33" s="270"/>
-      <c r="AH33" s="270"/>
-      <c r="AI33" s="270"/>
-      <c r="AJ33" s="270"/>
-      <c r="AK33" s="270"/>
-      <c r="AL33" s="270"/>
-      <c r="AM33" s="270"/>
-      <c r="AN33" s="270"/>
-      <c r="AO33" s="270"/>
-      <c r="AP33" s="270"/>
-      <c r="AQ33" s="270"/>
-      <c r="AR33" s="270"/>
-      <c r="AS33" s="270"/>
-      <c r="AT33" s="270"/>
-      <c r="AU33" s="270"/>
-      <c r="AV33" s="270"/>
-      <c r="AW33" s="270"/>
+      <c r="A33" s="272"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="272"/>
+      <c r="I33" s="272"/>
+      <c r="J33" s="272"/>
+      <c r="K33" s="272"/>
+      <c r="L33" s="272"/>
+      <c r="M33" s="272"/>
+      <c r="N33" s="272"/>
+      <c r="O33" s="272"/>
+      <c r="P33" s="272"/>
+      <c r="Q33" s="272"/>
+      <c r="R33" s="272"/>
+      <c r="S33" s="272"/>
+      <c r="T33" s="272"/>
+      <c r="U33" s="272"/>
+      <c r="V33" s="272"/>
+      <c r="W33" s="272"/>
+      <c r="X33" s="272"/>
+      <c r="Y33" s="272"/>
+      <c r="Z33" s="272"/>
+      <c r="AA33" s="272"/>
+      <c r="AB33" s="272"/>
+      <c r="AC33" s="272"/>
+      <c r="AD33" s="272"/>
+      <c r="AE33" s="272"/>
+      <c r="AF33" s="272"/>
+      <c r="AG33" s="272"/>
+      <c r="AH33" s="272"/>
+      <c r="AI33" s="272"/>
+      <c r="AJ33" s="272"/>
+      <c r="AK33" s="272"/>
+      <c r="AL33" s="272"/>
+      <c r="AM33" s="272"/>
+      <c r="AN33" s="272"/>
+      <c r="AO33" s="272"/>
+      <c r="AP33" s="272"/>
+      <c r="AQ33" s="272"/>
+      <c r="AR33" s="272"/>
+      <c r="AS33" s="272"/>
+      <c r="AT33" s="272"/>
+      <c r="AU33" s="272"/>
+      <c r="AV33" s="272"/>
+      <c r="AW33" s="272"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -9192,55 +9192,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="271"/>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="271"/>
-      <c r="H35" s="271"/>
-      <c r="I35" s="271"/>
-      <c r="J35" s="271"/>
-      <c r="K35" s="271"/>
-      <c r="L35" s="271"/>
-      <c r="M35" s="271"/>
-      <c r="N35" s="271"/>
-      <c r="O35" s="271"/>
-      <c r="P35" s="271"/>
-      <c r="Q35" s="271"/>
-      <c r="R35" s="271"/>
-      <c r="S35" s="271"/>
-      <c r="T35" s="271"/>
-      <c r="U35" s="271"/>
-      <c r="V35" s="271"/>
-      <c r="W35" s="271"/>
-      <c r="X35" s="271"/>
-      <c r="Y35" s="271"/>
-      <c r="Z35" s="271"/>
-      <c r="AA35" s="271"/>
-      <c r="AB35" s="271"/>
-      <c r="AC35" s="271"/>
-      <c r="AD35" s="271"/>
-      <c r="AE35" s="271"/>
-      <c r="AF35" s="271"/>
-      <c r="AG35" s="271"/>
-      <c r="AH35" s="271"/>
-      <c r="AI35" s="271"/>
-      <c r="AJ35" s="271"/>
-      <c r="AK35" s="271"/>
-      <c r="AL35" s="271"/>
-      <c r="AM35" s="271"/>
-      <c r="AN35" s="271"/>
-      <c r="AO35" s="271"/>
-      <c r="AP35" s="271"/>
-      <c r="AQ35" s="271"/>
-      <c r="AR35" s="271"/>
-      <c r="AS35" s="271"/>
-      <c r="AT35" s="271"/>
-      <c r="AU35" s="271"/>
-      <c r="AV35" s="271"/>
-      <c r="AW35" s="271"/>
+      <c r="A35" s="273"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="273"/>
+      <c r="G35" s="273"/>
+      <c r="H35" s="273"/>
+      <c r="I35" s="273"/>
+      <c r="J35" s="273"/>
+      <c r="K35" s="273"/>
+      <c r="L35" s="273"/>
+      <c r="M35" s="273"/>
+      <c r="N35" s="273"/>
+      <c r="O35" s="273"/>
+      <c r="P35" s="273"/>
+      <c r="Q35" s="273"/>
+      <c r="R35" s="273"/>
+      <c r="S35" s="273"/>
+      <c r="T35" s="273"/>
+      <c r="U35" s="273"/>
+      <c r="V35" s="273"/>
+      <c r="W35" s="273"/>
+      <c r="X35" s="273"/>
+      <c r="Y35" s="273"/>
+      <c r="Z35" s="273"/>
+      <c r="AA35" s="273"/>
+      <c r="AB35" s="273"/>
+      <c r="AC35" s="273"/>
+      <c r="AD35" s="273"/>
+      <c r="AE35" s="273"/>
+      <c r="AF35" s="273"/>
+      <c r="AG35" s="273"/>
+      <c r="AH35" s="273"/>
+      <c r="AI35" s="273"/>
+      <c r="AJ35" s="273"/>
+      <c r="AK35" s="273"/>
+      <c r="AL35" s="273"/>
+      <c r="AM35" s="273"/>
+      <c r="AN35" s="273"/>
+      <c r="AO35" s="273"/>
+      <c r="AP35" s="273"/>
+      <c r="AQ35" s="273"/>
+      <c r="AR35" s="273"/>
+      <c r="AS35" s="273"/>
+      <c r="AT35" s="273"/>
+      <c r="AU35" s="273"/>
+      <c r="AV35" s="273"/>
+      <c r="AW35" s="273"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -9275,1767 +9275,1767 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
-      <c r="U1" s="272"/>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="272"/>
-      <c r="AE1" s="272"/>
-      <c r="AF1" s="272"/>
-      <c r="AG1" s="272"/>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="272"/>
-      <c r="AJ1" s="272"/>
-      <c r="AK1" s="272"/>
-      <c r="AL1" s="272"/>
-      <c r="AM1" s="272"/>
-      <c r="AN1" s="272"/>
-      <c r="AO1" s="272"/>
-      <c r="AP1" s="272"/>
-      <c r="AQ1" s="272"/>
-      <c r="AR1" s="272"/>
-      <c r="AS1" s="272"/>
-      <c r="AT1" s="272"/>
-      <c r="AU1" s="272"/>
-      <c r="AV1" s="272"/>
-      <c r="AW1" s="272"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="274"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="274"/>
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="274"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="274"/>
+      <c r="AG1" s="274"/>
+      <c r="AH1" s="274"/>
+      <c r="AI1" s="274"/>
+      <c r="AJ1" s="274"/>
+      <c r="AK1" s="274"/>
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="274"/>
+      <c r="AP1" s="274"/>
+      <c r="AQ1" s="274"/>
+      <c r="AR1" s="274"/>
+      <c r="AS1" s="274"/>
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="274"/>
+      <c r="AW1" s="274"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
-      <c r="AG2" s="273"/>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="273"/>
-      <c r="AJ2" s="273"/>
-      <c r="AK2" s="273"/>
-      <c r="AL2" s="273"/>
-      <c r="AM2" s="273"/>
-      <c r="AN2" s="273"/>
-      <c r="AO2" s="273"/>
-      <c r="AP2" s="273"/>
-      <c r="AQ2" s="273"/>
-      <c r="AR2" s="273"/>
-      <c r="AS2" s="273"/>
-      <c r="AT2" s="273"/>
-      <c r="AU2" s="273"/>
-      <c r="AV2" s="273"/>
-      <c r="AW2" s="273"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="275"/>
+      <c r="U2" s="275"/>
+      <c r="V2" s="275"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="275"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="275"/>
+      <c r="AJ2" s="275"/>
+      <c r="AK2" s="275"/>
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="275"/>
+      <c r="AN2" s="275"/>
+      <c r="AO2" s="275"/>
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="275"/>
+      <c r="AR2" s="275"/>
+      <c r="AS2" s="275"/>
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="275"/>
+      <c r="AV2" s="275"/>
+      <c r="AW2" s="275"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="276" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274" t="s">
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="275" t="s">
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="276"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="275" t="s">
+      <c r="K3" s="278"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="274" t="s">
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="274" t="s">
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="274"/>
-      <c r="X3" s="274"/>
-      <c r="Y3" s="274"/>
-      <c r="Z3" s="274"/>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="274"/>
-      <c r="AC3" s="274"/>
-      <c r="AD3" s="274"/>
-      <c r="AE3" s="274"/>
-      <c r="AF3" s="274"/>
-      <c r="AG3" s="274"/>
-      <c r="AH3" s="274"/>
-      <c r="AI3" s="274"/>
-      <c r="AJ3" s="274"/>
-      <c r="AK3" s="274"/>
-      <c r="AL3" s="274"/>
-      <c r="AM3" s="274"/>
-      <c r="AN3" s="274" t="s">
+      <c r="W3" s="276"/>
+      <c r="X3" s="276"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="276"/>
+      <c r="AA3" s="276"/>
+      <c r="AB3" s="276"/>
+      <c r="AC3" s="276"/>
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="276"/>
+      <c r="AG3" s="276"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="276"/>
+      <c r="AJ3" s="276"/>
+      <c r="AK3" s="276"/>
+      <c r="AL3" s="276"/>
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="274"/>
-      <c r="AP3" s="274"/>
-      <c r="AQ3" s="274"/>
-      <c r="AR3" s="274"/>
-      <c r="AS3" s="274" t="s">
+      <c r="AO3" s="276"/>
+      <c r="AP3" s="276"/>
+      <c r="AQ3" s="276"/>
+      <c r="AR3" s="276"/>
+      <c r="AS3" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="274"/>
-      <c r="AU3" s="274"/>
-      <c r="AV3" s="274"/>
-      <c r="AW3" s="274"/>
+      <c r="AT3" s="276"/>
+      <c r="AU3" s="276"/>
+      <c r="AV3" s="276"/>
+      <c r="AW3" s="276"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="280"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="279"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="280"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
-      <c r="X4" s="274"/>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="274"/>
-      <c r="AA4" s="274"/>
-      <c r="AB4" s="274"/>
-      <c r="AC4" s="274"/>
-      <c r="AD4" s="274"/>
-      <c r="AE4" s="274"/>
-      <c r="AF4" s="274"/>
-      <c r="AG4" s="274"/>
-      <c r="AH4" s="274"/>
-      <c r="AI4" s="274"/>
-      <c r="AJ4" s="274"/>
-      <c r="AK4" s="274"/>
-      <c r="AL4" s="274"/>
-      <c r="AM4" s="274"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="274"/>
-      <c r="AP4" s="274"/>
-      <c r="AQ4" s="274"/>
-      <c r="AR4" s="274"/>
-      <c r="AS4" s="274"/>
-      <c r="AT4" s="274"/>
-      <c r="AU4" s="274"/>
-      <c r="AV4" s="274"/>
-      <c r="AW4" s="274"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="276"/>
+      <c r="T4" s="276"/>
+      <c r="U4" s="276"/>
+      <c r="V4" s="276"/>
+      <c r="W4" s="276"/>
+      <c r="X4" s="276"/>
+      <c r="Y4" s="276"/>
+      <c r="Z4" s="276"/>
+      <c r="AA4" s="276"/>
+      <c r="AB4" s="276"/>
+      <c r="AC4" s="276"/>
+      <c r="AD4" s="276"/>
+      <c r="AE4" s="276"/>
+      <c r="AF4" s="276"/>
+      <c r="AG4" s="276"/>
+      <c r="AH4" s="276"/>
+      <c r="AI4" s="276"/>
+      <c r="AJ4" s="276"/>
+      <c r="AK4" s="276"/>
+      <c r="AL4" s="276"/>
+      <c r="AM4" s="276"/>
+      <c r="AN4" s="276"/>
+      <c r="AO4" s="276"/>
+      <c r="AP4" s="276"/>
+      <c r="AQ4" s="276"/>
+      <c r="AR4" s="276"/>
+      <c r="AS4" s="276"/>
+      <c r="AT4" s="276"/>
+      <c r="AU4" s="276"/>
+      <c r="AV4" s="276"/>
+      <c r="AW4" s="276"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
-      <c r="B5" s="282">
+      <c r="B5" s="284">
         <v>1</v>
       </c>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="283">
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="285">
         <v>43720</v>
       </c>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="284" t="s">
+      <c r="F5" s="285"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="284" t="s">
+      <c r="K5" s="287"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="286" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="285"/>
-      <c r="Q5" s="285"/>
-      <c r="R5" s="286"/>
-      <c r="S5" s="281" t="s">
+      <c r="N5" s="287"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="287"/>
+      <c r="Q5" s="287"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="290" t="s">
+      <c r="T5" s="283"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="290"/>
-      <c r="X5" s="290"/>
-      <c r="Y5" s="290"/>
-      <c r="Z5" s="290"/>
-      <c r="AA5" s="290"/>
-      <c r="AB5" s="290"/>
-      <c r="AC5" s="290"/>
-      <c r="AD5" s="290"/>
-      <c r="AE5" s="290"/>
-      <c r="AF5" s="290"/>
-      <c r="AG5" s="290"/>
-      <c r="AH5" s="290"/>
-      <c r="AI5" s="290"/>
-      <c r="AJ5" s="290"/>
-      <c r="AK5" s="290"/>
-      <c r="AL5" s="290"/>
-      <c r="AM5" s="290"/>
-      <c r="AN5" s="281" t="s">
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="292"/>
+      <c r="AD5" s="292"/>
+      <c r="AE5" s="292"/>
+      <c r="AF5" s="292"/>
+      <c r="AG5" s="292"/>
+      <c r="AH5" s="292"/>
+      <c r="AI5" s="292"/>
+      <c r="AJ5" s="292"/>
+      <c r="AK5" s="292"/>
+      <c r="AL5" s="292"/>
+      <c r="AM5" s="292"/>
+      <c r="AN5" s="283" t="s">
         <v>245</v>
       </c>
-      <c r="AO5" s="281"/>
-      <c r="AP5" s="281"/>
-      <c r="AQ5" s="281"/>
-      <c r="AR5" s="281"/>
-      <c r="AS5" s="281"/>
-      <c r="AT5" s="281"/>
-      <c r="AU5" s="281"/>
-      <c r="AV5" s="281"/>
-      <c r="AW5" s="281"/>
+      <c r="AO5" s="283"/>
+      <c r="AP5" s="283"/>
+      <c r="AQ5" s="283"/>
+      <c r="AR5" s="283"/>
+      <c r="AS5" s="283"/>
+      <c r="AT5" s="283"/>
+      <c r="AU5" s="283"/>
+      <c r="AV5" s="283"/>
+      <c r="AW5" s="283"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="283"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="283"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="288"/>
-      <c r="O6" s="288"/>
-      <c r="P6" s="288"/>
-      <c r="Q6" s="288"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="281"/>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="290"/>
-      <c r="W6" s="290"/>
-      <c r="X6" s="290"/>
-      <c r="Y6" s="290"/>
-      <c r="Z6" s="290"/>
-      <c r="AA6" s="290"/>
-      <c r="AB6" s="290"/>
-      <c r="AC6" s="290"/>
-      <c r="AD6" s="290"/>
-      <c r="AE6" s="290"/>
-      <c r="AF6" s="290"/>
-      <c r="AG6" s="290"/>
-      <c r="AH6" s="290"/>
-      <c r="AI6" s="290"/>
-      <c r="AJ6" s="290"/>
-      <c r="AK6" s="290"/>
-      <c r="AL6" s="290"/>
-      <c r="AM6" s="290"/>
-      <c r="AN6" s="281"/>
-      <c r="AO6" s="281"/>
-      <c r="AP6" s="281"/>
-      <c r="AQ6" s="281"/>
-      <c r="AR6" s="281"/>
-      <c r="AS6" s="281"/>
-      <c r="AT6" s="281"/>
-      <c r="AU6" s="281"/>
-      <c r="AV6" s="281"/>
-      <c r="AW6" s="281"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="288"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="290"/>
+      <c r="O6" s="290"/>
+      <c r="P6" s="290"/>
+      <c r="Q6" s="290"/>
+      <c r="R6" s="291"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="292"/>
+      <c r="W6" s="292"/>
+      <c r="X6" s="292"/>
+      <c r="Y6" s="292"/>
+      <c r="Z6" s="292"/>
+      <c r="AA6" s="292"/>
+      <c r="AB6" s="292"/>
+      <c r="AC6" s="292"/>
+      <c r="AD6" s="292"/>
+      <c r="AE6" s="292"/>
+      <c r="AF6" s="292"/>
+      <c r="AG6" s="292"/>
+      <c r="AH6" s="292"/>
+      <c r="AI6" s="292"/>
+      <c r="AJ6" s="292"/>
+      <c r="AK6" s="292"/>
+      <c r="AL6" s="292"/>
+      <c r="AM6" s="292"/>
+      <c r="AN6" s="283"/>
+      <c r="AO6" s="283"/>
+      <c r="AP6" s="283"/>
+      <c r="AQ6" s="283"/>
+      <c r="AR6" s="283"/>
+      <c r="AS6" s="283"/>
+      <c r="AT6" s="283"/>
+      <c r="AU6" s="283"/>
+      <c r="AV6" s="283"/>
+      <c r="AW6" s="283"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="287"/>
-      <c r="N7" s="288"/>
-      <c r="O7" s="288"/>
-      <c r="P7" s="288"/>
-      <c r="Q7" s="288"/>
-      <c r="R7" s="289"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="290"/>
-      <c r="W7" s="290"/>
-      <c r="X7" s="290"/>
-      <c r="Y7" s="290"/>
-      <c r="Z7" s="290"/>
-      <c r="AA7" s="290"/>
-      <c r="AB7" s="290"/>
-      <c r="AC7" s="290"/>
-      <c r="AD7" s="290"/>
-      <c r="AE7" s="290"/>
-      <c r="AF7" s="290"/>
-      <c r="AG7" s="290"/>
-      <c r="AH7" s="290"/>
-      <c r="AI7" s="290"/>
-      <c r="AJ7" s="290"/>
-      <c r="AK7" s="290"/>
-      <c r="AL7" s="290"/>
-      <c r="AM7" s="290"/>
-      <c r="AN7" s="281"/>
-      <c r="AO7" s="281"/>
-      <c r="AP7" s="281"/>
-      <c r="AQ7" s="281"/>
-      <c r="AR7" s="281"/>
-      <c r="AS7" s="281"/>
-      <c r="AT7" s="281"/>
-      <c r="AU7" s="281"/>
-      <c r="AV7" s="281"/>
-      <c r="AW7" s="281"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="287"/>
+      <c r="L7" s="288"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="290"/>
+      <c r="O7" s="290"/>
+      <c r="P7" s="290"/>
+      <c r="Q7" s="290"/>
+      <c r="R7" s="291"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="283"/>
+      <c r="U7" s="283"/>
+      <c r="V7" s="292"/>
+      <c r="W7" s="292"/>
+      <c r="X7" s="292"/>
+      <c r="Y7" s="292"/>
+      <c r="Z7" s="292"/>
+      <c r="AA7" s="292"/>
+      <c r="AB7" s="292"/>
+      <c r="AC7" s="292"/>
+      <c r="AD7" s="292"/>
+      <c r="AE7" s="292"/>
+      <c r="AF7" s="292"/>
+      <c r="AG7" s="292"/>
+      <c r="AH7" s="292"/>
+      <c r="AI7" s="292"/>
+      <c r="AJ7" s="292"/>
+      <c r="AK7" s="292"/>
+      <c r="AL7" s="292"/>
+      <c r="AM7" s="292"/>
+      <c r="AN7" s="283"/>
+      <c r="AO7" s="283"/>
+      <c r="AP7" s="283"/>
+      <c r="AQ7" s="283"/>
+      <c r="AR7" s="283"/>
+      <c r="AS7" s="283"/>
+      <c r="AT7" s="283"/>
+      <c r="AU7" s="283"/>
+      <c r="AV7" s="283"/>
+      <c r="AW7" s="283"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
-      <c r="B8" s="282"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="288"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="288"/>
-      <c r="Q8" s="288"/>
-      <c r="R8" s="289"/>
-      <c r="S8" s="281"/>
-      <c r="T8" s="281"/>
-      <c r="U8" s="281"/>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290"/>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
-      <c r="AI8" s="290"/>
-      <c r="AJ8" s="290"/>
-      <c r="AK8" s="290"/>
-      <c r="AL8" s="290"/>
-      <c r="AM8" s="290"/>
-      <c r="AN8" s="281"/>
-      <c r="AO8" s="281"/>
-      <c r="AP8" s="281"/>
-      <c r="AQ8" s="281"/>
-      <c r="AR8" s="281"/>
-      <c r="AS8" s="281"/>
-      <c r="AT8" s="281"/>
-      <c r="AU8" s="281"/>
-      <c r="AV8" s="281"/>
-      <c r="AW8" s="281"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="288"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="291"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="292"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="292"/>
+      <c r="Z8" s="292"/>
+      <c r="AA8" s="292"/>
+      <c r="AB8" s="292"/>
+      <c r="AC8" s="292"/>
+      <c r="AD8" s="292"/>
+      <c r="AE8" s="292"/>
+      <c r="AF8" s="292"/>
+      <c r="AG8" s="292"/>
+      <c r="AH8" s="292"/>
+      <c r="AI8" s="292"/>
+      <c r="AJ8" s="292"/>
+      <c r="AK8" s="292"/>
+      <c r="AL8" s="292"/>
+      <c r="AM8" s="292"/>
+      <c r="AN8" s="283"/>
+      <c r="AO8" s="283"/>
+      <c r="AP8" s="283"/>
+      <c r="AQ8" s="283"/>
+      <c r="AR8" s="283"/>
+      <c r="AS8" s="283"/>
+      <c r="AT8" s="283"/>
+      <c r="AU8" s="283"/>
+      <c r="AV8" s="283"/>
+      <c r="AW8" s="283"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="282"/>
-      <c r="C9" s="282"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="283"/>
-      <c r="H9" s="283"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="284"/>
-      <c r="K9" s="285"/>
-      <c r="L9" s="286"/>
-      <c r="M9" s="287"/>
-      <c r="N9" s="288"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="288"/>
-      <c r="Q9" s="288"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="281"/>
-      <c r="T9" s="281"/>
-      <c r="U9" s="281"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="290"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="290"/>
-      <c r="AI9" s="290"/>
-      <c r="AJ9" s="290"/>
-      <c r="AK9" s="290"/>
-      <c r="AL9" s="290"/>
-      <c r="AM9" s="290"/>
-      <c r="AN9" s="281"/>
-      <c r="AO9" s="281"/>
-      <c r="AP9" s="281"/>
-      <c r="AQ9" s="281"/>
-      <c r="AR9" s="281"/>
-      <c r="AS9" s="281"/>
-      <c r="AT9" s="281"/>
-      <c r="AU9" s="281"/>
-      <c r="AV9" s="281"/>
-      <c r="AW9" s="281"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="285"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="288"/>
+      <c r="M9" s="289"/>
+      <c r="N9" s="290"/>
+      <c r="O9" s="290"/>
+      <c r="P9" s="290"/>
+      <c r="Q9" s="290"/>
+      <c r="R9" s="291"/>
+      <c r="S9" s="283"/>
+      <c r="T9" s="283"/>
+      <c r="U9" s="283"/>
+      <c r="V9" s="292"/>
+      <c r="W9" s="292"/>
+      <c r="X9" s="292"/>
+      <c r="Y9" s="292"/>
+      <c r="Z9" s="292"/>
+      <c r="AA9" s="292"/>
+      <c r="AB9" s="292"/>
+      <c r="AC9" s="292"/>
+      <c r="AD9" s="292"/>
+      <c r="AE9" s="292"/>
+      <c r="AF9" s="292"/>
+      <c r="AG9" s="292"/>
+      <c r="AH9" s="292"/>
+      <c r="AI9" s="292"/>
+      <c r="AJ9" s="292"/>
+      <c r="AK9" s="292"/>
+      <c r="AL9" s="292"/>
+      <c r="AM9" s="292"/>
+      <c r="AN9" s="283"/>
+      <c r="AO9" s="283"/>
+      <c r="AP9" s="283"/>
+      <c r="AQ9" s="283"/>
+      <c r="AR9" s="283"/>
+      <c r="AS9" s="283"/>
+      <c r="AT9" s="283"/>
+      <c r="AU9" s="283"/>
+      <c r="AV9" s="283"/>
+      <c r="AW9" s="283"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
-      <c r="B10" s="282"/>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="285"/>
-      <c r="L10" s="286"/>
-      <c r="M10" s="287"/>
-      <c r="N10" s="288"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="288"/>
-      <c r="Q10" s="288"/>
-      <c r="R10" s="289"/>
-      <c r="S10" s="281"/>
-      <c r="T10" s="281"/>
-      <c r="U10" s="281"/>
-      <c r="V10" s="290"/>
-      <c r="W10" s="290"/>
-      <c r="X10" s="290"/>
-      <c r="Y10" s="290"/>
-      <c r="Z10" s="290"/>
-      <c r="AA10" s="290"/>
-      <c r="AB10" s="290"/>
-      <c r="AC10" s="290"/>
-      <c r="AD10" s="290"/>
-      <c r="AE10" s="290"/>
-      <c r="AF10" s="290"/>
-      <c r="AG10" s="290"/>
-      <c r="AH10" s="290"/>
-      <c r="AI10" s="290"/>
-      <c r="AJ10" s="290"/>
-      <c r="AK10" s="290"/>
-      <c r="AL10" s="290"/>
-      <c r="AM10" s="290"/>
-      <c r="AN10" s="281"/>
-      <c r="AO10" s="281"/>
-      <c r="AP10" s="281"/>
-      <c r="AQ10" s="281"/>
-      <c r="AR10" s="281"/>
-      <c r="AS10" s="281"/>
-      <c r="AT10" s="281"/>
-      <c r="AU10" s="281"/>
-      <c r="AV10" s="281"/>
-      <c r="AW10" s="281"/>
+      <c r="B10" s="284"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="285"/>
+      <c r="H10" s="285"/>
+      <c r="I10" s="285"/>
+      <c r="J10" s="286"/>
+      <c r="K10" s="287"/>
+      <c r="L10" s="288"/>
+      <c r="M10" s="289"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
+      <c r="Q10" s="290"/>
+      <c r="R10" s="291"/>
+      <c r="S10" s="283"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="283"/>
+      <c r="V10" s="292"/>
+      <c r="W10" s="292"/>
+      <c r="X10" s="292"/>
+      <c r="Y10" s="292"/>
+      <c r="Z10" s="292"/>
+      <c r="AA10" s="292"/>
+      <c r="AB10" s="292"/>
+      <c r="AC10" s="292"/>
+      <c r="AD10" s="292"/>
+      <c r="AE10" s="292"/>
+      <c r="AF10" s="292"/>
+      <c r="AG10" s="292"/>
+      <c r="AH10" s="292"/>
+      <c r="AI10" s="292"/>
+      <c r="AJ10" s="292"/>
+      <c r="AK10" s="292"/>
+      <c r="AL10" s="292"/>
+      <c r="AM10" s="292"/>
+      <c r="AN10" s="283"/>
+      <c r="AO10" s="283"/>
+      <c r="AP10" s="283"/>
+      <c r="AQ10" s="283"/>
+      <c r="AR10" s="283"/>
+      <c r="AS10" s="283"/>
+      <c r="AT10" s="283"/>
+      <c r="AU10" s="283"/>
+      <c r="AV10" s="283"/>
+      <c r="AW10" s="283"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
-      <c r="B11" s="282"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283"/>
-      <c r="H11" s="283"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="284"/>
-      <c r="K11" s="285"/>
-      <c r="L11" s="286"/>
-      <c r="M11" s="294"/>
-      <c r="N11" s="295"/>
-      <c r="O11" s="295"/>
-      <c r="P11" s="295"/>
-      <c r="Q11" s="295"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="281"/>
-      <c r="T11" s="281"/>
-      <c r="U11" s="281"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="303"/>
-      <c r="X11" s="303"/>
-      <c r="Y11" s="303"/>
-      <c r="Z11" s="303"/>
-      <c r="AA11" s="303"/>
-      <c r="AB11" s="303"/>
-      <c r="AC11" s="303"/>
-      <c r="AD11" s="303"/>
-      <c r="AE11" s="303"/>
-      <c r="AF11" s="303"/>
-      <c r="AG11" s="303"/>
-      <c r="AH11" s="303"/>
-      <c r="AI11" s="303"/>
-      <c r="AJ11" s="303"/>
-      <c r="AK11" s="303"/>
-      <c r="AL11" s="303"/>
-      <c r="AM11" s="304"/>
-      <c r="AN11" s="281"/>
-      <c r="AO11" s="281"/>
-      <c r="AP11" s="281"/>
-      <c r="AQ11" s="281"/>
-      <c r="AR11" s="281"/>
-      <c r="AS11" s="281"/>
-      <c r="AT11" s="281"/>
-      <c r="AU11" s="281"/>
-      <c r="AV11" s="281"/>
-      <c r="AW11" s="281"/>
+      <c r="B11" s="284"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="285"/>
+      <c r="I11" s="285"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="287"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="296"/>
+      <c r="N11" s="297"/>
+      <c r="O11" s="297"/>
+      <c r="P11" s="297"/>
+      <c r="Q11" s="297"/>
+      <c r="R11" s="298"/>
+      <c r="S11" s="283"/>
+      <c r="T11" s="283"/>
+      <c r="U11" s="283"/>
+      <c r="V11" s="299"/>
+      <c r="W11" s="305"/>
+      <c r="X11" s="305"/>
+      <c r="Y11" s="305"/>
+      <c r="Z11" s="305"/>
+      <c r="AA11" s="305"/>
+      <c r="AB11" s="305"/>
+      <c r="AC11" s="305"/>
+      <c r="AD11" s="305"/>
+      <c r="AE11" s="305"/>
+      <c r="AF11" s="305"/>
+      <c r="AG11" s="305"/>
+      <c r="AH11" s="305"/>
+      <c r="AI11" s="305"/>
+      <c r="AJ11" s="305"/>
+      <c r="AK11" s="305"/>
+      <c r="AL11" s="305"/>
+      <c r="AM11" s="306"/>
+      <c r="AN11" s="283"/>
+      <c r="AO11" s="283"/>
+      <c r="AP11" s="283"/>
+      <c r="AQ11" s="283"/>
+      <c r="AR11" s="283"/>
+      <c r="AS11" s="283"/>
+      <c r="AT11" s="283"/>
+      <c r="AU11" s="283"/>
+      <c r="AV11" s="283"/>
+      <c r="AW11" s="283"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
-      <c r="B12" s="291"/>
-      <c r="C12" s="292"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="284"/>
-      <c r="K12" s="285"/>
-      <c r="L12" s="286"/>
-      <c r="M12" s="294"/>
-      <c r="N12" s="295"/>
-      <c r="O12" s="295"/>
-      <c r="P12" s="295"/>
-      <c r="Q12" s="295"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="281"/>
-      <c r="T12" s="281"/>
-      <c r="U12" s="281"/>
-      <c r="V12" s="297"/>
-      <c r="W12" s="298"/>
-      <c r="X12" s="298"/>
-      <c r="Y12" s="298"/>
-      <c r="Z12" s="298"/>
-      <c r="AA12" s="298"/>
-      <c r="AB12" s="298"/>
-      <c r="AC12" s="298"/>
-      <c r="AD12" s="298"/>
-      <c r="AE12" s="298"/>
-      <c r="AF12" s="298"/>
-      <c r="AG12" s="298"/>
-      <c r="AH12" s="298"/>
-      <c r="AI12" s="298"/>
-      <c r="AJ12" s="298"/>
-      <c r="AK12" s="298"/>
-      <c r="AL12" s="298"/>
-      <c r="AM12" s="299"/>
-      <c r="AN12" s="300"/>
-      <c r="AO12" s="301"/>
-      <c r="AP12" s="301"/>
-      <c r="AQ12" s="301"/>
-      <c r="AR12" s="302"/>
-      <c r="AS12" s="300"/>
-      <c r="AT12" s="301"/>
-      <c r="AU12" s="301"/>
-      <c r="AV12" s="301"/>
-      <c r="AW12" s="302"/>
+      <c r="B12" s="293"/>
+      <c r="C12" s="294"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="287"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="297"/>
+      <c r="O12" s="297"/>
+      <c r="P12" s="297"/>
+      <c r="Q12" s="297"/>
+      <c r="R12" s="298"/>
+      <c r="S12" s="283"/>
+      <c r="T12" s="283"/>
+      <c r="U12" s="283"/>
+      <c r="V12" s="299"/>
+      <c r="W12" s="300"/>
+      <c r="X12" s="300"/>
+      <c r="Y12" s="300"/>
+      <c r="Z12" s="300"/>
+      <c r="AA12" s="300"/>
+      <c r="AB12" s="300"/>
+      <c r="AC12" s="300"/>
+      <c r="AD12" s="300"/>
+      <c r="AE12" s="300"/>
+      <c r="AF12" s="300"/>
+      <c r="AG12" s="300"/>
+      <c r="AH12" s="300"/>
+      <c r="AI12" s="300"/>
+      <c r="AJ12" s="300"/>
+      <c r="AK12" s="300"/>
+      <c r="AL12" s="300"/>
+      <c r="AM12" s="301"/>
+      <c r="AN12" s="302"/>
+      <c r="AO12" s="303"/>
+      <c r="AP12" s="303"/>
+      <c r="AQ12" s="303"/>
+      <c r="AR12" s="304"/>
+      <c r="AS12" s="302"/>
+      <c r="AT12" s="303"/>
+      <c r="AU12" s="303"/>
+      <c r="AV12" s="303"/>
+      <c r="AW12" s="304"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
-      <c r="B13" s="291"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="283"/>
-      <c r="H13" s="283"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="286"/>
-      <c r="M13" s="305"/>
-      <c r="N13" s="295"/>
-      <c r="O13" s="295"/>
-      <c r="P13" s="295"/>
-      <c r="Q13" s="295"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="281"/>
-      <c r="T13" s="281"/>
-      <c r="U13" s="281"/>
-      <c r="V13" s="297"/>
-      <c r="W13" s="298"/>
-      <c r="X13" s="298"/>
-      <c r="Y13" s="298"/>
-      <c r="Z13" s="298"/>
-      <c r="AA13" s="298"/>
-      <c r="AB13" s="298"/>
-      <c r="AC13" s="298"/>
-      <c r="AD13" s="298"/>
-      <c r="AE13" s="298"/>
-      <c r="AF13" s="298"/>
-      <c r="AG13" s="298"/>
-      <c r="AH13" s="298"/>
-      <c r="AI13" s="298"/>
-      <c r="AJ13" s="298"/>
-      <c r="AK13" s="298"/>
-      <c r="AL13" s="298"/>
-      <c r="AM13" s="299"/>
-      <c r="AN13" s="300"/>
-      <c r="AO13" s="301"/>
-      <c r="AP13" s="301"/>
-      <c r="AQ13" s="301"/>
-      <c r="AR13" s="302"/>
-      <c r="AS13" s="300"/>
-      <c r="AT13" s="301"/>
-      <c r="AU13" s="301"/>
-      <c r="AV13" s="301"/>
-      <c r="AW13" s="302"/>
+      <c r="B13" s="293"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="286"/>
+      <c r="K13" s="287"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="307"/>
+      <c r="N13" s="297"/>
+      <c r="O13" s="297"/>
+      <c r="P13" s="297"/>
+      <c r="Q13" s="297"/>
+      <c r="R13" s="298"/>
+      <c r="S13" s="283"/>
+      <c r="T13" s="283"/>
+      <c r="U13" s="283"/>
+      <c r="V13" s="299"/>
+      <c r="W13" s="300"/>
+      <c r="X13" s="300"/>
+      <c r="Y13" s="300"/>
+      <c r="Z13" s="300"/>
+      <c r="AA13" s="300"/>
+      <c r="AB13" s="300"/>
+      <c r="AC13" s="300"/>
+      <c r="AD13" s="300"/>
+      <c r="AE13" s="300"/>
+      <c r="AF13" s="300"/>
+      <c r="AG13" s="300"/>
+      <c r="AH13" s="300"/>
+      <c r="AI13" s="300"/>
+      <c r="AJ13" s="300"/>
+      <c r="AK13" s="300"/>
+      <c r="AL13" s="300"/>
+      <c r="AM13" s="301"/>
+      <c r="AN13" s="302"/>
+      <c r="AO13" s="303"/>
+      <c r="AP13" s="303"/>
+      <c r="AQ13" s="303"/>
+      <c r="AR13" s="304"/>
+      <c r="AS13" s="302"/>
+      <c r="AT13" s="303"/>
+      <c r="AU13" s="303"/>
+      <c r="AV13" s="303"/>
+      <c r="AW13" s="304"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
-      <c r="B14" s="291"/>
-      <c r="C14" s="292"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="283"/>
-      <c r="G14" s="283"/>
-      <c r="H14" s="283"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="285"/>
-      <c r="L14" s="286"/>
-      <c r="M14" s="305"/>
-      <c r="N14" s="295"/>
-      <c r="O14" s="295"/>
-      <c r="P14" s="295"/>
-      <c r="Q14" s="295"/>
-      <c r="R14" s="296"/>
-      <c r="S14" s="281"/>
-      <c r="T14" s="281"/>
-      <c r="U14" s="281"/>
-      <c r="V14" s="306"/>
-      <c r="W14" s="290"/>
-      <c r="X14" s="290"/>
-      <c r="Y14" s="290"/>
-      <c r="Z14" s="290"/>
-      <c r="AA14" s="290"/>
-      <c r="AB14" s="290"/>
-      <c r="AC14" s="290"/>
-      <c r="AD14" s="290"/>
-      <c r="AE14" s="290"/>
-      <c r="AF14" s="290"/>
-      <c r="AG14" s="290"/>
-      <c r="AH14" s="290"/>
-      <c r="AI14" s="290"/>
-      <c r="AJ14" s="290"/>
-      <c r="AK14" s="290"/>
-      <c r="AL14" s="290"/>
-      <c r="AM14" s="290"/>
-      <c r="AN14" s="281"/>
-      <c r="AO14" s="281"/>
-      <c r="AP14" s="281"/>
-      <c r="AQ14" s="281"/>
-      <c r="AR14" s="281"/>
-      <c r="AS14" s="300"/>
-      <c r="AT14" s="301"/>
-      <c r="AU14" s="301"/>
-      <c r="AV14" s="301"/>
-      <c r="AW14" s="302"/>
+      <c r="B14" s="293"/>
+      <c r="C14" s="294"/>
+      <c r="D14" s="295"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="285"/>
+      <c r="H14" s="285"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="287"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="307"/>
+      <c r="N14" s="297"/>
+      <c r="O14" s="297"/>
+      <c r="P14" s="297"/>
+      <c r="Q14" s="297"/>
+      <c r="R14" s="298"/>
+      <c r="S14" s="283"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="283"/>
+      <c r="V14" s="308"/>
+      <c r="W14" s="292"/>
+      <c r="X14" s="292"/>
+      <c r="Y14" s="292"/>
+      <c r="Z14" s="292"/>
+      <c r="AA14" s="292"/>
+      <c r="AB14" s="292"/>
+      <c r="AC14" s="292"/>
+      <c r="AD14" s="292"/>
+      <c r="AE14" s="292"/>
+      <c r="AF14" s="292"/>
+      <c r="AG14" s="292"/>
+      <c r="AH14" s="292"/>
+      <c r="AI14" s="292"/>
+      <c r="AJ14" s="292"/>
+      <c r="AK14" s="292"/>
+      <c r="AL14" s="292"/>
+      <c r="AM14" s="292"/>
+      <c r="AN14" s="283"/>
+      <c r="AO14" s="283"/>
+      <c r="AP14" s="283"/>
+      <c r="AQ14" s="283"/>
+      <c r="AR14" s="283"/>
+      <c r="AS14" s="302"/>
+      <c r="AT14" s="303"/>
+      <c r="AU14" s="303"/>
+      <c r="AV14" s="303"/>
+      <c r="AW14" s="304"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
-      <c r="B15" s="291"/>
-      <c r="C15" s="292"/>
-      <c r="D15" s="293"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="283"/>
-      <c r="H15" s="283"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="285"/>
-      <c r="L15" s="286"/>
-      <c r="M15" s="294"/>
-      <c r="N15" s="295"/>
-      <c r="O15" s="295"/>
-      <c r="P15" s="295"/>
-      <c r="Q15" s="295"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="281"/>
-      <c r="T15" s="281"/>
-      <c r="U15" s="281"/>
-      <c r="V15" s="297"/>
-      <c r="W15" s="298"/>
-      <c r="X15" s="298"/>
-      <c r="Y15" s="298"/>
-      <c r="Z15" s="298"/>
-      <c r="AA15" s="298"/>
-      <c r="AB15" s="298"/>
-      <c r="AC15" s="298"/>
-      <c r="AD15" s="298"/>
-      <c r="AE15" s="298"/>
-      <c r="AF15" s="298"/>
-      <c r="AG15" s="298"/>
-      <c r="AH15" s="298"/>
-      <c r="AI15" s="298"/>
-      <c r="AJ15" s="298"/>
-      <c r="AK15" s="298"/>
-      <c r="AL15" s="298"/>
-      <c r="AM15" s="299"/>
-      <c r="AN15" s="300"/>
-      <c r="AO15" s="301"/>
-      <c r="AP15" s="301"/>
-      <c r="AQ15" s="301"/>
-      <c r="AR15" s="302"/>
-      <c r="AS15" s="300"/>
-      <c r="AT15" s="301"/>
-      <c r="AU15" s="301"/>
-      <c r="AV15" s="301"/>
-      <c r="AW15" s="302"/>
+      <c r="B15" s="293"/>
+      <c r="C15" s="294"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="285"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="286"/>
+      <c r="K15" s="287"/>
+      <c r="L15" s="288"/>
+      <c r="M15" s="296"/>
+      <c r="N15" s="297"/>
+      <c r="O15" s="297"/>
+      <c r="P15" s="297"/>
+      <c r="Q15" s="297"/>
+      <c r="R15" s="298"/>
+      <c r="S15" s="283"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="283"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="300"/>
+      <c r="X15" s="300"/>
+      <c r="Y15" s="300"/>
+      <c r="Z15" s="300"/>
+      <c r="AA15" s="300"/>
+      <c r="AB15" s="300"/>
+      <c r="AC15" s="300"/>
+      <c r="AD15" s="300"/>
+      <c r="AE15" s="300"/>
+      <c r="AF15" s="300"/>
+      <c r="AG15" s="300"/>
+      <c r="AH15" s="300"/>
+      <c r="AI15" s="300"/>
+      <c r="AJ15" s="300"/>
+      <c r="AK15" s="300"/>
+      <c r="AL15" s="300"/>
+      <c r="AM15" s="301"/>
+      <c r="AN15" s="302"/>
+      <c r="AO15" s="303"/>
+      <c r="AP15" s="303"/>
+      <c r="AQ15" s="303"/>
+      <c r="AR15" s="304"/>
+      <c r="AS15" s="302"/>
+      <c r="AT15" s="303"/>
+      <c r="AU15" s="303"/>
+      <c r="AV15" s="303"/>
+      <c r="AW15" s="304"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
-      <c r="B16" s="291"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="283"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="285"/>
-      <c r="L16" s="286"/>
-      <c r="M16" s="294"/>
-      <c r="N16" s="295"/>
-      <c r="O16" s="295"/>
-      <c r="P16" s="295"/>
-      <c r="Q16" s="295"/>
-      <c r="R16" s="296"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="281"/>
-      <c r="U16" s="281"/>
-      <c r="V16" s="297"/>
-      <c r="W16" s="298"/>
-      <c r="X16" s="298"/>
-      <c r="Y16" s="298"/>
-      <c r="Z16" s="298"/>
-      <c r="AA16" s="298"/>
-      <c r="AB16" s="298"/>
-      <c r="AC16" s="298"/>
-      <c r="AD16" s="298"/>
-      <c r="AE16" s="298"/>
-      <c r="AF16" s="298"/>
-      <c r="AG16" s="298"/>
-      <c r="AH16" s="298"/>
-      <c r="AI16" s="298"/>
-      <c r="AJ16" s="298"/>
-      <c r="AK16" s="298"/>
-      <c r="AL16" s="298"/>
-      <c r="AM16" s="299"/>
-      <c r="AN16" s="300"/>
-      <c r="AO16" s="301"/>
-      <c r="AP16" s="301"/>
-      <c r="AQ16" s="301"/>
-      <c r="AR16" s="302"/>
-      <c r="AS16" s="300"/>
-      <c r="AT16" s="301"/>
-      <c r="AU16" s="301"/>
-      <c r="AV16" s="301"/>
-      <c r="AW16" s="302"/>
+      <c r="B16" s="293"/>
+      <c r="C16" s="294"/>
+      <c r="D16" s="295"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="285"/>
+      <c r="H16" s="285"/>
+      <c r="I16" s="285"/>
+      <c r="J16" s="286"/>
+      <c r="K16" s="287"/>
+      <c r="L16" s="288"/>
+      <c r="M16" s="296"/>
+      <c r="N16" s="297"/>
+      <c r="O16" s="297"/>
+      <c r="P16" s="297"/>
+      <c r="Q16" s="297"/>
+      <c r="R16" s="298"/>
+      <c r="S16" s="283"/>
+      <c r="T16" s="283"/>
+      <c r="U16" s="283"/>
+      <c r="V16" s="299"/>
+      <c r="W16" s="300"/>
+      <c r="X16" s="300"/>
+      <c r="Y16" s="300"/>
+      <c r="Z16" s="300"/>
+      <c r="AA16" s="300"/>
+      <c r="AB16" s="300"/>
+      <c r="AC16" s="300"/>
+      <c r="AD16" s="300"/>
+      <c r="AE16" s="300"/>
+      <c r="AF16" s="300"/>
+      <c r="AG16" s="300"/>
+      <c r="AH16" s="300"/>
+      <c r="AI16" s="300"/>
+      <c r="AJ16" s="300"/>
+      <c r="AK16" s="300"/>
+      <c r="AL16" s="300"/>
+      <c r="AM16" s="301"/>
+      <c r="AN16" s="302"/>
+      <c r="AO16" s="303"/>
+      <c r="AP16" s="303"/>
+      <c r="AQ16" s="303"/>
+      <c r="AR16" s="304"/>
+      <c r="AS16" s="302"/>
+      <c r="AT16" s="303"/>
+      <c r="AU16" s="303"/>
+      <c r="AV16" s="303"/>
+      <c r="AW16" s="304"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
-      <c r="B17" s="291"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="283"/>
-      <c r="H17" s="283"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="286"/>
-      <c r="M17" s="294"/>
-      <c r="N17" s="295"/>
-      <c r="O17" s="295"/>
-      <c r="P17" s="295"/>
-      <c r="Q17" s="295"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="308"/>
-      <c r="U17" s="308"/>
-      <c r="V17" s="297"/>
-      <c r="W17" s="298"/>
-      <c r="X17" s="298"/>
-      <c r="Y17" s="298"/>
-      <c r="Z17" s="298"/>
-      <c r="AA17" s="298"/>
-      <c r="AB17" s="298"/>
-      <c r="AC17" s="298"/>
-      <c r="AD17" s="298"/>
-      <c r="AE17" s="298"/>
-      <c r="AF17" s="298"/>
-      <c r="AG17" s="298"/>
-      <c r="AH17" s="298"/>
-      <c r="AI17" s="298"/>
-      <c r="AJ17" s="298"/>
-      <c r="AK17" s="298"/>
-      <c r="AL17" s="298"/>
-      <c r="AM17" s="299"/>
-      <c r="AN17" s="300"/>
-      <c r="AO17" s="301"/>
-      <c r="AP17" s="301"/>
-      <c r="AQ17" s="301"/>
-      <c r="AR17" s="302"/>
-      <c r="AS17" s="300"/>
-      <c r="AT17" s="301"/>
-      <c r="AU17" s="301"/>
-      <c r="AV17" s="301"/>
-      <c r="AW17" s="302"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="294"/>
+      <c r="D17" s="295"/>
+      <c r="E17" s="285"/>
+      <c r="F17" s="285"/>
+      <c r="G17" s="285"/>
+      <c r="H17" s="285"/>
+      <c r="I17" s="285"/>
+      <c r="J17" s="286"/>
+      <c r="K17" s="287"/>
+      <c r="L17" s="288"/>
+      <c r="M17" s="296"/>
+      <c r="N17" s="297"/>
+      <c r="O17" s="297"/>
+      <c r="P17" s="297"/>
+      <c r="Q17" s="297"/>
+      <c r="R17" s="309"/>
+      <c r="S17" s="310"/>
+      <c r="T17" s="310"/>
+      <c r="U17" s="310"/>
+      <c r="V17" s="299"/>
+      <c r="W17" s="300"/>
+      <c r="X17" s="300"/>
+      <c r="Y17" s="300"/>
+      <c r="Z17" s="300"/>
+      <c r="AA17" s="300"/>
+      <c r="AB17" s="300"/>
+      <c r="AC17" s="300"/>
+      <c r="AD17" s="300"/>
+      <c r="AE17" s="300"/>
+      <c r="AF17" s="300"/>
+      <c r="AG17" s="300"/>
+      <c r="AH17" s="300"/>
+      <c r="AI17" s="300"/>
+      <c r="AJ17" s="300"/>
+      <c r="AK17" s="300"/>
+      <c r="AL17" s="300"/>
+      <c r="AM17" s="301"/>
+      <c r="AN17" s="302"/>
+      <c r="AO17" s="303"/>
+      <c r="AP17" s="303"/>
+      <c r="AQ17" s="303"/>
+      <c r="AR17" s="304"/>
+      <c r="AS17" s="302"/>
+      <c r="AT17" s="303"/>
+      <c r="AU17" s="303"/>
+      <c r="AV17" s="303"/>
+      <c r="AW17" s="304"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="291"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="283"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="283"/>
-      <c r="H18" s="283"/>
-      <c r="I18" s="283"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="286"/>
-      <c r="M18" s="305"/>
-      <c r="N18" s="295"/>
-      <c r="O18" s="295"/>
-      <c r="P18" s="295"/>
-      <c r="Q18" s="295"/>
-      <c r="R18" s="296"/>
-      <c r="S18" s="281"/>
-      <c r="T18" s="281"/>
-      <c r="U18" s="281"/>
-      <c r="V18" s="297"/>
-      <c r="W18" s="298"/>
-      <c r="X18" s="298"/>
-      <c r="Y18" s="298"/>
-      <c r="Z18" s="298"/>
-      <c r="AA18" s="298"/>
-      <c r="AB18" s="298"/>
-      <c r="AC18" s="298"/>
-      <c r="AD18" s="298"/>
-      <c r="AE18" s="298"/>
-      <c r="AF18" s="298"/>
-      <c r="AG18" s="298"/>
-      <c r="AH18" s="298"/>
-      <c r="AI18" s="298"/>
-      <c r="AJ18" s="298"/>
-      <c r="AK18" s="298"/>
-      <c r="AL18" s="298"/>
-      <c r="AM18" s="299"/>
-      <c r="AN18" s="300"/>
-      <c r="AO18" s="301"/>
-      <c r="AP18" s="301"/>
-      <c r="AQ18" s="301"/>
-      <c r="AR18" s="302"/>
-      <c r="AS18" s="300"/>
-      <c r="AT18" s="301"/>
-      <c r="AU18" s="301"/>
-      <c r="AV18" s="301"/>
-      <c r="AW18" s="302"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="294"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="285"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="286"/>
+      <c r="K18" s="287"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="307"/>
+      <c r="N18" s="297"/>
+      <c r="O18" s="297"/>
+      <c r="P18" s="297"/>
+      <c r="Q18" s="297"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="283"/>
+      <c r="T18" s="283"/>
+      <c r="U18" s="283"/>
+      <c r="V18" s="299"/>
+      <c r="W18" s="300"/>
+      <c r="X18" s="300"/>
+      <c r="Y18" s="300"/>
+      <c r="Z18" s="300"/>
+      <c r="AA18" s="300"/>
+      <c r="AB18" s="300"/>
+      <c r="AC18" s="300"/>
+      <c r="AD18" s="300"/>
+      <c r="AE18" s="300"/>
+      <c r="AF18" s="300"/>
+      <c r="AG18" s="300"/>
+      <c r="AH18" s="300"/>
+      <c r="AI18" s="300"/>
+      <c r="AJ18" s="300"/>
+      <c r="AK18" s="300"/>
+      <c r="AL18" s="300"/>
+      <c r="AM18" s="301"/>
+      <c r="AN18" s="302"/>
+      <c r="AO18" s="303"/>
+      <c r="AP18" s="303"/>
+      <c r="AQ18" s="303"/>
+      <c r="AR18" s="304"/>
+      <c r="AS18" s="302"/>
+      <c r="AT18" s="303"/>
+      <c r="AU18" s="303"/>
+      <c r="AV18" s="303"/>
+      <c r="AW18" s="304"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
-      <c r="B19" s="291"/>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="283"/>
-      <c r="H19" s="283"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="285"/>
-      <c r="L19" s="286"/>
-      <c r="M19" s="294"/>
-      <c r="N19" s="295"/>
-      <c r="O19" s="295"/>
-      <c r="P19" s="295"/>
-      <c r="Q19" s="295"/>
-      <c r="R19" s="296"/>
-      <c r="S19" s="281"/>
-      <c r="T19" s="281"/>
-      <c r="U19" s="281"/>
-      <c r="V19" s="297"/>
-      <c r="W19" s="298"/>
-      <c r="X19" s="298"/>
-      <c r="Y19" s="298"/>
-      <c r="Z19" s="298"/>
-      <c r="AA19" s="298"/>
-      <c r="AB19" s="298"/>
-      <c r="AC19" s="298"/>
-      <c r="AD19" s="298"/>
-      <c r="AE19" s="298"/>
-      <c r="AF19" s="298"/>
-      <c r="AG19" s="298"/>
-      <c r="AH19" s="298"/>
-      <c r="AI19" s="298"/>
-      <c r="AJ19" s="298"/>
-      <c r="AK19" s="298"/>
-      <c r="AL19" s="298"/>
-      <c r="AM19" s="299"/>
-      <c r="AN19" s="281"/>
-      <c r="AO19" s="281"/>
-      <c r="AP19" s="281"/>
-      <c r="AQ19" s="281"/>
-      <c r="AR19" s="281"/>
-      <c r="AS19" s="300"/>
-      <c r="AT19" s="301"/>
-      <c r="AU19" s="301"/>
-      <c r="AV19" s="301"/>
-      <c r="AW19" s="302"/>
+      <c r="B19" s="293"/>
+      <c r="C19" s="294"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="286"/>
+      <c r="K19" s="287"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="296"/>
+      <c r="N19" s="297"/>
+      <c r="O19" s="297"/>
+      <c r="P19" s="297"/>
+      <c r="Q19" s="297"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="283"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="283"/>
+      <c r="V19" s="299"/>
+      <c r="W19" s="300"/>
+      <c r="X19" s="300"/>
+      <c r="Y19" s="300"/>
+      <c r="Z19" s="300"/>
+      <c r="AA19" s="300"/>
+      <c r="AB19" s="300"/>
+      <c r="AC19" s="300"/>
+      <c r="AD19" s="300"/>
+      <c r="AE19" s="300"/>
+      <c r="AF19" s="300"/>
+      <c r="AG19" s="300"/>
+      <c r="AH19" s="300"/>
+      <c r="AI19" s="300"/>
+      <c r="AJ19" s="300"/>
+      <c r="AK19" s="300"/>
+      <c r="AL19" s="300"/>
+      <c r="AM19" s="301"/>
+      <c r="AN19" s="283"/>
+      <c r="AO19" s="283"/>
+      <c r="AP19" s="283"/>
+      <c r="AQ19" s="283"/>
+      <c r="AR19" s="283"/>
+      <c r="AS19" s="302"/>
+      <c r="AT19" s="303"/>
+      <c r="AU19" s="303"/>
+      <c r="AV19" s="303"/>
+      <c r="AW19" s="304"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="291"/>
-      <c r="C20" s="292"/>
-      <c r="D20" s="293"/>
-      <c r="E20" s="283"/>
-      <c r="F20" s="283"/>
-      <c r="G20" s="283"/>
-      <c r="H20" s="283"/>
-      <c r="I20" s="283"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="285"/>
-      <c r="L20" s="286"/>
-      <c r="M20" s="294"/>
-      <c r="N20" s="295"/>
-      <c r="O20" s="295"/>
-      <c r="P20" s="295"/>
-      <c r="Q20" s="295"/>
-      <c r="R20" s="296"/>
-      <c r="S20" s="300"/>
-      <c r="T20" s="301"/>
-      <c r="U20" s="302"/>
-      <c r="V20" s="297"/>
-      <c r="W20" s="298"/>
-      <c r="X20" s="298"/>
-      <c r="Y20" s="298"/>
-      <c r="Z20" s="298"/>
-      <c r="AA20" s="298"/>
-      <c r="AB20" s="298"/>
-      <c r="AC20" s="298"/>
-      <c r="AD20" s="298"/>
-      <c r="AE20" s="298"/>
-      <c r="AF20" s="298"/>
-      <c r="AG20" s="298"/>
-      <c r="AH20" s="298"/>
-      <c r="AI20" s="298"/>
-      <c r="AJ20" s="298"/>
-      <c r="AK20" s="298"/>
-      <c r="AL20" s="298"/>
-      <c r="AM20" s="299"/>
-      <c r="AN20" s="300"/>
-      <c r="AO20" s="301"/>
-      <c r="AP20" s="301"/>
-      <c r="AQ20" s="301"/>
-      <c r="AR20" s="302"/>
-      <c r="AS20" s="300"/>
-      <c r="AT20" s="301"/>
-      <c r="AU20" s="301"/>
-      <c r="AV20" s="301"/>
-      <c r="AW20" s="302"/>
+      <c r="B20" s="293"/>
+      <c r="C20" s="294"/>
+      <c r="D20" s="295"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="286"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="296"/>
+      <c r="N20" s="297"/>
+      <c r="O20" s="297"/>
+      <c r="P20" s="297"/>
+      <c r="Q20" s="297"/>
+      <c r="R20" s="298"/>
+      <c r="S20" s="302"/>
+      <c r="T20" s="303"/>
+      <c r="U20" s="304"/>
+      <c r="V20" s="299"/>
+      <c r="W20" s="300"/>
+      <c r="X20" s="300"/>
+      <c r="Y20" s="300"/>
+      <c r="Z20" s="300"/>
+      <c r="AA20" s="300"/>
+      <c r="AB20" s="300"/>
+      <c r="AC20" s="300"/>
+      <c r="AD20" s="300"/>
+      <c r="AE20" s="300"/>
+      <c r="AF20" s="300"/>
+      <c r="AG20" s="300"/>
+      <c r="AH20" s="300"/>
+      <c r="AI20" s="300"/>
+      <c r="AJ20" s="300"/>
+      <c r="AK20" s="300"/>
+      <c r="AL20" s="300"/>
+      <c r="AM20" s="301"/>
+      <c r="AN20" s="302"/>
+      <c r="AO20" s="303"/>
+      <c r="AP20" s="303"/>
+      <c r="AQ20" s="303"/>
+      <c r="AR20" s="304"/>
+      <c r="AS20" s="302"/>
+      <c r="AT20" s="303"/>
+      <c r="AU20" s="303"/>
+      <c r="AV20" s="303"/>
+      <c r="AW20" s="304"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="291"/>
-      <c r="C21" s="292"/>
-      <c r="D21" s="293"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="283"/>
-      <c r="H21" s="283"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="285"/>
-      <c r="L21" s="286"/>
-      <c r="M21" s="294"/>
-      <c r="N21" s="295"/>
-      <c r="O21" s="295"/>
-      <c r="P21" s="295"/>
-      <c r="Q21" s="295"/>
-      <c r="R21" s="296"/>
-      <c r="S21" s="281"/>
-      <c r="T21" s="281"/>
-      <c r="U21" s="281"/>
-      <c r="V21" s="297"/>
-      <c r="W21" s="298"/>
-      <c r="X21" s="298"/>
-      <c r="Y21" s="298"/>
-      <c r="Z21" s="298"/>
-      <c r="AA21" s="298"/>
-      <c r="AB21" s="298"/>
-      <c r="AC21" s="298"/>
-      <c r="AD21" s="298"/>
-      <c r="AE21" s="298"/>
-      <c r="AF21" s="298"/>
-      <c r="AG21" s="298"/>
-      <c r="AH21" s="298"/>
-      <c r="AI21" s="298"/>
-      <c r="AJ21" s="298"/>
-      <c r="AK21" s="298"/>
-      <c r="AL21" s="298"/>
-      <c r="AM21" s="299"/>
-      <c r="AN21" s="300"/>
-      <c r="AO21" s="301"/>
-      <c r="AP21" s="301"/>
-      <c r="AQ21" s="301"/>
-      <c r="AR21" s="302"/>
-      <c r="AS21" s="300"/>
-      <c r="AT21" s="301"/>
-      <c r="AU21" s="301"/>
-      <c r="AV21" s="301"/>
-      <c r="AW21" s="302"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="295"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="285"/>
+      <c r="G21" s="285"/>
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="296"/>
+      <c r="N21" s="297"/>
+      <c r="O21" s="297"/>
+      <c r="P21" s="297"/>
+      <c r="Q21" s="297"/>
+      <c r="R21" s="298"/>
+      <c r="S21" s="283"/>
+      <c r="T21" s="283"/>
+      <c r="U21" s="283"/>
+      <c r="V21" s="299"/>
+      <c r="W21" s="300"/>
+      <c r="X21" s="300"/>
+      <c r="Y21" s="300"/>
+      <c r="Z21" s="300"/>
+      <c r="AA21" s="300"/>
+      <c r="AB21" s="300"/>
+      <c r="AC21" s="300"/>
+      <c r="AD21" s="300"/>
+      <c r="AE21" s="300"/>
+      <c r="AF21" s="300"/>
+      <c r="AG21" s="300"/>
+      <c r="AH21" s="300"/>
+      <c r="AI21" s="300"/>
+      <c r="AJ21" s="300"/>
+      <c r="AK21" s="300"/>
+      <c r="AL21" s="300"/>
+      <c r="AM21" s="301"/>
+      <c r="AN21" s="302"/>
+      <c r="AO21" s="303"/>
+      <c r="AP21" s="303"/>
+      <c r="AQ21" s="303"/>
+      <c r="AR21" s="304"/>
+      <c r="AS21" s="302"/>
+      <c r="AT21" s="303"/>
+      <c r="AU21" s="303"/>
+      <c r="AV21" s="303"/>
+      <c r="AW21" s="304"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="291"/>
-      <c r="C22" s="292"/>
-      <c r="D22" s="293"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283"/>
-      <c r="H22" s="283"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="284"/>
-      <c r="K22" s="285"/>
-      <c r="L22" s="286"/>
-      <c r="M22" s="294"/>
-      <c r="N22" s="295"/>
-      <c r="O22" s="295"/>
-      <c r="P22" s="295"/>
-      <c r="Q22" s="295"/>
-      <c r="R22" s="296"/>
-      <c r="S22" s="281"/>
-      <c r="T22" s="281"/>
-      <c r="U22" s="281"/>
-      <c r="V22" s="297"/>
-      <c r="W22" s="298"/>
-      <c r="X22" s="298"/>
-      <c r="Y22" s="298"/>
-      <c r="Z22" s="298"/>
-      <c r="AA22" s="298"/>
-      <c r="AB22" s="298"/>
-      <c r="AC22" s="298"/>
-      <c r="AD22" s="298"/>
-      <c r="AE22" s="298"/>
-      <c r="AF22" s="298"/>
-      <c r="AG22" s="298"/>
-      <c r="AH22" s="298"/>
-      <c r="AI22" s="298"/>
-      <c r="AJ22" s="298"/>
-      <c r="AK22" s="298"/>
-      <c r="AL22" s="298"/>
-      <c r="AM22" s="299"/>
-      <c r="AN22" s="300"/>
-      <c r="AO22" s="301"/>
-      <c r="AP22" s="301"/>
-      <c r="AQ22" s="301"/>
-      <c r="AR22" s="302"/>
-      <c r="AS22" s="300"/>
-      <c r="AT22" s="301"/>
-      <c r="AU22" s="301"/>
-      <c r="AV22" s="301"/>
-      <c r="AW22" s="302"/>
+      <c r="B22" s="293"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="295"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="286"/>
+      <c r="K22" s="287"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="296"/>
+      <c r="N22" s="297"/>
+      <c r="O22" s="297"/>
+      <c r="P22" s="297"/>
+      <c r="Q22" s="297"/>
+      <c r="R22" s="298"/>
+      <c r="S22" s="283"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="283"/>
+      <c r="V22" s="299"/>
+      <c r="W22" s="300"/>
+      <c r="X22" s="300"/>
+      <c r="Y22" s="300"/>
+      <c r="Z22" s="300"/>
+      <c r="AA22" s="300"/>
+      <c r="AB22" s="300"/>
+      <c r="AC22" s="300"/>
+      <c r="AD22" s="300"/>
+      <c r="AE22" s="300"/>
+      <c r="AF22" s="300"/>
+      <c r="AG22" s="300"/>
+      <c r="AH22" s="300"/>
+      <c r="AI22" s="300"/>
+      <c r="AJ22" s="300"/>
+      <c r="AK22" s="300"/>
+      <c r="AL22" s="300"/>
+      <c r="AM22" s="301"/>
+      <c r="AN22" s="302"/>
+      <c r="AO22" s="303"/>
+      <c r="AP22" s="303"/>
+      <c r="AQ22" s="303"/>
+      <c r="AR22" s="304"/>
+      <c r="AS22" s="302"/>
+      <c r="AT22" s="303"/>
+      <c r="AU22" s="303"/>
+      <c r="AV22" s="303"/>
+      <c r="AW22" s="304"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="291"/>
-      <c r="C23" s="292"/>
-      <c r="D23" s="293"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="283"/>
-      <c r="H23" s="283"/>
-      <c r="I23" s="283"/>
-      <c r="J23" s="284"/>
-      <c r="K23" s="285"/>
-      <c r="L23" s="286"/>
-      <c r="M23" s="294"/>
-      <c r="N23" s="295"/>
-      <c r="O23" s="295"/>
-      <c r="P23" s="295"/>
-      <c r="Q23" s="295"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="281"/>
-      <c r="T23" s="281"/>
-      <c r="U23" s="281"/>
-      <c r="V23" s="297"/>
-      <c r="W23" s="298"/>
-      <c r="X23" s="298"/>
-      <c r="Y23" s="298"/>
-      <c r="Z23" s="298"/>
-      <c r="AA23" s="298"/>
-      <c r="AB23" s="298"/>
-      <c r="AC23" s="298"/>
-      <c r="AD23" s="298"/>
-      <c r="AE23" s="298"/>
-      <c r="AF23" s="298"/>
-      <c r="AG23" s="298"/>
-      <c r="AH23" s="298"/>
-      <c r="AI23" s="298"/>
-      <c r="AJ23" s="298"/>
-      <c r="AK23" s="298"/>
-      <c r="AL23" s="298"/>
-      <c r="AM23" s="299"/>
-      <c r="AN23" s="300"/>
-      <c r="AO23" s="301"/>
-      <c r="AP23" s="301"/>
-      <c r="AQ23" s="301"/>
-      <c r="AR23" s="302"/>
-      <c r="AS23" s="300"/>
-      <c r="AT23" s="301"/>
-      <c r="AU23" s="301"/>
-      <c r="AV23" s="301"/>
-      <c r="AW23" s="302"/>
+      <c r="B23" s="293"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="295"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="285"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="285"/>
+      <c r="J23" s="286"/>
+      <c r="K23" s="287"/>
+      <c r="L23" s="288"/>
+      <c r="M23" s="296"/>
+      <c r="N23" s="297"/>
+      <c r="O23" s="297"/>
+      <c r="P23" s="297"/>
+      <c r="Q23" s="297"/>
+      <c r="R23" s="298"/>
+      <c r="S23" s="283"/>
+      <c r="T23" s="283"/>
+      <c r="U23" s="283"/>
+      <c r="V23" s="299"/>
+      <c r="W23" s="300"/>
+      <c r="X23" s="300"/>
+      <c r="Y23" s="300"/>
+      <c r="Z23" s="300"/>
+      <c r="AA23" s="300"/>
+      <c r="AB23" s="300"/>
+      <c r="AC23" s="300"/>
+      <c r="AD23" s="300"/>
+      <c r="AE23" s="300"/>
+      <c r="AF23" s="300"/>
+      <c r="AG23" s="300"/>
+      <c r="AH23" s="300"/>
+      <c r="AI23" s="300"/>
+      <c r="AJ23" s="300"/>
+      <c r="AK23" s="300"/>
+      <c r="AL23" s="300"/>
+      <c r="AM23" s="301"/>
+      <c r="AN23" s="302"/>
+      <c r="AO23" s="303"/>
+      <c r="AP23" s="303"/>
+      <c r="AQ23" s="303"/>
+      <c r="AR23" s="304"/>
+      <c r="AS23" s="302"/>
+      <c r="AT23" s="303"/>
+      <c r="AU23" s="303"/>
+      <c r="AV23" s="303"/>
+      <c r="AW23" s="304"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="291"/>
-      <c r="C24" s="292"/>
-      <c r="D24" s="293"/>
-      <c r="E24" s="283"/>
-      <c r="F24" s="283"/>
-      <c r="G24" s="283"/>
-      <c r="H24" s="283"/>
-      <c r="I24" s="283"/>
-      <c r="J24" s="284"/>
-      <c r="K24" s="285"/>
-      <c r="L24" s="286"/>
-      <c r="M24" s="294"/>
-      <c r="N24" s="295"/>
-      <c r="O24" s="295"/>
-      <c r="P24" s="295"/>
-      <c r="Q24" s="295"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="281"/>
-      <c r="T24" s="281"/>
-      <c r="U24" s="281"/>
-      <c r="V24" s="297"/>
-      <c r="W24" s="298"/>
-      <c r="X24" s="298"/>
-      <c r="Y24" s="298"/>
-      <c r="Z24" s="298"/>
-      <c r="AA24" s="298"/>
-      <c r="AB24" s="298"/>
-      <c r="AC24" s="298"/>
-      <c r="AD24" s="298"/>
-      <c r="AE24" s="298"/>
-      <c r="AF24" s="298"/>
-      <c r="AG24" s="298"/>
-      <c r="AH24" s="298"/>
-      <c r="AI24" s="298"/>
-      <c r="AJ24" s="298"/>
-      <c r="AK24" s="298"/>
-      <c r="AL24" s="298"/>
-      <c r="AM24" s="299"/>
-      <c r="AN24" s="300"/>
-      <c r="AO24" s="301"/>
-      <c r="AP24" s="301"/>
-      <c r="AQ24" s="301"/>
-      <c r="AR24" s="302"/>
-      <c r="AS24" s="300"/>
-      <c r="AT24" s="301"/>
-      <c r="AU24" s="301"/>
-      <c r="AV24" s="301"/>
-      <c r="AW24" s="302"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="295"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="285"/>
+      <c r="H24" s="285"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="286"/>
+      <c r="K24" s="287"/>
+      <c r="L24" s="288"/>
+      <c r="M24" s="296"/>
+      <c r="N24" s="297"/>
+      <c r="O24" s="297"/>
+      <c r="P24" s="297"/>
+      <c r="Q24" s="297"/>
+      <c r="R24" s="298"/>
+      <c r="S24" s="283"/>
+      <c r="T24" s="283"/>
+      <c r="U24" s="283"/>
+      <c r="V24" s="299"/>
+      <c r="W24" s="300"/>
+      <c r="X24" s="300"/>
+      <c r="Y24" s="300"/>
+      <c r="Z24" s="300"/>
+      <c r="AA24" s="300"/>
+      <c r="AB24" s="300"/>
+      <c r="AC24" s="300"/>
+      <c r="AD24" s="300"/>
+      <c r="AE24" s="300"/>
+      <c r="AF24" s="300"/>
+      <c r="AG24" s="300"/>
+      <c r="AH24" s="300"/>
+      <c r="AI24" s="300"/>
+      <c r="AJ24" s="300"/>
+      <c r="AK24" s="300"/>
+      <c r="AL24" s="300"/>
+      <c r="AM24" s="301"/>
+      <c r="AN24" s="302"/>
+      <c r="AO24" s="303"/>
+      <c r="AP24" s="303"/>
+      <c r="AQ24" s="303"/>
+      <c r="AR24" s="304"/>
+      <c r="AS24" s="302"/>
+      <c r="AT24" s="303"/>
+      <c r="AU24" s="303"/>
+      <c r="AV24" s="303"/>
+      <c r="AW24" s="304"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="291"/>
-      <c r="C25" s="292"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="283"/>
-      <c r="F25" s="283"/>
-      <c r="G25" s="283"/>
-      <c r="H25" s="283"/>
-      <c r="I25" s="283"/>
-      <c r="J25" s="284"/>
-      <c r="K25" s="285"/>
-      <c r="L25" s="286"/>
-      <c r="M25" s="305"/>
-      <c r="N25" s="295"/>
-      <c r="O25" s="295"/>
-      <c r="P25" s="295"/>
-      <c r="Q25" s="295"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="281"/>
-      <c r="T25" s="281"/>
-      <c r="U25" s="281"/>
-      <c r="V25" s="297"/>
-      <c r="W25" s="298"/>
-      <c r="X25" s="298"/>
-      <c r="Y25" s="298"/>
-      <c r="Z25" s="298"/>
-      <c r="AA25" s="298"/>
-      <c r="AB25" s="298"/>
-      <c r="AC25" s="298"/>
-      <c r="AD25" s="298"/>
-      <c r="AE25" s="298"/>
-      <c r="AF25" s="298"/>
-      <c r="AG25" s="298"/>
-      <c r="AH25" s="298"/>
-      <c r="AI25" s="298"/>
-      <c r="AJ25" s="298"/>
-      <c r="AK25" s="298"/>
-      <c r="AL25" s="298"/>
-      <c r="AM25" s="299"/>
-      <c r="AN25" s="300"/>
-      <c r="AO25" s="301"/>
-      <c r="AP25" s="301"/>
-      <c r="AQ25" s="301"/>
-      <c r="AR25" s="302"/>
-      <c r="AS25" s="300"/>
-      <c r="AT25" s="301"/>
-      <c r="AU25" s="301"/>
-      <c r="AV25" s="301"/>
-      <c r="AW25" s="302"/>
+      <c r="B25" s="293"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="295"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="285"/>
+      <c r="H25" s="285"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="288"/>
+      <c r="M25" s="307"/>
+      <c r="N25" s="297"/>
+      <c r="O25" s="297"/>
+      <c r="P25" s="297"/>
+      <c r="Q25" s="297"/>
+      <c r="R25" s="298"/>
+      <c r="S25" s="283"/>
+      <c r="T25" s="283"/>
+      <c r="U25" s="283"/>
+      <c r="V25" s="299"/>
+      <c r="W25" s="300"/>
+      <c r="X25" s="300"/>
+      <c r="Y25" s="300"/>
+      <c r="Z25" s="300"/>
+      <c r="AA25" s="300"/>
+      <c r="AB25" s="300"/>
+      <c r="AC25" s="300"/>
+      <c r="AD25" s="300"/>
+      <c r="AE25" s="300"/>
+      <c r="AF25" s="300"/>
+      <c r="AG25" s="300"/>
+      <c r="AH25" s="300"/>
+      <c r="AI25" s="300"/>
+      <c r="AJ25" s="300"/>
+      <c r="AK25" s="300"/>
+      <c r="AL25" s="300"/>
+      <c r="AM25" s="301"/>
+      <c r="AN25" s="302"/>
+      <c r="AO25" s="303"/>
+      <c r="AP25" s="303"/>
+      <c r="AQ25" s="303"/>
+      <c r="AR25" s="304"/>
+      <c r="AS25" s="302"/>
+      <c r="AT25" s="303"/>
+      <c r="AU25" s="303"/>
+      <c r="AV25" s="303"/>
+      <c r="AW25" s="304"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="291"/>
-      <c r="C26" s="292"/>
-      <c r="D26" s="293"/>
-      <c r="E26" s="283"/>
-      <c r="F26" s="283"/>
-      <c r="G26" s="283"/>
-      <c r="H26" s="283"/>
-      <c r="I26" s="283"/>
-      <c r="J26" s="284"/>
-      <c r="K26" s="285"/>
-      <c r="L26" s="286"/>
-      <c r="M26" s="305"/>
-      <c r="N26" s="295"/>
-      <c r="O26" s="295"/>
-      <c r="P26" s="295"/>
-      <c r="Q26" s="295"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="281"/>
-      <c r="T26" s="281"/>
-      <c r="U26" s="281"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="298"/>
-      <c r="X26" s="298"/>
-      <c r="Y26" s="298"/>
-      <c r="Z26" s="298"/>
-      <c r="AA26" s="298"/>
-      <c r="AB26" s="298"/>
-      <c r="AC26" s="298"/>
-      <c r="AD26" s="298"/>
-      <c r="AE26" s="298"/>
-      <c r="AF26" s="298"/>
-      <c r="AG26" s="298"/>
-      <c r="AH26" s="298"/>
-      <c r="AI26" s="298"/>
-      <c r="AJ26" s="298"/>
-      <c r="AK26" s="298"/>
-      <c r="AL26" s="298"/>
-      <c r="AM26" s="299"/>
-      <c r="AN26" s="300"/>
-      <c r="AO26" s="301"/>
-      <c r="AP26" s="301"/>
-      <c r="AQ26" s="301"/>
-      <c r="AR26" s="302"/>
-      <c r="AS26" s="300"/>
-      <c r="AT26" s="301"/>
-      <c r="AU26" s="301"/>
-      <c r="AV26" s="301"/>
-      <c r="AW26" s="302"/>
+      <c r="B26" s="293"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="295"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="285"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="286"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="288"/>
+      <c r="M26" s="307"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="297"/>
+      <c r="P26" s="297"/>
+      <c r="Q26" s="297"/>
+      <c r="R26" s="298"/>
+      <c r="S26" s="283"/>
+      <c r="T26" s="283"/>
+      <c r="U26" s="283"/>
+      <c r="V26" s="299"/>
+      <c r="W26" s="300"/>
+      <c r="X26" s="300"/>
+      <c r="Y26" s="300"/>
+      <c r="Z26" s="300"/>
+      <c r="AA26" s="300"/>
+      <c r="AB26" s="300"/>
+      <c r="AC26" s="300"/>
+      <c r="AD26" s="300"/>
+      <c r="AE26" s="300"/>
+      <c r="AF26" s="300"/>
+      <c r="AG26" s="300"/>
+      <c r="AH26" s="300"/>
+      <c r="AI26" s="300"/>
+      <c r="AJ26" s="300"/>
+      <c r="AK26" s="300"/>
+      <c r="AL26" s="300"/>
+      <c r="AM26" s="301"/>
+      <c r="AN26" s="302"/>
+      <c r="AO26" s="303"/>
+      <c r="AP26" s="303"/>
+      <c r="AQ26" s="303"/>
+      <c r="AR26" s="304"/>
+      <c r="AS26" s="302"/>
+      <c r="AT26" s="303"/>
+      <c r="AU26" s="303"/>
+      <c r="AV26" s="303"/>
+      <c r="AW26" s="304"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="291"/>
-      <c r="C27" s="292"/>
-      <c r="D27" s="293"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="283"/>
-      <c r="G27" s="283"/>
-      <c r="H27" s="283"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="284"/>
-      <c r="K27" s="285"/>
-      <c r="L27" s="286"/>
-      <c r="M27" s="305"/>
-      <c r="N27" s="295"/>
-      <c r="O27" s="295"/>
-      <c r="P27" s="295"/>
-      <c r="Q27" s="295"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="281"/>
-      <c r="T27" s="281"/>
-      <c r="U27" s="281"/>
-      <c r="V27" s="297"/>
-      <c r="W27" s="298"/>
-      <c r="X27" s="298"/>
-      <c r="Y27" s="298"/>
-      <c r="Z27" s="298"/>
-      <c r="AA27" s="298"/>
-      <c r="AB27" s="298"/>
-      <c r="AC27" s="298"/>
-      <c r="AD27" s="298"/>
-      <c r="AE27" s="298"/>
-      <c r="AF27" s="298"/>
-      <c r="AG27" s="298"/>
-      <c r="AH27" s="298"/>
-      <c r="AI27" s="298"/>
-      <c r="AJ27" s="298"/>
-      <c r="AK27" s="298"/>
-      <c r="AL27" s="298"/>
-      <c r="AM27" s="299"/>
-      <c r="AN27" s="300"/>
-      <c r="AO27" s="301"/>
-      <c r="AP27" s="301"/>
-      <c r="AQ27" s="301"/>
-      <c r="AR27" s="302"/>
-      <c r="AS27" s="300"/>
-      <c r="AT27" s="301"/>
-      <c r="AU27" s="301"/>
-      <c r="AV27" s="301"/>
-      <c r="AW27" s="302"/>
+      <c r="B27" s="293"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="286"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="288"/>
+      <c r="M27" s="307"/>
+      <c r="N27" s="297"/>
+      <c r="O27" s="297"/>
+      <c r="P27" s="297"/>
+      <c r="Q27" s="297"/>
+      <c r="R27" s="298"/>
+      <c r="S27" s="283"/>
+      <c r="T27" s="283"/>
+      <c r="U27" s="283"/>
+      <c r="V27" s="299"/>
+      <c r="W27" s="300"/>
+      <c r="X27" s="300"/>
+      <c r="Y27" s="300"/>
+      <c r="Z27" s="300"/>
+      <c r="AA27" s="300"/>
+      <c r="AB27" s="300"/>
+      <c r="AC27" s="300"/>
+      <c r="AD27" s="300"/>
+      <c r="AE27" s="300"/>
+      <c r="AF27" s="300"/>
+      <c r="AG27" s="300"/>
+      <c r="AH27" s="300"/>
+      <c r="AI27" s="300"/>
+      <c r="AJ27" s="300"/>
+      <c r="AK27" s="300"/>
+      <c r="AL27" s="300"/>
+      <c r="AM27" s="301"/>
+      <c r="AN27" s="302"/>
+      <c r="AO27" s="303"/>
+      <c r="AP27" s="303"/>
+      <c r="AQ27" s="303"/>
+      <c r="AR27" s="304"/>
+      <c r="AS27" s="302"/>
+      <c r="AT27" s="303"/>
+      <c r="AU27" s="303"/>
+      <c r="AV27" s="303"/>
+      <c r="AW27" s="304"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="291"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="293"/>
-      <c r="E28" s="283"/>
-      <c r="F28" s="283"/>
-      <c r="G28" s="283"/>
-      <c r="H28" s="283"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="285"/>
-      <c r="L28" s="286"/>
-      <c r="M28" s="294"/>
-      <c r="N28" s="295"/>
-      <c r="O28" s="295"/>
-      <c r="P28" s="295"/>
-      <c r="Q28" s="295"/>
-      <c r="R28" s="296"/>
-      <c r="S28" s="281"/>
-      <c r="T28" s="281"/>
-      <c r="U28" s="281"/>
-      <c r="V28" s="297"/>
-      <c r="W28" s="298"/>
-      <c r="X28" s="298"/>
-      <c r="Y28" s="298"/>
-      <c r="Z28" s="298"/>
-      <c r="AA28" s="298"/>
-      <c r="AB28" s="298"/>
-      <c r="AC28" s="298"/>
-      <c r="AD28" s="298"/>
-      <c r="AE28" s="298"/>
-      <c r="AF28" s="298"/>
-      <c r="AG28" s="298"/>
-      <c r="AH28" s="298"/>
-      <c r="AI28" s="298"/>
-      <c r="AJ28" s="298"/>
-      <c r="AK28" s="298"/>
-      <c r="AL28" s="298"/>
-      <c r="AM28" s="299"/>
-      <c r="AN28" s="300"/>
-      <c r="AO28" s="301"/>
-      <c r="AP28" s="301"/>
-      <c r="AQ28" s="301"/>
-      <c r="AR28" s="302"/>
-      <c r="AS28" s="300"/>
-      <c r="AT28" s="301"/>
-      <c r="AU28" s="301"/>
-      <c r="AV28" s="301"/>
-      <c r="AW28" s="302"/>
+      <c r="B28" s="293"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="295"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="285"/>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="286"/>
+      <c r="K28" s="287"/>
+      <c r="L28" s="288"/>
+      <c r="M28" s="296"/>
+      <c r="N28" s="297"/>
+      <c r="O28" s="297"/>
+      <c r="P28" s="297"/>
+      <c r="Q28" s="297"/>
+      <c r="R28" s="298"/>
+      <c r="S28" s="283"/>
+      <c r="T28" s="283"/>
+      <c r="U28" s="283"/>
+      <c r="V28" s="299"/>
+      <c r="W28" s="300"/>
+      <c r="X28" s="300"/>
+      <c r="Y28" s="300"/>
+      <c r="Z28" s="300"/>
+      <c r="AA28" s="300"/>
+      <c r="AB28" s="300"/>
+      <c r="AC28" s="300"/>
+      <c r="AD28" s="300"/>
+      <c r="AE28" s="300"/>
+      <c r="AF28" s="300"/>
+      <c r="AG28" s="300"/>
+      <c r="AH28" s="300"/>
+      <c r="AI28" s="300"/>
+      <c r="AJ28" s="300"/>
+      <c r="AK28" s="300"/>
+      <c r="AL28" s="300"/>
+      <c r="AM28" s="301"/>
+      <c r="AN28" s="302"/>
+      <c r="AO28" s="303"/>
+      <c r="AP28" s="303"/>
+      <c r="AQ28" s="303"/>
+      <c r="AR28" s="304"/>
+      <c r="AS28" s="302"/>
+      <c r="AT28" s="303"/>
+      <c r="AU28" s="303"/>
+      <c r="AV28" s="303"/>
+      <c r="AW28" s="304"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="291"/>
-      <c r="C29" s="292"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="283"/>
-      <c r="H29" s="283"/>
-      <c r="I29" s="283"/>
-      <c r="J29" s="284"/>
-      <c r="K29" s="285"/>
-      <c r="L29" s="286"/>
-      <c r="M29" s="294"/>
-      <c r="N29" s="295"/>
-      <c r="O29" s="295"/>
-      <c r="P29" s="295"/>
-      <c r="Q29" s="295"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="281"/>
-      <c r="T29" s="281"/>
-      <c r="U29" s="281"/>
-      <c r="V29" s="297"/>
-      <c r="W29" s="298"/>
-      <c r="X29" s="298"/>
-      <c r="Y29" s="298"/>
-      <c r="Z29" s="298"/>
-      <c r="AA29" s="298"/>
-      <c r="AB29" s="298"/>
-      <c r="AC29" s="298"/>
-      <c r="AD29" s="298"/>
-      <c r="AE29" s="298"/>
-      <c r="AF29" s="298"/>
-      <c r="AG29" s="298"/>
-      <c r="AH29" s="298"/>
-      <c r="AI29" s="298"/>
-      <c r="AJ29" s="298"/>
-      <c r="AK29" s="298"/>
-      <c r="AL29" s="298"/>
-      <c r="AM29" s="299"/>
-      <c r="AN29" s="300"/>
-      <c r="AO29" s="301"/>
-      <c r="AP29" s="301"/>
-      <c r="AQ29" s="301"/>
-      <c r="AR29" s="302"/>
-      <c r="AS29" s="300"/>
-      <c r="AT29" s="301"/>
-      <c r="AU29" s="301"/>
-      <c r="AV29" s="301"/>
-      <c r="AW29" s="302"/>
+      <c r="B29" s="293"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="295"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="285"/>
+      <c r="I29" s="285"/>
+      <c r="J29" s="286"/>
+      <c r="K29" s="287"/>
+      <c r="L29" s="288"/>
+      <c r="M29" s="296"/>
+      <c r="N29" s="297"/>
+      <c r="O29" s="297"/>
+      <c r="P29" s="297"/>
+      <c r="Q29" s="297"/>
+      <c r="R29" s="298"/>
+      <c r="S29" s="283"/>
+      <c r="T29" s="283"/>
+      <c r="U29" s="283"/>
+      <c r="V29" s="299"/>
+      <c r="W29" s="300"/>
+      <c r="X29" s="300"/>
+      <c r="Y29" s="300"/>
+      <c r="Z29" s="300"/>
+      <c r="AA29" s="300"/>
+      <c r="AB29" s="300"/>
+      <c r="AC29" s="300"/>
+      <c r="AD29" s="300"/>
+      <c r="AE29" s="300"/>
+      <c r="AF29" s="300"/>
+      <c r="AG29" s="300"/>
+      <c r="AH29" s="300"/>
+      <c r="AI29" s="300"/>
+      <c r="AJ29" s="300"/>
+      <c r="AK29" s="300"/>
+      <c r="AL29" s="300"/>
+      <c r="AM29" s="301"/>
+      <c r="AN29" s="302"/>
+      <c r="AO29" s="303"/>
+      <c r="AP29" s="303"/>
+      <c r="AQ29" s="303"/>
+      <c r="AR29" s="304"/>
+      <c r="AS29" s="302"/>
+      <c r="AT29" s="303"/>
+      <c r="AU29" s="303"/>
+      <c r="AV29" s="303"/>
+      <c r="AW29" s="304"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="291"/>
-      <c r="C30" s="292"/>
-      <c r="D30" s="293"/>
-      <c r="E30" s="283"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="283"/>
-      <c r="H30" s="283"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="284"/>
-      <c r="K30" s="285"/>
-      <c r="L30" s="286"/>
-      <c r="M30" s="305"/>
-      <c r="N30" s="295"/>
-      <c r="O30" s="295"/>
-      <c r="P30" s="295"/>
-      <c r="Q30" s="295"/>
-      <c r="R30" s="296"/>
-      <c r="S30" s="281"/>
-      <c r="T30" s="281"/>
-      <c r="U30" s="281"/>
-      <c r="V30" s="297"/>
-      <c r="W30" s="298"/>
-      <c r="X30" s="298"/>
-      <c r="Y30" s="298"/>
-      <c r="Z30" s="298"/>
-      <c r="AA30" s="298"/>
-      <c r="AB30" s="298"/>
-      <c r="AC30" s="298"/>
-      <c r="AD30" s="298"/>
-      <c r="AE30" s="298"/>
-      <c r="AF30" s="298"/>
-      <c r="AG30" s="298"/>
-      <c r="AH30" s="298"/>
-      <c r="AI30" s="298"/>
-      <c r="AJ30" s="298"/>
-      <c r="AK30" s="298"/>
-      <c r="AL30" s="298"/>
-      <c r="AM30" s="299"/>
-      <c r="AN30" s="300"/>
-      <c r="AO30" s="301"/>
-      <c r="AP30" s="301"/>
-      <c r="AQ30" s="301"/>
-      <c r="AR30" s="302"/>
-      <c r="AS30" s="300"/>
-      <c r="AT30" s="301"/>
-      <c r="AU30" s="301"/>
-      <c r="AV30" s="301"/>
-      <c r="AW30" s="302"/>
+      <c r="B30" s="293"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="295"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="286"/>
+      <c r="K30" s="287"/>
+      <c r="L30" s="288"/>
+      <c r="M30" s="307"/>
+      <c r="N30" s="297"/>
+      <c r="O30" s="297"/>
+      <c r="P30" s="297"/>
+      <c r="Q30" s="297"/>
+      <c r="R30" s="298"/>
+      <c r="S30" s="283"/>
+      <c r="T30" s="283"/>
+      <c r="U30" s="283"/>
+      <c r="V30" s="299"/>
+      <c r="W30" s="300"/>
+      <c r="X30" s="300"/>
+      <c r="Y30" s="300"/>
+      <c r="Z30" s="300"/>
+      <c r="AA30" s="300"/>
+      <c r="AB30" s="300"/>
+      <c r="AC30" s="300"/>
+      <c r="AD30" s="300"/>
+      <c r="AE30" s="300"/>
+      <c r="AF30" s="300"/>
+      <c r="AG30" s="300"/>
+      <c r="AH30" s="300"/>
+      <c r="AI30" s="300"/>
+      <c r="AJ30" s="300"/>
+      <c r="AK30" s="300"/>
+      <c r="AL30" s="300"/>
+      <c r="AM30" s="301"/>
+      <c r="AN30" s="302"/>
+      <c r="AO30" s="303"/>
+      <c r="AP30" s="303"/>
+      <c r="AQ30" s="303"/>
+      <c r="AR30" s="304"/>
+      <c r="AS30" s="302"/>
+      <c r="AT30" s="303"/>
+      <c r="AU30" s="303"/>
+      <c r="AV30" s="303"/>
+      <c r="AW30" s="304"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="291"/>
-      <c r="C31" s="292"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="283"/>
-      <c r="F31" s="283"/>
-      <c r="G31" s="283"/>
-      <c r="H31" s="283"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="284"/>
-      <c r="K31" s="285"/>
-      <c r="L31" s="286"/>
-      <c r="M31" s="305"/>
-      <c r="N31" s="295"/>
-      <c r="O31" s="295"/>
-      <c r="P31" s="295"/>
-      <c r="Q31" s="295"/>
-      <c r="R31" s="296"/>
-      <c r="S31" s="281"/>
-      <c r="T31" s="281"/>
-      <c r="U31" s="281"/>
-      <c r="V31" s="297"/>
-      <c r="W31" s="298"/>
-      <c r="X31" s="298"/>
-      <c r="Y31" s="298"/>
-      <c r="Z31" s="298"/>
-      <c r="AA31" s="298"/>
-      <c r="AB31" s="298"/>
-      <c r="AC31" s="298"/>
-      <c r="AD31" s="298"/>
-      <c r="AE31" s="298"/>
-      <c r="AF31" s="298"/>
-      <c r="AG31" s="298"/>
-      <c r="AH31" s="298"/>
-      <c r="AI31" s="298"/>
-      <c r="AJ31" s="298"/>
-      <c r="AK31" s="298"/>
-      <c r="AL31" s="298"/>
-      <c r="AM31" s="299"/>
-      <c r="AN31" s="300"/>
-      <c r="AO31" s="301"/>
-      <c r="AP31" s="301"/>
-      <c r="AQ31" s="301"/>
-      <c r="AR31" s="302"/>
-      <c r="AS31" s="300"/>
-      <c r="AT31" s="301"/>
-      <c r="AU31" s="301"/>
-      <c r="AV31" s="301"/>
-      <c r="AW31" s="302"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="295"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="285"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="286"/>
+      <c r="K31" s="287"/>
+      <c r="L31" s="288"/>
+      <c r="M31" s="307"/>
+      <c r="N31" s="297"/>
+      <c r="O31" s="297"/>
+      <c r="P31" s="297"/>
+      <c r="Q31" s="297"/>
+      <c r="R31" s="298"/>
+      <c r="S31" s="283"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="283"/>
+      <c r="V31" s="299"/>
+      <c r="W31" s="300"/>
+      <c r="X31" s="300"/>
+      <c r="Y31" s="300"/>
+      <c r="Z31" s="300"/>
+      <c r="AA31" s="300"/>
+      <c r="AB31" s="300"/>
+      <c r="AC31" s="300"/>
+      <c r="AD31" s="300"/>
+      <c r="AE31" s="300"/>
+      <c r="AF31" s="300"/>
+      <c r="AG31" s="300"/>
+      <c r="AH31" s="300"/>
+      <c r="AI31" s="300"/>
+      <c r="AJ31" s="300"/>
+      <c r="AK31" s="300"/>
+      <c r="AL31" s="300"/>
+      <c r="AM31" s="301"/>
+      <c r="AN31" s="302"/>
+      <c r="AO31" s="303"/>
+      <c r="AP31" s="303"/>
+      <c r="AQ31" s="303"/>
+      <c r="AR31" s="304"/>
+      <c r="AS31" s="302"/>
+      <c r="AT31" s="303"/>
+      <c r="AU31" s="303"/>
+      <c r="AV31" s="303"/>
+      <c r="AW31" s="304"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="291"/>
-      <c r="C32" s="292"/>
-      <c r="D32" s="293"/>
-      <c r="E32" s="283"/>
-      <c r="F32" s="283"/>
-      <c r="G32" s="283"/>
-      <c r="H32" s="283"/>
-      <c r="I32" s="283"/>
-      <c r="J32" s="284"/>
-      <c r="K32" s="285"/>
-      <c r="L32" s="286"/>
-      <c r="M32" s="305"/>
-      <c r="N32" s="295"/>
-      <c r="O32" s="295"/>
-      <c r="P32" s="295"/>
-      <c r="Q32" s="295"/>
-      <c r="R32" s="296"/>
-      <c r="S32" s="281"/>
-      <c r="T32" s="281"/>
-      <c r="U32" s="281"/>
-      <c r="V32" s="297"/>
-      <c r="W32" s="298"/>
-      <c r="X32" s="298"/>
-      <c r="Y32" s="298"/>
-      <c r="Z32" s="298"/>
-      <c r="AA32" s="298"/>
-      <c r="AB32" s="298"/>
-      <c r="AC32" s="298"/>
-      <c r="AD32" s="298"/>
-      <c r="AE32" s="298"/>
-      <c r="AF32" s="298"/>
-      <c r="AG32" s="298"/>
-      <c r="AH32" s="298"/>
-      <c r="AI32" s="298"/>
-      <c r="AJ32" s="298"/>
-      <c r="AK32" s="298"/>
-      <c r="AL32" s="298"/>
-      <c r="AM32" s="299"/>
-      <c r="AN32" s="300"/>
-      <c r="AO32" s="301"/>
-      <c r="AP32" s="301"/>
-      <c r="AQ32" s="301"/>
-      <c r="AR32" s="302"/>
-      <c r="AS32" s="300"/>
-      <c r="AT32" s="301"/>
-      <c r="AU32" s="301"/>
-      <c r="AV32" s="301"/>
-      <c r="AW32" s="302"/>
+      <c r="B32" s="293"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="295"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="285"/>
+      <c r="G32" s="285"/>
+      <c r="H32" s="285"/>
+      <c r="I32" s="285"/>
+      <c r="J32" s="286"/>
+      <c r="K32" s="287"/>
+      <c r="L32" s="288"/>
+      <c r="M32" s="307"/>
+      <c r="N32" s="297"/>
+      <c r="O32" s="297"/>
+      <c r="P32" s="297"/>
+      <c r="Q32" s="297"/>
+      <c r="R32" s="298"/>
+      <c r="S32" s="283"/>
+      <c r="T32" s="283"/>
+      <c r="U32" s="283"/>
+      <c r="V32" s="299"/>
+      <c r="W32" s="300"/>
+      <c r="X32" s="300"/>
+      <c r="Y32" s="300"/>
+      <c r="Z32" s="300"/>
+      <c r="AA32" s="300"/>
+      <c r="AB32" s="300"/>
+      <c r="AC32" s="300"/>
+      <c r="AD32" s="300"/>
+      <c r="AE32" s="300"/>
+      <c r="AF32" s="300"/>
+      <c r="AG32" s="300"/>
+      <c r="AH32" s="300"/>
+      <c r="AI32" s="300"/>
+      <c r="AJ32" s="300"/>
+      <c r="AK32" s="300"/>
+      <c r="AL32" s="300"/>
+      <c r="AM32" s="301"/>
+      <c r="AN32" s="302"/>
+      <c r="AO32" s="303"/>
+      <c r="AP32" s="303"/>
+      <c r="AQ32" s="303"/>
+      <c r="AR32" s="304"/>
+      <c r="AS32" s="302"/>
+      <c r="AT32" s="303"/>
+      <c r="AU32" s="303"/>
+      <c r="AV32" s="303"/>
+      <c r="AW32" s="304"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="291"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="283"/>
-      <c r="F33" s="283"/>
-      <c r="G33" s="283"/>
-      <c r="H33" s="283"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="284"/>
-      <c r="K33" s="285"/>
-      <c r="L33" s="286"/>
-      <c r="M33" s="305"/>
-      <c r="N33" s="295"/>
-      <c r="O33" s="295"/>
-      <c r="P33" s="295"/>
-      <c r="Q33" s="295"/>
-      <c r="R33" s="296"/>
-      <c r="S33" s="281"/>
-      <c r="T33" s="281"/>
-      <c r="U33" s="281"/>
-      <c r="V33" s="297"/>
-      <c r="W33" s="298"/>
-      <c r="X33" s="298"/>
-      <c r="Y33" s="298"/>
-      <c r="Z33" s="298"/>
-      <c r="AA33" s="298"/>
-      <c r="AB33" s="298"/>
-      <c r="AC33" s="298"/>
-      <c r="AD33" s="298"/>
-      <c r="AE33" s="298"/>
-      <c r="AF33" s="298"/>
-      <c r="AG33" s="298"/>
-      <c r="AH33" s="298"/>
-      <c r="AI33" s="298"/>
-      <c r="AJ33" s="298"/>
-      <c r="AK33" s="298"/>
-      <c r="AL33" s="298"/>
-      <c r="AM33" s="299"/>
-      <c r="AN33" s="300"/>
-      <c r="AO33" s="301"/>
-      <c r="AP33" s="301"/>
-      <c r="AQ33" s="301"/>
-      <c r="AR33" s="302"/>
-      <c r="AS33" s="300"/>
-      <c r="AT33" s="301"/>
-      <c r="AU33" s="301"/>
-      <c r="AV33" s="301"/>
-      <c r="AW33" s="302"/>
+      <c r="B33" s="293"/>
+      <c r="C33" s="294"/>
+      <c r="D33" s="295"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="285"/>
+      <c r="H33" s="285"/>
+      <c r="I33" s="285"/>
+      <c r="J33" s="286"/>
+      <c r="K33" s="287"/>
+      <c r="L33" s="288"/>
+      <c r="M33" s="307"/>
+      <c r="N33" s="297"/>
+      <c r="O33" s="297"/>
+      <c r="P33" s="297"/>
+      <c r="Q33" s="297"/>
+      <c r="R33" s="298"/>
+      <c r="S33" s="283"/>
+      <c r="T33" s="283"/>
+      <c r="U33" s="283"/>
+      <c r="V33" s="299"/>
+      <c r="W33" s="300"/>
+      <c r="X33" s="300"/>
+      <c r="Y33" s="300"/>
+      <c r="Z33" s="300"/>
+      <c r="AA33" s="300"/>
+      <c r="AB33" s="300"/>
+      <c r="AC33" s="300"/>
+      <c r="AD33" s="300"/>
+      <c r="AE33" s="300"/>
+      <c r="AF33" s="300"/>
+      <c r="AG33" s="300"/>
+      <c r="AH33" s="300"/>
+      <c r="AI33" s="300"/>
+      <c r="AJ33" s="300"/>
+      <c r="AK33" s="300"/>
+      <c r="AL33" s="300"/>
+      <c r="AM33" s="301"/>
+      <c r="AN33" s="302"/>
+      <c r="AO33" s="303"/>
+      <c r="AP33" s="303"/>
+      <c r="AQ33" s="303"/>
+      <c r="AR33" s="304"/>
+      <c r="AS33" s="302"/>
+      <c r="AT33" s="303"/>
+      <c r="AU33" s="303"/>
+      <c r="AV33" s="303"/>
+      <c r="AW33" s="304"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="291"/>
-      <c r="C34" s="292"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="283"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283"/>
-      <c r="H34" s="283"/>
-      <c r="I34" s="283"/>
-      <c r="J34" s="284"/>
-      <c r="K34" s="285"/>
-      <c r="L34" s="286"/>
-      <c r="M34" s="309"/>
-      <c r="N34" s="310"/>
-      <c r="O34" s="310"/>
-      <c r="P34" s="310"/>
-      <c r="Q34" s="310"/>
-      <c r="R34" s="311"/>
-      <c r="S34" s="281"/>
-      <c r="T34" s="281"/>
-      <c r="U34" s="281"/>
-      <c r="V34" s="297"/>
-      <c r="W34" s="298"/>
-      <c r="X34" s="298"/>
-      <c r="Y34" s="298"/>
-      <c r="Z34" s="298"/>
-      <c r="AA34" s="298"/>
-      <c r="AB34" s="298"/>
-      <c r="AC34" s="298"/>
-      <c r="AD34" s="298"/>
-      <c r="AE34" s="298"/>
-      <c r="AF34" s="298"/>
-      <c r="AG34" s="298"/>
-      <c r="AH34" s="298"/>
-      <c r="AI34" s="298"/>
-      <c r="AJ34" s="298"/>
-      <c r="AK34" s="298"/>
-      <c r="AL34" s="298"/>
-      <c r="AM34" s="299"/>
-      <c r="AN34" s="300"/>
-      <c r="AO34" s="301"/>
-      <c r="AP34" s="301"/>
-      <c r="AQ34" s="301"/>
-      <c r="AR34" s="302"/>
-      <c r="AS34" s="300"/>
-      <c r="AT34" s="301"/>
-      <c r="AU34" s="301"/>
-      <c r="AV34" s="301"/>
-      <c r="AW34" s="302"/>
+      <c r="B34" s="293"/>
+      <c r="C34" s="294"/>
+      <c r="D34" s="295"/>
+      <c r="E34" s="285"/>
+      <c r="F34" s="285"/>
+      <c r="G34" s="285"/>
+      <c r="H34" s="285"/>
+      <c r="I34" s="285"/>
+      <c r="J34" s="286"/>
+      <c r="K34" s="287"/>
+      <c r="L34" s="288"/>
+      <c r="M34" s="311"/>
+      <c r="N34" s="312"/>
+      <c r="O34" s="312"/>
+      <c r="P34" s="312"/>
+      <c r="Q34" s="312"/>
+      <c r="R34" s="313"/>
+      <c r="S34" s="283"/>
+      <c r="T34" s="283"/>
+      <c r="U34" s="283"/>
+      <c r="V34" s="299"/>
+      <c r="W34" s="300"/>
+      <c r="X34" s="300"/>
+      <c r="Y34" s="300"/>
+      <c r="Z34" s="300"/>
+      <c r="AA34" s="300"/>
+      <c r="AB34" s="300"/>
+      <c r="AC34" s="300"/>
+      <c r="AD34" s="300"/>
+      <c r="AE34" s="300"/>
+      <c r="AF34" s="300"/>
+      <c r="AG34" s="300"/>
+      <c r="AH34" s="300"/>
+      <c r="AI34" s="300"/>
+      <c r="AJ34" s="300"/>
+      <c r="AK34" s="300"/>
+      <c r="AL34" s="300"/>
+      <c r="AM34" s="301"/>
+      <c r="AN34" s="302"/>
+      <c r="AO34" s="303"/>
+      <c r="AP34" s="303"/>
+      <c r="AQ34" s="303"/>
+      <c r="AR34" s="304"/>
+      <c r="AS34" s="302"/>
+      <c r="AT34" s="303"/>
+      <c r="AU34" s="303"/>
+      <c r="AV34" s="303"/>
+      <c r="AW34" s="304"/>
     </row>
   </sheetData>
   <mergeCells count="249">
@@ -11447,11 +11447,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="316"/>
-      <c r="AP2" s="317"/>
-      <c r="AQ2" s="317"/>
-      <c r="AR2" s="317"/>
-      <c r="AS2" s="318"/>
+      <c r="AO2" s="318"/>
+      <c r="AP2" s="319"/>
+      <c r="AQ2" s="319"/>
+      <c r="AR2" s="319"/>
+      <c r="AS2" s="320"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -11460,14 +11460,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="319"/>
-      <c r="BA2" s="320"/>
-      <c r="BB2" s="320"/>
-      <c r="BC2" s="320"/>
-      <c r="BD2" s="320"/>
-      <c r="BE2" s="320"/>
-      <c r="BF2" s="320"/>
-      <c r="BG2" s="321"/>
+      <c r="AZ2" s="321"/>
+      <c r="BA2" s="322"/>
+      <c r="BB2" s="322"/>
+      <c r="BC2" s="322"/>
+      <c r="BD2" s="322"/>
+      <c r="BE2" s="322"/>
+      <c r="BF2" s="322"/>
+      <c r="BG2" s="323"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -13216,10 +13216,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="322" t="s">
+      <c r="B50" s="324" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="323"/>
+      <c r="C50" s="325"/>
       <c r="D50" s="82" t="s">
         <v>103</v>
       </c>
@@ -13302,10 +13302,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="312">
+      <c r="B51" s="314">
         <v>1</v>
       </c>
-      <c r="C51" s="313"/>
+      <c r="C51" s="315"/>
       <c r="D51" s="238" t="s">
         <v>126</v>
       </c>
@@ -13337,16 +13337,16 @@
       <c r="AB51" s="239"/>
       <c r="AC51" s="239"/>
       <c r="AD51" s="240"/>
-      <c r="AE51" s="314" t="s">
+      <c r="AE51" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF51" s="315"/>
-      <c r="AG51" s="314"/>
-      <c r="AH51" s="315"/>
-      <c r="AI51" s="314"/>
-      <c r="AJ51" s="315"/>
-      <c r="AK51" s="314"/>
-      <c r="AL51" s="315"/>
+      <c r="AF51" s="317"/>
+      <c r="AG51" s="316"/>
+      <c r="AH51" s="317"/>
+      <c r="AI51" s="316"/>
+      <c r="AJ51" s="317"/>
+      <c r="AK51" s="316"/>
+      <c r="AL51" s="317"/>
       <c r="AM51" s="241" t="s">
         <v>135</v>
       </c>
@@ -13380,10 +13380,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="312">
+      <c r="B52" s="314">
         <v>2</v>
       </c>
-      <c r="C52" s="313"/>
+      <c r="C52" s="315"/>
       <c r="D52" s="238" t="s">
         <v>126</v>
       </c>
@@ -13415,16 +13415,16 @@
       <c r="AB52" s="239"/>
       <c r="AC52" s="239"/>
       <c r="AD52" s="240"/>
-      <c r="AE52" s="314" t="s">
+      <c r="AE52" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF52" s="315"/>
-      <c r="AG52" s="314"/>
-      <c r="AH52" s="315"/>
-      <c r="AI52" s="314"/>
-      <c r="AJ52" s="315"/>
-      <c r="AK52" s="314"/>
-      <c r="AL52" s="315"/>
+      <c r="AF52" s="317"/>
+      <c r="AG52" s="316"/>
+      <c r="AH52" s="317"/>
+      <c r="AI52" s="316"/>
+      <c r="AJ52" s="317"/>
+      <c r="AK52" s="316"/>
+      <c r="AL52" s="317"/>
       <c r="AM52" s="241" t="s">
         <v>136</v>
       </c>
@@ -13458,10 +13458,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="312">
+      <c r="B53" s="314">
         <v>3</v>
       </c>
-      <c r="C53" s="313"/>
+      <c r="C53" s="315"/>
       <c r="D53" s="238" t="s">
         <v>126</v>
       </c>
@@ -13493,16 +13493,16 @@
       <c r="AB53" s="239"/>
       <c r="AC53" s="239"/>
       <c r="AD53" s="240"/>
-      <c r="AE53" s="314" t="s">
+      <c r="AE53" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF53" s="315"/>
-      <c r="AG53" s="314"/>
-      <c r="AH53" s="315"/>
-      <c r="AI53" s="314"/>
-      <c r="AJ53" s="315"/>
-      <c r="AK53" s="314"/>
-      <c r="AL53" s="315"/>
+      <c r="AF53" s="317"/>
+      <c r="AG53" s="316"/>
+      <c r="AH53" s="317"/>
+      <c r="AI53" s="316"/>
+      <c r="AJ53" s="317"/>
+      <c r="AK53" s="316"/>
+      <c r="AL53" s="317"/>
       <c r="AM53" s="241" t="s">
         <v>137</v>
       </c>
@@ -13536,10 +13536,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="312">
+      <c r="B54" s="314">
         <v>4</v>
       </c>
-      <c r="C54" s="313"/>
+      <c r="C54" s="315"/>
       <c r="D54" s="238" t="s">
         <v>126</v>
       </c>
@@ -13571,16 +13571,16 @@
       <c r="AB54" s="239"/>
       <c r="AC54" s="239"/>
       <c r="AD54" s="240"/>
-      <c r="AE54" s="314" t="s">
+      <c r="AE54" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF54" s="315"/>
-      <c r="AG54" s="314"/>
-      <c r="AH54" s="315"/>
-      <c r="AI54" s="314"/>
-      <c r="AJ54" s="315"/>
-      <c r="AK54" s="314"/>
-      <c r="AL54" s="315"/>
+      <c r="AF54" s="317"/>
+      <c r="AG54" s="316"/>
+      <c r="AH54" s="317"/>
+      <c r="AI54" s="316"/>
+      <c r="AJ54" s="317"/>
+      <c r="AK54" s="316"/>
+      <c r="AL54" s="317"/>
       <c r="AM54" s="241" t="s">
         <v>138</v>
       </c>
@@ -13614,10 +13614,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="312">
+      <c r="B55" s="314">
         <v>5</v>
       </c>
-      <c r="C55" s="313"/>
+      <c r="C55" s="315"/>
       <c r="D55" s="238" t="s">
         <v>126</v>
       </c>
@@ -13649,16 +13649,16 @@
       <c r="AB55" s="239"/>
       <c r="AC55" s="239"/>
       <c r="AD55" s="240"/>
-      <c r="AE55" s="314" t="s">
+      <c r="AE55" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF55" s="315"/>
-      <c r="AG55" s="314"/>
-      <c r="AH55" s="315"/>
-      <c r="AI55" s="314"/>
-      <c r="AJ55" s="315"/>
-      <c r="AK55" s="314"/>
-      <c r="AL55" s="315"/>
+      <c r="AF55" s="317"/>
+      <c r="AG55" s="316"/>
+      <c r="AH55" s="317"/>
+      <c r="AI55" s="316"/>
+      <c r="AJ55" s="317"/>
+      <c r="AK55" s="316"/>
+      <c r="AL55" s="317"/>
       <c r="AM55" s="241" t="s">
         <v>139</v>
       </c>
@@ -13692,10 +13692,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="312">
+      <c r="B56" s="314">
         <v>6</v>
       </c>
-      <c r="C56" s="313"/>
+      <c r="C56" s="315"/>
       <c r="D56" s="238" t="s">
         <v>126</v>
       </c>
@@ -13727,16 +13727,16 @@
       <c r="AB56" s="239"/>
       <c r="AC56" s="239"/>
       <c r="AD56" s="240"/>
-      <c r="AE56" s="314" t="s">
+      <c r="AE56" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF56" s="315"/>
-      <c r="AG56" s="314"/>
-      <c r="AH56" s="315"/>
-      <c r="AI56" s="314"/>
-      <c r="AJ56" s="315"/>
-      <c r="AK56" s="314"/>
-      <c r="AL56" s="315"/>
+      <c r="AF56" s="317"/>
+      <c r="AG56" s="316"/>
+      <c r="AH56" s="317"/>
+      <c r="AI56" s="316"/>
+      <c r="AJ56" s="317"/>
+      <c r="AK56" s="316"/>
+      <c r="AL56" s="317"/>
       <c r="AM56" s="241" t="s">
         <v>140</v>
       </c>
@@ -13770,10 +13770,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="312">
+      <c r="B57" s="314">
         <v>7</v>
       </c>
-      <c r="C57" s="313"/>
+      <c r="C57" s="315"/>
       <c r="D57" s="238" t="s">
         <v>126</v>
       </c>
@@ -13805,16 +13805,16 @@
       <c r="AB57" s="239"/>
       <c r="AC57" s="239"/>
       <c r="AD57" s="240"/>
-      <c r="AE57" s="314" t="s">
+      <c r="AE57" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF57" s="315"/>
-      <c r="AG57" s="314"/>
-      <c r="AH57" s="315"/>
-      <c r="AI57" s="314"/>
-      <c r="AJ57" s="315"/>
-      <c r="AK57" s="314"/>
-      <c r="AL57" s="315"/>
+      <c r="AF57" s="317"/>
+      <c r="AG57" s="316"/>
+      <c r="AH57" s="317"/>
+      <c r="AI57" s="316"/>
+      <c r="AJ57" s="317"/>
+      <c r="AK57" s="316"/>
+      <c r="AL57" s="317"/>
       <c r="AM57" s="241" t="s">
         <v>141</v>
       </c>
@@ -13848,10 +13848,10 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
-      <c r="B58" s="312">
+      <c r="B58" s="314">
         <v>8</v>
       </c>
-      <c r="C58" s="313"/>
+      <c r="C58" s="315"/>
       <c r="D58" s="238" t="s">
         <v>126</v>
       </c>
@@ -13883,10 +13883,10 @@
       <c r="AB58" s="239"/>
       <c r="AC58" s="239"/>
       <c r="AD58" s="240"/>
-      <c r="AE58" s="314" t="s">
+      <c r="AE58" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF58" s="315"/>
+      <c r="AF58" s="317"/>
       <c r="AG58" s="244"/>
       <c r="AH58" s="245"/>
       <c r="AI58" s="244"/>
@@ -13926,10 +13926,10 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
-      <c r="B59" s="312">
+      <c r="B59" s="314">
         <v>9</v>
       </c>
-      <c r="C59" s="313"/>
+      <c r="C59" s="315"/>
       <c r="D59" s="238" t="s">
         <v>127</v>
       </c>
@@ -13961,10 +13961,10 @@
       <c r="AB59" s="239"/>
       <c r="AC59" s="239"/>
       <c r="AD59" s="240"/>
-      <c r="AE59" s="314" t="s">
+      <c r="AE59" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF59" s="315"/>
+      <c r="AF59" s="317"/>
       <c r="AG59" s="244"/>
       <c r="AH59" s="245"/>
       <c r="AI59" s="244"/>
@@ -14004,10 +14004,10 @@
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
-      <c r="B60" s="312">
+      <c r="B60" s="314">
         <v>10</v>
       </c>
-      <c r="C60" s="313"/>
+      <c r="C60" s="315"/>
       <c r="D60" s="238" t="s">
         <v>127</v>
       </c>
@@ -14039,10 +14039,10 @@
       <c r="AB60" s="239"/>
       <c r="AC60" s="239"/>
       <c r="AD60" s="240"/>
-      <c r="AE60" s="314" t="s">
+      <c r="AE60" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF60" s="315"/>
+      <c r="AF60" s="317"/>
       <c r="AG60" s="244"/>
       <c r="AH60" s="245"/>
       <c r="AI60" s="244"/>
@@ -14082,10 +14082,10 @@
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A61" s="29"/>
-      <c r="B61" s="312">
+      <c r="B61" s="314">
         <v>11</v>
       </c>
-      <c r="C61" s="313"/>
+      <c r="C61" s="315"/>
       <c r="D61" s="238" t="s">
         <v>127</v>
       </c>
@@ -14117,10 +14117,10 @@
       <c r="AB61" s="239"/>
       <c r="AC61" s="239"/>
       <c r="AD61" s="240"/>
-      <c r="AE61" s="314" t="s">
+      <c r="AE61" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="AF61" s="315"/>
+      <c r="AF61" s="317"/>
       <c r="AG61" s="244"/>
       <c r="AH61" s="245"/>
       <c r="AI61" s="244"/>
@@ -14234,7 +14234,7 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
-      <selection pane="bottomLeft" activeCell="AG90" sqref="AG90"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14334,20 +14334,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="326">
+      <c r="CD1" s="328">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="CE1" s="327"/>
-      <c r="CF1" s="327"/>
-      <c r="CG1" s="327"/>
-      <c r="CH1" s="327"/>
-      <c r="CI1" s="327"/>
-      <c r="CJ1" s="327"/>
-      <c r="CK1" s="327"/>
-      <c r="CL1" s="327"/>
-      <c r="CM1" s="327"/>
-      <c r="CN1" s="328"/>
+      <c r="CE1" s="329"/>
+      <c r="CF1" s="329"/>
+      <c r="CG1" s="329"/>
+      <c r="CH1" s="329"/>
+      <c r="CI1" s="329"/>
+      <c r="CJ1" s="329"/>
+      <c r="CK1" s="329"/>
+      <c r="CL1" s="329"/>
+      <c r="CM1" s="329"/>
+      <c r="CN1" s="330"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -14356,23 +14356,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="319" t="str">
+      <c r="CU1" s="321" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="324"/>
-      <c r="CW1" s="324"/>
-      <c r="CX1" s="324"/>
-      <c r="CY1" s="324"/>
-      <c r="CZ1" s="324"/>
-      <c r="DA1" s="324"/>
-      <c r="DB1" s="324"/>
-      <c r="DC1" s="324"/>
-      <c r="DD1" s="324"/>
-      <c r="DE1" s="324"/>
-      <c r="DF1" s="324"/>
-      <c r="DG1" s="324"/>
-      <c r="DH1" s="325"/>
+      <c r="CV1" s="326"/>
+      <c r="CW1" s="326"/>
+      <c r="CX1" s="326"/>
+      <c r="CY1" s="326"/>
+      <c r="CZ1" s="326"/>
+      <c r="DA1" s="326"/>
+      <c r="DB1" s="326"/>
+      <c r="DC1" s="326"/>
+      <c r="DD1" s="326"/>
+      <c r="DE1" s="326"/>
+      <c r="DF1" s="326"/>
+      <c r="DG1" s="326"/>
+      <c r="DH1" s="327"/>
     </row>
     <row r="2" spans="1:113" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -14427,39 +14427,39 @@
       <c r="AQ2" s="88"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="89"/>
-      <c r="AT2" s="330" t="str">
+      <c r="AT2" s="332" t="str">
         <f>'１．機能概要'!W2</f>
         <v>前日以前実績参照</v>
       </c>
-      <c r="AU2" s="331"/>
-      <c r="AV2" s="331"/>
-      <c r="AW2" s="331"/>
-      <c r="AX2" s="331"/>
-      <c r="AY2" s="331"/>
-      <c r="AZ2" s="331"/>
-      <c r="BA2" s="331"/>
-      <c r="BB2" s="331"/>
-      <c r="BC2" s="331"/>
-      <c r="BD2" s="331"/>
-      <c r="BE2" s="331"/>
-      <c r="BF2" s="331"/>
-      <c r="BG2" s="331"/>
-      <c r="BH2" s="331"/>
-      <c r="BI2" s="331"/>
-      <c r="BJ2" s="331"/>
-      <c r="BK2" s="331"/>
-      <c r="BL2" s="331"/>
-      <c r="BM2" s="331"/>
-      <c r="BN2" s="331"/>
-      <c r="BO2" s="331"/>
-      <c r="BP2" s="331"/>
-      <c r="BQ2" s="331"/>
-      <c r="BR2" s="331"/>
-      <c r="BS2" s="331"/>
-      <c r="BT2" s="331"/>
-      <c r="BU2" s="331"/>
-      <c r="BV2" s="331"/>
-      <c r="BW2" s="332"/>
+      <c r="AU2" s="333"/>
+      <c r="AV2" s="333"/>
+      <c r="AW2" s="333"/>
+      <c r="AX2" s="333"/>
+      <c r="AY2" s="333"/>
+      <c r="AZ2" s="333"/>
+      <c r="BA2" s="333"/>
+      <c r="BB2" s="333"/>
+      <c r="BC2" s="333"/>
+      <c r="BD2" s="333"/>
+      <c r="BE2" s="333"/>
+      <c r="BF2" s="333"/>
+      <c r="BG2" s="333"/>
+      <c r="BH2" s="333"/>
+      <c r="BI2" s="333"/>
+      <c r="BJ2" s="333"/>
+      <c r="BK2" s="333"/>
+      <c r="BL2" s="333"/>
+      <c r="BM2" s="333"/>
+      <c r="BN2" s="333"/>
+      <c r="BO2" s="333"/>
+      <c r="BP2" s="333"/>
+      <c r="BQ2" s="333"/>
+      <c r="BR2" s="333"/>
+      <c r="BS2" s="333"/>
+      <c r="BT2" s="333"/>
+      <c r="BU2" s="333"/>
+      <c r="BV2" s="333"/>
+      <c r="BW2" s="334"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -14468,17 +14468,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="329"/>
-      <c r="CE2" s="324"/>
-      <c r="CF2" s="324"/>
-      <c r="CG2" s="324"/>
-      <c r="CH2" s="324"/>
-      <c r="CI2" s="324"/>
-      <c r="CJ2" s="324"/>
-      <c r="CK2" s="324"/>
-      <c r="CL2" s="324"/>
-      <c r="CM2" s="324"/>
-      <c r="CN2" s="325"/>
+      <c r="CD2" s="331"/>
+      <c r="CE2" s="326"/>
+      <c r="CF2" s="326"/>
+      <c r="CG2" s="326"/>
+      <c r="CH2" s="326"/>
+      <c r="CI2" s="326"/>
+      <c r="CJ2" s="326"/>
+      <c r="CK2" s="326"/>
+      <c r="CL2" s="326"/>
+      <c r="CM2" s="326"/>
+      <c r="CN2" s="327"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -14487,20 +14487,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="319"/>
-      <c r="CV2" s="324"/>
-      <c r="CW2" s="324"/>
-      <c r="CX2" s="324"/>
-      <c r="CY2" s="324"/>
-      <c r="CZ2" s="324"/>
-      <c r="DA2" s="324"/>
-      <c r="DB2" s="324"/>
-      <c r="DC2" s="324"/>
-      <c r="DD2" s="324"/>
-      <c r="DE2" s="324"/>
-      <c r="DF2" s="324"/>
-      <c r="DG2" s="324"/>
-      <c r="DH2" s="325"/>
+      <c r="CU2" s="321"/>
+      <c r="CV2" s="326"/>
+      <c r="CW2" s="326"/>
+      <c r="CX2" s="326"/>
+      <c r="CY2" s="326"/>
+      <c r="CZ2" s="326"/>
+      <c r="DA2" s="326"/>
+      <c r="DB2" s="326"/>
+      <c r="DC2" s="326"/>
+      <c r="DD2" s="326"/>
+      <c r="DE2" s="326"/>
+      <c r="DF2" s="326"/>
+      <c r="DG2" s="326"/>
+      <c r="DH2" s="327"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="51"/>
@@ -14583,8 +14583,8 @@
   </sheetPr>
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
@@ -14704,37 +14704,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="274" t="s">
+      <c r="C6" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="274" t="s">
+      <c r="D6" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="274" t="s">
+      <c r="E6" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="274" t="s">
+      <c r="F6" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="274" t="s">
+      <c r="G6" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="274" t="s">
+      <c r="H6" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="333" t="s">
+      <c r="I6" s="335" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="333" t="s">
+      <c r="J6" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="274" t="s">
+      <c r="K6" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="274" t="s">
+      <c r="L6" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="274" t="s">
+      <c r="M6" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="74" t="s">
@@ -14742,24 +14742,24 @@
       </c>
       <c r="O6" s="74"/>
       <c r="P6" s="74"/>
-      <c r="Q6" s="333" t="s">
+      <c r="Q6" s="335" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="333"/>
-      <c r="J7" s="333"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="274"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="335"/>
+      <c r="J7" s="335"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
       <c r="N7" s="43" t="s">
         <v>81</v>
       </c>
@@ -14769,7 +14769,7 @@
       <c r="P7" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="333"/>
+      <c r="Q7" s="335"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -14923,37 +14923,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="274" t="s">
+      <c r="C13" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="274" t="s">
+      <c r="D13" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="274" t="s">
+      <c r="E13" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="274" t="s">
+      <c r="F13" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="274" t="s">
+      <c r="G13" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="274" t="s">
+      <c r="H13" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="334" t="s">
+      <c r="I13" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="333" t="s">
+      <c r="J13" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="274" t="s">
+      <c r="K13" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="274" t="s">
+      <c r="L13" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="274" t="s">
+      <c r="M13" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="74" t="s">
@@ -14961,24 +14961,24 @@
       </c>
       <c r="O13" s="74"/>
       <c r="P13" s="74"/>
-      <c r="Q13" s="334" t="s">
+      <c r="Q13" s="336" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="274"/>
-      <c r="D14" s="274"/>
-      <c r="E14" s="274"/>
-      <c r="F14" s="274"/>
-      <c r="G14" s="274"/>
-      <c r="H14" s="274"/>
-      <c r="I14" s="335"/>
-      <c r="J14" s="333"/>
-      <c r="K14" s="274"/>
-      <c r="L14" s="274"/>
-      <c r="M14" s="274"/>
+      <c r="C14" s="276"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="276"/>
+      <c r="F14" s="276"/>
+      <c r="G14" s="276"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="337"/>
+      <c r="J14" s="335"/>
+      <c r="K14" s="276"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="276"/>
       <c r="N14" s="43" t="s">
         <v>81</v>
       </c>
@@ -14988,7 +14988,7 @@
       <c r="P14" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" s="335"/>
+      <c r="Q14" s="337"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -15627,37 +15627,37 @@
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="114"/>
-      <c r="C30" s="274" t="s">
+      <c r="C30" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="274" t="s">
+      <c r="D30" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="274" t="s">
+      <c r="E30" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="274" t="s">
+      <c r="F30" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="274" t="s">
+      <c r="G30" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="274" t="s">
+      <c r="H30" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="333" t="s">
+      <c r="I30" s="335" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="333" t="s">
+      <c r="J30" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="274" t="s">
+      <c r="K30" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="274" t="s">
+      <c r="L30" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="274" t="s">
+      <c r="M30" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="74" t="s">
@@ -15665,23 +15665,23 @@
       </c>
       <c r="O30" s="74"/>
       <c r="P30" s="74"/>
-      <c r="Q30" s="333" t="s">
+      <c r="Q30" s="335" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="114"/>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="274"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
-      <c r="K31" s="274"/>
-      <c r="L31" s="274"/>
-      <c r="M31" s="274"/>
+      <c r="C31" s="276"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="276"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="335"/>
+      <c r="J31" s="335"/>
+      <c r="K31" s="276"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="276"/>
       <c r="N31" s="112" t="s">
         <v>81</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="P31" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="Q31" s="333"/>
+      <c r="Q31" s="335"/>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -16198,9 +16198,7 @@
   </sheetPr>
   <dimension ref="A1:AZ243"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16254,14 +16252,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="316">
+      <c r="AI1" s="318">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="331"/>
-      <c r="AK1" s="331"/>
-      <c r="AL1" s="331"/>
-      <c r="AM1" s="332"/>
+      <c r="AJ1" s="333"/>
+      <c r="AK1" s="333"/>
+      <c r="AL1" s="333"/>
+      <c r="AM1" s="334"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -16270,16 +16268,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="319" t="str">
+      <c r="AT1" s="321" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="324"/>
-      <c r="AV1" s="324"/>
-      <c r="AW1" s="324"/>
-      <c r="AX1" s="324"/>
-      <c r="AY1" s="324"/>
-      <c r="AZ1" s="325"/>
+      <c r="AU1" s="326"/>
+      <c r="AV1" s="326"/>
+      <c r="AW1" s="326"/>
+      <c r="AX1" s="326"/>
+      <c r="AY1" s="326"/>
+      <c r="AZ1" s="327"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -16307,32 +16305,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="330" t="str">
+      <c r="S2" s="332" t="str">
         <f>'１．機能概要'!W2</f>
         <v>前日以前実績参照</v>
       </c>
-      <c r="T2" s="331"/>
-      <c r="U2" s="331"/>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="331"/>
-      <c r="AA2" s="331"/>
-      <c r="AB2" s="331"/>
-      <c r="AC2" s="331"/>
-      <c r="AD2" s="332"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="333"/>
+      <c r="V2" s="333"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="333"/>
+      <c r="AA2" s="333"/>
+      <c r="AB2" s="333"/>
+      <c r="AC2" s="333"/>
+      <c r="AD2" s="334"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="324"/>
-      <c r="AK2" s="324"/>
-      <c r="AL2" s="324"/>
-      <c r="AM2" s="325"/>
+      <c r="AI2" s="331"/>
+      <c r="AJ2" s="326"/>
+      <c r="AK2" s="326"/>
+      <c r="AL2" s="326"/>
+      <c r="AM2" s="327"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -16341,13 +16339,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="319"/>
-      <c r="AU2" s="324"/>
-      <c r="AV2" s="324"/>
-      <c r="AW2" s="324"/>
-      <c r="AX2" s="324"/>
-      <c r="AY2" s="324"/>
-      <c r="AZ2" s="325"/>
+      <c r="AT2" s="321"/>
+      <c r="AU2" s="326"/>
+      <c r="AV2" s="326"/>
+      <c r="AW2" s="326"/>
+      <c r="AX2" s="326"/>
+      <c r="AY2" s="326"/>
+      <c r="AZ2" s="327"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="58"/>
@@ -18264,19 +18262,19 @@
       <c r="I40" s="117"/>
       <c r="J40" s="117"/>
       <c r="K40" s="118"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="355" t="s">
+      <c r="L40" s="269"/>
+      <c r="M40" s="270"/>
+      <c r="N40" s="270" t="s">
         <v>379</v>
       </c>
-      <c r="O40" s="355"/>
-      <c r="P40" s="355"/>
-      <c r="Q40" s="355"/>
-      <c r="R40" s="355"/>
-      <c r="S40" s="355"/>
-      <c r="T40" s="355"/>
-      <c r="U40" s="355"/>
-      <c r="V40" s="355"/>
+      <c r="O40" s="270"/>
+      <c r="P40" s="270"/>
+      <c r="Q40" s="270"/>
+      <c r="R40" s="270"/>
+      <c r="S40" s="270"/>
+      <c r="T40" s="270"/>
+      <c r="U40" s="270"/>
+      <c r="V40" s="270"/>
       <c r="W40" s="79"/>
       <c r="X40" s="79"/>
       <c r="Y40" s="79"/>
@@ -18315,19 +18313,19 @@
       <c r="I41" s="117"/>
       <c r="J41" s="117"/>
       <c r="K41" s="118"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="355" t="s">
+      <c r="L41" s="269"/>
+      <c r="M41" s="270"/>
+      <c r="N41" s="270" t="s">
         <v>378</v>
       </c>
-      <c r="O41" s="355"/>
-      <c r="P41" s="355"/>
-      <c r="Q41" s="355"/>
-      <c r="R41" s="355"/>
-      <c r="S41" s="355"/>
-      <c r="T41" s="355"/>
-      <c r="U41" s="355"/>
-      <c r="V41" s="355"/>
+      <c r="O41" s="270"/>
+      <c r="P41" s="270"/>
+      <c r="Q41" s="270"/>
+      <c r="R41" s="270"/>
+      <c r="S41" s="270"/>
+      <c r="T41" s="270"/>
+      <c r="U41" s="270"/>
+      <c r="V41" s="270"/>
       <c r="W41" s="79"/>
       <c r="X41" s="79"/>
       <c r="Y41" s="79"/>
@@ -18366,19 +18364,19 @@
       <c r="I42" s="117"/>
       <c r="J42" s="117"/>
       <c r="K42" s="118"/>
-      <c r="L42" s="356"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="355" t="s">
+      <c r="L42" s="269"/>
+      <c r="M42" s="270"/>
+      <c r="N42" s="270" t="s">
         <v>380</v>
       </c>
-      <c r="O42" s="355"/>
-      <c r="P42" s="355"/>
-      <c r="Q42" s="355"/>
-      <c r="R42" s="355"/>
-      <c r="S42" s="355"/>
-      <c r="T42" s="355"/>
-      <c r="U42" s="355"/>
-      <c r="V42" s="355"/>
+      <c r="O42" s="270"/>
+      <c r="P42" s="270"/>
+      <c r="Q42" s="270"/>
+      <c r="R42" s="270"/>
+      <c r="S42" s="270"/>
+      <c r="T42" s="270"/>
+      <c r="U42" s="270"/>
+      <c r="V42" s="270"/>
       <c r="W42" s="79"/>
       <c r="X42" s="79"/>
       <c r="Y42" s="79"/>
@@ -18417,19 +18415,19 @@
       <c r="I43" s="117"/>
       <c r="J43" s="117"/>
       <c r="K43" s="118"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="355" t="s">
+      <c r="L43" s="269"/>
+      <c r="M43" s="270"/>
+      <c r="N43" s="270" t="s">
         <v>372</v>
       </c>
-      <c r="O43" s="355"/>
-      <c r="P43" s="355"/>
-      <c r="Q43" s="355"/>
-      <c r="R43" s="355"/>
-      <c r="S43" s="355"/>
-      <c r="T43" s="355"/>
-      <c r="U43" s="355"/>
-      <c r="V43" s="355"/>
+      <c r="O43" s="270"/>
+      <c r="P43" s="270"/>
+      <c r="Q43" s="270"/>
+      <c r="R43" s="270"/>
+      <c r="S43" s="270"/>
+      <c r="T43" s="270"/>
+      <c r="U43" s="270"/>
+      <c r="V43" s="270"/>
       <c r="W43" s="79"/>
       <c r="X43" s="79"/>
       <c r="Y43" s="79"/>
@@ -18468,19 +18466,19 @@
       <c r="I44" s="117"/>
       <c r="J44" s="117"/>
       <c r="K44" s="118"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="355" t="s">
+      <c r="L44" s="269"/>
+      <c r="M44" s="270"/>
+      <c r="N44" s="270" t="s">
         <v>381</v>
       </c>
-      <c r="O44" s="355"/>
-      <c r="P44" s="355"/>
-      <c r="Q44" s="355"/>
-      <c r="R44" s="355"/>
-      <c r="S44" s="355"/>
-      <c r="T44" s="355"/>
-      <c r="U44" s="355"/>
-      <c r="V44" s="355"/>
+      <c r="O44" s="270"/>
+      <c r="P44" s="270"/>
+      <c r="Q44" s="270"/>
+      <c r="R44" s="270"/>
+      <c r="S44" s="270"/>
+      <c r="T44" s="270"/>
+      <c r="U44" s="270"/>
+      <c r="V44" s="270"/>
       <c r="W44" s="79"/>
       <c r="X44" s="79"/>
       <c r="Y44" s="79"/>
@@ -18519,19 +18517,19 @@
       <c r="I45" s="117"/>
       <c r="J45" s="117"/>
       <c r="K45" s="118"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="355" t="s">
+      <c r="L45" s="269"/>
+      <c r="M45" s="270"/>
+      <c r="N45" s="270" t="s">
         <v>431</v>
       </c>
-      <c r="O45" s="355"/>
-      <c r="P45" s="355"/>
-      <c r="Q45" s="355"/>
-      <c r="R45" s="355"/>
-      <c r="S45" s="355"/>
-      <c r="T45" s="355"/>
-      <c r="U45" s="355"/>
-      <c r="V45" s="355"/>
+      <c r="O45" s="270"/>
+      <c r="P45" s="270"/>
+      <c r="Q45" s="270"/>
+      <c r="R45" s="270"/>
+      <c r="S45" s="270"/>
+      <c r="T45" s="270"/>
+      <c r="U45" s="270"/>
+      <c r="V45" s="270"/>
       <c r="W45" s="79"/>
       <c r="X45" s="79"/>
       <c r="Y45" s="79"/>
@@ -18570,19 +18568,19 @@
       <c r="I46" s="117"/>
       <c r="J46" s="117"/>
       <c r="K46" s="118"/>
-      <c r="L46" s="117"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="355" t="s">
+      <c r="L46" s="269"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="270" t="s">
         <v>432</v>
       </c>
-      <c r="O46" s="355"/>
-      <c r="P46" s="355"/>
-      <c r="Q46" s="355"/>
-      <c r="R46" s="355"/>
-      <c r="S46" s="355"/>
-      <c r="T46" s="355"/>
-      <c r="U46" s="355"/>
-      <c r="V46" s="355"/>
+      <c r="O46" s="270"/>
+      <c r="P46" s="270"/>
+      <c r="Q46" s="270"/>
+      <c r="R46" s="270"/>
+      <c r="S46" s="270"/>
+      <c r="T46" s="270"/>
+      <c r="U46" s="270"/>
+      <c r="V46" s="270"/>
       <c r="W46" s="79"/>
       <c r="X46" s="79"/>
       <c r="Y46" s="79"/>
@@ -28847,14 +28845,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="316">
+      <c r="AI1" s="318">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="331"/>
-      <c r="AK1" s="331"/>
-      <c r="AL1" s="331"/>
-      <c r="AM1" s="332"/>
+      <c r="AJ1" s="333"/>
+      <c r="AK1" s="333"/>
+      <c r="AL1" s="333"/>
+      <c r="AM1" s="334"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -28863,16 +28861,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="319" t="str">
+      <c r="AT1" s="321" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="324"/>
-      <c r="AV1" s="324"/>
-      <c r="AW1" s="324"/>
-      <c r="AX1" s="324"/>
-      <c r="AY1" s="324"/>
-      <c r="AZ1" s="325"/>
+      <c r="AU1" s="326"/>
+      <c r="AV1" s="326"/>
+      <c r="AW1" s="326"/>
+      <c r="AX1" s="326"/>
+      <c r="AY1" s="326"/>
+      <c r="AZ1" s="327"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -28900,32 +28898,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="330" t="str">
+      <c r="S2" s="332" t="str">
         <f>'１．機能概要'!W2</f>
         <v>前日以前実績参照</v>
       </c>
-      <c r="T2" s="331"/>
-      <c r="U2" s="331"/>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="331"/>
-      <c r="AA2" s="331"/>
-      <c r="AB2" s="331"/>
-      <c r="AC2" s="331"/>
-      <c r="AD2" s="332"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="333"/>
+      <c r="V2" s="333"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="333"/>
+      <c r="AA2" s="333"/>
+      <c r="AB2" s="333"/>
+      <c r="AC2" s="333"/>
+      <c r="AD2" s="334"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="324"/>
-      <c r="AK2" s="324"/>
-      <c r="AL2" s="324"/>
-      <c r="AM2" s="325"/>
+      <c r="AI2" s="331"/>
+      <c r="AJ2" s="326"/>
+      <c r="AK2" s="326"/>
+      <c r="AL2" s="326"/>
+      <c r="AM2" s="327"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -28934,13 +28932,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="319"/>
-      <c r="AU2" s="324"/>
-      <c r="AV2" s="324"/>
-      <c r="AW2" s="324"/>
-      <c r="AX2" s="324"/>
-      <c r="AY2" s="324"/>
-      <c r="AZ2" s="325"/>
+      <c r="AT2" s="321"/>
+      <c r="AU2" s="326"/>
+      <c r="AV2" s="326"/>
+      <c r="AW2" s="326"/>
+      <c r="AX2" s="326"/>
+      <c r="AY2" s="326"/>
+      <c r="AZ2" s="327"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="58"/>
@@ -29169,7 +29167,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="336">
+      <c r="B7" s="338">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -29223,7 +29221,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="337"/>
+      <c r="B8" s="339"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -29273,7 +29271,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="336">
+      <c r="B9" s="338">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -29335,7 +29333,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="338"/>
+      <c r="B10" s="340"/>
       <c r="C10" s="76"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -29385,7 +29383,7 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="338"/>
+      <c r="B11" s="340"/>
       <c r="C11" s="76"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -29443,7 +29441,7 @@
       <c r="AW11" s="77"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="338"/>
+      <c r="B12" s="340"/>
       <c r="C12" s="76"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -29493,7 +29491,7 @@
       <c r="AW12" s="77"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="338"/>
+      <c r="B13" s="340"/>
       <c r="C13" s="76"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -29549,7 +29547,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="338"/>
+      <c r="B14" s="340"/>
       <c r="C14" s="76"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -29599,7 +29597,7 @@
       <c r="AW14" s="77"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="338"/>
+      <c r="B15" s="340"/>
       <c r="C15" s="76"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -29655,7 +29653,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="338"/>
+      <c r="B16" s="340"/>
       <c r="C16" s="76"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -29705,7 +29703,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="338"/>
+      <c r="B17" s="340"/>
       <c r="C17" s="76"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -29761,7 +29759,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="338"/>
+      <c r="B18" s="340"/>
       <c r="C18" s="76"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -29811,7 +29809,7 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="338"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="76"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -29869,7 +29867,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="338"/>
+      <c r="B20" s="340"/>
       <c r="C20" s="76"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -29921,7 +29919,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="338"/>
+      <c r="B21" s="340"/>
       <c r="C21" s="76"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -29977,7 +29975,7 @@
       <c r="AW21" s="77"/>
     </row>
     <row r="22" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="337"/>
+      <c r="B22" s="339"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -30027,7 +30025,7 @@
       <c r="AW22" s="27"/>
     </row>
     <row r="23" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="336">
+      <c r="B23" s="338">
         <v>3</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -30087,7 +30085,7 @@
       <c r="AW23" s="23"/>
     </row>
     <row r="24" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="337"/>
+      <c r="B24" s="339"/>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -30137,7 +30135,7 @@
       <c r="AW24" s="27"/>
     </row>
     <row r="25" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="336">
+      <c r="B25" s="338">
         <v>4</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -30195,7 +30193,7 @@
       <c r="AW25" s="23"/>
     </row>
     <row r="26" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="337"/>
+      <c r="B26" s="339"/>
       <c r="C26" s="76"/>
       <c r="I26" s="77"/>
       <c r="J26" s="76"/>
@@ -30235,7 +30233,7 @@
       <c r="AW26" s="27"/>
     </row>
     <row r="27" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="336">
+      <c r="B27" s="338">
         <v>5</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -30289,7 +30287,7 @@
       <c r="AW27" s="23"/>
     </row>
     <row r="28" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="337"/>
+      <c r="B28" s="339"/>
       <c r="C28" s="76" t="s">
         <v>387</v>
       </c>
@@ -34411,14 +34409,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="316">
+      <c r="AI1" s="318">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="331"/>
-      <c r="AK1" s="331"/>
-      <c r="AL1" s="331"/>
-      <c r="AM1" s="332"/>
+      <c r="AJ1" s="333"/>
+      <c r="AK1" s="333"/>
+      <c r="AL1" s="333"/>
+      <c r="AM1" s="334"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -34427,16 +34425,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="319" t="str">
+      <c r="AT1" s="321" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="324"/>
-      <c r="AV1" s="324"/>
-      <c r="AW1" s="324"/>
-      <c r="AX1" s="324"/>
-      <c r="AY1" s="324"/>
-      <c r="AZ1" s="325"/>
+      <c r="AU1" s="326"/>
+      <c r="AV1" s="326"/>
+      <c r="AW1" s="326"/>
+      <c r="AX1" s="326"/>
+      <c r="AY1" s="326"/>
+      <c r="AZ1" s="327"/>
     </row>
     <row r="2" spans="1:63" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -34464,32 +34462,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="330" t="str">
+      <c r="S2" s="332" t="str">
         <f>'１．機能概要'!W2</f>
         <v>前日以前実績参照</v>
       </c>
-      <c r="T2" s="331"/>
-      <c r="U2" s="331"/>
-      <c r="V2" s="331"/>
-      <c r="W2" s="331"/>
-      <c r="X2" s="331"/>
-      <c r="Y2" s="331"/>
-      <c r="Z2" s="331"/>
-      <c r="AA2" s="331"/>
-      <c r="AB2" s="331"/>
-      <c r="AC2" s="331"/>
-      <c r="AD2" s="332"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="333"/>
+      <c r="V2" s="333"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="333"/>
+      <c r="AA2" s="333"/>
+      <c r="AB2" s="333"/>
+      <c r="AC2" s="333"/>
+      <c r="AD2" s="334"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="324"/>
-      <c r="AK2" s="324"/>
-      <c r="AL2" s="324"/>
-      <c r="AM2" s="325"/>
+      <c r="AI2" s="331"/>
+      <c r="AJ2" s="326"/>
+      <c r="AK2" s="326"/>
+      <c r="AL2" s="326"/>
+      <c r="AM2" s="327"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -34498,13 +34496,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="319"/>
-      <c r="AU2" s="324"/>
-      <c r="AV2" s="324"/>
-      <c r="AW2" s="324"/>
-      <c r="AX2" s="324"/>
-      <c r="AY2" s="324"/>
-      <c r="AZ2" s="325"/>
+      <c r="AT2" s="321"/>
+      <c r="AU2" s="326"/>
+      <c r="AV2" s="326"/>
+      <c r="AW2" s="326"/>
+      <c r="AX2" s="326"/>
+      <c r="AY2" s="326"/>
+      <c r="AZ2" s="327"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A3" s="58"/>
@@ -34853,25 +34851,25 @@
       <c r="J9" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="K9" s="339" t="s">
+      <c r="K9" s="341" t="s">
         <v>191</v>
       </c>
-      <c r="L9" s="340"/>
-      <c r="M9" s="339" t="s">
+      <c r="L9" s="342"/>
+      <c r="M9" s="341" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="347"/>
-      <c r="O9" s="340"/>
-      <c r="P9" s="339" t="s">
+      <c r="N9" s="349"/>
+      <c r="O9" s="342"/>
+      <c r="P9" s="341" t="s">
         <v>423</v>
       </c>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="340"/>
-      <c r="T9" s="343" t="s">
+      <c r="Q9" s="349"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="345" t="s">
         <v>190</v>
       </c>
-      <c r="U9" s="344"/>
+      <c r="U9" s="346"/>
       <c r="V9" s="52"/>
       <c r="W9" s="52"/>
       <c r="X9" s="52"/>
@@ -34928,17 +34926,17 @@
       <c r="H10" s="65"/>
       <c r="I10" s="65"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="341"/>
-      <c r="L10" s="342"/>
-      <c r="M10" s="341"/>
-      <c r="N10" s="348"/>
-      <c r="O10" s="342"/>
-      <c r="P10" s="341"/>
-      <c r="Q10" s="348"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="342"/>
-      <c r="T10" s="345"/>
-      <c r="U10" s="346"/>
+      <c r="K10" s="343"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="343"/>
+      <c r="N10" s="350"/>
+      <c r="O10" s="344"/>
+      <c r="P10" s="343"/>
+      <c r="Q10" s="350"/>
+      <c r="R10" s="350"/>
+      <c r="S10" s="344"/>
+      <c r="T10" s="347"/>
+      <c r="U10" s="348"/>
       <c r="V10" s="52"/>
       <c r="W10" s="52"/>
       <c r="X10" s="52"/>
@@ -46724,9 +46722,7 @@
   </sheetPr>
   <dimension ref="B1:CX136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT141" sqref="AT141"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.75" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -46855,89 +46851,89 @@
       <c r="CX2" s="135"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="349" t="s">
+      <c r="B3" s="351" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
-      <c r="N3" s="350"/>
-      <c r="O3" s="350"/>
-      <c r="P3" s="350"/>
-      <c r="Q3" s="350"/>
-      <c r="R3" s="350"/>
-      <c r="S3" s="350"/>
-      <c r="T3" s="350"/>
-      <c r="U3" s="350"/>
-      <c r="V3" s="350"/>
-      <c r="W3" s="350"/>
-      <c r="X3" s="350"/>
-      <c r="Y3" s="350"/>
-      <c r="Z3" s="350"/>
-      <c r="AA3" s="350"/>
-      <c r="AB3" s="350"/>
-      <c r="AC3" s="350"/>
-      <c r="AD3" s="350"/>
-      <c r="AE3" s="350"/>
-      <c r="AF3" s="350"/>
-      <c r="AG3" s="350"/>
-      <c r="AH3" s="350"/>
-      <c r="AI3" s="350"/>
-      <c r="AJ3" s="350"/>
-      <c r="AK3" s="350"/>
-      <c r="AL3" s="350"/>
-      <c r="AM3" s="350"/>
-      <c r="AN3" s="350"/>
-      <c r="AO3" s="350"/>
-      <c r="AP3" s="350"/>
-      <c r="AQ3" s="350"/>
-      <c r="AR3" s="350"/>
-      <c r="AS3" s="350"/>
-      <c r="AT3" s="350"/>
-      <c r="AU3" s="350"/>
-      <c r="AV3" s="350"/>
-      <c r="AW3" s="350"/>
-      <c r="AX3" s="350"/>
-      <c r="AY3" s="350"/>
-      <c r="AZ3" s="350"/>
-      <c r="BA3" s="350"/>
-      <c r="BB3" s="350"/>
-      <c r="BC3" s="350"/>
-      <c r="BD3" s="350"/>
-      <c r="BE3" s="350"/>
-      <c r="BF3" s="350"/>
-      <c r="BG3" s="350"/>
-      <c r="BH3" s="350"/>
-      <c r="BI3" s="350"/>
-      <c r="BJ3" s="350"/>
-      <c r="BK3" s="350"/>
-      <c r="BL3" s="350"/>
-      <c r="BM3" s="350"/>
-      <c r="BN3" s="350"/>
-      <c r="BO3" s="350"/>
-      <c r="BP3" s="350"/>
-      <c r="BQ3" s="350"/>
-      <c r="BR3" s="350"/>
-      <c r="BS3" s="350"/>
-      <c r="BT3" s="350"/>
-      <c r="BU3" s="350"/>
-      <c r="BV3" s="350"/>
-      <c r="BW3" s="350"/>
-      <c r="BX3" s="350"/>
-      <c r="BY3" s="350"/>
-      <c r="BZ3" s="350"/>
-      <c r="CA3" s="350"/>
-      <c r="CB3" s="350"/>
-      <c r="CC3" s="350"/>
-      <c r="CD3" s="351"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
+      <c r="U3" s="352"/>
+      <c r="V3" s="352"/>
+      <c r="W3" s="352"/>
+      <c r="X3" s="352"/>
+      <c r="Y3" s="352"/>
+      <c r="Z3" s="352"/>
+      <c r="AA3" s="352"/>
+      <c r="AB3" s="352"/>
+      <c r="AC3" s="352"/>
+      <c r="AD3" s="352"/>
+      <c r="AE3" s="352"/>
+      <c r="AF3" s="352"/>
+      <c r="AG3" s="352"/>
+      <c r="AH3" s="352"/>
+      <c r="AI3" s="352"/>
+      <c r="AJ3" s="352"/>
+      <c r="AK3" s="352"/>
+      <c r="AL3" s="352"/>
+      <c r="AM3" s="352"/>
+      <c r="AN3" s="352"/>
+      <c r="AO3" s="352"/>
+      <c r="AP3" s="352"/>
+      <c r="AQ3" s="352"/>
+      <c r="AR3" s="352"/>
+      <c r="AS3" s="352"/>
+      <c r="AT3" s="352"/>
+      <c r="AU3" s="352"/>
+      <c r="AV3" s="352"/>
+      <c r="AW3" s="352"/>
+      <c r="AX3" s="352"/>
+      <c r="AY3" s="352"/>
+      <c r="AZ3" s="352"/>
+      <c r="BA3" s="352"/>
+      <c r="BB3" s="352"/>
+      <c r="BC3" s="352"/>
+      <c r="BD3" s="352"/>
+      <c r="BE3" s="352"/>
+      <c r="BF3" s="352"/>
+      <c r="BG3" s="352"/>
+      <c r="BH3" s="352"/>
+      <c r="BI3" s="352"/>
+      <c r="BJ3" s="352"/>
+      <c r="BK3" s="352"/>
+      <c r="BL3" s="352"/>
+      <c r="BM3" s="352"/>
+      <c r="BN3" s="352"/>
+      <c r="BO3" s="352"/>
+      <c r="BP3" s="352"/>
+      <c r="BQ3" s="352"/>
+      <c r="BR3" s="352"/>
+      <c r="BS3" s="352"/>
+      <c r="BT3" s="352"/>
+      <c r="BU3" s="352"/>
+      <c r="BV3" s="352"/>
+      <c r="BW3" s="352"/>
+      <c r="BX3" s="352"/>
+      <c r="BY3" s="352"/>
+      <c r="BZ3" s="352"/>
+      <c r="CA3" s="352"/>
+      <c r="CB3" s="352"/>
+      <c r="CC3" s="352"/>
+      <c r="CD3" s="353"/>
       <c r="CE3" s="136" t="s">
         <v>197</v>
       </c>
@@ -46964,87 +46960,87 @@
       <c r="CX3" s="141"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="352"/>
-      <c r="C4" s="353"/>
-      <c r="D4" s="353"/>
-      <c r="E4" s="353"/>
-      <c r="F4" s="353"/>
-      <c r="G4" s="353"/>
-      <c r="H4" s="353"/>
-      <c r="I4" s="353"/>
-      <c r="J4" s="353"/>
-      <c r="K4" s="353"/>
-      <c r="L4" s="353"/>
-      <c r="M4" s="353"/>
-      <c r="N4" s="353"/>
-      <c r="O4" s="353"/>
-      <c r="P4" s="353"/>
-      <c r="Q4" s="353"/>
-      <c r="R4" s="353"/>
-      <c r="S4" s="353"/>
-      <c r="T4" s="353"/>
-      <c r="U4" s="353"/>
-      <c r="V4" s="353"/>
-      <c r="W4" s="353"/>
-      <c r="X4" s="353"/>
-      <c r="Y4" s="353"/>
-      <c r="Z4" s="353"/>
-      <c r="AA4" s="353"/>
-      <c r="AB4" s="353"/>
-      <c r="AC4" s="353"/>
-      <c r="AD4" s="353"/>
-      <c r="AE4" s="353"/>
-      <c r="AF4" s="353"/>
-      <c r="AG4" s="353"/>
-      <c r="AH4" s="353"/>
-      <c r="AI4" s="353"/>
-      <c r="AJ4" s="353"/>
-      <c r="AK4" s="353"/>
-      <c r="AL4" s="353"/>
-      <c r="AM4" s="353"/>
-      <c r="AN4" s="353"/>
-      <c r="AO4" s="353"/>
-      <c r="AP4" s="353"/>
-      <c r="AQ4" s="353"/>
-      <c r="AR4" s="353"/>
-      <c r="AS4" s="353"/>
-      <c r="AT4" s="353"/>
-      <c r="AU4" s="353"/>
-      <c r="AV4" s="353"/>
-      <c r="AW4" s="353"/>
-      <c r="AX4" s="353"/>
-      <c r="AY4" s="353"/>
-      <c r="AZ4" s="353"/>
-      <c r="BA4" s="353"/>
-      <c r="BB4" s="353"/>
-      <c r="BC4" s="353"/>
-      <c r="BD4" s="353"/>
-      <c r="BE4" s="353"/>
-      <c r="BF4" s="353"/>
-      <c r="BG4" s="353"/>
-      <c r="BH4" s="353"/>
-      <c r="BI4" s="353"/>
-      <c r="BJ4" s="353"/>
-      <c r="BK4" s="353"/>
-      <c r="BL4" s="353"/>
-      <c r="BM4" s="353"/>
-      <c r="BN4" s="353"/>
-      <c r="BO4" s="353"/>
-      <c r="BP4" s="353"/>
-      <c r="BQ4" s="353"/>
-      <c r="BR4" s="353"/>
-      <c r="BS4" s="353"/>
-      <c r="BT4" s="353"/>
-      <c r="BU4" s="353"/>
-      <c r="BV4" s="353"/>
-      <c r="BW4" s="353"/>
-      <c r="BX4" s="353"/>
-      <c r="BY4" s="353"/>
-      <c r="BZ4" s="353"/>
-      <c r="CA4" s="353"/>
-      <c r="CB4" s="353"/>
-      <c r="CC4" s="353"/>
-      <c r="CD4" s="354"/>
+      <c r="B4" s="354"/>
+      <c r="C4" s="355"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="355"/>
+      <c r="G4" s="355"/>
+      <c r="H4" s="355"/>
+      <c r="I4" s="355"/>
+      <c r="J4" s="355"/>
+      <c r="K4" s="355"/>
+      <c r="L4" s="355"/>
+      <c r="M4" s="355"/>
+      <c r="N4" s="355"/>
+      <c r="O4" s="355"/>
+      <c r="P4" s="355"/>
+      <c r="Q4" s="355"/>
+      <c r="R4" s="355"/>
+      <c r="S4" s="355"/>
+      <c r="T4" s="355"/>
+      <c r="U4" s="355"/>
+      <c r="V4" s="355"/>
+      <c r="W4" s="355"/>
+      <c r="X4" s="355"/>
+      <c r="Y4" s="355"/>
+      <c r="Z4" s="355"/>
+      <c r="AA4" s="355"/>
+      <c r="AB4" s="355"/>
+      <c r="AC4" s="355"/>
+      <c r="AD4" s="355"/>
+      <c r="AE4" s="355"/>
+      <c r="AF4" s="355"/>
+      <c r="AG4" s="355"/>
+      <c r="AH4" s="355"/>
+      <c r="AI4" s="355"/>
+      <c r="AJ4" s="355"/>
+      <c r="AK4" s="355"/>
+      <c r="AL4" s="355"/>
+      <c r="AM4" s="355"/>
+      <c r="AN4" s="355"/>
+      <c r="AO4" s="355"/>
+      <c r="AP4" s="355"/>
+      <c r="AQ4" s="355"/>
+      <c r="AR4" s="355"/>
+      <c r="AS4" s="355"/>
+      <c r="AT4" s="355"/>
+      <c r="AU4" s="355"/>
+      <c r="AV4" s="355"/>
+      <c r="AW4" s="355"/>
+      <c r="AX4" s="355"/>
+      <c r="AY4" s="355"/>
+      <c r="AZ4" s="355"/>
+      <c r="BA4" s="355"/>
+      <c r="BB4" s="355"/>
+      <c r="BC4" s="355"/>
+      <c r="BD4" s="355"/>
+      <c r="BE4" s="355"/>
+      <c r="BF4" s="355"/>
+      <c r="BG4" s="355"/>
+      <c r="BH4" s="355"/>
+      <c r="BI4" s="355"/>
+      <c r="BJ4" s="355"/>
+      <c r="BK4" s="355"/>
+      <c r="BL4" s="355"/>
+      <c r="BM4" s="355"/>
+      <c r="BN4" s="355"/>
+      <c r="BO4" s="355"/>
+      <c r="BP4" s="355"/>
+      <c r="BQ4" s="355"/>
+      <c r="BR4" s="355"/>
+      <c r="BS4" s="355"/>
+      <c r="BT4" s="355"/>
+      <c r="BU4" s="355"/>
+      <c r="BV4" s="355"/>
+      <c r="BW4" s="355"/>
+      <c r="BX4" s="355"/>
+      <c r="BY4" s="355"/>
+      <c r="BZ4" s="355"/>
+      <c r="CA4" s="355"/>
+      <c r="CB4" s="355"/>
+      <c r="CC4" s="355"/>
+      <c r="CD4" s="356"/>
       <c r="CE4" s="142" t="s">
         <v>199</v>
       </c>
@@ -51769,89 +51765,89 @@
       <c r="CX48" s="135"/>
     </row>
     <row r="49" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="349" t="s">
+      <c r="B49" s="351" t="s">
         <v>425</v>
       </c>
-      <c r="C49" s="350"/>
-      <c r="D49" s="350"/>
-      <c r="E49" s="350"/>
-      <c r="F49" s="350"/>
-      <c r="G49" s="350"/>
-      <c r="H49" s="350"/>
-      <c r="I49" s="350"/>
-      <c r="J49" s="350"/>
-      <c r="K49" s="350"/>
-      <c r="L49" s="350"/>
-      <c r="M49" s="350"/>
-      <c r="N49" s="350"/>
-      <c r="O49" s="350"/>
-      <c r="P49" s="350"/>
-      <c r="Q49" s="350"/>
-      <c r="R49" s="350"/>
-      <c r="S49" s="350"/>
-      <c r="T49" s="350"/>
-      <c r="U49" s="350"/>
-      <c r="V49" s="350"/>
-      <c r="W49" s="350"/>
-      <c r="X49" s="350"/>
-      <c r="Y49" s="350"/>
-      <c r="Z49" s="350"/>
-      <c r="AA49" s="350"/>
-      <c r="AB49" s="350"/>
-      <c r="AC49" s="350"/>
-      <c r="AD49" s="350"/>
-      <c r="AE49" s="350"/>
-      <c r="AF49" s="350"/>
-      <c r="AG49" s="350"/>
-      <c r="AH49" s="350"/>
-      <c r="AI49" s="350"/>
-      <c r="AJ49" s="350"/>
-      <c r="AK49" s="350"/>
-      <c r="AL49" s="350"/>
-      <c r="AM49" s="350"/>
-      <c r="AN49" s="350"/>
-      <c r="AO49" s="350"/>
-      <c r="AP49" s="350"/>
-      <c r="AQ49" s="350"/>
-      <c r="AR49" s="350"/>
-      <c r="AS49" s="350"/>
-      <c r="AT49" s="350"/>
-      <c r="AU49" s="350"/>
-      <c r="AV49" s="350"/>
-      <c r="AW49" s="350"/>
-      <c r="AX49" s="350"/>
-      <c r="AY49" s="350"/>
-      <c r="AZ49" s="350"/>
-      <c r="BA49" s="350"/>
-      <c r="BB49" s="350"/>
-      <c r="BC49" s="350"/>
-      <c r="BD49" s="350"/>
-      <c r="BE49" s="350"/>
-      <c r="BF49" s="350"/>
-      <c r="BG49" s="350"/>
-      <c r="BH49" s="350"/>
-      <c r="BI49" s="350"/>
-      <c r="BJ49" s="350"/>
-      <c r="BK49" s="350"/>
-      <c r="BL49" s="350"/>
-      <c r="BM49" s="350"/>
-      <c r="BN49" s="350"/>
-      <c r="BO49" s="350"/>
-      <c r="BP49" s="350"/>
-      <c r="BQ49" s="350"/>
-      <c r="BR49" s="350"/>
-      <c r="BS49" s="350"/>
-      <c r="BT49" s="350"/>
-      <c r="BU49" s="350"/>
-      <c r="BV49" s="350"/>
-      <c r="BW49" s="350"/>
-      <c r="BX49" s="350"/>
-      <c r="BY49" s="350"/>
-      <c r="BZ49" s="350"/>
-      <c r="CA49" s="350"/>
-      <c r="CB49" s="350"/>
-      <c r="CC49" s="350"/>
-      <c r="CD49" s="351"/>
+      <c r="C49" s="352"/>
+      <c r="D49" s="352"/>
+      <c r="E49" s="352"/>
+      <c r="F49" s="352"/>
+      <c r="G49" s="352"/>
+      <c r="H49" s="352"/>
+      <c r="I49" s="352"/>
+      <c r="J49" s="352"/>
+      <c r="K49" s="352"/>
+      <c r="L49" s="352"/>
+      <c r="M49" s="352"/>
+      <c r="N49" s="352"/>
+      <c r="O49" s="352"/>
+      <c r="P49" s="352"/>
+      <c r="Q49" s="352"/>
+      <c r="R49" s="352"/>
+      <c r="S49" s="352"/>
+      <c r="T49" s="352"/>
+      <c r="U49" s="352"/>
+      <c r="V49" s="352"/>
+      <c r="W49" s="352"/>
+      <c r="X49" s="352"/>
+      <c r="Y49" s="352"/>
+      <c r="Z49" s="352"/>
+      <c r="AA49" s="352"/>
+      <c r="AB49" s="352"/>
+      <c r="AC49" s="352"/>
+      <c r="AD49" s="352"/>
+      <c r="AE49" s="352"/>
+      <c r="AF49" s="352"/>
+      <c r="AG49" s="352"/>
+      <c r="AH49" s="352"/>
+      <c r="AI49" s="352"/>
+      <c r="AJ49" s="352"/>
+      <c r="AK49" s="352"/>
+      <c r="AL49" s="352"/>
+      <c r="AM49" s="352"/>
+      <c r="AN49" s="352"/>
+      <c r="AO49" s="352"/>
+      <c r="AP49" s="352"/>
+      <c r="AQ49" s="352"/>
+      <c r="AR49" s="352"/>
+      <c r="AS49" s="352"/>
+      <c r="AT49" s="352"/>
+      <c r="AU49" s="352"/>
+      <c r="AV49" s="352"/>
+      <c r="AW49" s="352"/>
+      <c r="AX49" s="352"/>
+      <c r="AY49" s="352"/>
+      <c r="AZ49" s="352"/>
+      <c r="BA49" s="352"/>
+      <c r="BB49" s="352"/>
+      <c r="BC49" s="352"/>
+      <c r="BD49" s="352"/>
+      <c r="BE49" s="352"/>
+      <c r="BF49" s="352"/>
+      <c r="BG49" s="352"/>
+      <c r="BH49" s="352"/>
+      <c r="BI49" s="352"/>
+      <c r="BJ49" s="352"/>
+      <c r="BK49" s="352"/>
+      <c r="BL49" s="352"/>
+      <c r="BM49" s="352"/>
+      <c r="BN49" s="352"/>
+      <c r="BO49" s="352"/>
+      <c r="BP49" s="352"/>
+      <c r="BQ49" s="352"/>
+      <c r="BR49" s="352"/>
+      <c r="BS49" s="352"/>
+      <c r="BT49" s="352"/>
+      <c r="BU49" s="352"/>
+      <c r="BV49" s="352"/>
+      <c r="BW49" s="352"/>
+      <c r="BX49" s="352"/>
+      <c r="BY49" s="352"/>
+      <c r="BZ49" s="352"/>
+      <c r="CA49" s="352"/>
+      <c r="CB49" s="352"/>
+      <c r="CC49" s="352"/>
+      <c r="CD49" s="353"/>
       <c r="CE49" s="136" t="s">
         <v>197</v>
       </c>
@@ -51878,87 +51874,87 @@
       <c r="CX49" s="141"/>
     </row>
     <row r="50" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="352"/>
-      <c r="C50" s="353"/>
-      <c r="D50" s="353"/>
-      <c r="E50" s="353"/>
-      <c r="F50" s="353"/>
-      <c r="G50" s="353"/>
-      <c r="H50" s="353"/>
-      <c r="I50" s="353"/>
-      <c r="J50" s="353"/>
-      <c r="K50" s="353"/>
-      <c r="L50" s="353"/>
-      <c r="M50" s="353"/>
-      <c r="N50" s="353"/>
-      <c r="O50" s="353"/>
-      <c r="P50" s="353"/>
-      <c r="Q50" s="353"/>
-      <c r="R50" s="353"/>
-      <c r="S50" s="353"/>
-      <c r="T50" s="353"/>
-      <c r="U50" s="353"/>
-      <c r="V50" s="353"/>
-      <c r="W50" s="353"/>
-      <c r="X50" s="353"/>
-      <c r="Y50" s="353"/>
-      <c r="Z50" s="353"/>
-      <c r="AA50" s="353"/>
-      <c r="AB50" s="353"/>
-      <c r="AC50" s="353"/>
-      <c r="AD50" s="353"/>
-      <c r="AE50" s="353"/>
-      <c r="AF50" s="353"/>
-      <c r="AG50" s="353"/>
-      <c r="AH50" s="353"/>
-      <c r="AI50" s="353"/>
-      <c r="AJ50" s="353"/>
-      <c r="AK50" s="353"/>
-      <c r="AL50" s="353"/>
-      <c r="AM50" s="353"/>
-      <c r="AN50" s="353"/>
-      <c r="AO50" s="353"/>
-      <c r="AP50" s="353"/>
-      <c r="AQ50" s="353"/>
-      <c r="AR50" s="353"/>
-      <c r="AS50" s="353"/>
-      <c r="AT50" s="353"/>
-      <c r="AU50" s="353"/>
-      <c r="AV50" s="353"/>
-      <c r="AW50" s="353"/>
-      <c r="AX50" s="353"/>
-      <c r="AY50" s="353"/>
-      <c r="AZ50" s="353"/>
-      <c r="BA50" s="353"/>
-      <c r="BB50" s="353"/>
-      <c r="BC50" s="353"/>
-      <c r="BD50" s="353"/>
-      <c r="BE50" s="353"/>
-      <c r="BF50" s="353"/>
-      <c r="BG50" s="353"/>
-      <c r="BH50" s="353"/>
-      <c r="BI50" s="353"/>
-      <c r="BJ50" s="353"/>
-      <c r="BK50" s="353"/>
-      <c r="BL50" s="353"/>
-      <c r="BM50" s="353"/>
-      <c r="BN50" s="353"/>
-      <c r="BO50" s="353"/>
-      <c r="BP50" s="353"/>
-      <c r="BQ50" s="353"/>
-      <c r="BR50" s="353"/>
-      <c r="BS50" s="353"/>
-      <c r="BT50" s="353"/>
-      <c r="BU50" s="353"/>
-      <c r="BV50" s="353"/>
-      <c r="BW50" s="353"/>
-      <c r="BX50" s="353"/>
-      <c r="BY50" s="353"/>
-      <c r="BZ50" s="353"/>
-      <c r="CA50" s="353"/>
-      <c r="CB50" s="353"/>
-      <c r="CC50" s="353"/>
-      <c r="CD50" s="354"/>
+      <c r="B50" s="354"/>
+      <c r="C50" s="355"/>
+      <c r="D50" s="355"/>
+      <c r="E50" s="355"/>
+      <c r="F50" s="355"/>
+      <c r="G50" s="355"/>
+      <c r="H50" s="355"/>
+      <c r="I50" s="355"/>
+      <c r="J50" s="355"/>
+      <c r="K50" s="355"/>
+      <c r="L50" s="355"/>
+      <c r="M50" s="355"/>
+      <c r="N50" s="355"/>
+      <c r="O50" s="355"/>
+      <c r="P50" s="355"/>
+      <c r="Q50" s="355"/>
+      <c r="R50" s="355"/>
+      <c r="S50" s="355"/>
+      <c r="T50" s="355"/>
+      <c r="U50" s="355"/>
+      <c r="V50" s="355"/>
+      <c r="W50" s="355"/>
+      <c r="X50" s="355"/>
+      <c r="Y50" s="355"/>
+      <c r="Z50" s="355"/>
+      <c r="AA50" s="355"/>
+      <c r="AB50" s="355"/>
+      <c r="AC50" s="355"/>
+      <c r="AD50" s="355"/>
+      <c r="AE50" s="355"/>
+      <c r="AF50" s="355"/>
+      <c r="AG50" s="355"/>
+      <c r="AH50" s="355"/>
+      <c r="AI50" s="355"/>
+      <c r="AJ50" s="355"/>
+      <c r="AK50" s="355"/>
+      <c r="AL50" s="355"/>
+      <c r="AM50" s="355"/>
+      <c r="AN50" s="355"/>
+      <c r="AO50" s="355"/>
+      <c r="AP50" s="355"/>
+      <c r="AQ50" s="355"/>
+      <c r="AR50" s="355"/>
+      <c r="AS50" s="355"/>
+      <c r="AT50" s="355"/>
+      <c r="AU50" s="355"/>
+      <c r="AV50" s="355"/>
+      <c r="AW50" s="355"/>
+      <c r="AX50" s="355"/>
+      <c r="AY50" s="355"/>
+      <c r="AZ50" s="355"/>
+      <c r="BA50" s="355"/>
+      <c r="BB50" s="355"/>
+      <c r="BC50" s="355"/>
+      <c r="BD50" s="355"/>
+      <c r="BE50" s="355"/>
+      <c r="BF50" s="355"/>
+      <c r="BG50" s="355"/>
+      <c r="BH50" s="355"/>
+      <c r="BI50" s="355"/>
+      <c r="BJ50" s="355"/>
+      <c r="BK50" s="355"/>
+      <c r="BL50" s="355"/>
+      <c r="BM50" s="355"/>
+      <c r="BN50" s="355"/>
+      <c r="BO50" s="355"/>
+      <c r="BP50" s="355"/>
+      <c r="BQ50" s="355"/>
+      <c r="BR50" s="355"/>
+      <c r="BS50" s="355"/>
+      <c r="BT50" s="355"/>
+      <c r="BU50" s="355"/>
+      <c r="BV50" s="355"/>
+      <c r="BW50" s="355"/>
+      <c r="BX50" s="355"/>
+      <c r="BY50" s="355"/>
+      <c r="BZ50" s="355"/>
+      <c r="CA50" s="355"/>
+      <c r="CB50" s="355"/>
+      <c r="CC50" s="355"/>
+      <c r="CD50" s="356"/>
       <c r="CE50" s="142" t="s">
         <v>199</v>
       </c>
@@ -56578,89 +56574,89 @@
       <c r="CX93" s="135"/>
     </row>
     <row r="94" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="349" t="s">
+      <c r="B94" s="351" t="s">
         <v>425</v>
       </c>
-      <c r="C94" s="350"/>
-      <c r="D94" s="350"/>
-      <c r="E94" s="350"/>
-      <c r="F94" s="350"/>
-      <c r="G94" s="350"/>
-      <c r="H94" s="350"/>
-      <c r="I94" s="350"/>
-      <c r="J94" s="350"/>
-      <c r="K94" s="350"/>
-      <c r="L94" s="350"/>
-      <c r="M94" s="350"/>
-      <c r="N94" s="350"/>
-      <c r="O94" s="350"/>
-      <c r="P94" s="350"/>
-      <c r="Q94" s="350"/>
-      <c r="R94" s="350"/>
-      <c r="S94" s="350"/>
-      <c r="T94" s="350"/>
-      <c r="U94" s="350"/>
-      <c r="V94" s="350"/>
-      <c r="W94" s="350"/>
-      <c r="X94" s="350"/>
-      <c r="Y94" s="350"/>
-      <c r="Z94" s="350"/>
-      <c r="AA94" s="350"/>
-      <c r="AB94" s="350"/>
-      <c r="AC94" s="350"/>
-      <c r="AD94" s="350"/>
-      <c r="AE94" s="350"/>
-      <c r="AF94" s="350"/>
-      <c r="AG94" s="350"/>
-      <c r="AH94" s="350"/>
-      <c r="AI94" s="350"/>
-      <c r="AJ94" s="350"/>
-      <c r="AK94" s="350"/>
-      <c r="AL94" s="350"/>
-      <c r="AM94" s="350"/>
-      <c r="AN94" s="350"/>
-      <c r="AO94" s="350"/>
-      <c r="AP94" s="350"/>
-      <c r="AQ94" s="350"/>
-      <c r="AR94" s="350"/>
-      <c r="AS94" s="350"/>
-      <c r="AT94" s="350"/>
-      <c r="AU94" s="350"/>
-      <c r="AV94" s="350"/>
-      <c r="AW94" s="350"/>
-      <c r="AX94" s="350"/>
-      <c r="AY94" s="350"/>
-      <c r="AZ94" s="350"/>
-      <c r="BA94" s="350"/>
-      <c r="BB94" s="350"/>
-      <c r="BC94" s="350"/>
-      <c r="BD94" s="350"/>
-      <c r="BE94" s="350"/>
-      <c r="BF94" s="350"/>
-      <c r="BG94" s="350"/>
-      <c r="BH94" s="350"/>
-      <c r="BI94" s="350"/>
-      <c r="BJ94" s="350"/>
-      <c r="BK94" s="350"/>
-      <c r="BL94" s="350"/>
-      <c r="BM94" s="350"/>
-      <c r="BN94" s="350"/>
-      <c r="BO94" s="350"/>
-      <c r="BP94" s="350"/>
-      <c r="BQ94" s="350"/>
-      <c r="BR94" s="350"/>
-      <c r="BS94" s="350"/>
-      <c r="BT94" s="350"/>
-      <c r="BU94" s="350"/>
-      <c r="BV94" s="350"/>
-      <c r="BW94" s="350"/>
-      <c r="BX94" s="350"/>
-      <c r="BY94" s="350"/>
-      <c r="BZ94" s="350"/>
-      <c r="CA94" s="350"/>
-      <c r="CB94" s="350"/>
-      <c r="CC94" s="350"/>
-      <c r="CD94" s="351"/>
+      <c r="C94" s="352"/>
+      <c r="D94" s="352"/>
+      <c r="E94" s="352"/>
+      <c r="F94" s="352"/>
+      <c r="G94" s="352"/>
+      <c r="H94" s="352"/>
+      <c r="I94" s="352"/>
+      <c r="J94" s="352"/>
+      <c r="K94" s="352"/>
+      <c r="L94" s="352"/>
+      <c r="M94" s="352"/>
+      <c r="N94" s="352"/>
+      <c r="O94" s="352"/>
+      <c r="P94" s="352"/>
+      <c r="Q94" s="352"/>
+      <c r="R94" s="352"/>
+      <c r="S94" s="352"/>
+      <c r="T94" s="352"/>
+      <c r="U94" s="352"/>
+      <c r="V94" s="352"/>
+      <c r="W94" s="352"/>
+      <c r="X94" s="352"/>
+      <c r="Y94" s="352"/>
+      <c r="Z94" s="352"/>
+      <c r="AA94" s="352"/>
+      <c r="AB94" s="352"/>
+      <c r="AC94" s="352"/>
+      <c r="AD94" s="352"/>
+      <c r="AE94" s="352"/>
+      <c r="AF94" s="352"/>
+      <c r="AG94" s="352"/>
+      <c r="AH94" s="352"/>
+      <c r="AI94" s="352"/>
+      <c r="AJ94" s="352"/>
+      <c r="AK94" s="352"/>
+      <c r="AL94" s="352"/>
+      <c r="AM94" s="352"/>
+      <c r="AN94" s="352"/>
+      <c r="AO94" s="352"/>
+      <c r="AP94" s="352"/>
+      <c r="AQ94" s="352"/>
+      <c r="AR94" s="352"/>
+      <c r="AS94" s="352"/>
+      <c r="AT94" s="352"/>
+      <c r="AU94" s="352"/>
+      <c r="AV94" s="352"/>
+      <c r="AW94" s="352"/>
+      <c r="AX94" s="352"/>
+      <c r="AY94" s="352"/>
+      <c r="AZ94" s="352"/>
+      <c r="BA94" s="352"/>
+      <c r="BB94" s="352"/>
+      <c r="BC94" s="352"/>
+      <c r="BD94" s="352"/>
+      <c r="BE94" s="352"/>
+      <c r="BF94" s="352"/>
+      <c r="BG94" s="352"/>
+      <c r="BH94" s="352"/>
+      <c r="BI94" s="352"/>
+      <c r="BJ94" s="352"/>
+      <c r="BK94" s="352"/>
+      <c r="BL94" s="352"/>
+      <c r="BM94" s="352"/>
+      <c r="BN94" s="352"/>
+      <c r="BO94" s="352"/>
+      <c r="BP94" s="352"/>
+      <c r="BQ94" s="352"/>
+      <c r="BR94" s="352"/>
+      <c r="BS94" s="352"/>
+      <c r="BT94" s="352"/>
+      <c r="BU94" s="352"/>
+      <c r="BV94" s="352"/>
+      <c r="BW94" s="352"/>
+      <c r="BX94" s="352"/>
+      <c r="BY94" s="352"/>
+      <c r="BZ94" s="352"/>
+      <c r="CA94" s="352"/>
+      <c r="CB94" s="352"/>
+      <c r="CC94" s="352"/>
+      <c r="CD94" s="353"/>
       <c r="CE94" s="136" t="s">
         <v>197</v>
       </c>
@@ -56687,87 +56683,87 @@
       <c r="CX94" s="141"/>
     </row>
     <row r="95" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="352"/>
-      <c r="C95" s="353"/>
-      <c r="D95" s="353"/>
-      <c r="E95" s="353"/>
-      <c r="F95" s="353"/>
-      <c r="G95" s="353"/>
-      <c r="H95" s="353"/>
-      <c r="I95" s="353"/>
-      <c r="J95" s="353"/>
-      <c r="K95" s="353"/>
-      <c r="L95" s="353"/>
-      <c r="M95" s="353"/>
-      <c r="N95" s="353"/>
-      <c r="O95" s="353"/>
-      <c r="P95" s="353"/>
-      <c r="Q95" s="353"/>
-      <c r="R95" s="353"/>
-      <c r="S95" s="353"/>
-      <c r="T95" s="353"/>
-      <c r="U95" s="353"/>
-      <c r="V95" s="353"/>
-      <c r="W95" s="353"/>
-      <c r="X95" s="353"/>
-      <c r="Y95" s="353"/>
-      <c r="Z95" s="353"/>
-      <c r="AA95" s="353"/>
-      <c r="AB95" s="353"/>
-      <c r="AC95" s="353"/>
-      <c r="AD95" s="353"/>
-      <c r="AE95" s="353"/>
-      <c r="AF95" s="353"/>
-      <c r="AG95" s="353"/>
-      <c r="AH95" s="353"/>
-      <c r="AI95" s="353"/>
-      <c r="AJ95" s="353"/>
-      <c r="AK95" s="353"/>
-      <c r="AL95" s="353"/>
-      <c r="AM95" s="353"/>
-      <c r="AN95" s="353"/>
-      <c r="AO95" s="353"/>
-      <c r="AP95" s="353"/>
-      <c r="AQ95" s="353"/>
-      <c r="AR95" s="353"/>
-      <c r="AS95" s="353"/>
-      <c r="AT95" s="353"/>
-      <c r="AU95" s="353"/>
-      <c r="AV95" s="353"/>
-      <c r="AW95" s="353"/>
-      <c r="AX95" s="353"/>
-      <c r="AY95" s="353"/>
-      <c r="AZ95" s="353"/>
-      <c r="BA95" s="353"/>
-      <c r="BB95" s="353"/>
-      <c r="BC95" s="353"/>
-      <c r="BD95" s="353"/>
-      <c r="BE95" s="353"/>
-      <c r="BF95" s="353"/>
-      <c r="BG95" s="353"/>
-      <c r="BH95" s="353"/>
-      <c r="BI95" s="353"/>
-      <c r="BJ95" s="353"/>
-      <c r="BK95" s="353"/>
-      <c r="BL95" s="353"/>
-      <c r="BM95" s="353"/>
-      <c r="BN95" s="353"/>
-      <c r="BO95" s="353"/>
-      <c r="BP95" s="353"/>
-      <c r="BQ95" s="353"/>
-      <c r="BR95" s="353"/>
-      <c r="BS95" s="353"/>
-      <c r="BT95" s="353"/>
-      <c r="BU95" s="353"/>
-      <c r="BV95" s="353"/>
-      <c r="BW95" s="353"/>
-      <c r="BX95" s="353"/>
-      <c r="BY95" s="353"/>
-      <c r="BZ95" s="353"/>
-      <c r="CA95" s="353"/>
-      <c r="CB95" s="353"/>
-      <c r="CC95" s="353"/>
-      <c r="CD95" s="354"/>
+      <c r="B95" s="354"/>
+      <c r="C95" s="355"/>
+      <c r="D95" s="355"/>
+      <c r="E95" s="355"/>
+      <c r="F95" s="355"/>
+      <c r="G95" s="355"/>
+      <c r="H95" s="355"/>
+      <c r="I95" s="355"/>
+      <c r="J95" s="355"/>
+      <c r="K95" s="355"/>
+      <c r="L95" s="355"/>
+      <c r="M95" s="355"/>
+      <c r="N95" s="355"/>
+      <c r="O95" s="355"/>
+      <c r="P95" s="355"/>
+      <c r="Q95" s="355"/>
+      <c r="R95" s="355"/>
+      <c r="S95" s="355"/>
+      <c r="T95" s="355"/>
+      <c r="U95" s="355"/>
+      <c r="V95" s="355"/>
+      <c r="W95" s="355"/>
+      <c r="X95" s="355"/>
+      <c r="Y95" s="355"/>
+      <c r="Z95" s="355"/>
+      <c r="AA95" s="355"/>
+      <c r="AB95" s="355"/>
+      <c r="AC95" s="355"/>
+      <c r="AD95" s="355"/>
+      <c r="AE95" s="355"/>
+      <c r="AF95" s="355"/>
+      <c r="AG95" s="355"/>
+      <c r="AH95" s="355"/>
+      <c r="AI95" s="355"/>
+      <c r="AJ95" s="355"/>
+      <c r="AK95" s="355"/>
+      <c r="AL95" s="355"/>
+      <c r="AM95" s="355"/>
+      <c r="AN95" s="355"/>
+      <c r="AO95" s="355"/>
+      <c r="AP95" s="355"/>
+      <c r="AQ95" s="355"/>
+      <c r="AR95" s="355"/>
+      <c r="AS95" s="355"/>
+      <c r="AT95" s="355"/>
+      <c r="AU95" s="355"/>
+      <c r="AV95" s="355"/>
+      <c r="AW95" s="355"/>
+      <c r="AX95" s="355"/>
+      <c r="AY95" s="355"/>
+      <c r="AZ95" s="355"/>
+      <c r="BA95" s="355"/>
+      <c r="BB95" s="355"/>
+      <c r="BC95" s="355"/>
+      <c r="BD95" s="355"/>
+      <c r="BE95" s="355"/>
+      <c r="BF95" s="355"/>
+      <c r="BG95" s="355"/>
+      <c r="BH95" s="355"/>
+      <c r="BI95" s="355"/>
+      <c r="BJ95" s="355"/>
+      <c r="BK95" s="355"/>
+      <c r="BL95" s="355"/>
+      <c r="BM95" s="355"/>
+      <c r="BN95" s="355"/>
+      <c r="BO95" s="355"/>
+      <c r="BP95" s="355"/>
+      <c r="BQ95" s="355"/>
+      <c r="BR95" s="355"/>
+      <c r="BS95" s="355"/>
+      <c r="BT95" s="355"/>
+      <c r="BU95" s="355"/>
+      <c r="BV95" s="355"/>
+      <c r="BW95" s="355"/>
+      <c r="BX95" s="355"/>
+      <c r="BY95" s="355"/>
+      <c r="BZ95" s="355"/>
+      <c r="CA95" s="355"/>
+      <c r="CB95" s="355"/>
+      <c r="CC95" s="355"/>
+      <c r="CD95" s="356"/>
       <c r="CE95" s="142" t="s">
         <v>199</v>
       </c>

--- a/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE1984-5A0A-4634-A2A2-FF67902B4BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99503FF5-349E-4C1B-A5E2-466EBBD61DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="567">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -4179,6 +4179,14 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>check on</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>check off</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -5712,91 +5720,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5823,6 +5746,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6949,7 +6957,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3799"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3805"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7014,7 +7022,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3800"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3806"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7079,7 +7087,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3801"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3807"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10201,7 +10209,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AW42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10621,1779 +10629,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
-      <c r="B1" s="314" t="s">
+      <c r="B1" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="314"/>
-      <c r="P1" s="314"/>
-      <c r="Q1" s="314"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="314"/>
-      <c r="T1" s="314"/>
-      <c r="U1" s="314"/>
-      <c r="V1" s="314"/>
-      <c r="W1" s="314"/>
-      <c r="X1" s="314"/>
-      <c r="Y1" s="314"/>
-      <c r="Z1" s="314"/>
-      <c r="AA1" s="314"/>
-      <c r="AB1" s="314"/>
-      <c r="AC1" s="314"/>
-      <c r="AD1" s="314"/>
-      <c r="AE1" s="314"/>
-      <c r="AF1" s="314"/>
-      <c r="AG1" s="314"/>
-      <c r="AH1" s="314"/>
-      <c r="AI1" s="314"/>
-      <c r="AJ1" s="314"/>
-      <c r="AK1" s="314"/>
-      <c r="AL1" s="314"/>
-      <c r="AM1" s="314"/>
-      <c r="AN1" s="314"/>
-      <c r="AO1" s="314"/>
-      <c r="AP1" s="314"/>
-      <c r="AQ1" s="314"/>
-      <c r="AR1" s="314"/>
-      <c r="AS1" s="314"/>
-      <c r="AT1" s="314"/>
-      <c r="AU1" s="314"/>
-      <c r="AV1" s="314"/>
-      <c r="AW1" s="314"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="283"/>
+      <c r="K1" s="283"/>
+      <c r="L1" s="283"/>
+      <c r="M1" s="283"/>
+      <c r="N1" s="283"/>
+      <c r="O1" s="283"/>
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="283"/>
+      <c r="S1" s="283"/>
+      <c r="T1" s="283"/>
+      <c r="U1" s="283"/>
+      <c r="V1" s="283"/>
+      <c r="W1" s="283"/>
+      <c r="X1" s="283"/>
+      <c r="Y1" s="283"/>
+      <c r="Z1" s="283"/>
+      <c r="AA1" s="283"/>
+      <c r="AB1" s="283"/>
+      <c r="AC1" s="283"/>
+      <c r="AD1" s="283"/>
+      <c r="AE1" s="283"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="283"/>
+      <c r="AH1" s="283"/>
+      <c r="AI1" s="283"/>
+      <c r="AJ1" s="283"/>
+      <c r="AK1" s="283"/>
+      <c r="AL1" s="283"/>
+      <c r="AM1" s="283"/>
+      <c r="AN1" s="283"/>
+      <c r="AO1" s="283"/>
+      <c r="AP1" s="283"/>
+      <c r="AQ1" s="283"/>
+      <c r="AR1" s="283"/>
+      <c r="AS1" s="283"/>
+      <c r="AT1" s="283"/>
+      <c r="AU1" s="283"/>
+      <c r="AV1" s="283"/>
+      <c r="AW1" s="283"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315"/>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
-      <c r="V2" s="315"/>
-      <c r="W2" s="315"/>
-      <c r="X2" s="315"/>
-      <c r="Y2" s="315"/>
-      <c r="Z2" s="315"/>
-      <c r="AA2" s="315"/>
-      <c r="AB2" s="315"/>
-      <c r="AC2" s="315"/>
-      <c r="AD2" s="315"/>
-      <c r="AE2" s="315"/>
-      <c r="AF2" s="315"/>
-      <c r="AG2" s="315"/>
-      <c r="AH2" s="315"/>
-      <c r="AI2" s="315"/>
-      <c r="AJ2" s="315"/>
-      <c r="AK2" s="315"/>
-      <c r="AL2" s="315"/>
-      <c r="AM2" s="315"/>
-      <c r="AN2" s="315"/>
-      <c r="AO2" s="315"/>
-      <c r="AP2" s="315"/>
-      <c r="AQ2" s="315"/>
-      <c r="AR2" s="315"/>
-      <c r="AS2" s="315"/>
-      <c r="AT2" s="315"/>
-      <c r="AU2" s="315"/>
-      <c r="AV2" s="315"/>
-      <c r="AW2" s="315"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="284"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="284"/>
+      <c r="M2" s="284"/>
+      <c r="N2" s="284"/>
+      <c r="O2" s="284"/>
+      <c r="P2" s="284"/>
+      <c r="Q2" s="284"/>
+      <c r="R2" s="284"/>
+      <c r="S2" s="284"/>
+      <c r="T2" s="284"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="284"/>
+      <c r="W2" s="284"/>
+      <c r="X2" s="284"/>
+      <c r="Y2" s="284"/>
+      <c r="Z2" s="284"/>
+      <c r="AA2" s="284"/>
+      <c r="AB2" s="284"/>
+      <c r="AC2" s="284"/>
+      <c r="AD2" s="284"/>
+      <c r="AE2" s="284"/>
+      <c r="AF2" s="284"/>
+      <c r="AG2" s="284"/>
+      <c r="AH2" s="284"/>
+      <c r="AI2" s="284"/>
+      <c r="AJ2" s="284"/>
+      <c r="AK2" s="284"/>
+      <c r="AL2" s="284"/>
+      <c r="AM2" s="284"/>
+      <c r="AN2" s="284"/>
+      <c r="AO2" s="284"/>
+      <c r="AP2" s="284"/>
+      <c r="AQ2" s="284"/>
+      <c r="AR2" s="284"/>
+      <c r="AS2" s="284"/>
+      <c r="AT2" s="284"/>
+      <c r="AU2" s="284"/>
+      <c r="AV2" s="284"/>
+      <c r="AW2" s="284"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="316" t="s">
+      <c r="B3" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316" t="s">
+      <c r="C3" s="285"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="317" t="s">
+      <c r="F3" s="285"/>
+      <c r="G3" s="285"/>
+      <c r="H3" s="285"/>
+      <c r="I3" s="285"/>
+      <c r="J3" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="318"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="317" t="s">
+      <c r="K3" s="287"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="318"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="318"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="316" t="s">
+      <c r="N3" s="287"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="287"/>
+      <c r="Q3" s="287"/>
+      <c r="R3" s="288"/>
+      <c r="S3" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="316"/>
-      <c r="U3" s="316"/>
-      <c r="V3" s="316" t="s">
+      <c r="T3" s="285"/>
+      <c r="U3" s="285"/>
+      <c r="V3" s="285" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="316"/>
-      <c r="X3" s="316"/>
-      <c r="Y3" s="316"/>
-      <c r="Z3" s="316"/>
-      <c r="AA3" s="316"/>
-      <c r="AB3" s="316"/>
-      <c r="AC3" s="316"/>
-      <c r="AD3" s="316"/>
-      <c r="AE3" s="316"/>
-      <c r="AF3" s="316"/>
-      <c r="AG3" s="316"/>
-      <c r="AH3" s="316"/>
-      <c r="AI3" s="316"/>
-      <c r="AJ3" s="316"/>
-      <c r="AK3" s="316"/>
-      <c r="AL3" s="316"/>
-      <c r="AM3" s="316"/>
-      <c r="AN3" s="316" t="s">
+      <c r="W3" s="285"/>
+      <c r="X3" s="285"/>
+      <c r="Y3" s="285"/>
+      <c r="Z3" s="285"/>
+      <c r="AA3" s="285"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="285"/>
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="285"/>
+      <c r="AG3" s="285"/>
+      <c r="AH3" s="285"/>
+      <c r="AI3" s="285"/>
+      <c r="AJ3" s="285"/>
+      <c r="AK3" s="285"/>
+      <c r="AL3" s="285"/>
+      <c r="AM3" s="285"/>
+      <c r="AN3" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="316"/>
-      <c r="AP3" s="316"/>
-      <c r="AQ3" s="316"/>
-      <c r="AR3" s="316"/>
-      <c r="AS3" s="316" t="s">
+      <c r="AO3" s="285"/>
+      <c r="AP3" s="285"/>
+      <c r="AQ3" s="285"/>
+      <c r="AR3" s="285"/>
+      <c r="AS3" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="316"/>
-      <c r="AU3" s="316"/>
-      <c r="AV3" s="316"/>
-      <c r="AW3" s="316"/>
+      <c r="AT3" s="285"/>
+      <c r="AU3" s="285"/>
+      <c r="AV3" s="285"/>
+      <c r="AW3" s="285"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
-      <c r="B4" s="316"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
-      <c r="F4" s="316"/>
-      <c r="G4" s="316"/>
-      <c r="H4" s="316"/>
-      <c r="I4" s="316"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="321"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="320"/>
-      <c r="N4" s="321"/>
-      <c r="O4" s="321"/>
-      <c r="P4" s="321"/>
-      <c r="Q4" s="321"/>
-      <c r="R4" s="322"/>
-      <c r="S4" s="316"/>
-      <c r="T4" s="316"/>
-      <c r="U4" s="316"/>
-      <c r="V4" s="316"/>
-      <c r="W4" s="316"/>
-      <c r="X4" s="316"/>
-      <c r="Y4" s="316"/>
-      <c r="Z4" s="316"/>
-      <c r="AA4" s="316"/>
-      <c r="AB4" s="316"/>
-      <c r="AC4" s="316"/>
-      <c r="AD4" s="316"/>
-      <c r="AE4" s="316"/>
-      <c r="AF4" s="316"/>
-      <c r="AG4" s="316"/>
-      <c r="AH4" s="316"/>
-      <c r="AI4" s="316"/>
-      <c r="AJ4" s="316"/>
-      <c r="AK4" s="316"/>
-      <c r="AL4" s="316"/>
-      <c r="AM4" s="316"/>
-      <c r="AN4" s="316"/>
-      <c r="AO4" s="316"/>
-      <c r="AP4" s="316"/>
-      <c r="AQ4" s="316"/>
-      <c r="AR4" s="316"/>
-      <c r="AS4" s="316"/>
-      <c r="AT4" s="316"/>
-      <c r="AU4" s="316"/>
-      <c r="AV4" s="316"/>
-      <c r="AW4" s="316"/>
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="290"/>
+      <c r="O4" s="290"/>
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290"/>
+      <c r="R4" s="291"/>
+      <c r="S4" s="285"/>
+      <c r="T4" s="285"/>
+      <c r="U4" s="285"/>
+      <c r="V4" s="285"/>
+      <c r="W4" s="285"/>
+      <c r="X4" s="285"/>
+      <c r="Y4" s="285"/>
+      <c r="Z4" s="285"/>
+      <c r="AA4" s="285"/>
+      <c r="AB4" s="285"/>
+      <c r="AC4" s="285"/>
+      <c r="AD4" s="285"/>
+      <c r="AE4" s="285"/>
+      <c r="AF4" s="285"/>
+      <c r="AG4" s="285"/>
+      <c r="AH4" s="285"/>
+      <c r="AI4" s="285"/>
+      <c r="AJ4" s="285"/>
+      <c r="AK4" s="285"/>
+      <c r="AL4" s="285"/>
+      <c r="AM4" s="285"/>
+      <c r="AN4" s="285"/>
+      <c r="AO4" s="285"/>
+      <c r="AP4" s="285"/>
+      <c r="AQ4" s="285"/>
+      <c r="AR4" s="285"/>
+      <c r="AS4" s="285"/>
+      <c r="AT4" s="285"/>
+      <c r="AU4" s="285"/>
+      <c r="AV4" s="285"/>
+      <c r="AW4" s="285"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
-      <c r="B5" s="308">
+      <c r="B5" s="293">
         <v>1</v>
       </c>
-      <c r="C5" s="308"/>
-      <c r="D5" s="308"/>
-      <c r="E5" s="289">
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="294">
         <v>43720</v>
       </c>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="289"/>
-      <c r="J5" s="290" t="s">
+      <c r="F5" s="294"/>
+      <c r="G5" s="294"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="291"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="290" t="s">
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="291"/>
-      <c r="O5" s="291"/>
-      <c r="P5" s="291"/>
-      <c r="Q5" s="291"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="296" t="s">
+      <c r="N5" s="296"/>
+      <c r="O5" s="296"/>
+      <c r="P5" s="296"/>
+      <c r="Q5" s="296"/>
+      <c r="R5" s="297"/>
+      <c r="S5" s="292" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="296"/>
-      <c r="U5" s="296"/>
-      <c r="V5" s="307" t="s">
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="301" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="307"/>
-      <c r="X5" s="307"/>
-      <c r="Y5" s="307"/>
-      <c r="Z5" s="307"/>
-      <c r="AA5" s="307"/>
-      <c r="AB5" s="307"/>
-      <c r="AC5" s="307"/>
-      <c r="AD5" s="307"/>
-      <c r="AE5" s="307"/>
-      <c r="AF5" s="307"/>
-      <c r="AG5" s="307"/>
-      <c r="AH5" s="307"/>
-      <c r="AI5" s="307"/>
-      <c r="AJ5" s="307"/>
-      <c r="AK5" s="307"/>
-      <c r="AL5" s="307"/>
-      <c r="AM5" s="307"/>
-      <c r="AN5" s="296" t="s">
+      <c r="W5" s="301"/>
+      <c r="X5" s="301"/>
+      <c r="Y5" s="301"/>
+      <c r="Z5" s="301"/>
+      <c r="AA5" s="301"/>
+      <c r="AB5" s="301"/>
+      <c r="AC5" s="301"/>
+      <c r="AD5" s="301"/>
+      <c r="AE5" s="301"/>
+      <c r="AF5" s="301"/>
+      <c r="AG5" s="301"/>
+      <c r="AH5" s="301"/>
+      <c r="AI5" s="301"/>
+      <c r="AJ5" s="301"/>
+      <c r="AK5" s="301"/>
+      <c r="AL5" s="301"/>
+      <c r="AM5" s="301"/>
+      <c r="AN5" s="292" t="s">
         <v>221</v>
       </c>
-      <c r="AO5" s="296"/>
-      <c r="AP5" s="296"/>
-      <c r="AQ5" s="296"/>
-      <c r="AR5" s="296"/>
-      <c r="AS5" s="296"/>
-      <c r="AT5" s="296"/>
-      <c r="AU5" s="296"/>
-      <c r="AV5" s="296"/>
-      <c r="AW5" s="296"/>
+      <c r="AO5" s="292"/>
+      <c r="AP5" s="292"/>
+      <c r="AQ5" s="292"/>
+      <c r="AR5" s="292"/>
+      <c r="AS5" s="292"/>
+      <c r="AT5" s="292"/>
+      <c r="AU5" s="292"/>
+      <c r="AV5" s="292"/>
+      <c r="AW5" s="292"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="308"/>
-      <c r="C6" s="308"/>
-      <c r="D6" s="308"/>
-      <c r="E6" s="289"/>
-      <c r="F6" s="289"/>
-      <c r="G6" s="289"/>
-      <c r="H6" s="289"/>
-      <c r="I6" s="289"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="291"/>
-      <c r="L6" s="292"/>
-      <c r="M6" s="311"/>
-      <c r="N6" s="312"/>
-      <c r="O6" s="312"/>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="312"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="296"/>
-      <c r="T6" s="296"/>
-      <c r="U6" s="296"/>
-      <c r="V6" s="307"/>
-      <c r="W6" s="307"/>
-      <c r="X6" s="307"/>
-      <c r="Y6" s="307"/>
-      <c r="Z6" s="307"/>
-      <c r="AA6" s="307"/>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="307"/>
-      <c r="AD6" s="307"/>
-      <c r="AE6" s="307"/>
-      <c r="AF6" s="307"/>
-      <c r="AG6" s="307"/>
-      <c r="AH6" s="307"/>
-      <c r="AI6" s="307"/>
-      <c r="AJ6" s="307"/>
-      <c r="AK6" s="307"/>
-      <c r="AL6" s="307"/>
-      <c r="AM6" s="307"/>
-      <c r="AN6" s="296"/>
-      <c r="AO6" s="296"/>
-      <c r="AP6" s="296"/>
-      <c r="AQ6" s="296"/>
-      <c r="AR6" s="296"/>
-      <c r="AS6" s="296"/>
-      <c r="AT6" s="296"/>
-      <c r="AU6" s="296"/>
-      <c r="AV6" s="296"/>
-      <c r="AW6" s="296"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="297"/>
+      <c r="M6" s="298"/>
+      <c r="N6" s="299"/>
+      <c r="O6" s="299"/>
+      <c r="P6" s="299"/>
+      <c r="Q6" s="299"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="292"/>
+      <c r="T6" s="292"/>
+      <c r="U6" s="292"/>
+      <c r="V6" s="301"/>
+      <c r="W6" s="301"/>
+      <c r="X6" s="301"/>
+      <c r="Y6" s="301"/>
+      <c r="Z6" s="301"/>
+      <c r="AA6" s="301"/>
+      <c r="AB6" s="301"/>
+      <c r="AC6" s="301"/>
+      <c r="AD6" s="301"/>
+      <c r="AE6" s="301"/>
+      <c r="AF6" s="301"/>
+      <c r="AG6" s="301"/>
+      <c r="AH6" s="301"/>
+      <c r="AI6" s="301"/>
+      <c r="AJ6" s="301"/>
+      <c r="AK6" s="301"/>
+      <c r="AL6" s="301"/>
+      <c r="AM6" s="301"/>
+      <c r="AN6" s="292"/>
+      <c r="AO6" s="292"/>
+      <c r="AP6" s="292"/>
+      <c r="AQ6" s="292"/>
+      <c r="AR6" s="292"/>
+      <c r="AS6" s="292"/>
+      <c r="AT6" s="292"/>
+      <c r="AU6" s="292"/>
+      <c r="AV6" s="292"/>
+      <c r="AW6" s="292"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="308"/>
-      <c r="C7" s="308"/>
-      <c r="D7" s="308"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
-      <c r="I7" s="289"/>
-      <c r="J7" s="290"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="292"/>
-      <c r="M7" s="311"/>
-      <c r="N7" s="312"/>
-      <c r="O7" s="312"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="312"/>
-      <c r="R7" s="313"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="296"/>
-      <c r="U7" s="296"/>
-      <c r="V7" s="307"/>
-      <c r="W7" s="307"/>
-      <c r="X7" s="307"/>
-      <c r="Y7" s="307"/>
-      <c r="Z7" s="307"/>
-      <c r="AA7" s="307"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="307"/>
-      <c r="AD7" s="307"/>
-      <c r="AE7" s="307"/>
-      <c r="AF7" s="307"/>
-      <c r="AG7" s="307"/>
-      <c r="AH7" s="307"/>
-      <c r="AI7" s="307"/>
-      <c r="AJ7" s="307"/>
-      <c r="AK7" s="307"/>
-      <c r="AL7" s="307"/>
-      <c r="AM7" s="307"/>
-      <c r="AN7" s="296"/>
-      <c r="AO7" s="296"/>
-      <c r="AP7" s="296"/>
-      <c r="AQ7" s="296"/>
-      <c r="AR7" s="296"/>
-      <c r="AS7" s="296"/>
-      <c r="AT7" s="296"/>
-      <c r="AU7" s="296"/>
-      <c r="AV7" s="296"/>
-      <c r="AW7" s="296"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="295"/>
+      <c r="K7" s="296"/>
+      <c r="L7" s="297"/>
+      <c r="M7" s="298"/>
+      <c r="N7" s="299"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="299"/>
+      <c r="Q7" s="299"/>
+      <c r="R7" s="300"/>
+      <c r="S7" s="292"/>
+      <c r="T7" s="292"/>
+      <c r="U7" s="292"/>
+      <c r="V7" s="301"/>
+      <c r="W7" s="301"/>
+      <c r="X7" s="301"/>
+      <c r="Y7" s="301"/>
+      <c r="Z7" s="301"/>
+      <c r="AA7" s="301"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="301"/>
+      <c r="AE7" s="301"/>
+      <c r="AF7" s="301"/>
+      <c r="AG7" s="301"/>
+      <c r="AH7" s="301"/>
+      <c r="AI7" s="301"/>
+      <c r="AJ7" s="301"/>
+      <c r="AK7" s="301"/>
+      <c r="AL7" s="301"/>
+      <c r="AM7" s="301"/>
+      <c r="AN7" s="292"/>
+      <c r="AO7" s="292"/>
+      <c r="AP7" s="292"/>
+      <c r="AQ7" s="292"/>
+      <c r="AR7" s="292"/>
+      <c r="AS7" s="292"/>
+      <c r="AT7" s="292"/>
+      <c r="AU7" s="292"/>
+      <c r="AV7" s="292"/>
+      <c r="AW7" s="292"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
-      <c r="B8" s="308"/>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="290"/>
-      <c r="K8" s="291"/>
-      <c r="L8" s="292"/>
-      <c r="M8" s="311"/>
-      <c r="N8" s="312"/>
-      <c r="O8" s="312"/>
-      <c r="P8" s="312"/>
-      <c r="Q8" s="312"/>
-      <c r="R8" s="313"/>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="296"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="307"/>
-      <c r="Z8" s="307"/>
-      <c r="AA8" s="307"/>
-      <c r="AB8" s="307"/>
-      <c r="AC8" s="307"/>
-      <c r="AD8" s="307"/>
-      <c r="AE8" s="307"/>
-      <c r="AF8" s="307"/>
-      <c r="AG8" s="307"/>
-      <c r="AH8" s="307"/>
-      <c r="AI8" s="307"/>
-      <c r="AJ8" s="307"/>
-      <c r="AK8" s="307"/>
-      <c r="AL8" s="307"/>
-      <c r="AM8" s="307"/>
-      <c r="AN8" s="296"/>
-      <c r="AO8" s="296"/>
-      <c r="AP8" s="296"/>
-      <c r="AQ8" s="296"/>
-      <c r="AR8" s="296"/>
-      <c r="AS8" s="296"/>
-      <c r="AT8" s="296"/>
-      <c r="AU8" s="296"/>
-      <c r="AV8" s="296"/>
-      <c r="AW8" s="296"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="295"/>
+      <c r="K8" s="296"/>
+      <c r="L8" s="297"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="299"/>
+      <c r="O8" s="299"/>
+      <c r="P8" s="299"/>
+      <c r="Q8" s="299"/>
+      <c r="R8" s="300"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="301"/>
+      <c r="W8" s="301"/>
+      <c r="X8" s="301"/>
+      <c r="Y8" s="301"/>
+      <c r="Z8" s="301"/>
+      <c r="AA8" s="301"/>
+      <c r="AB8" s="301"/>
+      <c r="AC8" s="301"/>
+      <c r="AD8" s="301"/>
+      <c r="AE8" s="301"/>
+      <c r="AF8" s="301"/>
+      <c r="AG8" s="301"/>
+      <c r="AH8" s="301"/>
+      <c r="AI8" s="301"/>
+      <c r="AJ8" s="301"/>
+      <c r="AK8" s="301"/>
+      <c r="AL8" s="301"/>
+      <c r="AM8" s="301"/>
+      <c r="AN8" s="292"/>
+      <c r="AO8" s="292"/>
+      <c r="AP8" s="292"/>
+      <c r="AQ8" s="292"/>
+      <c r="AR8" s="292"/>
+      <c r="AS8" s="292"/>
+      <c r="AT8" s="292"/>
+      <c r="AU8" s="292"/>
+      <c r="AV8" s="292"/>
+      <c r="AW8" s="292"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="308"/>
-      <c r="C9" s="308"/>
-      <c r="D9" s="308"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="312"/>
-      <c r="O9" s="312"/>
-      <c r="P9" s="312"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="313"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="307"/>
-      <c r="W9" s="307"/>
-      <c r="X9" s="307"/>
-      <c r="Y9" s="307"/>
-      <c r="Z9" s="307"/>
-      <c r="AA9" s="307"/>
-      <c r="AB9" s="307"/>
-      <c r="AC9" s="307"/>
-      <c r="AD9" s="307"/>
-      <c r="AE9" s="307"/>
-      <c r="AF9" s="307"/>
-      <c r="AG9" s="307"/>
-      <c r="AH9" s="307"/>
-      <c r="AI9" s="307"/>
-      <c r="AJ9" s="307"/>
-      <c r="AK9" s="307"/>
-      <c r="AL9" s="307"/>
-      <c r="AM9" s="307"/>
-      <c r="AN9" s="296"/>
-      <c r="AO9" s="296"/>
-      <c r="AP9" s="296"/>
-      <c r="AQ9" s="296"/>
-      <c r="AR9" s="296"/>
-      <c r="AS9" s="296"/>
-      <c r="AT9" s="296"/>
-      <c r="AU9" s="296"/>
-      <c r="AV9" s="296"/>
-      <c r="AW9" s="296"/>
+      <c r="B9" s="293"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="297"/>
+      <c r="M9" s="298"/>
+      <c r="N9" s="299"/>
+      <c r="O9" s="299"/>
+      <c r="P9" s="299"/>
+      <c r="Q9" s="299"/>
+      <c r="R9" s="300"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="292"/>
+      <c r="V9" s="301"/>
+      <c r="W9" s="301"/>
+      <c r="X9" s="301"/>
+      <c r="Y9" s="301"/>
+      <c r="Z9" s="301"/>
+      <c r="AA9" s="301"/>
+      <c r="AB9" s="301"/>
+      <c r="AC9" s="301"/>
+      <c r="AD9" s="301"/>
+      <c r="AE9" s="301"/>
+      <c r="AF9" s="301"/>
+      <c r="AG9" s="301"/>
+      <c r="AH9" s="301"/>
+      <c r="AI9" s="301"/>
+      <c r="AJ9" s="301"/>
+      <c r="AK9" s="301"/>
+      <c r="AL9" s="301"/>
+      <c r="AM9" s="301"/>
+      <c r="AN9" s="292"/>
+      <c r="AO9" s="292"/>
+      <c r="AP9" s="292"/>
+      <c r="AQ9" s="292"/>
+      <c r="AR9" s="292"/>
+      <c r="AS9" s="292"/>
+      <c r="AT9" s="292"/>
+      <c r="AU9" s="292"/>
+      <c r="AV9" s="292"/>
+      <c r="AW9" s="292"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
-      <c r="B10" s="308"/>
-      <c r="C10" s="308"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="290"/>
-      <c r="K10" s="291"/>
-      <c r="L10" s="292"/>
-      <c r="M10" s="311"/>
-      <c r="N10" s="312"/>
-      <c r="O10" s="312"/>
-      <c r="P10" s="312"/>
-      <c r="Q10" s="312"/>
-      <c r="R10" s="313"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="296"/>
-      <c r="V10" s="307"/>
-      <c r="W10" s="307"/>
-      <c r="X10" s="307"/>
-      <c r="Y10" s="307"/>
-      <c r="Z10" s="307"/>
-      <c r="AA10" s="307"/>
-      <c r="AB10" s="307"/>
-      <c r="AC10" s="307"/>
-      <c r="AD10" s="307"/>
-      <c r="AE10" s="307"/>
-      <c r="AF10" s="307"/>
-      <c r="AG10" s="307"/>
-      <c r="AH10" s="307"/>
-      <c r="AI10" s="307"/>
-      <c r="AJ10" s="307"/>
-      <c r="AK10" s="307"/>
-      <c r="AL10" s="307"/>
-      <c r="AM10" s="307"/>
-      <c r="AN10" s="296"/>
-      <c r="AO10" s="296"/>
-      <c r="AP10" s="296"/>
-      <c r="AQ10" s="296"/>
-      <c r="AR10" s="296"/>
-      <c r="AS10" s="296"/>
-      <c r="AT10" s="296"/>
-      <c r="AU10" s="296"/>
-      <c r="AV10" s="296"/>
-      <c r="AW10" s="296"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="294"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="294"/>
+      <c r="J10" s="295"/>
+      <c r="K10" s="296"/>
+      <c r="L10" s="297"/>
+      <c r="M10" s="298"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="299"/>
+      <c r="Q10" s="299"/>
+      <c r="R10" s="300"/>
+      <c r="S10" s="292"/>
+      <c r="T10" s="292"/>
+      <c r="U10" s="292"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
+      <c r="Y10" s="301"/>
+      <c r="Z10" s="301"/>
+      <c r="AA10" s="301"/>
+      <c r="AB10" s="301"/>
+      <c r="AC10" s="301"/>
+      <c r="AD10" s="301"/>
+      <c r="AE10" s="301"/>
+      <c r="AF10" s="301"/>
+      <c r="AG10" s="301"/>
+      <c r="AH10" s="301"/>
+      <c r="AI10" s="301"/>
+      <c r="AJ10" s="301"/>
+      <c r="AK10" s="301"/>
+      <c r="AL10" s="301"/>
+      <c r="AM10" s="301"/>
+      <c r="AN10" s="292"/>
+      <c r="AO10" s="292"/>
+      <c r="AP10" s="292"/>
+      <c r="AQ10" s="292"/>
+      <c r="AR10" s="292"/>
+      <c r="AS10" s="292"/>
+      <c r="AT10" s="292"/>
+      <c r="AU10" s="292"/>
+      <c r="AV10" s="292"/>
+      <c r="AW10" s="292"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
-      <c r="B11" s="308"/>
-      <c r="C11" s="308"/>
-      <c r="D11" s="308"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="292"/>
-      <c r="M11" s="303"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="302"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="296"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="309"/>
-      <c r="X11" s="309"/>
-      <c r="Y11" s="309"/>
-      <c r="Z11" s="309"/>
-      <c r="AA11" s="309"/>
-      <c r="AB11" s="309"/>
-      <c r="AC11" s="309"/>
-      <c r="AD11" s="309"/>
-      <c r="AE11" s="309"/>
-      <c r="AF11" s="309"/>
-      <c r="AG11" s="309"/>
-      <c r="AH11" s="309"/>
-      <c r="AI11" s="309"/>
-      <c r="AJ11" s="309"/>
-      <c r="AK11" s="309"/>
-      <c r="AL11" s="309"/>
-      <c r="AM11" s="310"/>
-      <c r="AN11" s="296"/>
-      <c r="AO11" s="296"/>
-      <c r="AP11" s="296"/>
-      <c r="AQ11" s="296"/>
-      <c r="AR11" s="296"/>
-      <c r="AS11" s="296"/>
-      <c r="AT11" s="296"/>
-      <c r="AU11" s="296"/>
-      <c r="AV11" s="296"/>
-      <c r="AW11" s="296"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="293"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="294"/>
+      <c r="G11" s="294"/>
+      <c r="H11" s="294"/>
+      <c r="I11" s="294"/>
+      <c r="J11" s="295"/>
+      <c r="K11" s="296"/>
+      <c r="L11" s="297"/>
+      <c r="M11" s="305"/>
+      <c r="N11" s="306"/>
+      <c r="O11" s="306"/>
+      <c r="P11" s="306"/>
+      <c r="Q11" s="306"/>
+      <c r="R11" s="307"/>
+      <c r="S11" s="292"/>
+      <c r="T11" s="292"/>
+      <c r="U11" s="292"/>
+      <c r="V11" s="308"/>
+      <c r="W11" s="314"/>
+      <c r="X11" s="314"/>
+      <c r="Y11" s="314"/>
+      <c r="Z11" s="314"/>
+      <c r="AA11" s="314"/>
+      <c r="AB11" s="314"/>
+      <c r="AC11" s="314"/>
+      <c r="AD11" s="314"/>
+      <c r="AE11" s="314"/>
+      <c r="AF11" s="314"/>
+      <c r="AG11" s="314"/>
+      <c r="AH11" s="314"/>
+      <c r="AI11" s="314"/>
+      <c r="AJ11" s="314"/>
+      <c r="AK11" s="314"/>
+      <c r="AL11" s="314"/>
+      <c r="AM11" s="315"/>
+      <c r="AN11" s="292"/>
+      <c r="AO11" s="292"/>
+      <c r="AP11" s="292"/>
+      <c r="AQ11" s="292"/>
+      <c r="AR11" s="292"/>
+      <c r="AS11" s="292"/>
+      <c r="AT11" s="292"/>
+      <c r="AU11" s="292"/>
+      <c r="AV11" s="292"/>
+      <c r="AW11" s="292"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
-      <c r="B12" s="286"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="289"/>
-      <c r="G12" s="289"/>
-      <c r="H12" s="289"/>
-      <c r="I12" s="289"/>
-      <c r="J12" s="290"/>
-      <c r="K12" s="291"/>
-      <c r="L12" s="292"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="301"/>
-      <c r="O12" s="301"/>
-      <c r="P12" s="301"/>
-      <c r="Q12" s="301"/>
-      <c r="R12" s="302"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="296"/>
-      <c r="V12" s="297"/>
-      <c r="W12" s="298"/>
-      <c r="X12" s="298"/>
-      <c r="Y12" s="298"/>
-      <c r="Z12" s="298"/>
-      <c r="AA12" s="298"/>
-      <c r="AB12" s="298"/>
-      <c r="AC12" s="298"/>
-      <c r="AD12" s="298"/>
-      <c r="AE12" s="298"/>
-      <c r="AF12" s="298"/>
-      <c r="AG12" s="298"/>
-      <c r="AH12" s="298"/>
-      <c r="AI12" s="298"/>
-      <c r="AJ12" s="298"/>
-      <c r="AK12" s="298"/>
-      <c r="AL12" s="298"/>
-      <c r="AM12" s="299"/>
-      <c r="AN12" s="283"/>
-      <c r="AO12" s="284"/>
-      <c r="AP12" s="284"/>
-      <c r="AQ12" s="284"/>
-      <c r="AR12" s="285"/>
-      <c r="AS12" s="283"/>
-      <c r="AT12" s="284"/>
-      <c r="AU12" s="284"/>
-      <c r="AV12" s="284"/>
-      <c r="AW12" s="285"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="304"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="294"/>
+      <c r="H12" s="294"/>
+      <c r="I12" s="294"/>
+      <c r="J12" s="295"/>
+      <c r="K12" s="296"/>
+      <c r="L12" s="297"/>
+      <c r="M12" s="305"/>
+      <c r="N12" s="306"/>
+      <c r="O12" s="306"/>
+      <c r="P12" s="306"/>
+      <c r="Q12" s="306"/>
+      <c r="R12" s="307"/>
+      <c r="S12" s="292"/>
+      <c r="T12" s="292"/>
+      <c r="U12" s="292"/>
+      <c r="V12" s="308"/>
+      <c r="W12" s="309"/>
+      <c r="X12" s="309"/>
+      <c r="Y12" s="309"/>
+      <c r="Z12" s="309"/>
+      <c r="AA12" s="309"/>
+      <c r="AB12" s="309"/>
+      <c r="AC12" s="309"/>
+      <c r="AD12" s="309"/>
+      <c r="AE12" s="309"/>
+      <c r="AF12" s="309"/>
+      <c r="AG12" s="309"/>
+      <c r="AH12" s="309"/>
+      <c r="AI12" s="309"/>
+      <c r="AJ12" s="309"/>
+      <c r="AK12" s="309"/>
+      <c r="AL12" s="309"/>
+      <c r="AM12" s="310"/>
+      <c r="AN12" s="311"/>
+      <c r="AO12" s="312"/>
+      <c r="AP12" s="312"/>
+      <c r="AQ12" s="312"/>
+      <c r="AR12" s="313"/>
+      <c r="AS12" s="311"/>
+      <c r="AT12" s="312"/>
+      <c r="AU12" s="312"/>
+      <c r="AV12" s="312"/>
+      <c r="AW12" s="313"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="289"/>
-      <c r="H13" s="289"/>
-      <c r="I13" s="289"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="292"/>
-      <c r="M13" s="300"/>
-      <c r="N13" s="301"/>
-      <c r="O13" s="301"/>
-      <c r="P13" s="301"/>
-      <c r="Q13" s="301"/>
-      <c r="R13" s="302"/>
-      <c r="S13" s="296"/>
-      <c r="T13" s="296"/>
-      <c r="U13" s="296"/>
-      <c r="V13" s="297"/>
-      <c r="W13" s="298"/>
-      <c r="X13" s="298"/>
-      <c r="Y13" s="298"/>
-      <c r="Z13" s="298"/>
-      <c r="AA13" s="298"/>
-      <c r="AB13" s="298"/>
-      <c r="AC13" s="298"/>
-      <c r="AD13" s="298"/>
-      <c r="AE13" s="298"/>
-      <c r="AF13" s="298"/>
-      <c r="AG13" s="298"/>
-      <c r="AH13" s="298"/>
-      <c r="AI13" s="298"/>
-      <c r="AJ13" s="298"/>
-      <c r="AK13" s="298"/>
-      <c r="AL13" s="298"/>
-      <c r="AM13" s="299"/>
-      <c r="AN13" s="283"/>
-      <c r="AO13" s="284"/>
-      <c r="AP13" s="284"/>
-      <c r="AQ13" s="284"/>
-      <c r="AR13" s="285"/>
-      <c r="AS13" s="283"/>
-      <c r="AT13" s="284"/>
-      <c r="AU13" s="284"/>
-      <c r="AV13" s="284"/>
-      <c r="AW13" s="285"/>
+      <c r="B13" s="302"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="295"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="297"/>
+      <c r="M13" s="316"/>
+      <c r="N13" s="306"/>
+      <c r="O13" s="306"/>
+      <c r="P13" s="306"/>
+      <c r="Q13" s="306"/>
+      <c r="R13" s="307"/>
+      <c r="S13" s="292"/>
+      <c r="T13" s="292"/>
+      <c r="U13" s="292"/>
+      <c r="V13" s="308"/>
+      <c r="W13" s="309"/>
+      <c r="X13" s="309"/>
+      <c r="Y13" s="309"/>
+      <c r="Z13" s="309"/>
+      <c r="AA13" s="309"/>
+      <c r="AB13" s="309"/>
+      <c r="AC13" s="309"/>
+      <c r="AD13" s="309"/>
+      <c r="AE13" s="309"/>
+      <c r="AF13" s="309"/>
+      <c r="AG13" s="309"/>
+      <c r="AH13" s="309"/>
+      <c r="AI13" s="309"/>
+      <c r="AJ13" s="309"/>
+      <c r="AK13" s="309"/>
+      <c r="AL13" s="309"/>
+      <c r="AM13" s="310"/>
+      <c r="AN13" s="311"/>
+      <c r="AO13" s="312"/>
+      <c r="AP13" s="312"/>
+      <c r="AQ13" s="312"/>
+      <c r="AR13" s="313"/>
+      <c r="AS13" s="311"/>
+      <c r="AT13" s="312"/>
+      <c r="AU13" s="312"/>
+      <c r="AV13" s="312"/>
+      <c r="AW13" s="313"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="288"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="289"/>
-      <c r="I14" s="289"/>
-      <c r="J14" s="290"/>
-      <c r="K14" s="291"/>
-      <c r="L14" s="292"/>
-      <c r="M14" s="300"/>
-      <c r="N14" s="301"/>
-      <c r="O14" s="301"/>
-      <c r="P14" s="301"/>
-      <c r="Q14" s="301"/>
-      <c r="R14" s="302"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="296"/>
-      <c r="U14" s="296"/>
-      <c r="V14" s="306"/>
-      <c r="W14" s="307"/>
-      <c r="X14" s="307"/>
-      <c r="Y14" s="307"/>
-      <c r="Z14" s="307"/>
-      <c r="AA14" s="307"/>
-      <c r="AB14" s="307"/>
-      <c r="AC14" s="307"/>
-      <c r="AD14" s="307"/>
-      <c r="AE14" s="307"/>
-      <c r="AF14" s="307"/>
-      <c r="AG14" s="307"/>
-      <c r="AH14" s="307"/>
-      <c r="AI14" s="307"/>
-      <c r="AJ14" s="307"/>
-      <c r="AK14" s="307"/>
-      <c r="AL14" s="307"/>
-      <c r="AM14" s="307"/>
-      <c r="AN14" s="296"/>
-      <c r="AO14" s="296"/>
-      <c r="AP14" s="296"/>
-      <c r="AQ14" s="296"/>
-      <c r="AR14" s="296"/>
-      <c r="AS14" s="283"/>
-      <c r="AT14" s="284"/>
-      <c r="AU14" s="284"/>
-      <c r="AV14" s="284"/>
-      <c r="AW14" s="285"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="303"/>
+      <c r="D14" s="304"/>
+      <c r="E14" s="294"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="294"/>
+      <c r="I14" s="294"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="297"/>
+      <c r="M14" s="316"/>
+      <c r="N14" s="306"/>
+      <c r="O14" s="306"/>
+      <c r="P14" s="306"/>
+      <c r="Q14" s="306"/>
+      <c r="R14" s="307"/>
+      <c r="S14" s="292"/>
+      <c r="T14" s="292"/>
+      <c r="U14" s="292"/>
+      <c r="V14" s="317"/>
+      <c r="W14" s="301"/>
+      <c r="X14" s="301"/>
+      <c r="Y14" s="301"/>
+      <c r="Z14" s="301"/>
+      <c r="AA14" s="301"/>
+      <c r="AB14" s="301"/>
+      <c r="AC14" s="301"/>
+      <c r="AD14" s="301"/>
+      <c r="AE14" s="301"/>
+      <c r="AF14" s="301"/>
+      <c r="AG14" s="301"/>
+      <c r="AH14" s="301"/>
+      <c r="AI14" s="301"/>
+      <c r="AJ14" s="301"/>
+      <c r="AK14" s="301"/>
+      <c r="AL14" s="301"/>
+      <c r="AM14" s="301"/>
+      <c r="AN14" s="292"/>
+      <c r="AO14" s="292"/>
+      <c r="AP14" s="292"/>
+      <c r="AQ14" s="292"/>
+      <c r="AR14" s="292"/>
+      <c r="AS14" s="311"/>
+      <c r="AT14" s="312"/>
+      <c r="AU14" s="312"/>
+      <c r="AV14" s="312"/>
+      <c r="AW14" s="313"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
-      <c r="B15" s="286"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="289"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="291"/>
-      <c r="L15" s="292"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="301"/>
-      <c r="O15" s="301"/>
-      <c r="P15" s="301"/>
-      <c r="Q15" s="301"/>
-      <c r="R15" s="302"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="296"/>
-      <c r="U15" s="296"/>
-      <c r="V15" s="297"/>
-      <c r="W15" s="298"/>
-      <c r="X15" s="298"/>
-      <c r="Y15" s="298"/>
-      <c r="Z15" s="298"/>
-      <c r="AA15" s="298"/>
-      <c r="AB15" s="298"/>
-      <c r="AC15" s="298"/>
-      <c r="AD15" s="298"/>
-      <c r="AE15" s="298"/>
-      <c r="AF15" s="298"/>
-      <c r="AG15" s="298"/>
-      <c r="AH15" s="298"/>
-      <c r="AI15" s="298"/>
-      <c r="AJ15" s="298"/>
-      <c r="AK15" s="298"/>
-      <c r="AL15" s="298"/>
-      <c r="AM15" s="299"/>
-      <c r="AN15" s="283"/>
-      <c r="AO15" s="284"/>
-      <c r="AP15" s="284"/>
-      <c r="AQ15" s="284"/>
-      <c r="AR15" s="285"/>
-      <c r="AS15" s="283"/>
-      <c r="AT15" s="284"/>
-      <c r="AU15" s="284"/>
-      <c r="AV15" s="284"/>
-      <c r="AW15" s="285"/>
+      <c r="B15" s="302"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="304"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
+      <c r="J15" s="295"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="297"/>
+      <c r="M15" s="305"/>
+      <c r="N15" s="306"/>
+      <c r="O15" s="306"/>
+      <c r="P15" s="306"/>
+      <c r="Q15" s="306"/>
+      <c r="R15" s="307"/>
+      <c r="S15" s="292"/>
+      <c r="T15" s="292"/>
+      <c r="U15" s="292"/>
+      <c r="V15" s="308"/>
+      <c r="W15" s="309"/>
+      <c r="X15" s="309"/>
+      <c r="Y15" s="309"/>
+      <c r="Z15" s="309"/>
+      <c r="AA15" s="309"/>
+      <c r="AB15" s="309"/>
+      <c r="AC15" s="309"/>
+      <c r="AD15" s="309"/>
+      <c r="AE15" s="309"/>
+      <c r="AF15" s="309"/>
+      <c r="AG15" s="309"/>
+      <c r="AH15" s="309"/>
+      <c r="AI15" s="309"/>
+      <c r="AJ15" s="309"/>
+      <c r="AK15" s="309"/>
+      <c r="AL15" s="309"/>
+      <c r="AM15" s="310"/>
+      <c r="AN15" s="311"/>
+      <c r="AO15" s="312"/>
+      <c r="AP15" s="312"/>
+      <c r="AQ15" s="312"/>
+      <c r="AR15" s="313"/>
+      <c r="AS15" s="311"/>
+      <c r="AT15" s="312"/>
+      <c r="AU15" s="312"/>
+      <c r="AV15" s="312"/>
+      <c r="AW15" s="313"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
-      <c r="B16" s="286"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="289"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="292"/>
-      <c r="M16" s="303"/>
-      <c r="N16" s="301"/>
-      <c r="O16" s="301"/>
-      <c r="P16" s="301"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="302"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="296"/>
-      <c r="U16" s="296"/>
-      <c r="V16" s="297"/>
-      <c r="W16" s="298"/>
-      <c r="X16" s="298"/>
-      <c r="Y16" s="298"/>
-      <c r="Z16" s="298"/>
-      <c r="AA16" s="298"/>
-      <c r="AB16" s="298"/>
-      <c r="AC16" s="298"/>
-      <c r="AD16" s="298"/>
-      <c r="AE16" s="298"/>
-      <c r="AF16" s="298"/>
-      <c r="AG16" s="298"/>
-      <c r="AH16" s="298"/>
-      <c r="AI16" s="298"/>
-      <c r="AJ16" s="298"/>
-      <c r="AK16" s="298"/>
-      <c r="AL16" s="298"/>
-      <c r="AM16" s="299"/>
-      <c r="AN16" s="283"/>
-      <c r="AO16" s="284"/>
-      <c r="AP16" s="284"/>
-      <c r="AQ16" s="284"/>
-      <c r="AR16" s="285"/>
-      <c r="AS16" s="283"/>
-      <c r="AT16" s="284"/>
-      <c r="AU16" s="284"/>
-      <c r="AV16" s="284"/>
-      <c r="AW16" s="285"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="303"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="294"/>
+      <c r="F16" s="294"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="295"/>
+      <c r="K16" s="296"/>
+      <c r="L16" s="297"/>
+      <c r="M16" s="305"/>
+      <c r="N16" s="306"/>
+      <c r="O16" s="306"/>
+      <c r="P16" s="306"/>
+      <c r="Q16" s="306"/>
+      <c r="R16" s="307"/>
+      <c r="S16" s="292"/>
+      <c r="T16" s="292"/>
+      <c r="U16" s="292"/>
+      <c r="V16" s="308"/>
+      <c r="W16" s="309"/>
+      <c r="X16" s="309"/>
+      <c r="Y16" s="309"/>
+      <c r="Z16" s="309"/>
+      <c r="AA16" s="309"/>
+      <c r="AB16" s="309"/>
+      <c r="AC16" s="309"/>
+      <c r="AD16" s="309"/>
+      <c r="AE16" s="309"/>
+      <c r="AF16" s="309"/>
+      <c r="AG16" s="309"/>
+      <c r="AH16" s="309"/>
+      <c r="AI16" s="309"/>
+      <c r="AJ16" s="309"/>
+      <c r="AK16" s="309"/>
+      <c r="AL16" s="309"/>
+      <c r="AM16" s="310"/>
+      <c r="AN16" s="311"/>
+      <c r="AO16" s="312"/>
+      <c r="AP16" s="312"/>
+      <c r="AQ16" s="312"/>
+      <c r="AR16" s="313"/>
+      <c r="AS16" s="311"/>
+      <c r="AT16" s="312"/>
+      <c r="AU16" s="312"/>
+      <c r="AV16" s="312"/>
+      <c r="AW16" s="313"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="289"/>
-      <c r="H17" s="289"/>
-      <c r="I17" s="289"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
-      <c r="M17" s="303"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="305"/>
-      <c r="T17" s="305"/>
-      <c r="U17" s="305"/>
-      <c r="V17" s="297"/>
-      <c r="W17" s="298"/>
-      <c r="X17" s="298"/>
-      <c r="Y17" s="298"/>
-      <c r="Z17" s="298"/>
-      <c r="AA17" s="298"/>
-      <c r="AB17" s="298"/>
-      <c r="AC17" s="298"/>
-      <c r="AD17" s="298"/>
-      <c r="AE17" s="298"/>
-      <c r="AF17" s="298"/>
-      <c r="AG17" s="298"/>
-      <c r="AH17" s="298"/>
-      <c r="AI17" s="298"/>
-      <c r="AJ17" s="298"/>
-      <c r="AK17" s="298"/>
-      <c r="AL17" s="298"/>
-      <c r="AM17" s="299"/>
-      <c r="AN17" s="283"/>
-      <c r="AO17" s="284"/>
-      <c r="AP17" s="284"/>
-      <c r="AQ17" s="284"/>
-      <c r="AR17" s="285"/>
-      <c r="AS17" s="283"/>
-      <c r="AT17" s="284"/>
-      <c r="AU17" s="284"/>
-      <c r="AV17" s="284"/>
-      <c r="AW17" s="285"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="304"/>
+      <c r="E17" s="294"/>
+      <c r="F17" s="294"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="294"/>
+      <c r="I17" s="294"/>
+      <c r="J17" s="295"/>
+      <c r="K17" s="296"/>
+      <c r="L17" s="297"/>
+      <c r="M17" s="305"/>
+      <c r="N17" s="306"/>
+      <c r="O17" s="306"/>
+      <c r="P17" s="306"/>
+      <c r="Q17" s="306"/>
+      <c r="R17" s="318"/>
+      <c r="S17" s="319"/>
+      <c r="T17" s="319"/>
+      <c r="U17" s="319"/>
+      <c r="V17" s="308"/>
+      <c r="W17" s="309"/>
+      <c r="X17" s="309"/>
+      <c r="Y17" s="309"/>
+      <c r="Z17" s="309"/>
+      <c r="AA17" s="309"/>
+      <c r="AB17" s="309"/>
+      <c r="AC17" s="309"/>
+      <c r="AD17" s="309"/>
+      <c r="AE17" s="309"/>
+      <c r="AF17" s="309"/>
+      <c r="AG17" s="309"/>
+      <c r="AH17" s="309"/>
+      <c r="AI17" s="309"/>
+      <c r="AJ17" s="309"/>
+      <c r="AK17" s="309"/>
+      <c r="AL17" s="309"/>
+      <c r="AM17" s="310"/>
+      <c r="AN17" s="311"/>
+      <c r="AO17" s="312"/>
+      <c r="AP17" s="312"/>
+      <c r="AQ17" s="312"/>
+      <c r="AR17" s="313"/>
+      <c r="AS17" s="311"/>
+      <c r="AT17" s="312"/>
+      <c r="AU17" s="312"/>
+      <c r="AV17" s="312"/>
+      <c r="AW17" s="313"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
-      <c r="J18" s="290"/>
-      <c r="K18" s="291"/>
-      <c r="L18" s="292"/>
-      <c r="M18" s="300"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="301"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="302"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
-      <c r="U18" s="296"/>
-      <c r="V18" s="297"/>
-      <c r="W18" s="298"/>
-      <c r="X18" s="298"/>
-      <c r="Y18" s="298"/>
-      <c r="Z18" s="298"/>
-      <c r="AA18" s="298"/>
-      <c r="AB18" s="298"/>
-      <c r="AC18" s="298"/>
-      <c r="AD18" s="298"/>
-      <c r="AE18" s="298"/>
-      <c r="AF18" s="298"/>
-      <c r="AG18" s="298"/>
-      <c r="AH18" s="298"/>
-      <c r="AI18" s="298"/>
-      <c r="AJ18" s="298"/>
-      <c r="AK18" s="298"/>
-      <c r="AL18" s="298"/>
-      <c r="AM18" s="299"/>
-      <c r="AN18" s="283"/>
-      <c r="AO18" s="284"/>
-      <c r="AP18" s="284"/>
-      <c r="AQ18" s="284"/>
-      <c r="AR18" s="285"/>
-      <c r="AS18" s="283"/>
-      <c r="AT18" s="284"/>
-      <c r="AU18" s="284"/>
-      <c r="AV18" s="284"/>
-      <c r="AW18" s="285"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="294"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="295"/>
+      <c r="K18" s="296"/>
+      <c r="L18" s="297"/>
+      <c r="M18" s="316"/>
+      <c r="N18" s="306"/>
+      <c r="O18" s="306"/>
+      <c r="P18" s="306"/>
+      <c r="Q18" s="306"/>
+      <c r="R18" s="307"/>
+      <c r="S18" s="292"/>
+      <c r="T18" s="292"/>
+      <c r="U18" s="292"/>
+      <c r="V18" s="308"/>
+      <c r="W18" s="309"/>
+      <c r="X18" s="309"/>
+      <c r="Y18" s="309"/>
+      <c r="Z18" s="309"/>
+      <c r="AA18" s="309"/>
+      <c r="AB18" s="309"/>
+      <c r="AC18" s="309"/>
+      <c r="AD18" s="309"/>
+      <c r="AE18" s="309"/>
+      <c r="AF18" s="309"/>
+      <c r="AG18" s="309"/>
+      <c r="AH18" s="309"/>
+      <c r="AI18" s="309"/>
+      <c r="AJ18" s="309"/>
+      <c r="AK18" s="309"/>
+      <c r="AL18" s="309"/>
+      <c r="AM18" s="310"/>
+      <c r="AN18" s="311"/>
+      <c r="AO18" s="312"/>
+      <c r="AP18" s="312"/>
+      <c r="AQ18" s="312"/>
+      <c r="AR18" s="313"/>
+      <c r="AS18" s="311"/>
+      <c r="AT18" s="312"/>
+      <c r="AU18" s="312"/>
+      <c r="AV18" s="312"/>
+      <c r="AW18" s="313"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
-      <c r="B19" s="286"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="289"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="291"/>
-      <c r="L19" s="292"/>
-      <c r="M19" s="303"/>
-      <c r="N19" s="301"/>
-      <c r="O19" s="301"/>
-      <c r="P19" s="301"/>
-      <c r="Q19" s="301"/>
-      <c r="R19" s="302"/>
-      <c r="S19" s="296"/>
-      <c r="T19" s="296"/>
-      <c r="U19" s="296"/>
-      <c r="V19" s="297"/>
-      <c r="W19" s="298"/>
-      <c r="X19" s="298"/>
-      <c r="Y19" s="298"/>
-      <c r="Z19" s="298"/>
-      <c r="AA19" s="298"/>
-      <c r="AB19" s="298"/>
-      <c r="AC19" s="298"/>
-      <c r="AD19" s="298"/>
-      <c r="AE19" s="298"/>
-      <c r="AF19" s="298"/>
-      <c r="AG19" s="298"/>
-      <c r="AH19" s="298"/>
-      <c r="AI19" s="298"/>
-      <c r="AJ19" s="298"/>
-      <c r="AK19" s="298"/>
-      <c r="AL19" s="298"/>
-      <c r="AM19" s="299"/>
-      <c r="AN19" s="296"/>
-      <c r="AO19" s="296"/>
-      <c r="AP19" s="296"/>
-      <c r="AQ19" s="296"/>
-      <c r="AR19" s="296"/>
-      <c r="AS19" s="283"/>
-      <c r="AT19" s="284"/>
-      <c r="AU19" s="284"/>
-      <c r="AV19" s="284"/>
-      <c r="AW19" s="285"/>
+      <c r="B19" s="302"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="294"/>
+      <c r="F19" s="294"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="295"/>
+      <c r="K19" s="296"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="305"/>
+      <c r="N19" s="306"/>
+      <c r="O19" s="306"/>
+      <c r="P19" s="306"/>
+      <c r="Q19" s="306"/>
+      <c r="R19" s="307"/>
+      <c r="S19" s="292"/>
+      <c r="T19" s="292"/>
+      <c r="U19" s="292"/>
+      <c r="V19" s="308"/>
+      <c r="W19" s="309"/>
+      <c r="X19" s="309"/>
+      <c r="Y19" s="309"/>
+      <c r="Z19" s="309"/>
+      <c r="AA19" s="309"/>
+      <c r="AB19" s="309"/>
+      <c r="AC19" s="309"/>
+      <c r="AD19" s="309"/>
+      <c r="AE19" s="309"/>
+      <c r="AF19" s="309"/>
+      <c r="AG19" s="309"/>
+      <c r="AH19" s="309"/>
+      <c r="AI19" s="309"/>
+      <c r="AJ19" s="309"/>
+      <c r="AK19" s="309"/>
+      <c r="AL19" s="309"/>
+      <c r="AM19" s="310"/>
+      <c r="AN19" s="292"/>
+      <c r="AO19" s="292"/>
+      <c r="AP19" s="292"/>
+      <c r="AQ19" s="292"/>
+      <c r="AR19" s="292"/>
+      <c r="AS19" s="311"/>
+      <c r="AT19" s="312"/>
+      <c r="AU19" s="312"/>
+      <c r="AV19" s="312"/>
+      <c r="AW19" s="313"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="286"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="289"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="289"/>
-      <c r="I20" s="289"/>
-      <c r="J20" s="290"/>
-      <c r="K20" s="291"/>
-      <c r="L20" s="292"/>
-      <c r="M20" s="303"/>
-      <c r="N20" s="301"/>
-      <c r="O20" s="301"/>
-      <c r="P20" s="301"/>
-      <c r="Q20" s="301"/>
-      <c r="R20" s="302"/>
-      <c r="S20" s="283"/>
-      <c r="T20" s="284"/>
-      <c r="U20" s="285"/>
-      <c r="V20" s="297"/>
-      <c r="W20" s="298"/>
-      <c r="X20" s="298"/>
-      <c r="Y20" s="298"/>
-      <c r="Z20" s="298"/>
-      <c r="AA20" s="298"/>
-      <c r="AB20" s="298"/>
-      <c r="AC20" s="298"/>
-      <c r="AD20" s="298"/>
-      <c r="AE20" s="298"/>
-      <c r="AF20" s="298"/>
-      <c r="AG20" s="298"/>
-      <c r="AH20" s="298"/>
-      <c r="AI20" s="298"/>
-      <c r="AJ20" s="298"/>
-      <c r="AK20" s="298"/>
-      <c r="AL20" s="298"/>
-      <c r="AM20" s="299"/>
-      <c r="AN20" s="283"/>
-      <c r="AO20" s="284"/>
-      <c r="AP20" s="284"/>
-      <c r="AQ20" s="284"/>
-      <c r="AR20" s="285"/>
-      <c r="AS20" s="283"/>
-      <c r="AT20" s="284"/>
-      <c r="AU20" s="284"/>
-      <c r="AV20" s="284"/>
-      <c r="AW20" s="285"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="303"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
+      <c r="J20" s="295"/>
+      <c r="K20" s="296"/>
+      <c r="L20" s="297"/>
+      <c r="M20" s="305"/>
+      <c r="N20" s="306"/>
+      <c r="O20" s="306"/>
+      <c r="P20" s="306"/>
+      <c r="Q20" s="306"/>
+      <c r="R20" s="307"/>
+      <c r="S20" s="311"/>
+      <c r="T20" s="312"/>
+      <c r="U20" s="313"/>
+      <c r="V20" s="308"/>
+      <c r="W20" s="309"/>
+      <c r="X20" s="309"/>
+      <c r="Y20" s="309"/>
+      <c r="Z20" s="309"/>
+      <c r="AA20" s="309"/>
+      <c r="AB20" s="309"/>
+      <c r="AC20" s="309"/>
+      <c r="AD20" s="309"/>
+      <c r="AE20" s="309"/>
+      <c r="AF20" s="309"/>
+      <c r="AG20" s="309"/>
+      <c r="AH20" s="309"/>
+      <c r="AI20" s="309"/>
+      <c r="AJ20" s="309"/>
+      <c r="AK20" s="309"/>
+      <c r="AL20" s="309"/>
+      <c r="AM20" s="310"/>
+      <c r="AN20" s="311"/>
+      <c r="AO20" s="312"/>
+      <c r="AP20" s="312"/>
+      <c r="AQ20" s="312"/>
+      <c r="AR20" s="313"/>
+      <c r="AS20" s="311"/>
+      <c r="AT20" s="312"/>
+      <c r="AU20" s="312"/>
+      <c r="AV20" s="312"/>
+      <c r="AW20" s="313"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="286"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="289"/>
-      <c r="G21" s="289"/>
-      <c r="H21" s="289"/>
-      <c r="I21" s="289"/>
-      <c r="J21" s="290"/>
-      <c r="K21" s="291"/>
-      <c r="L21" s="292"/>
-      <c r="M21" s="303"/>
-      <c r="N21" s="301"/>
-      <c r="O21" s="301"/>
-      <c r="P21" s="301"/>
-      <c r="Q21" s="301"/>
-      <c r="R21" s="302"/>
-      <c r="S21" s="296"/>
-      <c r="T21" s="296"/>
-      <c r="U21" s="296"/>
-      <c r="V21" s="297"/>
-      <c r="W21" s="298"/>
-      <c r="X21" s="298"/>
-      <c r="Y21" s="298"/>
-      <c r="Z21" s="298"/>
-      <c r="AA21" s="298"/>
-      <c r="AB21" s="298"/>
-      <c r="AC21" s="298"/>
-      <c r="AD21" s="298"/>
-      <c r="AE21" s="298"/>
-      <c r="AF21" s="298"/>
-      <c r="AG21" s="298"/>
-      <c r="AH21" s="298"/>
-      <c r="AI21" s="298"/>
-      <c r="AJ21" s="298"/>
-      <c r="AK21" s="298"/>
-      <c r="AL21" s="298"/>
-      <c r="AM21" s="299"/>
-      <c r="AN21" s="283"/>
-      <c r="AO21" s="284"/>
-      <c r="AP21" s="284"/>
-      <c r="AQ21" s="284"/>
-      <c r="AR21" s="285"/>
-      <c r="AS21" s="283"/>
-      <c r="AT21" s="284"/>
-      <c r="AU21" s="284"/>
-      <c r="AV21" s="284"/>
-      <c r="AW21" s="285"/>
+      <c r="B21" s="302"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="295"/>
+      <c r="K21" s="296"/>
+      <c r="L21" s="297"/>
+      <c r="M21" s="305"/>
+      <c r="N21" s="306"/>
+      <c r="O21" s="306"/>
+      <c r="P21" s="306"/>
+      <c r="Q21" s="306"/>
+      <c r="R21" s="307"/>
+      <c r="S21" s="292"/>
+      <c r="T21" s="292"/>
+      <c r="U21" s="292"/>
+      <c r="V21" s="308"/>
+      <c r="W21" s="309"/>
+      <c r="X21" s="309"/>
+      <c r="Y21" s="309"/>
+      <c r="Z21" s="309"/>
+      <c r="AA21" s="309"/>
+      <c r="AB21" s="309"/>
+      <c r="AC21" s="309"/>
+      <c r="AD21" s="309"/>
+      <c r="AE21" s="309"/>
+      <c r="AF21" s="309"/>
+      <c r="AG21" s="309"/>
+      <c r="AH21" s="309"/>
+      <c r="AI21" s="309"/>
+      <c r="AJ21" s="309"/>
+      <c r="AK21" s="309"/>
+      <c r="AL21" s="309"/>
+      <c r="AM21" s="310"/>
+      <c r="AN21" s="311"/>
+      <c r="AO21" s="312"/>
+      <c r="AP21" s="312"/>
+      <c r="AQ21" s="312"/>
+      <c r="AR21" s="313"/>
+      <c r="AS21" s="311"/>
+      <c r="AT21" s="312"/>
+      <c r="AU21" s="312"/>
+      <c r="AV21" s="312"/>
+      <c r="AW21" s="313"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="286"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="289"/>
-      <c r="H22" s="289"/>
-      <c r="I22" s="289"/>
-      <c r="J22" s="290"/>
-      <c r="K22" s="291"/>
-      <c r="L22" s="292"/>
-      <c r="M22" s="303"/>
-      <c r="N22" s="301"/>
-      <c r="O22" s="301"/>
-      <c r="P22" s="301"/>
-      <c r="Q22" s="301"/>
-      <c r="R22" s="302"/>
-      <c r="S22" s="296"/>
-      <c r="T22" s="296"/>
-      <c r="U22" s="296"/>
-      <c r="V22" s="297"/>
-      <c r="W22" s="298"/>
-      <c r="X22" s="298"/>
-      <c r="Y22" s="298"/>
-      <c r="Z22" s="298"/>
-      <c r="AA22" s="298"/>
-      <c r="AB22" s="298"/>
-      <c r="AC22" s="298"/>
-      <c r="AD22" s="298"/>
-      <c r="AE22" s="298"/>
-      <c r="AF22" s="298"/>
-      <c r="AG22" s="298"/>
-      <c r="AH22" s="298"/>
-      <c r="AI22" s="298"/>
-      <c r="AJ22" s="298"/>
-      <c r="AK22" s="298"/>
-      <c r="AL22" s="298"/>
-      <c r="AM22" s="299"/>
-      <c r="AN22" s="283"/>
-      <c r="AO22" s="284"/>
-      <c r="AP22" s="284"/>
-      <c r="AQ22" s="284"/>
-      <c r="AR22" s="285"/>
-      <c r="AS22" s="283"/>
-      <c r="AT22" s="284"/>
-      <c r="AU22" s="284"/>
-      <c r="AV22" s="284"/>
-      <c r="AW22" s="285"/>
+      <c r="B22" s="302"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="295"/>
+      <c r="K22" s="296"/>
+      <c r="L22" s="297"/>
+      <c r="M22" s="305"/>
+      <c r="N22" s="306"/>
+      <c r="O22" s="306"/>
+      <c r="P22" s="306"/>
+      <c r="Q22" s="306"/>
+      <c r="R22" s="307"/>
+      <c r="S22" s="292"/>
+      <c r="T22" s="292"/>
+      <c r="U22" s="292"/>
+      <c r="V22" s="308"/>
+      <c r="W22" s="309"/>
+      <c r="X22" s="309"/>
+      <c r="Y22" s="309"/>
+      <c r="Z22" s="309"/>
+      <c r="AA22" s="309"/>
+      <c r="AB22" s="309"/>
+      <c r="AC22" s="309"/>
+      <c r="AD22" s="309"/>
+      <c r="AE22" s="309"/>
+      <c r="AF22" s="309"/>
+      <c r="AG22" s="309"/>
+      <c r="AH22" s="309"/>
+      <c r="AI22" s="309"/>
+      <c r="AJ22" s="309"/>
+      <c r="AK22" s="309"/>
+      <c r="AL22" s="309"/>
+      <c r="AM22" s="310"/>
+      <c r="AN22" s="311"/>
+      <c r="AO22" s="312"/>
+      <c r="AP22" s="312"/>
+      <c r="AQ22" s="312"/>
+      <c r="AR22" s="313"/>
+      <c r="AS22" s="311"/>
+      <c r="AT22" s="312"/>
+      <c r="AU22" s="312"/>
+      <c r="AV22" s="312"/>
+      <c r="AW22" s="313"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="286"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="289"/>
-      <c r="H23" s="289"/>
-      <c r="I23" s="289"/>
-      <c r="J23" s="290"/>
-      <c r="K23" s="291"/>
-      <c r="L23" s="292"/>
-      <c r="M23" s="303"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="302"/>
-      <c r="S23" s="296"/>
-      <c r="T23" s="296"/>
-      <c r="U23" s="296"/>
-      <c r="V23" s="297"/>
-      <c r="W23" s="298"/>
-      <c r="X23" s="298"/>
-      <c r="Y23" s="298"/>
-      <c r="Z23" s="298"/>
-      <c r="AA23" s="298"/>
-      <c r="AB23" s="298"/>
-      <c r="AC23" s="298"/>
-      <c r="AD23" s="298"/>
-      <c r="AE23" s="298"/>
-      <c r="AF23" s="298"/>
-      <c r="AG23" s="298"/>
-      <c r="AH23" s="298"/>
-      <c r="AI23" s="298"/>
-      <c r="AJ23" s="298"/>
-      <c r="AK23" s="298"/>
-      <c r="AL23" s="298"/>
-      <c r="AM23" s="299"/>
-      <c r="AN23" s="283"/>
-      <c r="AO23" s="284"/>
-      <c r="AP23" s="284"/>
-      <c r="AQ23" s="284"/>
-      <c r="AR23" s="285"/>
-      <c r="AS23" s="283"/>
-      <c r="AT23" s="284"/>
-      <c r="AU23" s="284"/>
-      <c r="AV23" s="284"/>
-      <c r="AW23" s="285"/>
+      <c r="B23" s="302"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="295"/>
+      <c r="K23" s="296"/>
+      <c r="L23" s="297"/>
+      <c r="M23" s="305"/>
+      <c r="N23" s="306"/>
+      <c r="O23" s="306"/>
+      <c r="P23" s="306"/>
+      <c r="Q23" s="306"/>
+      <c r="R23" s="307"/>
+      <c r="S23" s="292"/>
+      <c r="T23" s="292"/>
+      <c r="U23" s="292"/>
+      <c r="V23" s="308"/>
+      <c r="W23" s="309"/>
+      <c r="X23" s="309"/>
+      <c r="Y23" s="309"/>
+      <c r="Z23" s="309"/>
+      <c r="AA23" s="309"/>
+      <c r="AB23" s="309"/>
+      <c r="AC23" s="309"/>
+      <c r="AD23" s="309"/>
+      <c r="AE23" s="309"/>
+      <c r="AF23" s="309"/>
+      <c r="AG23" s="309"/>
+      <c r="AH23" s="309"/>
+      <c r="AI23" s="309"/>
+      <c r="AJ23" s="309"/>
+      <c r="AK23" s="309"/>
+      <c r="AL23" s="309"/>
+      <c r="AM23" s="310"/>
+      <c r="AN23" s="311"/>
+      <c r="AO23" s="312"/>
+      <c r="AP23" s="312"/>
+      <c r="AQ23" s="312"/>
+      <c r="AR23" s="313"/>
+      <c r="AS23" s="311"/>
+      <c r="AT23" s="312"/>
+      <c r="AU23" s="312"/>
+      <c r="AV23" s="312"/>
+      <c r="AW23" s="313"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="286"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="289"/>
-      <c r="H24" s="289"/>
-      <c r="I24" s="289"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="291"/>
-      <c r="L24" s="292"/>
-      <c r="M24" s="303"/>
-      <c r="N24" s="301"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="302"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="296"/>
-      <c r="U24" s="296"/>
-      <c r="V24" s="297"/>
-      <c r="W24" s="298"/>
-      <c r="X24" s="298"/>
-      <c r="Y24" s="298"/>
-      <c r="Z24" s="298"/>
-      <c r="AA24" s="298"/>
-      <c r="AB24" s="298"/>
-      <c r="AC24" s="298"/>
-      <c r="AD24" s="298"/>
-      <c r="AE24" s="298"/>
-      <c r="AF24" s="298"/>
-      <c r="AG24" s="298"/>
-      <c r="AH24" s="298"/>
-      <c r="AI24" s="298"/>
-      <c r="AJ24" s="298"/>
-      <c r="AK24" s="298"/>
-      <c r="AL24" s="298"/>
-      <c r="AM24" s="299"/>
-      <c r="AN24" s="283"/>
-      <c r="AO24" s="284"/>
-      <c r="AP24" s="284"/>
-      <c r="AQ24" s="284"/>
-      <c r="AR24" s="285"/>
-      <c r="AS24" s="283"/>
-      <c r="AT24" s="284"/>
-      <c r="AU24" s="284"/>
-      <c r="AV24" s="284"/>
-      <c r="AW24" s="285"/>
+      <c r="B24" s="302"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
+      <c r="J24" s="295"/>
+      <c r="K24" s="296"/>
+      <c r="L24" s="297"/>
+      <c r="M24" s="305"/>
+      <c r="N24" s="306"/>
+      <c r="O24" s="306"/>
+      <c r="P24" s="306"/>
+      <c r="Q24" s="306"/>
+      <c r="R24" s="307"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="292"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="308"/>
+      <c r="W24" s="309"/>
+      <c r="X24" s="309"/>
+      <c r="Y24" s="309"/>
+      <c r="Z24" s="309"/>
+      <c r="AA24" s="309"/>
+      <c r="AB24" s="309"/>
+      <c r="AC24" s="309"/>
+      <c r="AD24" s="309"/>
+      <c r="AE24" s="309"/>
+      <c r="AF24" s="309"/>
+      <c r="AG24" s="309"/>
+      <c r="AH24" s="309"/>
+      <c r="AI24" s="309"/>
+      <c r="AJ24" s="309"/>
+      <c r="AK24" s="309"/>
+      <c r="AL24" s="309"/>
+      <c r="AM24" s="310"/>
+      <c r="AN24" s="311"/>
+      <c r="AO24" s="312"/>
+      <c r="AP24" s="312"/>
+      <c r="AQ24" s="312"/>
+      <c r="AR24" s="313"/>
+      <c r="AS24" s="311"/>
+      <c r="AT24" s="312"/>
+      <c r="AU24" s="312"/>
+      <c r="AV24" s="312"/>
+      <c r="AW24" s="313"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="286"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="289"/>
-      <c r="G25" s="289"/>
-      <c r="H25" s="289"/>
-      <c r="I25" s="289"/>
-      <c r="J25" s="290"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="300"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="302"/>
-      <c r="S25" s="296"/>
-      <c r="T25" s="296"/>
-      <c r="U25" s="296"/>
-      <c r="V25" s="297"/>
-      <c r="W25" s="298"/>
-      <c r="X25" s="298"/>
-      <c r="Y25" s="298"/>
-      <c r="Z25" s="298"/>
-      <c r="AA25" s="298"/>
-      <c r="AB25" s="298"/>
-      <c r="AC25" s="298"/>
-      <c r="AD25" s="298"/>
-      <c r="AE25" s="298"/>
-      <c r="AF25" s="298"/>
-      <c r="AG25" s="298"/>
-      <c r="AH25" s="298"/>
-      <c r="AI25" s="298"/>
-      <c r="AJ25" s="298"/>
-      <c r="AK25" s="298"/>
-      <c r="AL25" s="298"/>
-      <c r="AM25" s="299"/>
-      <c r="AN25" s="283"/>
-      <c r="AO25" s="284"/>
-      <c r="AP25" s="284"/>
-      <c r="AQ25" s="284"/>
-      <c r="AR25" s="285"/>
-      <c r="AS25" s="283"/>
-      <c r="AT25" s="284"/>
-      <c r="AU25" s="284"/>
-      <c r="AV25" s="284"/>
-      <c r="AW25" s="285"/>
+      <c r="B25" s="302"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="295"/>
+      <c r="K25" s="296"/>
+      <c r="L25" s="297"/>
+      <c r="M25" s="316"/>
+      <c r="N25" s="306"/>
+      <c r="O25" s="306"/>
+      <c r="P25" s="306"/>
+      <c r="Q25" s="306"/>
+      <c r="R25" s="307"/>
+      <c r="S25" s="292"/>
+      <c r="T25" s="292"/>
+      <c r="U25" s="292"/>
+      <c r="V25" s="308"/>
+      <c r="W25" s="309"/>
+      <c r="X25" s="309"/>
+      <c r="Y25" s="309"/>
+      <c r="Z25" s="309"/>
+      <c r="AA25" s="309"/>
+      <c r="AB25" s="309"/>
+      <c r="AC25" s="309"/>
+      <c r="AD25" s="309"/>
+      <c r="AE25" s="309"/>
+      <c r="AF25" s="309"/>
+      <c r="AG25" s="309"/>
+      <c r="AH25" s="309"/>
+      <c r="AI25" s="309"/>
+      <c r="AJ25" s="309"/>
+      <c r="AK25" s="309"/>
+      <c r="AL25" s="309"/>
+      <c r="AM25" s="310"/>
+      <c r="AN25" s="311"/>
+      <c r="AO25" s="312"/>
+      <c r="AP25" s="312"/>
+      <c r="AQ25" s="312"/>
+      <c r="AR25" s="313"/>
+      <c r="AS25" s="311"/>
+      <c r="AT25" s="312"/>
+      <c r="AU25" s="312"/>
+      <c r="AV25" s="312"/>
+      <c r="AW25" s="313"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="286"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="289"/>
-      <c r="G26" s="289"/>
-      <c r="H26" s="289"/>
-      <c r="I26" s="289"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="291"/>
-      <c r="L26" s="292"/>
-      <c r="M26" s="300"/>
-      <c r="N26" s="301"/>
-      <c r="O26" s="301"/>
-      <c r="P26" s="301"/>
-      <c r="Q26" s="301"/>
-      <c r="R26" s="302"/>
-      <c r="S26" s="296"/>
-      <c r="T26" s="296"/>
-      <c r="U26" s="296"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="298"/>
-      <c r="X26" s="298"/>
-      <c r="Y26" s="298"/>
-      <c r="Z26" s="298"/>
-      <c r="AA26" s="298"/>
-      <c r="AB26" s="298"/>
-      <c r="AC26" s="298"/>
-      <c r="AD26" s="298"/>
-      <c r="AE26" s="298"/>
-      <c r="AF26" s="298"/>
-      <c r="AG26" s="298"/>
-      <c r="AH26" s="298"/>
-      <c r="AI26" s="298"/>
-      <c r="AJ26" s="298"/>
-      <c r="AK26" s="298"/>
-      <c r="AL26" s="298"/>
-      <c r="AM26" s="299"/>
-      <c r="AN26" s="283"/>
-      <c r="AO26" s="284"/>
-      <c r="AP26" s="284"/>
-      <c r="AQ26" s="284"/>
-      <c r="AR26" s="285"/>
-      <c r="AS26" s="283"/>
-      <c r="AT26" s="284"/>
-      <c r="AU26" s="284"/>
-      <c r="AV26" s="284"/>
-      <c r="AW26" s="285"/>
+      <c r="B26" s="302"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="295"/>
+      <c r="K26" s="296"/>
+      <c r="L26" s="297"/>
+      <c r="M26" s="316"/>
+      <c r="N26" s="306"/>
+      <c r="O26" s="306"/>
+      <c r="P26" s="306"/>
+      <c r="Q26" s="306"/>
+      <c r="R26" s="307"/>
+      <c r="S26" s="292"/>
+      <c r="T26" s="292"/>
+      <c r="U26" s="292"/>
+      <c r="V26" s="308"/>
+      <c r="W26" s="309"/>
+      <c r="X26" s="309"/>
+      <c r="Y26" s="309"/>
+      <c r="Z26" s="309"/>
+      <c r="AA26" s="309"/>
+      <c r="AB26" s="309"/>
+      <c r="AC26" s="309"/>
+      <c r="AD26" s="309"/>
+      <c r="AE26" s="309"/>
+      <c r="AF26" s="309"/>
+      <c r="AG26" s="309"/>
+      <c r="AH26" s="309"/>
+      <c r="AI26" s="309"/>
+      <c r="AJ26" s="309"/>
+      <c r="AK26" s="309"/>
+      <c r="AL26" s="309"/>
+      <c r="AM26" s="310"/>
+      <c r="AN26" s="311"/>
+      <c r="AO26" s="312"/>
+      <c r="AP26" s="312"/>
+      <c r="AQ26" s="312"/>
+      <c r="AR26" s="313"/>
+      <c r="AS26" s="311"/>
+      <c r="AT26" s="312"/>
+      <c r="AU26" s="312"/>
+      <c r="AV26" s="312"/>
+      <c r="AW26" s="313"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="290"/>
-      <c r="K27" s="291"/>
-      <c r="L27" s="292"/>
-      <c r="M27" s="300"/>
-      <c r="N27" s="301"/>
-      <c r="O27" s="301"/>
-      <c r="P27" s="301"/>
-      <c r="Q27" s="301"/>
-      <c r="R27" s="302"/>
-      <c r="S27" s="296"/>
-      <c r="T27" s="296"/>
-      <c r="U27" s="296"/>
-      <c r="V27" s="297"/>
-      <c r="W27" s="298"/>
-      <c r="X27" s="298"/>
-      <c r="Y27" s="298"/>
-      <c r="Z27" s="298"/>
-      <c r="AA27" s="298"/>
-      <c r="AB27" s="298"/>
-      <c r="AC27" s="298"/>
-      <c r="AD27" s="298"/>
-      <c r="AE27" s="298"/>
-      <c r="AF27" s="298"/>
-      <c r="AG27" s="298"/>
-      <c r="AH27" s="298"/>
-      <c r="AI27" s="298"/>
-      <c r="AJ27" s="298"/>
-      <c r="AK27" s="298"/>
-      <c r="AL27" s="298"/>
-      <c r="AM27" s="299"/>
-      <c r="AN27" s="283"/>
-      <c r="AO27" s="284"/>
-      <c r="AP27" s="284"/>
-      <c r="AQ27" s="284"/>
-      <c r="AR27" s="285"/>
-      <c r="AS27" s="283"/>
-      <c r="AT27" s="284"/>
-      <c r="AU27" s="284"/>
-      <c r="AV27" s="284"/>
-      <c r="AW27" s="285"/>
+      <c r="B27" s="302"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="295"/>
+      <c r="K27" s="296"/>
+      <c r="L27" s="297"/>
+      <c r="M27" s="316"/>
+      <c r="N27" s="306"/>
+      <c r="O27" s="306"/>
+      <c r="P27" s="306"/>
+      <c r="Q27" s="306"/>
+      <c r="R27" s="307"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="308"/>
+      <c r="W27" s="309"/>
+      <c r="X27" s="309"/>
+      <c r="Y27" s="309"/>
+      <c r="Z27" s="309"/>
+      <c r="AA27" s="309"/>
+      <c r="AB27" s="309"/>
+      <c r="AC27" s="309"/>
+      <c r="AD27" s="309"/>
+      <c r="AE27" s="309"/>
+      <c r="AF27" s="309"/>
+      <c r="AG27" s="309"/>
+      <c r="AH27" s="309"/>
+      <c r="AI27" s="309"/>
+      <c r="AJ27" s="309"/>
+      <c r="AK27" s="309"/>
+      <c r="AL27" s="309"/>
+      <c r="AM27" s="310"/>
+      <c r="AN27" s="311"/>
+      <c r="AO27" s="312"/>
+      <c r="AP27" s="312"/>
+      <c r="AQ27" s="312"/>
+      <c r="AR27" s="313"/>
+      <c r="AS27" s="311"/>
+      <c r="AT27" s="312"/>
+      <c r="AU27" s="312"/>
+      <c r="AV27" s="312"/>
+      <c r="AW27" s="313"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="286"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="289"/>
-      <c r="H28" s="289"/>
-      <c r="I28" s="289"/>
-      <c r="J28" s="290"/>
-      <c r="K28" s="291"/>
-      <c r="L28" s="292"/>
-      <c r="M28" s="303"/>
-      <c r="N28" s="301"/>
-      <c r="O28" s="301"/>
-      <c r="P28" s="301"/>
-      <c r="Q28" s="301"/>
-      <c r="R28" s="302"/>
-      <c r="S28" s="296"/>
-      <c r="T28" s="296"/>
-      <c r="U28" s="296"/>
-      <c r="V28" s="297"/>
-      <c r="W28" s="298"/>
-      <c r="X28" s="298"/>
-      <c r="Y28" s="298"/>
-      <c r="Z28" s="298"/>
-      <c r="AA28" s="298"/>
-      <c r="AB28" s="298"/>
-      <c r="AC28" s="298"/>
-      <c r="AD28" s="298"/>
-      <c r="AE28" s="298"/>
-      <c r="AF28" s="298"/>
-      <c r="AG28" s="298"/>
-      <c r="AH28" s="298"/>
-      <c r="AI28" s="298"/>
-      <c r="AJ28" s="298"/>
-      <c r="AK28" s="298"/>
-      <c r="AL28" s="298"/>
-      <c r="AM28" s="299"/>
-      <c r="AN28" s="283"/>
-      <c r="AO28" s="284"/>
-      <c r="AP28" s="284"/>
-      <c r="AQ28" s="284"/>
-      <c r="AR28" s="285"/>
-      <c r="AS28" s="283"/>
-      <c r="AT28" s="284"/>
-      <c r="AU28" s="284"/>
-      <c r="AV28" s="284"/>
-      <c r="AW28" s="285"/>
+      <c r="B28" s="302"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="304"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="295"/>
+      <c r="K28" s="296"/>
+      <c r="L28" s="297"/>
+      <c r="M28" s="305"/>
+      <c r="N28" s="306"/>
+      <c r="O28" s="306"/>
+      <c r="P28" s="306"/>
+      <c r="Q28" s="306"/>
+      <c r="R28" s="307"/>
+      <c r="S28" s="292"/>
+      <c r="T28" s="292"/>
+      <c r="U28" s="292"/>
+      <c r="V28" s="308"/>
+      <c r="W28" s="309"/>
+      <c r="X28" s="309"/>
+      <c r="Y28" s="309"/>
+      <c r="Z28" s="309"/>
+      <c r="AA28" s="309"/>
+      <c r="AB28" s="309"/>
+      <c r="AC28" s="309"/>
+      <c r="AD28" s="309"/>
+      <c r="AE28" s="309"/>
+      <c r="AF28" s="309"/>
+      <c r="AG28" s="309"/>
+      <c r="AH28" s="309"/>
+      <c r="AI28" s="309"/>
+      <c r="AJ28" s="309"/>
+      <c r="AK28" s="309"/>
+      <c r="AL28" s="309"/>
+      <c r="AM28" s="310"/>
+      <c r="AN28" s="311"/>
+      <c r="AO28" s="312"/>
+      <c r="AP28" s="312"/>
+      <c r="AQ28" s="312"/>
+      <c r="AR28" s="313"/>
+      <c r="AS28" s="311"/>
+      <c r="AT28" s="312"/>
+      <c r="AU28" s="312"/>
+      <c r="AV28" s="312"/>
+      <c r="AW28" s="313"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="286"/>
-      <c r="C29" s="287"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="289"/>
-      <c r="H29" s="289"/>
-      <c r="I29" s="289"/>
-      <c r="J29" s="290"/>
-      <c r="K29" s="291"/>
-      <c r="L29" s="292"/>
-      <c r="M29" s="303"/>
-      <c r="N29" s="301"/>
-      <c r="O29" s="301"/>
-      <c r="P29" s="301"/>
-      <c r="Q29" s="301"/>
-      <c r="R29" s="302"/>
-      <c r="S29" s="296"/>
-      <c r="T29" s="296"/>
-      <c r="U29" s="296"/>
-      <c r="V29" s="297"/>
-      <c r="W29" s="298"/>
-      <c r="X29" s="298"/>
-      <c r="Y29" s="298"/>
-      <c r="Z29" s="298"/>
-      <c r="AA29" s="298"/>
-      <c r="AB29" s="298"/>
-      <c r="AC29" s="298"/>
-      <c r="AD29" s="298"/>
-      <c r="AE29" s="298"/>
-      <c r="AF29" s="298"/>
-      <c r="AG29" s="298"/>
-      <c r="AH29" s="298"/>
-      <c r="AI29" s="298"/>
-      <c r="AJ29" s="298"/>
-      <c r="AK29" s="298"/>
-      <c r="AL29" s="298"/>
-      <c r="AM29" s="299"/>
-      <c r="AN29" s="283"/>
-      <c r="AO29" s="284"/>
-      <c r="AP29" s="284"/>
-      <c r="AQ29" s="284"/>
-      <c r="AR29" s="285"/>
-      <c r="AS29" s="283"/>
-      <c r="AT29" s="284"/>
-      <c r="AU29" s="284"/>
-      <c r="AV29" s="284"/>
-      <c r="AW29" s="285"/>
+      <c r="B29" s="302"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
+      <c r="J29" s="295"/>
+      <c r="K29" s="296"/>
+      <c r="L29" s="297"/>
+      <c r="M29" s="305"/>
+      <c r="N29" s="306"/>
+      <c r="O29" s="306"/>
+      <c r="P29" s="306"/>
+      <c r="Q29" s="306"/>
+      <c r="R29" s="307"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="308"/>
+      <c r="W29" s="309"/>
+      <c r="X29" s="309"/>
+      <c r="Y29" s="309"/>
+      <c r="Z29" s="309"/>
+      <c r="AA29" s="309"/>
+      <c r="AB29" s="309"/>
+      <c r="AC29" s="309"/>
+      <c r="AD29" s="309"/>
+      <c r="AE29" s="309"/>
+      <c r="AF29" s="309"/>
+      <c r="AG29" s="309"/>
+      <c r="AH29" s="309"/>
+      <c r="AI29" s="309"/>
+      <c r="AJ29" s="309"/>
+      <c r="AK29" s="309"/>
+      <c r="AL29" s="309"/>
+      <c r="AM29" s="310"/>
+      <c r="AN29" s="311"/>
+      <c r="AO29" s="312"/>
+      <c r="AP29" s="312"/>
+      <c r="AQ29" s="312"/>
+      <c r="AR29" s="313"/>
+      <c r="AS29" s="311"/>
+      <c r="AT29" s="312"/>
+      <c r="AU29" s="312"/>
+      <c r="AV29" s="312"/>
+      <c r="AW29" s="313"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="286"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="289"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="289"/>
-      <c r="I30" s="289"/>
-      <c r="J30" s="290"/>
-      <c r="K30" s="291"/>
-      <c r="L30" s="292"/>
-      <c r="M30" s="300"/>
-      <c r="N30" s="301"/>
-      <c r="O30" s="301"/>
-      <c r="P30" s="301"/>
-      <c r="Q30" s="301"/>
-      <c r="R30" s="302"/>
-      <c r="S30" s="296"/>
-      <c r="T30" s="296"/>
-      <c r="U30" s="296"/>
-      <c r="V30" s="297"/>
-      <c r="W30" s="298"/>
-      <c r="X30" s="298"/>
-      <c r="Y30" s="298"/>
-      <c r="Z30" s="298"/>
-      <c r="AA30" s="298"/>
-      <c r="AB30" s="298"/>
-      <c r="AC30" s="298"/>
-      <c r="AD30" s="298"/>
-      <c r="AE30" s="298"/>
-      <c r="AF30" s="298"/>
-      <c r="AG30" s="298"/>
-      <c r="AH30" s="298"/>
-      <c r="AI30" s="298"/>
-      <c r="AJ30" s="298"/>
-      <c r="AK30" s="298"/>
-      <c r="AL30" s="298"/>
-      <c r="AM30" s="299"/>
-      <c r="AN30" s="283"/>
-      <c r="AO30" s="284"/>
-      <c r="AP30" s="284"/>
-      <c r="AQ30" s="284"/>
-      <c r="AR30" s="285"/>
-      <c r="AS30" s="283"/>
-      <c r="AT30" s="284"/>
-      <c r="AU30" s="284"/>
-      <c r="AV30" s="284"/>
-      <c r="AW30" s="285"/>
+      <c r="B30" s="302"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="295"/>
+      <c r="K30" s="296"/>
+      <c r="L30" s="297"/>
+      <c r="M30" s="316"/>
+      <c r="N30" s="306"/>
+      <c r="O30" s="306"/>
+      <c r="P30" s="306"/>
+      <c r="Q30" s="306"/>
+      <c r="R30" s="307"/>
+      <c r="S30" s="292"/>
+      <c r="T30" s="292"/>
+      <c r="U30" s="292"/>
+      <c r="V30" s="308"/>
+      <c r="W30" s="309"/>
+      <c r="X30" s="309"/>
+      <c r="Y30" s="309"/>
+      <c r="Z30" s="309"/>
+      <c r="AA30" s="309"/>
+      <c r="AB30" s="309"/>
+      <c r="AC30" s="309"/>
+      <c r="AD30" s="309"/>
+      <c r="AE30" s="309"/>
+      <c r="AF30" s="309"/>
+      <c r="AG30" s="309"/>
+      <c r="AH30" s="309"/>
+      <c r="AI30" s="309"/>
+      <c r="AJ30" s="309"/>
+      <c r="AK30" s="309"/>
+      <c r="AL30" s="309"/>
+      <c r="AM30" s="310"/>
+      <c r="AN30" s="311"/>
+      <c r="AO30" s="312"/>
+      <c r="AP30" s="312"/>
+      <c r="AQ30" s="312"/>
+      <c r="AR30" s="313"/>
+      <c r="AS30" s="311"/>
+      <c r="AT30" s="312"/>
+      <c r="AU30" s="312"/>
+      <c r="AV30" s="312"/>
+      <c r="AW30" s="313"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="286"/>
-      <c r="C31" s="287"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
-      <c r="F31" s="289"/>
-      <c r="G31" s="289"/>
-      <c r="H31" s="289"/>
-      <c r="I31" s="289"/>
-      <c r="J31" s="290"/>
-      <c r="K31" s="291"/>
-      <c r="L31" s="292"/>
-      <c r="M31" s="300"/>
-      <c r="N31" s="301"/>
-      <c r="O31" s="301"/>
-      <c r="P31" s="301"/>
-      <c r="Q31" s="301"/>
-      <c r="R31" s="302"/>
-      <c r="S31" s="296"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="296"/>
-      <c r="V31" s="297"/>
-      <c r="W31" s="298"/>
-      <c r="X31" s="298"/>
-      <c r="Y31" s="298"/>
-      <c r="Z31" s="298"/>
-      <c r="AA31" s="298"/>
-      <c r="AB31" s="298"/>
-      <c r="AC31" s="298"/>
-      <c r="AD31" s="298"/>
-      <c r="AE31" s="298"/>
-      <c r="AF31" s="298"/>
-      <c r="AG31" s="298"/>
-      <c r="AH31" s="298"/>
-      <c r="AI31" s="298"/>
-      <c r="AJ31" s="298"/>
-      <c r="AK31" s="298"/>
-      <c r="AL31" s="298"/>
-      <c r="AM31" s="299"/>
-      <c r="AN31" s="283"/>
-      <c r="AO31" s="284"/>
-      <c r="AP31" s="284"/>
-      <c r="AQ31" s="284"/>
-      <c r="AR31" s="285"/>
-      <c r="AS31" s="283"/>
-      <c r="AT31" s="284"/>
-      <c r="AU31" s="284"/>
-      <c r="AV31" s="284"/>
-      <c r="AW31" s="285"/>
+      <c r="B31" s="302"/>
+      <c r="C31" s="303"/>
+      <c r="D31" s="304"/>
+      <c r="E31" s="294"/>
+      <c r="F31" s="294"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
+      <c r="J31" s="295"/>
+      <c r="K31" s="296"/>
+      <c r="L31" s="297"/>
+      <c r="M31" s="316"/>
+      <c r="N31" s="306"/>
+      <c r="O31" s="306"/>
+      <c r="P31" s="306"/>
+      <c r="Q31" s="306"/>
+      <c r="R31" s="307"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="292"/>
+      <c r="V31" s="308"/>
+      <c r="W31" s="309"/>
+      <c r="X31" s="309"/>
+      <c r="Y31" s="309"/>
+      <c r="Z31" s="309"/>
+      <c r="AA31" s="309"/>
+      <c r="AB31" s="309"/>
+      <c r="AC31" s="309"/>
+      <c r="AD31" s="309"/>
+      <c r="AE31" s="309"/>
+      <c r="AF31" s="309"/>
+      <c r="AG31" s="309"/>
+      <c r="AH31" s="309"/>
+      <c r="AI31" s="309"/>
+      <c r="AJ31" s="309"/>
+      <c r="AK31" s="309"/>
+      <c r="AL31" s="309"/>
+      <c r="AM31" s="310"/>
+      <c r="AN31" s="311"/>
+      <c r="AO31" s="312"/>
+      <c r="AP31" s="312"/>
+      <c r="AQ31" s="312"/>
+      <c r="AR31" s="313"/>
+      <c r="AS31" s="311"/>
+      <c r="AT31" s="312"/>
+      <c r="AU31" s="312"/>
+      <c r="AV31" s="312"/>
+      <c r="AW31" s="313"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="286"/>
-      <c r="C32" s="287"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
-      <c r="F32" s="289"/>
-      <c r="G32" s="289"/>
-      <c r="H32" s="289"/>
-      <c r="I32" s="289"/>
-      <c r="J32" s="290"/>
-      <c r="K32" s="291"/>
-      <c r="L32" s="292"/>
-      <c r="M32" s="300"/>
-      <c r="N32" s="301"/>
-      <c r="O32" s="301"/>
-      <c r="P32" s="301"/>
-      <c r="Q32" s="301"/>
-      <c r="R32" s="302"/>
-      <c r="S32" s="296"/>
-      <c r="T32" s="296"/>
-      <c r="U32" s="296"/>
-      <c r="V32" s="297"/>
-      <c r="W32" s="298"/>
-      <c r="X32" s="298"/>
-      <c r="Y32" s="298"/>
-      <c r="Z32" s="298"/>
-      <c r="AA32" s="298"/>
-      <c r="AB32" s="298"/>
-      <c r="AC32" s="298"/>
-      <c r="AD32" s="298"/>
-      <c r="AE32" s="298"/>
-      <c r="AF32" s="298"/>
-      <c r="AG32" s="298"/>
-      <c r="AH32" s="298"/>
-      <c r="AI32" s="298"/>
-      <c r="AJ32" s="298"/>
-      <c r="AK32" s="298"/>
-      <c r="AL32" s="298"/>
-      <c r="AM32" s="299"/>
-      <c r="AN32" s="283"/>
-      <c r="AO32" s="284"/>
-      <c r="AP32" s="284"/>
-      <c r="AQ32" s="284"/>
-      <c r="AR32" s="285"/>
-      <c r="AS32" s="283"/>
-      <c r="AT32" s="284"/>
-      <c r="AU32" s="284"/>
-      <c r="AV32" s="284"/>
-      <c r="AW32" s="285"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="303"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
+      <c r="J32" s="295"/>
+      <c r="K32" s="296"/>
+      <c r="L32" s="297"/>
+      <c r="M32" s="316"/>
+      <c r="N32" s="306"/>
+      <c r="O32" s="306"/>
+      <c r="P32" s="306"/>
+      <c r="Q32" s="306"/>
+      <c r="R32" s="307"/>
+      <c r="S32" s="292"/>
+      <c r="T32" s="292"/>
+      <c r="U32" s="292"/>
+      <c r="V32" s="308"/>
+      <c r="W32" s="309"/>
+      <c r="X32" s="309"/>
+      <c r="Y32" s="309"/>
+      <c r="Z32" s="309"/>
+      <c r="AA32" s="309"/>
+      <c r="AB32" s="309"/>
+      <c r="AC32" s="309"/>
+      <c r="AD32" s="309"/>
+      <c r="AE32" s="309"/>
+      <c r="AF32" s="309"/>
+      <c r="AG32" s="309"/>
+      <c r="AH32" s="309"/>
+      <c r="AI32" s="309"/>
+      <c r="AJ32" s="309"/>
+      <c r="AK32" s="309"/>
+      <c r="AL32" s="309"/>
+      <c r="AM32" s="310"/>
+      <c r="AN32" s="311"/>
+      <c r="AO32" s="312"/>
+      <c r="AP32" s="312"/>
+      <c r="AQ32" s="312"/>
+      <c r="AR32" s="313"/>
+      <c r="AS32" s="311"/>
+      <c r="AT32" s="312"/>
+      <c r="AU32" s="312"/>
+      <c r="AV32" s="312"/>
+      <c r="AW32" s="313"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="286"/>
-      <c r="C33" s="287"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="289"/>
-      <c r="G33" s="289"/>
-      <c r="H33" s="289"/>
-      <c r="I33" s="289"/>
-      <c r="J33" s="290"/>
-      <c r="K33" s="291"/>
-      <c r="L33" s="292"/>
-      <c r="M33" s="300"/>
-      <c r="N33" s="301"/>
-      <c r="O33" s="301"/>
-      <c r="P33" s="301"/>
-      <c r="Q33" s="301"/>
-      <c r="R33" s="302"/>
-      <c r="S33" s="296"/>
-      <c r="T33" s="296"/>
-      <c r="U33" s="296"/>
-      <c r="V33" s="297"/>
-      <c r="W33" s="298"/>
-      <c r="X33" s="298"/>
-      <c r="Y33" s="298"/>
-      <c r="Z33" s="298"/>
-      <c r="AA33" s="298"/>
-      <c r="AB33" s="298"/>
-      <c r="AC33" s="298"/>
-      <c r="AD33" s="298"/>
-      <c r="AE33" s="298"/>
-      <c r="AF33" s="298"/>
-      <c r="AG33" s="298"/>
-      <c r="AH33" s="298"/>
-      <c r="AI33" s="298"/>
-      <c r="AJ33" s="298"/>
-      <c r="AK33" s="298"/>
-      <c r="AL33" s="298"/>
-      <c r="AM33" s="299"/>
-      <c r="AN33" s="283"/>
-      <c r="AO33" s="284"/>
-      <c r="AP33" s="284"/>
-      <c r="AQ33" s="284"/>
-      <c r="AR33" s="285"/>
-      <c r="AS33" s="283"/>
-      <c r="AT33" s="284"/>
-      <c r="AU33" s="284"/>
-      <c r="AV33" s="284"/>
-      <c r="AW33" s="285"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="303"/>
+      <c r="D33" s="304"/>
+      <c r="E33" s="294"/>
+      <c r="F33" s="294"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="294"/>
+      <c r="J33" s="295"/>
+      <c r="K33" s="296"/>
+      <c r="L33" s="297"/>
+      <c r="M33" s="316"/>
+      <c r="N33" s="306"/>
+      <c r="O33" s="306"/>
+      <c r="P33" s="306"/>
+      <c r="Q33" s="306"/>
+      <c r="R33" s="307"/>
+      <c r="S33" s="292"/>
+      <c r="T33" s="292"/>
+      <c r="U33" s="292"/>
+      <c r="V33" s="308"/>
+      <c r="W33" s="309"/>
+      <c r="X33" s="309"/>
+      <c r="Y33" s="309"/>
+      <c r="Z33" s="309"/>
+      <c r="AA33" s="309"/>
+      <c r="AB33" s="309"/>
+      <c r="AC33" s="309"/>
+      <c r="AD33" s="309"/>
+      <c r="AE33" s="309"/>
+      <c r="AF33" s="309"/>
+      <c r="AG33" s="309"/>
+      <c r="AH33" s="309"/>
+      <c r="AI33" s="309"/>
+      <c r="AJ33" s="309"/>
+      <c r="AK33" s="309"/>
+      <c r="AL33" s="309"/>
+      <c r="AM33" s="310"/>
+      <c r="AN33" s="311"/>
+      <c r="AO33" s="312"/>
+      <c r="AP33" s="312"/>
+      <c r="AQ33" s="312"/>
+      <c r="AR33" s="313"/>
+      <c r="AS33" s="311"/>
+      <c r="AT33" s="312"/>
+      <c r="AU33" s="312"/>
+      <c r="AV33" s="312"/>
+      <c r="AW33" s="313"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="286"/>
-      <c r="C34" s="287"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="289"/>
-      <c r="F34" s="289"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="289"/>
-      <c r="I34" s="289"/>
-      <c r="J34" s="290"/>
-      <c r="K34" s="291"/>
-      <c r="L34" s="292"/>
-      <c r="M34" s="293"/>
-      <c r="N34" s="294"/>
-      <c r="O34" s="294"/>
-      <c r="P34" s="294"/>
-      <c r="Q34" s="294"/>
-      <c r="R34" s="295"/>
-      <c r="S34" s="296"/>
-      <c r="T34" s="296"/>
-      <c r="U34" s="296"/>
-      <c r="V34" s="297"/>
-      <c r="W34" s="298"/>
-      <c r="X34" s="298"/>
-      <c r="Y34" s="298"/>
-      <c r="Z34" s="298"/>
-      <c r="AA34" s="298"/>
-      <c r="AB34" s="298"/>
-      <c r="AC34" s="298"/>
-      <c r="AD34" s="298"/>
-      <c r="AE34" s="298"/>
-      <c r="AF34" s="298"/>
-      <c r="AG34" s="298"/>
-      <c r="AH34" s="298"/>
-      <c r="AI34" s="298"/>
-      <c r="AJ34" s="298"/>
-      <c r="AK34" s="298"/>
-      <c r="AL34" s="298"/>
-      <c r="AM34" s="299"/>
-      <c r="AN34" s="283"/>
-      <c r="AO34" s="284"/>
-      <c r="AP34" s="284"/>
-      <c r="AQ34" s="284"/>
-      <c r="AR34" s="285"/>
-      <c r="AS34" s="283"/>
-      <c r="AT34" s="284"/>
-      <c r="AU34" s="284"/>
-      <c r="AV34" s="284"/>
-      <c r="AW34" s="285"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="303"/>
+      <c r="D34" s="304"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="294"/>
+      <c r="I34" s="294"/>
+      <c r="J34" s="295"/>
+      <c r="K34" s="296"/>
+      <c r="L34" s="297"/>
+      <c r="M34" s="320"/>
+      <c r="N34" s="321"/>
+      <c r="O34" s="321"/>
+      <c r="P34" s="321"/>
+      <c r="Q34" s="321"/>
+      <c r="R34" s="322"/>
+      <c r="S34" s="292"/>
+      <c r="T34" s="292"/>
+      <c r="U34" s="292"/>
+      <c r="V34" s="308"/>
+      <c r="W34" s="309"/>
+      <c r="X34" s="309"/>
+      <c r="Y34" s="309"/>
+      <c r="Z34" s="309"/>
+      <c r="AA34" s="309"/>
+      <c r="AB34" s="309"/>
+      <c r="AC34" s="309"/>
+      <c r="AD34" s="309"/>
+      <c r="AE34" s="309"/>
+      <c r="AF34" s="309"/>
+      <c r="AG34" s="309"/>
+      <c r="AH34" s="309"/>
+      <c r="AI34" s="309"/>
+      <c r="AJ34" s="309"/>
+      <c r="AK34" s="309"/>
+      <c r="AL34" s="309"/>
+      <c r="AM34" s="310"/>
+      <c r="AN34" s="311"/>
+      <c r="AO34" s="312"/>
+      <c r="AP34" s="312"/>
+      <c r="AQ34" s="312"/>
+      <c r="AR34" s="313"/>
+      <c r="AS34" s="311"/>
+      <c r="AT34" s="312"/>
+      <c r="AU34" s="312"/>
+      <c r="AV34" s="312"/>
+      <c r="AW34" s="313"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -12410,230 +12633,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15511,6 +15519,44 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B59:C59"/>
@@ -15519,44 +15565,6 @@
     <mergeCell ref="AE59:AF59"/>
     <mergeCell ref="AE60:AF60"/>
     <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15578,7 +15586,7 @@
   <dimension ref="A1:DI5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -16050,22 +16058,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="316" t="s">
+      <c r="C6" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="316" t="s">
+      <c r="D6" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="316" t="s">
+      <c r="E6" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="316" t="s">
+      <c r="F6" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="316" t="s">
+      <c r="G6" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="316" t="s">
+      <c r="H6" s="285" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="344" t="s">
@@ -16074,13 +16082,13 @@
       <c r="J6" s="344" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="316" t="s">
+      <c r="K6" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="316" t="s">
+      <c r="L6" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="316" t="s">
+      <c r="M6" s="285" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="74" t="s">
@@ -16095,17 +16103,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
       <c r="I7" s="344"/>
       <c r="J7" s="344"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="285"/>
       <c r="N7" s="43" t="s">
         <v>81</v>
       </c>
@@ -16269,22 +16277,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="316" t="s">
+      <c r="C13" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="316" t="s">
+      <c r="D13" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="316" t="s">
+      <c r="E13" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="316" t="s">
+      <c r="F13" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="316" t="s">
+      <c r="G13" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="316" t="s">
+      <c r="H13" s="285" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="345" t="s">
@@ -16293,13 +16301,13 @@
       <c r="J13" s="344" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="316" t="s">
+      <c r="K13" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="316" t="s">
+      <c r="L13" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="316" t="s">
+      <c r="M13" s="285" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="74" t="s">
@@ -16314,17 +16322,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="316"/>
-      <c r="D14" s="316"/>
-      <c r="E14" s="316"/>
-      <c r="F14" s="316"/>
-      <c r="G14" s="316"/>
-      <c r="H14" s="316"/>
+      <c r="C14" s="285"/>
+      <c r="D14" s="285"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="285"/>
+      <c r="H14" s="285"/>
       <c r="I14" s="346"/>
       <c r="J14" s="344"/>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
-      <c r="M14" s="316"/>
+      <c r="K14" s="285"/>
+      <c r="L14" s="285"/>
+      <c r="M14" s="285"/>
       <c r="N14" s="43" t="s">
         <v>81</v>
       </c>
@@ -16805,8 +16813,8 @@
       <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>35</v>
+      <c r="L24" s="245" t="s">
+        <v>565</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>34</v>
@@ -16899,8 +16907,8 @@
       <c r="K26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>35</v>
+      <c r="L26" s="245" t="s">
+        <v>566</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>34</v>
@@ -16930,22 +16938,22 @@
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="111"/>
-      <c r="C29" s="316" t="s">
+      <c r="C29" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="316" t="s">
+      <c r="D29" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="316" t="s">
+      <c r="E29" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="316" t="s">
+      <c r="F29" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="316" t="s">
+      <c r="G29" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="316" t="s">
+      <c r="H29" s="285" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="344" t="s">
@@ -16954,13 +16962,13 @@
       <c r="J29" s="344" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="316" t="s">
+      <c r="K29" s="285" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="316" t="s">
+      <c r="L29" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="316" t="s">
+      <c r="M29" s="285" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="74" t="s">
@@ -16974,17 +16982,17 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="111"/>
-      <c r="C30" s="316"/>
-      <c r="D30" s="316"/>
-      <c r="E30" s="316"/>
-      <c r="F30" s="316"/>
-      <c r="G30" s="316"/>
-      <c r="H30" s="316"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="285"/>
       <c r="I30" s="344"/>
       <c r="J30" s="344"/>
-      <c r="K30" s="316"/>
-      <c r="L30" s="316"/>
-      <c r="M30" s="316"/>
+      <c r="K30" s="285"/>
+      <c r="L30" s="285"/>
+      <c r="M30" s="285"/>
       <c r="N30" s="109" t="s">
         <v>81</v>
       </c>
@@ -17360,6 +17368,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="Q29:Q30"/>
@@ -17368,34 +17404,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17413,9 +17421,7 @@
   </sheetPr>
   <dimension ref="A1:AZ459"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB117" sqref="AB117"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -65469,6 +65475,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -65626,12 +65638,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -65641,6 +65647,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65656,20 +65678,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F8B6B5-AC34-4549-972B-A51A2669EDCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A0CAD-A953-4710-9570-20D701071E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5702,91 +5702,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5814,17 +5729,102 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -6939,7 +6939,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3817"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3823"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7004,7 +7004,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3818"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3824"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7069,7 +7069,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3819"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3825"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10611,1779 +10611,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
-      <c r="B1" s="312" t="s">
+      <c r="B1" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="312"/>
-      <c r="S1" s="312"/>
-      <c r="T1" s="312"/>
-      <c r="U1" s="312"/>
-      <c r="V1" s="312"/>
-      <c r="W1" s="312"/>
-      <c r="X1" s="312"/>
-      <c r="Y1" s="312"/>
-      <c r="Z1" s="312"/>
-      <c r="AA1" s="312"/>
-      <c r="AB1" s="312"/>
-      <c r="AC1" s="312"/>
-      <c r="AD1" s="312"/>
-      <c r="AE1" s="312"/>
-      <c r="AF1" s="312"/>
-      <c r="AG1" s="312"/>
-      <c r="AH1" s="312"/>
-      <c r="AI1" s="312"/>
-      <c r="AJ1" s="312"/>
-      <c r="AK1" s="312"/>
-      <c r="AL1" s="312"/>
-      <c r="AM1" s="312"/>
-      <c r="AN1" s="312"/>
-      <c r="AO1" s="312"/>
-      <c r="AP1" s="312"/>
-      <c r="AQ1" s="312"/>
-      <c r="AR1" s="312"/>
-      <c r="AS1" s="312"/>
-      <c r="AT1" s="312"/>
-      <c r="AU1" s="312"/>
-      <c r="AV1" s="312"/>
-      <c r="AW1" s="312"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="281"/>
+      <c r="AA1" s="281"/>
+      <c r="AB1" s="281"/>
+      <c r="AC1" s="281"/>
+      <c r="AD1" s="281"/>
+      <c r="AE1" s="281"/>
+      <c r="AF1" s="281"/>
+      <c r="AG1" s="281"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="281"/>
+      <c r="AJ1" s="281"/>
+      <c r="AK1" s="281"/>
+      <c r="AL1" s="281"/>
+      <c r="AM1" s="281"/>
+      <c r="AN1" s="281"/>
+      <c r="AO1" s="281"/>
+      <c r="AP1" s="281"/>
+      <c r="AQ1" s="281"/>
+      <c r="AR1" s="281"/>
+      <c r="AS1" s="281"/>
+      <c r="AT1" s="281"/>
+      <c r="AU1" s="281"/>
+      <c r="AV1" s="281"/>
+      <c r="AW1" s="281"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="313"/>
-      <c r="S2" s="313"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
-      <c r="AC2" s="313"/>
-      <c r="AD2" s="313"/>
-      <c r="AE2" s="313"/>
-      <c r="AF2" s="313"/>
-      <c r="AG2" s="313"/>
-      <c r="AH2" s="313"/>
-      <c r="AI2" s="313"/>
-      <c r="AJ2" s="313"/>
-      <c r="AK2" s="313"/>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="313"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="313"/>
-      <c r="AS2" s="313"/>
-      <c r="AT2" s="313"/>
-      <c r="AU2" s="313"/>
-      <c r="AV2" s="313"/>
-      <c r="AW2" s="313"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="282"/>
+      <c r="M2" s="282"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
+      <c r="R2" s="282"/>
+      <c r="S2" s="282"/>
+      <c r="T2" s="282"/>
+      <c r="U2" s="282"/>
+      <c r="V2" s="282"/>
+      <c r="W2" s="282"/>
+      <c r="X2" s="282"/>
+      <c r="Y2" s="282"/>
+      <c r="Z2" s="282"/>
+      <c r="AA2" s="282"/>
+      <c r="AB2" s="282"/>
+      <c r="AC2" s="282"/>
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="282"/>
+      <c r="AG2" s="282"/>
+      <c r="AH2" s="282"/>
+      <c r="AI2" s="282"/>
+      <c r="AJ2" s="282"/>
+      <c r="AK2" s="282"/>
+      <c r="AL2" s="282"/>
+      <c r="AM2" s="282"/>
+      <c r="AN2" s="282"/>
+      <c r="AO2" s="282"/>
+      <c r="AP2" s="282"/>
+      <c r="AQ2" s="282"/>
+      <c r="AR2" s="282"/>
+      <c r="AS2" s="282"/>
+      <c r="AT2" s="282"/>
+      <c r="AU2" s="282"/>
+      <c r="AV2" s="282"/>
+      <c r="AW2" s="282"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314" t="s">
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="315" t="s">
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="316"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="315" t="s">
+      <c r="K3" s="285"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="284" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="316"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="314" t="s">
+      <c r="N3" s="285"/>
+      <c r="O3" s="285"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="283" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314" t="s">
+      <c r="T3" s="283"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="314"/>
-      <c r="AD3" s="314"/>
-      <c r="AE3" s="314"/>
-      <c r="AF3" s="314"/>
-      <c r="AG3" s="314"/>
-      <c r="AH3" s="314"/>
-      <c r="AI3" s="314"/>
-      <c r="AJ3" s="314"/>
-      <c r="AK3" s="314"/>
-      <c r="AL3" s="314"/>
-      <c r="AM3" s="314"/>
-      <c r="AN3" s="314" t="s">
+      <c r="W3" s="283"/>
+      <c r="X3" s="283"/>
+      <c r="Y3" s="283"/>
+      <c r="Z3" s="283"/>
+      <c r="AA3" s="283"/>
+      <c r="AB3" s="283"/>
+      <c r="AC3" s="283"/>
+      <c r="AD3" s="283"/>
+      <c r="AE3" s="283"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="283"/>
+      <c r="AH3" s="283"/>
+      <c r="AI3" s="283"/>
+      <c r="AJ3" s="283"/>
+      <c r="AK3" s="283"/>
+      <c r="AL3" s="283"/>
+      <c r="AM3" s="283"/>
+      <c r="AN3" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="314"/>
-      <c r="AP3" s="314"/>
-      <c r="AQ3" s="314"/>
-      <c r="AR3" s="314"/>
-      <c r="AS3" s="314" t="s">
+      <c r="AO3" s="283"/>
+      <c r="AP3" s="283"/>
+      <c r="AQ3" s="283"/>
+      <c r="AR3" s="283"/>
+      <c r="AS3" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="314"/>
-      <c r="AU3" s="314"/>
-      <c r="AV3" s="314"/>
-      <c r="AW3" s="314"/>
+      <c r="AT3" s="283"/>
+      <c r="AU3" s="283"/>
+      <c r="AV3" s="283"/>
+      <c r="AW3" s="283"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
-      <c r="B4" s="314"/>
-      <c r="C4" s="314"/>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="319"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="319"/>
-      <c r="O4" s="319"/>
-      <c r="P4" s="319"/>
-      <c r="Q4" s="319"/>
-      <c r="R4" s="320"/>
-      <c r="S4" s="314"/>
-      <c r="T4" s="314"/>
-      <c r="U4" s="314"/>
-      <c r="V4" s="314"/>
-      <c r="W4" s="314"/>
-      <c r="X4" s="314"/>
-      <c r="Y4" s="314"/>
-      <c r="Z4" s="314"/>
-      <c r="AA4" s="314"/>
-      <c r="AB4" s="314"/>
-      <c r="AC4" s="314"/>
-      <c r="AD4" s="314"/>
-      <c r="AE4" s="314"/>
-      <c r="AF4" s="314"/>
-      <c r="AG4" s="314"/>
-      <c r="AH4" s="314"/>
-      <c r="AI4" s="314"/>
-      <c r="AJ4" s="314"/>
-      <c r="AK4" s="314"/>
-      <c r="AL4" s="314"/>
-      <c r="AM4" s="314"/>
-      <c r="AN4" s="314"/>
-      <c r="AO4" s="314"/>
-      <c r="AP4" s="314"/>
-      <c r="AQ4" s="314"/>
-      <c r="AR4" s="314"/>
-      <c r="AS4" s="314"/>
-      <c r="AT4" s="314"/>
-      <c r="AU4" s="314"/>
-      <c r="AV4" s="314"/>
-      <c r="AW4" s="314"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="289"/>
+      <c r="M4" s="287"/>
+      <c r="N4" s="288"/>
+      <c r="O4" s="288"/>
+      <c r="P4" s="288"/>
+      <c r="Q4" s="288"/>
+      <c r="R4" s="289"/>
+      <c r="S4" s="283"/>
+      <c r="T4" s="283"/>
+      <c r="U4" s="283"/>
+      <c r="V4" s="283"/>
+      <c r="W4" s="283"/>
+      <c r="X4" s="283"/>
+      <c r="Y4" s="283"/>
+      <c r="Z4" s="283"/>
+      <c r="AA4" s="283"/>
+      <c r="AB4" s="283"/>
+      <c r="AC4" s="283"/>
+      <c r="AD4" s="283"/>
+      <c r="AE4" s="283"/>
+      <c r="AF4" s="283"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="283"/>
+      <c r="AI4" s="283"/>
+      <c r="AJ4" s="283"/>
+      <c r="AK4" s="283"/>
+      <c r="AL4" s="283"/>
+      <c r="AM4" s="283"/>
+      <c r="AN4" s="283"/>
+      <c r="AO4" s="283"/>
+      <c r="AP4" s="283"/>
+      <c r="AQ4" s="283"/>
+      <c r="AR4" s="283"/>
+      <c r="AS4" s="283"/>
+      <c r="AT4" s="283"/>
+      <c r="AU4" s="283"/>
+      <c r="AV4" s="283"/>
+      <c r="AW4" s="283"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
-      <c r="B5" s="306">
+      <c r="B5" s="291">
         <v>1</v>
       </c>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="287">
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="292">
         <v>43720</v>
       </c>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="288" t="s">
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="293" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="289"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="288" t="s">
+      <c r="K5" s="294"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="289"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="289"/>
-      <c r="Q5" s="289"/>
-      <c r="R5" s="290"/>
-      <c r="S5" s="294" t="s">
+      <c r="N5" s="294"/>
+      <c r="O5" s="294"/>
+      <c r="P5" s="294"/>
+      <c r="Q5" s="294"/>
+      <c r="R5" s="295"/>
+      <c r="S5" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="294"/>
-      <c r="U5" s="294"/>
-      <c r="V5" s="305" t="s">
+      <c r="T5" s="290"/>
+      <c r="U5" s="290"/>
+      <c r="V5" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="305"/>
-      <c r="X5" s="305"/>
-      <c r="Y5" s="305"/>
-      <c r="Z5" s="305"/>
-      <c r="AA5" s="305"/>
-      <c r="AB5" s="305"/>
-      <c r="AC5" s="305"/>
-      <c r="AD5" s="305"/>
-      <c r="AE5" s="305"/>
-      <c r="AF5" s="305"/>
-      <c r="AG5" s="305"/>
-      <c r="AH5" s="305"/>
-      <c r="AI5" s="305"/>
-      <c r="AJ5" s="305"/>
-      <c r="AK5" s="305"/>
-      <c r="AL5" s="305"/>
-      <c r="AM5" s="305"/>
-      <c r="AN5" s="294" t="s">
+      <c r="W5" s="299"/>
+      <c r="X5" s="299"/>
+      <c r="Y5" s="299"/>
+      <c r="Z5" s="299"/>
+      <c r="AA5" s="299"/>
+      <c r="AB5" s="299"/>
+      <c r="AC5" s="299"/>
+      <c r="AD5" s="299"/>
+      <c r="AE5" s="299"/>
+      <c r="AF5" s="299"/>
+      <c r="AG5" s="299"/>
+      <c r="AH5" s="299"/>
+      <c r="AI5" s="299"/>
+      <c r="AJ5" s="299"/>
+      <c r="AK5" s="299"/>
+      <c r="AL5" s="299"/>
+      <c r="AM5" s="299"/>
+      <c r="AN5" s="290" t="s">
         <v>216</v>
       </c>
-      <c r="AO5" s="294"/>
-      <c r="AP5" s="294"/>
-      <c r="AQ5" s="294"/>
-      <c r="AR5" s="294"/>
-      <c r="AS5" s="294"/>
-      <c r="AT5" s="294"/>
-      <c r="AU5" s="294"/>
-      <c r="AV5" s="294"/>
-      <c r="AW5" s="294"/>
+      <c r="AO5" s="290"/>
+      <c r="AP5" s="290"/>
+      <c r="AQ5" s="290"/>
+      <c r="AR5" s="290"/>
+      <c r="AS5" s="290"/>
+      <c r="AT5" s="290"/>
+      <c r="AU5" s="290"/>
+      <c r="AV5" s="290"/>
+      <c r="AW5" s="290"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="306"/>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="288"/>
-      <c r="K6" s="289"/>
-      <c r="L6" s="290"/>
-      <c r="M6" s="309"/>
-      <c r="N6" s="310"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="310"/>
-      <c r="Q6" s="310"/>
-      <c r="R6" s="311"/>
-      <c r="S6" s="294"/>
-      <c r="T6" s="294"/>
-      <c r="U6" s="294"/>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="305"/>
-      <c r="AB6" s="305"/>
-      <c r="AC6" s="305"/>
-      <c r="AD6" s="305"/>
-      <c r="AE6" s="305"/>
-      <c r="AF6" s="305"/>
-      <c r="AG6" s="305"/>
-      <c r="AH6" s="305"/>
-      <c r="AI6" s="305"/>
-      <c r="AJ6" s="305"/>
-      <c r="AK6" s="305"/>
-      <c r="AL6" s="305"/>
-      <c r="AM6" s="305"/>
-      <c r="AN6" s="294"/>
-      <c r="AO6" s="294"/>
-      <c r="AP6" s="294"/>
-      <c r="AQ6" s="294"/>
-      <c r="AR6" s="294"/>
-      <c r="AS6" s="294"/>
-      <c r="AT6" s="294"/>
-      <c r="AU6" s="294"/>
-      <c r="AV6" s="294"/>
-      <c r="AW6" s="294"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="291"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="292"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="293"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="295"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="297"/>
+      <c r="O6" s="297"/>
+      <c r="P6" s="297"/>
+      <c r="Q6" s="297"/>
+      <c r="R6" s="298"/>
+      <c r="S6" s="290"/>
+      <c r="T6" s="290"/>
+      <c r="U6" s="290"/>
+      <c r="V6" s="299"/>
+      <c r="W6" s="299"/>
+      <c r="X6" s="299"/>
+      <c r="Y6" s="299"/>
+      <c r="Z6" s="299"/>
+      <c r="AA6" s="299"/>
+      <c r="AB6" s="299"/>
+      <c r="AC6" s="299"/>
+      <c r="AD6" s="299"/>
+      <c r="AE6" s="299"/>
+      <c r="AF6" s="299"/>
+      <c r="AG6" s="299"/>
+      <c r="AH6" s="299"/>
+      <c r="AI6" s="299"/>
+      <c r="AJ6" s="299"/>
+      <c r="AK6" s="299"/>
+      <c r="AL6" s="299"/>
+      <c r="AM6" s="299"/>
+      <c r="AN6" s="290"/>
+      <c r="AO6" s="290"/>
+      <c r="AP6" s="290"/>
+      <c r="AQ6" s="290"/>
+      <c r="AR6" s="290"/>
+      <c r="AS6" s="290"/>
+      <c r="AT6" s="290"/>
+      <c r="AU6" s="290"/>
+      <c r="AV6" s="290"/>
+      <c r="AW6" s="290"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="306"/>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="287"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="289"/>
-      <c r="L7" s="290"/>
-      <c r="M7" s="309"/>
-      <c r="N7" s="310"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="310"/>
-      <c r="Q7" s="310"/>
-      <c r="R7" s="311"/>
-      <c r="S7" s="294"/>
-      <c r="T7" s="294"/>
-      <c r="U7" s="294"/>
-      <c r="V7" s="305"/>
-      <c r="W7" s="305"/>
-      <c r="X7" s="305"/>
-      <c r="Y7" s="305"/>
-      <c r="Z7" s="305"/>
-      <c r="AA7" s="305"/>
-      <c r="AB7" s="305"/>
-      <c r="AC7" s="305"/>
-      <c r="AD7" s="305"/>
-      <c r="AE7" s="305"/>
-      <c r="AF7" s="305"/>
-      <c r="AG7" s="305"/>
-      <c r="AH7" s="305"/>
-      <c r="AI7" s="305"/>
-      <c r="AJ7" s="305"/>
-      <c r="AK7" s="305"/>
-      <c r="AL7" s="305"/>
-      <c r="AM7" s="305"/>
-      <c r="AN7" s="294"/>
-      <c r="AO7" s="294"/>
-      <c r="AP7" s="294"/>
-      <c r="AQ7" s="294"/>
-      <c r="AR7" s="294"/>
-      <c r="AS7" s="294"/>
-      <c r="AT7" s="294"/>
-      <c r="AU7" s="294"/>
-      <c r="AV7" s="294"/>
-      <c r="AW7" s="294"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="295"/>
+      <c r="M7" s="296"/>
+      <c r="N7" s="297"/>
+      <c r="O7" s="297"/>
+      <c r="P7" s="297"/>
+      <c r="Q7" s="297"/>
+      <c r="R7" s="298"/>
+      <c r="S7" s="290"/>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="299"/>
+      <c r="W7" s="299"/>
+      <c r="X7" s="299"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="299"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="299"/>
+      <c r="AE7" s="299"/>
+      <c r="AF7" s="299"/>
+      <c r="AG7" s="299"/>
+      <c r="AH7" s="299"/>
+      <c r="AI7" s="299"/>
+      <c r="AJ7" s="299"/>
+      <c r="AK7" s="299"/>
+      <c r="AL7" s="299"/>
+      <c r="AM7" s="299"/>
+      <c r="AN7" s="290"/>
+      <c r="AO7" s="290"/>
+      <c r="AP7" s="290"/>
+      <c r="AQ7" s="290"/>
+      <c r="AR7" s="290"/>
+      <c r="AS7" s="290"/>
+      <c r="AT7" s="290"/>
+      <c r="AU7" s="290"/>
+      <c r="AV7" s="290"/>
+      <c r="AW7" s="290"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
-      <c r="B8" s="306"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="287"/>
-      <c r="I8" s="287"/>
-      <c r="J8" s="288"/>
-      <c r="K8" s="289"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="309"/>
-      <c r="N8" s="310"/>
-      <c r="O8" s="310"/>
-      <c r="P8" s="310"/>
-      <c r="Q8" s="310"/>
-      <c r="R8" s="311"/>
-      <c r="S8" s="294"/>
-      <c r="T8" s="294"/>
-      <c r="U8" s="294"/>
-      <c r="V8" s="305"/>
-      <c r="W8" s="305"/>
-      <c r="X8" s="305"/>
-      <c r="Y8" s="305"/>
-      <c r="Z8" s="305"/>
-      <c r="AA8" s="305"/>
-      <c r="AB8" s="305"/>
-      <c r="AC8" s="305"/>
-      <c r="AD8" s="305"/>
-      <c r="AE8" s="305"/>
-      <c r="AF8" s="305"/>
-      <c r="AG8" s="305"/>
-      <c r="AH8" s="305"/>
-      <c r="AI8" s="305"/>
-      <c r="AJ8" s="305"/>
-      <c r="AK8" s="305"/>
-      <c r="AL8" s="305"/>
-      <c r="AM8" s="305"/>
-      <c r="AN8" s="294"/>
-      <c r="AO8" s="294"/>
-      <c r="AP8" s="294"/>
-      <c r="AQ8" s="294"/>
-      <c r="AR8" s="294"/>
-      <c r="AS8" s="294"/>
-      <c r="AT8" s="294"/>
-      <c r="AU8" s="294"/>
-      <c r="AV8" s="294"/>
-      <c r="AW8" s="294"/>
+      <c r="B8" s="291"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="291"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="296"/>
+      <c r="N8" s="297"/>
+      <c r="O8" s="297"/>
+      <c r="P8" s="297"/>
+      <c r="Q8" s="297"/>
+      <c r="R8" s="298"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="299"/>
+      <c r="W8" s="299"/>
+      <c r="X8" s="299"/>
+      <c r="Y8" s="299"/>
+      <c r="Z8" s="299"/>
+      <c r="AA8" s="299"/>
+      <c r="AB8" s="299"/>
+      <c r="AC8" s="299"/>
+      <c r="AD8" s="299"/>
+      <c r="AE8" s="299"/>
+      <c r="AF8" s="299"/>
+      <c r="AG8" s="299"/>
+      <c r="AH8" s="299"/>
+      <c r="AI8" s="299"/>
+      <c r="AJ8" s="299"/>
+      <c r="AK8" s="299"/>
+      <c r="AL8" s="299"/>
+      <c r="AM8" s="299"/>
+      <c r="AN8" s="290"/>
+      <c r="AO8" s="290"/>
+      <c r="AP8" s="290"/>
+      <c r="AQ8" s="290"/>
+      <c r="AR8" s="290"/>
+      <c r="AS8" s="290"/>
+      <c r="AT8" s="290"/>
+      <c r="AU8" s="290"/>
+      <c r="AV8" s="290"/>
+      <c r="AW8" s="290"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="306"/>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="287"/>
-      <c r="H9" s="287"/>
-      <c r="I9" s="287"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="290"/>
-      <c r="M9" s="309"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="310"/>
-      <c r="P9" s="310"/>
-      <c r="Q9" s="310"/>
-      <c r="R9" s="311"/>
-      <c r="S9" s="294"/>
-      <c r="T9" s="294"/>
-      <c r="U9" s="294"/>
-      <c r="V9" s="305"/>
-      <c r="W9" s="305"/>
-      <c r="X9" s="305"/>
-      <c r="Y9" s="305"/>
-      <c r="Z9" s="305"/>
-      <c r="AA9" s="305"/>
-      <c r="AB9" s="305"/>
-      <c r="AC9" s="305"/>
-      <c r="AD9" s="305"/>
-      <c r="AE9" s="305"/>
-      <c r="AF9" s="305"/>
-      <c r="AG9" s="305"/>
-      <c r="AH9" s="305"/>
-      <c r="AI9" s="305"/>
-      <c r="AJ9" s="305"/>
-      <c r="AK9" s="305"/>
-      <c r="AL9" s="305"/>
-      <c r="AM9" s="305"/>
-      <c r="AN9" s="294"/>
-      <c r="AO9" s="294"/>
-      <c r="AP9" s="294"/>
-      <c r="AQ9" s="294"/>
-      <c r="AR9" s="294"/>
-      <c r="AS9" s="294"/>
-      <c r="AT9" s="294"/>
-      <c r="AU9" s="294"/>
-      <c r="AV9" s="294"/>
-      <c r="AW9" s="294"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="297"/>
+      <c r="O9" s="297"/>
+      <c r="P9" s="297"/>
+      <c r="Q9" s="297"/>
+      <c r="R9" s="298"/>
+      <c r="S9" s="290"/>
+      <c r="T9" s="290"/>
+      <c r="U9" s="290"/>
+      <c r="V9" s="299"/>
+      <c r="W9" s="299"/>
+      <c r="X9" s="299"/>
+      <c r="Y9" s="299"/>
+      <c r="Z9" s="299"/>
+      <c r="AA9" s="299"/>
+      <c r="AB9" s="299"/>
+      <c r="AC9" s="299"/>
+      <c r="AD9" s="299"/>
+      <c r="AE9" s="299"/>
+      <c r="AF9" s="299"/>
+      <c r="AG9" s="299"/>
+      <c r="AH9" s="299"/>
+      <c r="AI9" s="299"/>
+      <c r="AJ9" s="299"/>
+      <c r="AK9" s="299"/>
+      <c r="AL9" s="299"/>
+      <c r="AM9" s="299"/>
+      <c r="AN9" s="290"/>
+      <c r="AO9" s="290"/>
+      <c r="AP9" s="290"/>
+      <c r="AQ9" s="290"/>
+      <c r="AR9" s="290"/>
+      <c r="AS9" s="290"/>
+      <c r="AT9" s="290"/>
+      <c r="AU9" s="290"/>
+      <c r="AV9" s="290"/>
+      <c r="AW9" s="290"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
-      <c r="B10" s="306"/>
-      <c r="C10" s="306"/>
-      <c r="D10" s="306"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="290"/>
-      <c r="M10" s="309"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="310"/>
-      <c r="P10" s="310"/>
-      <c r="Q10" s="310"/>
-      <c r="R10" s="311"/>
-      <c r="S10" s="294"/>
-      <c r="T10" s="294"/>
-      <c r="U10" s="294"/>
-      <c r="V10" s="305"/>
-      <c r="W10" s="305"/>
-      <c r="X10" s="305"/>
-      <c r="Y10" s="305"/>
-      <c r="Z10" s="305"/>
-      <c r="AA10" s="305"/>
-      <c r="AB10" s="305"/>
-      <c r="AC10" s="305"/>
-      <c r="AD10" s="305"/>
-      <c r="AE10" s="305"/>
-      <c r="AF10" s="305"/>
-      <c r="AG10" s="305"/>
-      <c r="AH10" s="305"/>
-      <c r="AI10" s="305"/>
-      <c r="AJ10" s="305"/>
-      <c r="AK10" s="305"/>
-      <c r="AL10" s="305"/>
-      <c r="AM10" s="305"/>
-      <c r="AN10" s="294"/>
-      <c r="AO10" s="294"/>
-      <c r="AP10" s="294"/>
-      <c r="AQ10" s="294"/>
-      <c r="AR10" s="294"/>
-      <c r="AS10" s="294"/>
-      <c r="AT10" s="294"/>
-      <c r="AU10" s="294"/>
-      <c r="AV10" s="294"/>
-      <c r="AW10" s="294"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="292"/>
+      <c r="J10" s="293"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="295"/>
+      <c r="M10" s="296"/>
+      <c r="N10" s="297"/>
+      <c r="O10" s="297"/>
+      <c r="P10" s="297"/>
+      <c r="Q10" s="297"/>
+      <c r="R10" s="298"/>
+      <c r="S10" s="290"/>
+      <c r="T10" s="290"/>
+      <c r="U10" s="290"/>
+      <c r="V10" s="299"/>
+      <c r="W10" s="299"/>
+      <c r="X10" s="299"/>
+      <c r="Y10" s="299"/>
+      <c r="Z10" s="299"/>
+      <c r="AA10" s="299"/>
+      <c r="AB10" s="299"/>
+      <c r="AC10" s="299"/>
+      <c r="AD10" s="299"/>
+      <c r="AE10" s="299"/>
+      <c r="AF10" s="299"/>
+      <c r="AG10" s="299"/>
+      <c r="AH10" s="299"/>
+      <c r="AI10" s="299"/>
+      <c r="AJ10" s="299"/>
+      <c r="AK10" s="299"/>
+      <c r="AL10" s="299"/>
+      <c r="AM10" s="299"/>
+      <c r="AN10" s="290"/>
+      <c r="AO10" s="290"/>
+      <c r="AP10" s="290"/>
+      <c r="AQ10" s="290"/>
+      <c r="AR10" s="290"/>
+      <c r="AS10" s="290"/>
+      <c r="AT10" s="290"/>
+      <c r="AU10" s="290"/>
+      <c r="AV10" s="290"/>
+      <c r="AW10" s="290"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
-      <c r="B11" s="306"/>
-      <c r="C11" s="306"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="290"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="299"/>
-      <c r="P11" s="299"/>
-      <c r="Q11" s="299"/>
-      <c r="R11" s="300"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="294"/>
-      <c r="U11" s="294"/>
-      <c r="V11" s="295"/>
-      <c r="W11" s="307"/>
-      <c r="X11" s="307"/>
-      <c r="Y11" s="307"/>
-      <c r="Z11" s="307"/>
-      <c r="AA11" s="307"/>
-      <c r="AB11" s="307"/>
-      <c r="AC11" s="307"/>
-      <c r="AD11" s="307"/>
-      <c r="AE11" s="307"/>
-      <c r="AF11" s="307"/>
-      <c r="AG11" s="307"/>
-      <c r="AH11" s="307"/>
-      <c r="AI11" s="307"/>
-      <c r="AJ11" s="307"/>
-      <c r="AK11" s="307"/>
-      <c r="AL11" s="307"/>
-      <c r="AM11" s="308"/>
-      <c r="AN11" s="294"/>
-      <c r="AO11" s="294"/>
-      <c r="AP11" s="294"/>
-      <c r="AQ11" s="294"/>
-      <c r="AR11" s="294"/>
-      <c r="AS11" s="294"/>
-      <c r="AT11" s="294"/>
-      <c r="AU11" s="294"/>
-      <c r="AV11" s="294"/>
-      <c r="AW11" s="294"/>
+      <c r="B11" s="291"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="291"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="292"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="292"/>
+      <c r="J11" s="293"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="295"/>
+      <c r="M11" s="303"/>
+      <c r="N11" s="304"/>
+      <c r="O11" s="304"/>
+      <c r="P11" s="304"/>
+      <c r="Q11" s="304"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="290"/>
+      <c r="T11" s="290"/>
+      <c r="U11" s="290"/>
+      <c r="V11" s="306"/>
+      <c r="W11" s="312"/>
+      <c r="X11" s="312"/>
+      <c r="Y11" s="312"/>
+      <c r="Z11" s="312"/>
+      <c r="AA11" s="312"/>
+      <c r="AB11" s="312"/>
+      <c r="AC11" s="312"/>
+      <c r="AD11" s="312"/>
+      <c r="AE11" s="312"/>
+      <c r="AF11" s="312"/>
+      <c r="AG11" s="312"/>
+      <c r="AH11" s="312"/>
+      <c r="AI11" s="312"/>
+      <c r="AJ11" s="312"/>
+      <c r="AK11" s="312"/>
+      <c r="AL11" s="312"/>
+      <c r="AM11" s="313"/>
+      <c r="AN11" s="290"/>
+      <c r="AO11" s="290"/>
+      <c r="AP11" s="290"/>
+      <c r="AQ11" s="290"/>
+      <c r="AR11" s="290"/>
+      <c r="AS11" s="290"/>
+      <c r="AT11" s="290"/>
+      <c r="AU11" s="290"/>
+      <c r="AV11" s="290"/>
+      <c r="AW11" s="290"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
-      <c r="B12" s="284"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="286"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="289"/>
-      <c r="L12" s="290"/>
-      <c r="M12" s="301"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="299"/>
-      <c r="P12" s="299"/>
-      <c r="Q12" s="299"/>
-      <c r="R12" s="300"/>
-      <c r="S12" s="294"/>
-      <c r="T12" s="294"/>
-      <c r="U12" s="294"/>
-      <c r="V12" s="295"/>
-      <c r="W12" s="296"/>
-      <c r="X12" s="296"/>
-      <c r="Y12" s="296"/>
-      <c r="Z12" s="296"/>
-      <c r="AA12" s="296"/>
-      <c r="AB12" s="296"/>
-      <c r="AC12" s="296"/>
-      <c r="AD12" s="296"/>
-      <c r="AE12" s="296"/>
-      <c r="AF12" s="296"/>
-      <c r="AG12" s="296"/>
-      <c r="AH12" s="296"/>
-      <c r="AI12" s="296"/>
-      <c r="AJ12" s="296"/>
-      <c r="AK12" s="296"/>
-      <c r="AL12" s="296"/>
-      <c r="AM12" s="297"/>
-      <c r="AN12" s="281"/>
-      <c r="AO12" s="282"/>
-      <c r="AP12" s="282"/>
-      <c r="AQ12" s="282"/>
-      <c r="AR12" s="283"/>
-      <c r="AS12" s="281"/>
-      <c r="AT12" s="282"/>
-      <c r="AU12" s="282"/>
-      <c r="AV12" s="282"/>
-      <c r="AW12" s="283"/>
+      <c r="B12" s="300"/>
+      <c r="C12" s="301"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="292"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="292"/>
+      <c r="J12" s="293"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="295"/>
+      <c r="M12" s="303"/>
+      <c r="N12" s="304"/>
+      <c r="O12" s="304"/>
+      <c r="P12" s="304"/>
+      <c r="Q12" s="304"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="290"/>
+      <c r="T12" s="290"/>
+      <c r="U12" s="290"/>
+      <c r="V12" s="306"/>
+      <c r="W12" s="307"/>
+      <c r="X12" s="307"/>
+      <c r="Y12" s="307"/>
+      <c r="Z12" s="307"/>
+      <c r="AA12" s="307"/>
+      <c r="AB12" s="307"/>
+      <c r="AC12" s="307"/>
+      <c r="AD12" s="307"/>
+      <c r="AE12" s="307"/>
+      <c r="AF12" s="307"/>
+      <c r="AG12" s="307"/>
+      <c r="AH12" s="307"/>
+      <c r="AI12" s="307"/>
+      <c r="AJ12" s="307"/>
+      <c r="AK12" s="307"/>
+      <c r="AL12" s="307"/>
+      <c r="AM12" s="308"/>
+      <c r="AN12" s="309"/>
+      <c r="AO12" s="310"/>
+      <c r="AP12" s="310"/>
+      <c r="AQ12" s="310"/>
+      <c r="AR12" s="311"/>
+      <c r="AS12" s="309"/>
+      <c r="AT12" s="310"/>
+      <c r="AU12" s="310"/>
+      <c r="AV12" s="310"/>
+      <c r="AW12" s="311"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
-      <c r="B13" s="284"/>
-      <c r="C13" s="285"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="290"/>
-      <c r="M13" s="298"/>
-      <c r="N13" s="299"/>
-      <c r="O13" s="299"/>
-      <c r="P13" s="299"/>
-      <c r="Q13" s="299"/>
-      <c r="R13" s="300"/>
-      <c r="S13" s="294"/>
-      <c r="T13" s="294"/>
-      <c r="U13" s="294"/>
-      <c r="V13" s="295"/>
-      <c r="W13" s="296"/>
-      <c r="X13" s="296"/>
-      <c r="Y13" s="296"/>
-      <c r="Z13" s="296"/>
-      <c r="AA13" s="296"/>
-      <c r="AB13" s="296"/>
-      <c r="AC13" s="296"/>
-      <c r="AD13" s="296"/>
-      <c r="AE13" s="296"/>
-      <c r="AF13" s="296"/>
-      <c r="AG13" s="296"/>
-      <c r="AH13" s="296"/>
-      <c r="AI13" s="296"/>
-      <c r="AJ13" s="296"/>
-      <c r="AK13" s="296"/>
-      <c r="AL13" s="296"/>
-      <c r="AM13" s="297"/>
-      <c r="AN13" s="281"/>
-      <c r="AO13" s="282"/>
-      <c r="AP13" s="282"/>
-      <c r="AQ13" s="282"/>
-      <c r="AR13" s="283"/>
-      <c r="AS13" s="281"/>
-      <c r="AT13" s="282"/>
-      <c r="AU13" s="282"/>
-      <c r="AV13" s="282"/>
-      <c r="AW13" s="283"/>
+      <c r="B13" s="300"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="292"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
+      <c r="M13" s="314"/>
+      <c r="N13" s="304"/>
+      <c r="O13" s="304"/>
+      <c r="P13" s="304"/>
+      <c r="Q13" s="304"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="290"/>
+      <c r="T13" s="290"/>
+      <c r="U13" s="290"/>
+      <c r="V13" s="306"/>
+      <c r="W13" s="307"/>
+      <c r="X13" s="307"/>
+      <c r="Y13" s="307"/>
+      <c r="Z13" s="307"/>
+      <c r="AA13" s="307"/>
+      <c r="AB13" s="307"/>
+      <c r="AC13" s="307"/>
+      <c r="AD13" s="307"/>
+      <c r="AE13" s="307"/>
+      <c r="AF13" s="307"/>
+      <c r="AG13" s="307"/>
+      <c r="AH13" s="307"/>
+      <c r="AI13" s="307"/>
+      <c r="AJ13" s="307"/>
+      <c r="AK13" s="307"/>
+      <c r="AL13" s="307"/>
+      <c r="AM13" s="308"/>
+      <c r="AN13" s="309"/>
+      <c r="AO13" s="310"/>
+      <c r="AP13" s="310"/>
+      <c r="AQ13" s="310"/>
+      <c r="AR13" s="311"/>
+      <c r="AS13" s="309"/>
+      <c r="AT13" s="310"/>
+      <c r="AU13" s="310"/>
+      <c r="AV13" s="310"/>
+      <c r="AW13" s="311"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
-      <c r="B14" s="284"/>
-      <c r="C14" s="285"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="289"/>
-      <c r="L14" s="290"/>
-      <c r="M14" s="298"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="299"/>
-      <c r="P14" s="299"/>
-      <c r="Q14" s="299"/>
-      <c r="R14" s="300"/>
-      <c r="S14" s="294"/>
-      <c r="T14" s="294"/>
-      <c r="U14" s="294"/>
-      <c r="V14" s="304"/>
-      <c r="W14" s="305"/>
-      <c r="X14" s="305"/>
-      <c r="Y14" s="305"/>
-      <c r="Z14" s="305"/>
-      <c r="AA14" s="305"/>
-      <c r="AB14" s="305"/>
-      <c r="AC14" s="305"/>
-      <c r="AD14" s="305"/>
-      <c r="AE14" s="305"/>
-      <c r="AF14" s="305"/>
-      <c r="AG14" s="305"/>
-      <c r="AH14" s="305"/>
-      <c r="AI14" s="305"/>
-      <c r="AJ14" s="305"/>
-      <c r="AK14" s="305"/>
-      <c r="AL14" s="305"/>
-      <c r="AM14" s="305"/>
-      <c r="AN14" s="294"/>
-      <c r="AO14" s="294"/>
-      <c r="AP14" s="294"/>
-      <c r="AQ14" s="294"/>
-      <c r="AR14" s="294"/>
-      <c r="AS14" s="281"/>
-      <c r="AT14" s="282"/>
-      <c r="AU14" s="282"/>
-      <c r="AV14" s="282"/>
-      <c r="AW14" s="283"/>
+      <c r="B14" s="300"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="292"/>
+      <c r="F14" s="292"/>
+      <c r="G14" s="292"/>
+      <c r="H14" s="292"/>
+      <c r="I14" s="292"/>
+      <c r="J14" s="293"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="295"/>
+      <c r="M14" s="314"/>
+      <c r="N14" s="304"/>
+      <c r="O14" s="304"/>
+      <c r="P14" s="304"/>
+      <c r="Q14" s="304"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="290"/>
+      <c r="T14" s="290"/>
+      <c r="U14" s="290"/>
+      <c r="V14" s="315"/>
+      <c r="W14" s="299"/>
+      <c r="X14" s="299"/>
+      <c r="Y14" s="299"/>
+      <c r="Z14" s="299"/>
+      <c r="AA14" s="299"/>
+      <c r="AB14" s="299"/>
+      <c r="AC14" s="299"/>
+      <c r="AD14" s="299"/>
+      <c r="AE14" s="299"/>
+      <c r="AF14" s="299"/>
+      <c r="AG14" s="299"/>
+      <c r="AH14" s="299"/>
+      <c r="AI14" s="299"/>
+      <c r="AJ14" s="299"/>
+      <c r="AK14" s="299"/>
+      <c r="AL14" s="299"/>
+      <c r="AM14" s="299"/>
+      <c r="AN14" s="290"/>
+      <c r="AO14" s="290"/>
+      <c r="AP14" s="290"/>
+      <c r="AQ14" s="290"/>
+      <c r="AR14" s="290"/>
+      <c r="AS14" s="309"/>
+      <c r="AT14" s="310"/>
+      <c r="AU14" s="310"/>
+      <c r="AV14" s="310"/>
+      <c r="AW14" s="311"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
-      <c r="B15" s="284"/>
-      <c r="C15" s="285"/>
-      <c r="D15" s="286"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="289"/>
-      <c r="L15" s="290"/>
-      <c r="M15" s="301"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="299"/>
-      <c r="P15" s="299"/>
-      <c r="Q15" s="299"/>
-      <c r="R15" s="300"/>
-      <c r="S15" s="294"/>
-      <c r="T15" s="294"/>
-      <c r="U15" s="294"/>
-      <c r="V15" s="295"/>
-      <c r="W15" s="296"/>
-      <c r="X15" s="296"/>
-      <c r="Y15" s="296"/>
-      <c r="Z15" s="296"/>
-      <c r="AA15" s="296"/>
-      <c r="AB15" s="296"/>
-      <c r="AC15" s="296"/>
-      <c r="AD15" s="296"/>
-      <c r="AE15" s="296"/>
-      <c r="AF15" s="296"/>
-      <c r="AG15" s="296"/>
-      <c r="AH15" s="296"/>
-      <c r="AI15" s="296"/>
-      <c r="AJ15" s="296"/>
-      <c r="AK15" s="296"/>
-      <c r="AL15" s="296"/>
-      <c r="AM15" s="297"/>
-      <c r="AN15" s="281"/>
-      <c r="AO15" s="282"/>
-      <c r="AP15" s="282"/>
-      <c r="AQ15" s="282"/>
-      <c r="AR15" s="283"/>
-      <c r="AS15" s="281"/>
-      <c r="AT15" s="282"/>
-      <c r="AU15" s="282"/>
-      <c r="AV15" s="282"/>
-      <c r="AW15" s="283"/>
+      <c r="B15" s="300"/>
+      <c r="C15" s="301"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="292"/>
+      <c r="G15" s="292"/>
+      <c r="H15" s="292"/>
+      <c r="I15" s="292"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="295"/>
+      <c r="M15" s="303"/>
+      <c r="N15" s="304"/>
+      <c r="O15" s="304"/>
+      <c r="P15" s="304"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="290"/>
+      <c r="T15" s="290"/>
+      <c r="U15" s="290"/>
+      <c r="V15" s="306"/>
+      <c r="W15" s="307"/>
+      <c r="X15" s="307"/>
+      <c r="Y15" s="307"/>
+      <c r="Z15" s="307"/>
+      <c r="AA15" s="307"/>
+      <c r="AB15" s="307"/>
+      <c r="AC15" s="307"/>
+      <c r="AD15" s="307"/>
+      <c r="AE15" s="307"/>
+      <c r="AF15" s="307"/>
+      <c r="AG15" s="307"/>
+      <c r="AH15" s="307"/>
+      <c r="AI15" s="307"/>
+      <c r="AJ15" s="307"/>
+      <c r="AK15" s="307"/>
+      <c r="AL15" s="307"/>
+      <c r="AM15" s="308"/>
+      <c r="AN15" s="309"/>
+      <c r="AO15" s="310"/>
+      <c r="AP15" s="310"/>
+      <c r="AQ15" s="310"/>
+      <c r="AR15" s="311"/>
+      <c r="AS15" s="309"/>
+      <c r="AT15" s="310"/>
+      <c r="AU15" s="310"/>
+      <c r="AV15" s="310"/>
+      <c r="AW15" s="311"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
-      <c r="B16" s="284"/>
-      <c r="C16" s="285"/>
-      <c r="D16" s="286"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="290"/>
-      <c r="M16" s="301"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="299"/>
-      <c r="P16" s="299"/>
-      <c r="Q16" s="299"/>
-      <c r="R16" s="300"/>
-      <c r="S16" s="294"/>
-      <c r="T16" s="294"/>
-      <c r="U16" s="294"/>
-      <c r="V16" s="295"/>
-      <c r="W16" s="296"/>
-      <c r="X16" s="296"/>
-      <c r="Y16" s="296"/>
-      <c r="Z16" s="296"/>
-      <c r="AA16" s="296"/>
-      <c r="AB16" s="296"/>
-      <c r="AC16" s="296"/>
-      <c r="AD16" s="296"/>
-      <c r="AE16" s="296"/>
-      <c r="AF16" s="296"/>
-      <c r="AG16" s="296"/>
-      <c r="AH16" s="296"/>
-      <c r="AI16" s="296"/>
-      <c r="AJ16" s="296"/>
-      <c r="AK16" s="296"/>
-      <c r="AL16" s="296"/>
-      <c r="AM16" s="297"/>
-      <c r="AN16" s="281"/>
-      <c r="AO16" s="282"/>
-      <c r="AP16" s="282"/>
-      <c r="AQ16" s="282"/>
-      <c r="AR16" s="283"/>
-      <c r="AS16" s="281"/>
-      <c r="AT16" s="282"/>
-      <c r="AU16" s="282"/>
-      <c r="AV16" s="282"/>
-      <c r="AW16" s="283"/>
+      <c r="B16" s="300"/>
+      <c r="C16" s="301"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="292"/>
+      <c r="I16" s="292"/>
+      <c r="J16" s="293"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="295"/>
+      <c r="M16" s="303"/>
+      <c r="N16" s="304"/>
+      <c r="O16" s="304"/>
+      <c r="P16" s="304"/>
+      <c r="Q16" s="304"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="290"/>
+      <c r="T16" s="290"/>
+      <c r="U16" s="290"/>
+      <c r="V16" s="306"/>
+      <c r="W16" s="307"/>
+      <c r="X16" s="307"/>
+      <c r="Y16" s="307"/>
+      <c r="Z16" s="307"/>
+      <c r="AA16" s="307"/>
+      <c r="AB16" s="307"/>
+      <c r="AC16" s="307"/>
+      <c r="AD16" s="307"/>
+      <c r="AE16" s="307"/>
+      <c r="AF16" s="307"/>
+      <c r="AG16" s="307"/>
+      <c r="AH16" s="307"/>
+      <c r="AI16" s="307"/>
+      <c r="AJ16" s="307"/>
+      <c r="AK16" s="307"/>
+      <c r="AL16" s="307"/>
+      <c r="AM16" s="308"/>
+      <c r="AN16" s="309"/>
+      <c r="AO16" s="310"/>
+      <c r="AP16" s="310"/>
+      <c r="AQ16" s="310"/>
+      <c r="AR16" s="311"/>
+      <c r="AS16" s="309"/>
+      <c r="AT16" s="310"/>
+      <c r="AU16" s="310"/>
+      <c r="AV16" s="310"/>
+      <c r="AW16" s="311"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
-      <c r="B17" s="284"/>
-      <c r="C17" s="285"/>
-      <c r="D17" s="286"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="290"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="299"/>
-      <c r="O17" s="299"/>
-      <c r="P17" s="299"/>
-      <c r="Q17" s="299"/>
-      <c r="R17" s="302"/>
-      <c r="S17" s="303"/>
-      <c r="T17" s="303"/>
-      <c r="U17" s="303"/>
-      <c r="V17" s="295"/>
-      <c r="W17" s="296"/>
-      <c r="X17" s="296"/>
-      <c r="Y17" s="296"/>
-      <c r="Z17" s="296"/>
-      <c r="AA17" s="296"/>
-      <c r="AB17" s="296"/>
-      <c r="AC17" s="296"/>
-      <c r="AD17" s="296"/>
-      <c r="AE17" s="296"/>
-      <c r="AF17" s="296"/>
-      <c r="AG17" s="296"/>
-      <c r="AH17" s="296"/>
-      <c r="AI17" s="296"/>
-      <c r="AJ17" s="296"/>
-      <c r="AK17" s="296"/>
-      <c r="AL17" s="296"/>
-      <c r="AM17" s="297"/>
-      <c r="AN17" s="281"/>
-      <c r="AO17" s="282"/>
-      <c r="AP17" s="282"/>
-      <c r="AQ17" s="282"/>
-      <c r="AR17" s="283"/>
-      <c r="AS17" s="281"/>
-      <c r="AT17" s="282"/>
-      <c r="AU17" s="282"/>
-      <c r="AV17" s="282"/>
-      <c r="AW17" s="283"/>
+      <c r="B17" s="300"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="292"/>
+      <c r="I17" s="292"/>
+      <c r="J17" s="293"/>
+      <c r="K17" s="294"/>
+      <c r="L17" s="295"/>
+      <c r="M17" s="303"/>
+      <c r="N17" s="304"/>
+      <c r="O17" s="304"/>
+      <c r="P17" s="304"/>
+      <c r="Q17" s="304"/>
+      <c r="R17" s="316"/>
+      <c r="S17" s="317"/>
+      <c r="T17" s="317"/>
+      <c r="U17" s="317"/>
+      <c r="V17" s="306"/>
+      <c r="W17" s="307"/>
+      <c r="X17" s="307"/>
+      <c r="Y17" s="307"/>
+      <c r="Z17" s="307"/>
+      <c r="AA17" s="307"/>
+      <c r="AB17" s="307"/>
+      <c r="AC17" s="307"/>
+      <c r="AD17" s="307"/>
+      <c r="AE17" s="307"/>
+      <c r="AF17" s="307"/>
+      <c r="AG17" s="307"/>
+      <c r="AH17" s="307"/>
+      <c r="AI17" s="307"/>
+      <c r="AJ17" s="307"/>
+      <c r="AK17" s="307"/>
+      <c r="AL17" s="307"/>
+      <c r="AM17" s="308"/>
+      <c r="AN17" s="309"/>
+      <c r="AO17" s="310"/>
+      <c r="AP17" s="310"/>
+      <c r="AQ17" s="310"/>
+      <c r="AR17" s="311"/>
+      <c r="AS17" s="309"/>
+      <c r="AT17" s="310"/>
+      <c r="AU17" s="310"/>
+      <c r="AV17" s="310"/>
+      <c r="AW17" s="311"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="284"/>
-      <c r="C18" s="285"/>
-      <c r="D18" s="286"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="290"/>
-      <c r="M18" s="298"/>
-      <c r="N18" s="299"/>
-      <c r="O18" s="299"/>
-      <c r="P18" s="299"/>
-      <c r="Q18" s="299"/>
-      <c r="R18" s="300"/>
-      <c r="S18" s="294"/>
-      <c r="T18" s="294"/>
-      <c r="U18" s="294"/>
-      <c r="V18" s="295"/>
-      <c r="W18" s="296"/>
-      <c r="X18" s="296"/>
-      <c r="Y18" s="296"/>
-      <c r="Z18" s="296"/>
-      <c r="AA18" s="296"/>
-      <c r="AB18" s="296"/>
-      <c r="AC18" s="296"/>
-      <c r="AD18" s="296"/>
-      <c r="AE18" s="296"/>
-      <c r="AF18" s="296"/>
-      <c r="AG18" s="296"/>
-      <c r="AH18" s="296"/>
-      <c r="AI18" s="296"/>
-      <c r="AJ18" s="296"/>
-      <c r="AK18" s="296"/>
-      <c r="AL18" s="296"/>
-      <c r="AM18" s="297"/>
-      <c r="AN18" s="281"/>
-      <c r="AO18" s="282"/>
-      <c r="AP18" s="282"/>
-      <c r="AQ18" s="282"/>
-      <c r="AR18" s="283"/>
-      <c r="AS18" s="281"/>
-      <c r="AT18" s="282"/>
-      <c r="AU18" s="282"/>
-      <c r="AV18" s="282"/>
-      <c r="AW18" s="283"/>
+      <c r="B18" s="300"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="295"/>
+      <c r="M18" s="314"/>
+      <c r="N18" s="304"/>
+      <c r="O18" s="304"/>
+      <c r="P18" s="304"/>
+      <c r="Q18" s="304"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="290"/>
+      <c r="T18" s="290"/>
+      <c r="U18" s="290"/>
+      <c r="V18" s="306"/>
+      <c r="W18" s="307"/>
+      <c r="X18" s="307"/>
+      <c r="Y18" s="307"/>
+      <c r="Z18" s="307"/>
+      <c r="AA18" s="307"/>
+      <c r="AB18" s="307"/>
+      <c r="AC18" s="307"/>
+      <c r="AD18" s="307"/>
+      <c r="AE18" s="307"/>
+      <c r="AF18" s="307"/>
+      <c r="AG18" s="307"/>
+      <c r="AH18" s="307"/>
+      <c r="AI18" s="307"/>
+      <c r="AJ18" s="307"/>
+      <c r="AK18" s="307"/>
+      <c r="AL18" s="307"/>
+      <c r="AM18" s="308"/>
+      <c r="AN18" s="309"/>
+      <c r="AO18" s="310"/>
+      <c r="AP18" s="310"/>
+      <c r="AQ18" s="310"/>
+      <c r="AR18" s="311"/>
+      <c r="AS18" s="309"/>
+      <c r="AT18" s="310"/>
+      <c r="AU18" s="310"/>
+      <c r="AV18" s="310"/>
+      <c r="AW18" s="311"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
-      <c r="B19" s="284"/>
-      <c r="C19" s="285"/>
-      <c r="D19" s="286"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="287"/>
-      <c r="G19" s="287"/>
-      <c r="H19" s="287"/>
-      <c r="I19" s="287"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="289"/>
-      <c r="L19" s="290"/>
-      <c r="M19" s="301"/>
-      <c r="N19" s="299"/>
-      <c r="O19" s="299"/>
-      <c r="P19" s="299"/>
-      <c r="Q19" s="299"/>
-      <c r="R19" s="300"/>
-      <c r="S19" s="294"/>
-      <c r="T19" s="294"/>
-      <c r="U19" s="294"/>
-      <c r="V19" s="295"/>
-      <c r="W19" s="296"/>
-      <c r="X19" s="296"/>
-      <c r="Y19" s="296"/>
-      <c r="Z19" s="296"/>
-      <c r="AA19" s="296"/>
-      <c r="AB19" s="296"/>
-      <c r="AC19" s="296"/>
-      <c r="AD19" s="296"/>
-      <c r="AE19" s="296"/>
-      <c r="AF19" s="296"/>
-      <c r="AG19" s="296"/>
-      <c r="AH19" s="296"/>
-      <c r="AI19" s="296"/>
-      <c r="AJ19" s="296"/>
-      <c r="AK19" s="296"/>
-      <c r="AL19" s="296"/>
-      <c r="AM19" s="297"/>
-      <c r="AN19" s="294"/>
-      <c r="AO19" s="294"/>
-      <c r="AP19" s="294"/>
-      <c r="AQ19" s="294"/>
-      <c r="AR19" s="294"/>
-      <c r="AS19" s="281"/>
-      <c r="AT19" s="282"/>
-      <c r="AU19" s="282"/>
-      <c r="AV19" s="282"/>
-      <c r="AW19" s="283"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="292"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="292"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="292"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="294"/>
+      <c r="L19" s="295"/>
+      <c r="M19" s="303"/>
+      <c r="N19" s="304"/>
+      <c r="O19" s="304"/>
+      <c r="P19" s="304"/>
+      <c r="Q19" s="304"/>
+      <c r="R19" s="305"/>
+      <c r="S19" s="290"/>
+      <c r="T19" s="290"/>
+      <c r="U19" s="290"/>
+      <c r="V19" s="306"/>
+      <c r="W19" s="307"/>
+      <c r="X19" s="307"/>
+      <c r="Y19" s="307"/>
+      <c r="Z19" s="307"/>
+      <c r="AA19" s="307"/>
+      <c r="AB19" s="307"/>
+      <c r="AC19" s="307"/>
+      <c r="AD19" s="307"/>
+      <c r="AE19" s="307"/>
+      <c r="AF19" s="307"/>
+      <c r="AG19" s="307"/>
+      <c r="AH19" s="307"/>
+      <c r="AI19" s="307"/>
+      <c r="AJ19" s="307"/>
+      <c r="AK19" s="307"/>
+      <c r="AL19" s="307"/>
+      <c r="AM19" s="308"/>
+      <c r="AN19" s="290"/>
+      <c r="AO19" s="290"/>
+      <c r="AP19" s="290"/>
+      <c r="AQ19" s="290"/>
+      <c r="AR19" s="290"/>
+      <c r="AS19" s="309"/>
+      <c r="AT19" s="310"/>
+      <c r="AU19" s="310"/>
+      <c r="AV19" s="310"/>
+      <c r="AW19" s="311"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="284"/>
-      <c r="C20" s="285"/>
-      <c r="D20" s="286"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="287"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="289"/>
-      <c r="L20" s="290"/>
-      <c r="M20" s="301"/>
-      <c r="N20" s="299"/>
-      <c r="O20" s="299"/>
-      <c r="P20" s="299"/>
-      <c r="Q20" s="299"/>
-      <c r="R20" s="300"/>
-      <c r="S20" s="281"/>
-      <c r="T20" s="282"/>
-      <c r="U20" s="283"/>
-      <c r="V20" s="295"/>
-      <c r="W20" s="296"/>
-      <c r="X20" s="296"/>
-      <c r="Y20" s="296"/>
-      <c r="Z20" s="296"/>
-      <c r="AA20" s="296"/>
-      <c r="AB20" s="296"/>
-      <c r="AC20" s="296"/>
-      <c r="AD20" s="296"/>
-      <c r="AE20" s="296"/>
-      <c r="AF20" s="296"/>
-      <c r="AG20" s="296"/>
-      <c r="AH20" s="296"/>
-      <c r="AI20" s="296"/>
-      <c r="AJ20" s="296"/>
-      <c r="AK20" s="296"/>
-      <c r="AL20" s="296"/>
-      <c r="AM20" s="297"/>
-      <c r="AN20" s="281"/>
-      <c r="AO20" s="282"/>
-      <c r="AP20" s="282"/>
-      <c r="AQ20" s="282"/>
-      <c r="AR20" s="283"/>
-      <c r="AS20" s="281"/>
-      <c r="AT20" s="282"/>
-      <c r="AU20" s="282"/>
-      <c r="AV20" s="282"/>
-      <c r="AW20" s="283"/>
+      <c r="B20" s="300"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="302"/>
+      <c r="E20" s="292"/>
+      <c r="F20" s="292"/>
+      <c r="G20" s="292"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="292"/>
+      <c r="J20" s="293"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="295"/>
+      <c r="M20" s="303"/>
+      <c r="N20" s="304"/>
+      <c r="O20" s="304"/>
+      <c r="P20" s="304"/>
+      <c r="Q20" s="304"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="309"/>
+      <c r="T20" s="310"/>
+      <c r="U20" s="311"/>
+      <c r="V20" s="306"/>
+      <c r="W20" s="307"/>
+      <c r="X20" s="307"/>
+      <c r="Y20" s="307"/>
+      <c r="Z20" s="307"/>
+      <c r="AA20" s="307"/>
+      <c r="AB20" s="307"/>
+      <c r="AC20" s="307"/>
+      <c r="AD20" s="307"/>
+      <c r="AE20" s="307"/>
+      <c r="AF20" s="307"/>
+      <c r="AG20" s="307"/>
+      <c r="AH20" s="307"/>
+      <c r="AI20" s="307"/>
+      <c r="AJ20" s="307"/>
+      <c r="AK20" s="307"/>
+      <c r="AL20" s="307"/>
+      <c r="AM20" s="308"/>
+      <c r="AN20" s="309"/>
+      <c r="AO20" s="310"/>
+      <c r="AP20" s="310"/>
+      <c r="AQ20" s="310"/>
+      <c r="AR20" s="311"/>
+      <c r="AS20" s="309"/>
+      <c r="AT20" s="310"/>
+      <c r="AU20" s="310"/>
+      <c r="AV20" s="310"/>
+      <c r="AW20" s="311"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="284"/>
-      <c r="C21" s="285"/>
-      <c r="D21" s="286"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="289"/>
-      <c r="L21" s="290"/>
-      <c r="M21" s="301"/>
-      <c r="N21" s="299"/>
-      <c r="O21" s="299"/>
-      <c r="P21" s="299"/>
-      <c r="Q21" s="299"/>
-      <c r="R21" s="300"/>
-      <c r="S21" s="294"/>
-      <c r="T21" s="294"/>
-      <c r="U21" s="294"/>
-      <c r="V21" s="295"/>
-      <c r="W21" s="296"/>
-      <c r="X21" s="296"/>
-      <c r="Y21" s="296"/>
-      <c r="Z21" s="296"/>
-      <c r="AA21" s="296"/>
-      <c r="AB21" s="296"/>
-      <c r="AC21" s="296"/>
-      <c r="AD21" s="296"/>
-      <c r="AE21" s="296"/>
-      <c r="AF21" s="296"/>
-      <c r="AG21" s="296"/>
-      <c r="AH21" s="296"/>
-      <c r="AI21" s="296"/>
-      <c r="AJ21" s="296"/>
-      <c r="AK21" s="296"/>
-      <c r="AL21" s="296"/>
-      <c r="AM21" s="297"/>
-      <c r="AN21" s="281"/>
-      <c r="AO21" s="282"/>
-      <c r="AP21" s="282"/>
-      <c r="AQ21" s="282"/>
-      <c r="AR21" s="283"/>
-      <c r="AS21" s="281"/>
-      <c r="AT21" s="282"/>
-      <c r="AU21" s="282"/>
-      <c r="AV21" s="282"/>
-      <c r="AW21" s="283"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="302"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="292"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="292"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="295"/>
+      <c r="M21" s="303"/>
+      <c r="N21" s="304"/>
+      <c r="O21" s="304"/>
+      <c r="P21" s="304"/>
+      <c r="Q21" s="304"/>
+      <c r="R21" s="305"/>
+      <c r="S21" s="290"/>
+      <c r="T21" s="290"/>
+      <c r="U21" s="290"/>
+      <c r="V21" s="306"/>
+      <c r="W21" s="307"/>
+      <c r="X21" s="307"/>
+      <c r="Y21" s="307"/>
+      <c r="Z21" s="307"/>
+      <c r="AA21" s="307"/>
+      <c r="AB21" s="307"/>
+      <c r="AC21" s="307"/>
+      <c r="AD21" s="307"/>
+      <c r="AE21" s="307"/>
+      <c r="AF21" s="307"/>
+      <c r="AG21" s="307"/>
+      <c r="AH21" s="307"/>
+      <c r="AI21" s="307"/>
+      <c r="AJ21" s="307"/>
+      <c r="AK21" s="307"/>
+      <c r="AL21" s="307"/>
+      <c r="AM21" s="308"/>
+      <c r="AN21" s="309"/>
+      <c r="AO21" s="310"/>
+      <c r="AP21" s="310"/>
+      <c r="AQ21" s="310"/>
+      <c r="AR21" s="311"/>
+      <c r="AS21" s="309"/>
+      <c r="AT21" s="310"/>
+      <c r="AU21" s="310"/>
+      <c r="AV21" s="310"/>
+      <c r="AW21" s="311"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="284"/>
-      <c r="C22" s="285"/>
-      <c r="D22" s="286"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="287"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="289"/>
-      <c r="L22" s="290"/>
-      <c r="M22" s="301"/>
-      <c r="N22" s="299"/>
-      <c r="O22" s="299"/>
-      <c r="P22" s="299"/>
-      <c r="Q22" s="299"/>
-      <c r="R22" s="300"/>
-      <c r="S22" s="294"/>
-      <c r="T22" s="294"/>
-      <c r="U22" s="294"/>
-      <c r="V22" s="295"/>
-      <c r="W22" s="296"/>
-      <c r="X22" s="296"/>
-      <c r="Y22" s="296"/>
-      <c r="Z22" s="296"/>
-      <c r="AA22" s="296"/>
-      <c r="AB22" s="296"/>
-      <c r="AC22" s="296"/>
-      <c r="AD22" s="296"/>
-      <c r="AE22" s="296"/>
-      <c r="AF22" s="296"/>
-      <c r="AG22" s="296"/>
-      <c r="AH22" s="296"/>
-      <c r="AI22" s="296"/>
-      <c r="AJ22" s="296"/>
-      <c r="AK22" s="296"/>
-      <c r="AL22" s="296"/>
-      <c r="AM22" s="297"/>
-      <c r="AN22" s="281"/>
-      <c r="AO22" s="282"/>
-      <c r="AP22" s="282"/>
-      <c r="AQ22" s="282"/>
-      <c r="AR22" s="283"/>
-      <c r="AS22" s="281"/>
-      <c r="AT22" s="282"/>
-      <c r="AU22" s="282"/>
-      <c r="AV22" s="282"/>
-      <c r="AW22" s="283"/>
+      <c r="B22" s="300"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="302"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="292"/>
+      <c r="J22" s="293"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="295"/>
+      <c r="M22" s="303"/>
+      <c r="N22" s="304"/>
+      <c r="O22" s="304"/>
+      <c r="P22" s="304"/>
+      <c r="Q22" s="304"/>
+      <c r="R22" s="305"/>
+      <c r="S22" s="290"/>
+      <c r="T22" s="290"/>
+      <c r="U22" s="290"/>
+      <c r="V22" s="306"/>
+      <c r="W22" s="307"/>
+      <c r="X22" s="307"/>
+      <c r="Y22" s="307"/>
+      <c r="Z22" s="307"/>
+      <c r="AA22" s="307"/>
+      <c r="AB22" s="307"/>
+      <c r="AC22" s="307"/>
+      <c r="AD22" s="307"/>
+      <c r="AE22" s="307"/>
+      <c r="AF22" s="307"/>
+      <c r="AG22" s="307"/>
+      <c r="AH22" s="307"/>
+      <c r="AI22" s="307"/>
+      <c r="AJ22" s="307"/>
+      <c r="AK22" s="307"/>
+      <c r="AL22" s="307"/>
+      <c r="AM22" s="308"/>
+      <c r="AN22" s="309"/>
+      <c r="AO22" s="310"/>
+      <c r="AP22" s="310"/>
+      <c r="AQ22" s="310"/>
+      <c r="AR22" s="311"/>
+      <c r="AS22" s="309"/>
+      <c r="AT22" s="310"/>
+      <c r="AU22" s="310"/>
+      <c r="AV22" s="310"/>
+      <c r="AW22" s="311"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="284"/>
-      <c r="C23" s="285"/>
-      <c r="D23" s="286"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="287"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="287"/>
-      <c r="J23" s="288"/>
-      <c r="K23" s="289"/>
-      <c r="L23" s="290"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="299"/>
-      <c r="O23" s="299"/>
-      <c r="P23" s="299"/>
-      <c r="Q23" s="299"/>
-      <c r="R23" s="300"/>
-      <c r="S23" s="294"/>
-      <c r="T23" s="294"/>
-      <c r="U23" s="294"/>
-      <c r="V23" s="295"/>
-      <c r="W23" s="296"/>
-      <c r="X23" s="296"/>
-      <c r="Y23" s="296"/>
-      <c r="Z23" s="296"/>
-      <c r="AA23" s="296"/>
-      <c r="AB23" s="296"/>
-      <c r="AC23" s="296"/>
-      <c r="AD23" s="296"/>
-      <c r="AE23" s="296"/>
-      <c r="AF23" s="296"/>
-      <c r="AG23" s="296"/>
-      <c r="AH23" s="296"/>
-      <c r="AI23" s="296"/>
-      <c r="AJ23" s="296"/>
-      <c r="AK23" s="296"/>
-      <c r="AL23" s="296"/>
-      <c r="AM23" s="297"/>
-      <c r="AN23" s="281"/>
-      <c r="AO23" s="282"/>
-      <c r="AP23" s="282"/>
-      <c r="AQ23" s="282"/>
-      <c r="AR23" s="283"/>
-      <c r="AS23" s="281"/>
-      <c r="AT23" s="282"/>
-      <c r="AU23" s="282"/>
-      <c r="AV23" s="282"/>
-      <c r="AW23" s="283"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="302"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="292"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="292"/>
+      <c r="J23" s="293"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="295"/>
+      <c r="M23" s="303"/>
+      <c r="N23" s="304"/>
+      <c r="O23" s="304"/>
+      <c r="P23" s="304"/>
+      <c r="Q23" s="304"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="290"/>
+      <c r="T23" s="290"/>
+      <c r="U23" s="290"/>
+      <c r="V23" s="306"/>
+      <c r="W23" s="307"/>
+      <c r="X23" s="307"/>
+      <c r="Y23" s="307"/>
+      <c r="Z23" s="307"/>
+      <c r="AA23" s="307"/>
+      <c r="AB23" s="307"/>
+      <c r="AC23" s="307"/>
+      <c r="AD23" s="307"/>
+      <c r="AE23" s="307"/>
+      <c r="AF23" s="307"/>
+      <c r="AG23" s="307"/>
+      <c r="AH23" s="307"/>
+      <c r="AI23" s="307"/>
+      <c r="AJ23" s="307"/>
+      <c r="AK23" s="307"/>
+      <c r="AL23" s="307"/>
+      <c r="AM23" s="308"/>
+      <c r="AN23" s="309"/>
+      <c r="AO23" s="310"/>
+      <c r="AP23" s="310"/>
+      <c r="AQ23" s="310"/>
+      <c r="AR23" s="311"/>
+      <c r="AS23" s="309"/>
+      <c r="AT23" s="310"/>
+      <c r="AU23" s="310"/>
+      <c r="AV23" s="310"/>
+      <c r="AW23" s="311"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="284"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="289"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="299"/>
-      <c r="O24" s="299"/>
-      <c r="P24" s="299"/>
-      <c r="Q24" s="299"/>
-      <c r="R24" s="300"/>
-      <c r="S24" s="294"/>
-      <c r="T24" s="294"/>
-      <c r="U24" s="294"/>
-      <c r="V24" s="295"/>
-      <c r="W24" s="296"/>
-      <c r="X24" s="296"/>
-      <c r="Y24" s="296"/>
-      <c r="Z24" s="296"/>
-      <c r="AA24" s="296"/>
-      <c r="AB24" s="296"/>
-      <c r="AC24" s="296"/>
-      <c r="AD24" s="296"/>
-      <c r="AE24" s="296"/>
-      <c r="AF24" s="296"/>
-      <c r="AG24" s="296"/>
-      <c r="AH24" s="296"/>
-      <c r="AI24" s="296"/>
-      <c r="AJ24" s="296"/>
-      <c r="AK24" s="296"/>
-      <c r="AL24" s="296"/>
-      <c r="AM24" s="297"/>
-      <c r="AN24" s="281"/>
-      <c r="AO24" s="282"/>
-      <c r="AP24" s="282"/>
-      <c r="AQ24" s="282"/>
-      <c r="AR24" s="283"/>
-      <c r="AS24" s="281"/>
-      <c r="AT24" s="282"/>
-      <c r="AU24" s="282"/>
-      <c r="AV24" s="282"/>
-      <c r="AW24" s="283"/>
+      <c r="B24" s="300"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="302"/>
+      <c r="E24" s="292"/>
+      <c r="F24" s="292"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="292"/>
+      <c r="J24" s="293"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="295"/>
+      <c r="M24" s="303"/>
+      <c r="N24" s="304"/>
+      <c r="O24" s="304"/>
+      <c r="P24" s="304"/>
+      <c r="Q24" s="304"/>
+      <c r="R24" s="305"/>
+      <c r="S24" s="290"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="290"/>
+      <c r="V24" s="306"/>
+      <c r="W24" s="307"/>
+      <c r="X24" s="307"/>
+      <c r="Y24" s="307"/>
+      <c r="Z24" s="307"/>
+      <c r="AA24" s="307"/>
+      <c r="AB24" s="307"/>
+      <c r="AC24" s="307"/>
+      <c r="AD24" s="307"/>
+      <c r="AE24" s="307"/>
+      <c r="AF24" s="307"/>
+      <c r="AG24" s="307"/>
+      <c r="AH24" s="307"/>
+      <c r="AI24" s="307"/>
+      <c r="AJ24" s="307"/>
+      <c r="AK24" s="307"/>
+      <c r="AL24" s="307"/>
+      <c r="AM24" s="308"/>
+      <c r="AN24" s="309"/>
+      <c r="AO24" s="310"/>
+      <c r="AP24" s="310"/>
+      <c r="AQ24" s="310"/>
+      <c r="AR24" s="311"/>
+      <c r="AS24" s="309"/>
+      <c r="AT24" s="310"/>
+      <c r="AU24" s="310"/>
+      <c r="AV24" s="310"/>
+      <c r="AW24" s="311"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="284"/>
-      <c r="C25" s="285"/>
-      <c r="D25" s="286"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="287"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="288"/>
-      <c r="K25" s="289"/>
-      <c r="L25" s="290"/>
-      <c r="M25" s="298"/>
-      <c r="N25" s="299"/>
-      <c r="O25" s="299"/>
-      <c r="P25" s="299"/>
-      <c r="Q25" s="299"/>
-      <c r="R25" s="300"/>
-      <c r="S25" s="294"/>
-      <c r="T25" s="294"/>
-      <c r="U25" s="294"/>
-      <c r="V25" s="295"/>
-      <c r="W25" s="296"/>
-      <c r="X25" s="296"/>
-      <c r="Y25" s="296"/>
-      <c r="Z25" s="296"/>
-      <c r="AA25" s="296"/>
-      <c r="AB25" s="296"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="296"/>
-      <c r="AE25" s="296"/>
-      <c r="AF25" s="296"/>
-      <c r="AG25" s="296"/>
-      <c r="AH25" s="296"/>
-      <c r="AI25" s="296"/>
-      <c r="AJ25" s="296"/>
-      <c r="AK25" s="296"/>
-      <c r="AL25" s="296"/>
-      <c r="AM25" s="297"/>
-      <c r="AN25" s="281"/>
-      <c r="AO25" s="282"/>
-      <c r="AP25" s="282"/>
-      <c r="AQ25" s="282"/>
-      <c r="AR25" s="283"/>
-      <c r="AS25" s="281"/>
-      <c r="AT25" s="282"/>
-      <c r="AU25" s="282"/>
-      <c r="AV25" s="282"/>
-      <c r="AW25" s="283"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="302"/>
+      <c r="E25" s="292"/>
+      <c r="F25" s="292"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="292"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="295"/>
+      <c r="M25" s="314"/>
+      <c r="N25" s="304"/>
+      <c r="O25" s="304"/>
+      <c r="P25" s="304"/>
+      <c r="Q25" s="304"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="290"/>
+      <c r="T25" s="290"/>
+      <c r="U25" s="290"/>
+      <c r="V25" s="306"/>
+      <c r="W25" s="307"/>
+      <c r="X25" s="307"/>
+      <c r="Y25" s="307"/>
+      <c r="Z25" s="307"/>
+      <c r="AA25" s="307"/>
+      <c r="AB25" s="307"/>
+      <c r="AC25" s="307"/>
+      <c r="AD25" s="307"/>
+      <c r="AE25" s="307"/>
+      <c r="AF25" s="307"/>
+      <c r="AG25" s="307"/>
+      <c r="AH25" s="307"/>
+      <c r="AI25" s="307"/>
+      <c r="AJ25" s="307"/>
+      <c r="AK25" s="307"/>
+      <c r="AL25" s="307"/>
+      <c r="AM25" s="308"/>
+      <c r="AN25" s="309"/>
+      <c r="AO25" s="310"/>
+      <c r="AP25" s="310"/>
+      <c r="AQ25" s="310"/>
+      <c r="AR25" s="311"/>
+      <c r="AS25" s="309"/>
+      <c r="AT25" s="310"/>
+      <c r="AU25" s="310"/>
+      <c r="AV25" s="310"/>
+      <c r="AW25" s="311"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="284"/>
-      <c r="C26" s="285"/>
-      <c r="D26" s="286"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="287"/>
-      <c r="G26" s="287"/>
-      <c r="H26" s="287"/>
-      <c r="I26" s="287"/>
-      <c r="J26" s="288"/>
-      <c r="K26" s="289"/>
-      <c r="L26" s="290"/>
-      <c r="M26" s="298"/>
-      <c r="N26" s="299"/>
-      <c r="O26" s="299"/>
-      <c r="P26" s="299"/>
-      <c r="Q26" s="299"/>
-      <c r="R26" s="300"/>
-      <c r="S26" s="294"/>
-      <c r="T26" s="294"/>
-      <c r="U26" s="294"/>
-      <c r="V26" s="295"/>
-      <c r="W26" s="296"/>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="296"/>
-      <c r="Z26" s="296"/>
-      <c r="AA26" s="296"/>
-      <c r="AB26" s="296"/>
-      <c r="AC26" s="296"/>
-      <c r="AD26" s="296"/>
-      <c r="AE26" s="296"/>
-      <c r="AF26" s="296"/>
-      <c r="AG26" s="296"/>
-      <c r="AH26" s="296"/>
-      <c r="AI26" s="296"/>
-      <c r="AJ26" s="296"/>
-      <c r="AK26" s="296"/>
-      <c r="AL26" s="296"/>
-      <c r="AM26" s="297"/>
-      <c r="AN26" s="281"/>
-      <c r="AO26" s="282"/>
-      <c r="AP26" s="282"/>
-      <c r="AQ26" s="282"/>
-      <c r="AR26" s="283"/>
-      <c r="AS26" s="281"/>
-      <c r="AT26" s="282"/>
-      <c r="AU26" s="282"/>
-      <c r="AV26" s="282"/>
-      <c r="AW26" s="283"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="302"/>
+      <c r="E26" s="292"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="292"/>
+      <c r="I26" s="292"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="295"/>
+      <c r="M26" s="314"/>
+      <c r="N26" s="304"/>
+      <c r="O26" s="304"/>
+      <c r="P26" s="304"/>
+      <c r="Q26" s="304"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="290"/>
+      <c r="T26" s="290"/>
+      <c r="U26" s="290"/>
+      <c r="V26" s="306"/>
+      <c r="W26" s="307"/>
+      <c r="X26" s="307"/>
+      <c r="Y26" s="307"/>
+      <c r="Z26" s="307"/>
+      <c r="AA26" s="307"/>
+      <c r="AB26" s="307"/>
+      <c r="AC26" s="307"/>
+      <c r="AD26" s="307"/>
+      <c r="AE26" s="307"/>
+      <c r="AF26" s="307"/>
+      <c r="AG26" s="307"/>
+      <c r="AH26" s="307"/>
+      <c r="AI26" s="307"/>
+      <c r="AJ26" s="307"/>
+      <c r="AK26" s="307"/>
+      <c r="AL26" s="307"/>
+      <c r="AM26" s="308"/>
+      <c r="AN26" s="309"/>
+      <c r="AO26" s="310"/>
+      <c r="AP26" s="310"/>
+      <c r="AQ26" s="310"/>
+      <c r="AR26" s="311"/>
+      <c r="AS26" s="309"/>
+      <c r="AT26" s="310"/>
+      <c r="AU26" s="310"/>
+      <c r="AV26" s="310"/>
+      <c r="AW26" s="311"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="284"/>
-      <c r="C27" s="285"/>
-      <c r="D27" s="286"/>
-      <c r="E27" s="287"/>
-      <c r="F27" s="287"/>
-      <c r="G27" s="287"/>
-      <c r="H27" s="287"/>
-      <c r="I27" s="287"/>
-      <c r="J27" s="288"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="290"/>
-      <c r="M27" s="298"/>
-      <c r="N27" s="299"/>
-      <c r="O27" s="299"/>
-      <c r="P27" s="299"/>
-      <c r="Q27" s="299"/>
-      <c r="R27" s="300"/>
-      <c r="S27" s="294"/>
-      <c r="T27" s="294"/>
-      <c r="U27" s="294"/>
-      <c r="V27" s="295"/>
-      <c r="W27" s="296"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
-      <c r="AC27" s="296"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="296"/>
-      <c r="AF27" s="296"/>
-      <c r="AG27" s="296"/>
-      <c r="AH27" s="296"/>
-      <c r="AI27" s="296"/>
-      <c r="AJ27" s="296"/>
-      <c r="AK27" s="296"/>
-      <c r="AL27" s="296"/>
-      <c r="AM27" s="297"/>
-      <c r="AN27" s="281"/>
-      <c r="AO27" s="282"/>
-      <c r="AP27" s="282"/>
-      <c r="AQ27" s="282"/>
-      <c r="AR27" s="283"/>
-      <c r="AS27" s="281"/>
-      <c r="AT27" s="282"/>
-      <c r="AU27" s="282"/>
-      <c r="AV27" s="282"/>
-      <c r="AW27" s="283"/>
+      <c r="B27" s="300"/>
+      <c r="C27" s="301"/>
+      <c r="D27" s="302"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="292"/>
+      <c r="J27" s="293"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="295"/>
+      <c r="M27" s="314"/>
+      <c r="N27" s="304"/>
+      <c r="O27" s="304"/>
+      <c r="P27" s="304"/>
+      <c r="Q27" s="304"/>
+      <c r="R27" s="305"/>
+      <c r="S27" s="290"/>
+      <c r="T27" s="290"/>
+      <c r="U27" s="290"/>
+      <c r="V27" s="306"/>
+      <c r="W27" s="307"/>
+      <c r="X27" s="307"/>
+      <c r="Y27" s="307"/>
+      <c r="Z27" s="307"/>
+      <c r="AA27" s="307"/>
+      <c r="AB27" s="307"/>
+      <c r="AC27" s="307"/>
+      <c r="AD27" s="307"/>
+      <c r="AE27" s="307"/>
+      <c r="AF27" s="307"/>
+      <c r="AG27" s="307"/>
+      <c r="AH27" s="307"/>
+      <c r="AI27" s="307"/>
+      <c r="AJ27" s="307"/>
+      <c r="AK27" s="307"/>
+      <c r="AL27" s="307"/>
+      <c r="AM27" s="308"/>
+      <c r="AN27" s="309"/>
+      <c r="AO27" s="310"/>
+      <c r="AP27" s="310"/>
+      <c r="AQ27" s="310"/>
+      <c r="AR27" s="311"/>
+      <c r="AS27" s="309"/>
+      <c r="AT27" s="310"/>
+      <c r="AU27" s="310"/>
+      <c r="AV27" s="310"/>
+      <c r="AW27" s="311"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="284"/>
-      <c r="C28" s="285"/>
-      <c r="D28" s="286"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="287"/>
-      <c r="H28" s="287"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="288"/>
-      <c r="K28" s="289"/>
-      <c r="L28" s="290"/>
-      <c r="M28" s="301"/>
-      <c r="N28" s="299"/>
-      <c r="O28" s="299"/>
-      <c r="P28" s="299"/>
-      <c r="Q28" s="299"/>
-      <c r="R28" s="300"/>
-      <c r="S28" s="294"/>
-      <c r="T28" s="294"/>
-      <c r="U28" s="294"/>
-      <c r="V28" s="295"/>
-      <c r="W28" s="296"/>
-      <c r="X28" s="296"/>
-      <c r="Y28" s="296"/>
-      <c r="Z28" s="296"/>
-      <c r="AA28" s="296"/>
-      <c r="AB28" s="296"/>
-      <c r="AC28" s="296"/>
-      <c r="AD28" s="296"/>
-      <c r="AE28" s="296"/>
-      <c r="AF28" s="296"/>
-      <c r="AG28" s="296"/>
-      <c r="AH28" s="296"/>
-      <c r="AI28" s="296"/>
-      <c r="AJ28" s="296"/>
-      <c r="AK28" s="296"/>
-      <c r="AL28" s="296"/>
-      <c r="AM28" s="297"/>
-      <c r="AN28" s="281"/>
-      <c r="AO28" s="282"/>
-      <c r="AP28" s="282"/>
-      <c r="AQ28" s="282"/>
-      <c r="AR28" s="283"/>
-      <c r="AS28" s="281"/>
-      <c r="AT28" s="282"/>
-      <c r="AU28" s="282"/>
-      <c r="AV28" s="282"/>
-      <c r="AW28" s="283"/>
+      <c r="B28" s="300"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="302"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="292"/>
+      <c r="J28" s="293"/>
+      <c r="K28" s="294"/>
+      <c r="L28" s="295"/>
+      <c r="M28" s="303"/>
+      <c r="N28" s="304"/>
+      <c r="O28" s="304"/>
+      <c r="P28" s="304"/>
+      <c r="Q28" s="304"/>
+      <c r="R28" s="305"/>
+      <c r="S28" s="290"/>
+      <c r="T28" s="290"/>
+      <c r="U28" s="290"/>
+      <c r="V28" s="306"/>
+      <c r="W28" s="307"/>
+      <c r="X28" s="307"/>
+      <c r="Y28" s="307"/>
+      <c r="Z28" s="307"/>
+      <c r="AA28" s="307"/>
+      <c r="AB28" s="307"/>
+      <c r="AC28" s="307"/>
+      <c r="AD28" s="307"/>
+      <c r="AE28" s="307"/>
+      <c r="AF28" s="307"/>
+      <c r="AG28" s="307"/>
+      <c r="AH28" s="307"/>
+      <c r="AI28" s="307"/>
+      <c r="AJ28" s="307"/>
+      <c r="AK28" s="307"/>
+      <c r="AL28" s="307"/>
+      <c r="AM28" s="308"/>
+      <c r="AN28" s="309"/>
+      <c r="AO28" s="310"/>
+      <c r="AP28" s="310"/>
+      <c r="AQ28" s="310"/>
+      <c r="AR28" s="311"/>
+      <c r="AS28" s="309"/>
+      <c r="AT28" s="310"/>
+      <c r="AU28" s="310"/>
+      <c r="AV28" s="310"/>
+      <c r="AW28" s="311"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="284"/>
-      <c r="C29" s="285"/>
-      <c r="D29" s="286"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="288"/>
-      <c r="K29" s="289"/>
-      <c r="L29" s="290"/>
-      <c r="M29" s="301"/>
-      <c r="N29" s="299"/>
-      <c r="O29" s="299"/>
-      <c r="P29" s="299"/>
-      <c r="Q29" s="299"/>
-      <c r="R29" s="300"/>
-      <c r="S29" s="294"/>
-      <c r="T29" s="294"/>
-      <c r="U29" s="294"/>
-      <c r="V29" s="295"/>
-      <c r="W29" s="296"/>
-      <c r="X29" s="296"/>
-      <c r="Y29" s="296"/>
-      <c r="Z29" s="296"/>
-      <c r="AA29" s="296"/>
-      <c r="AB29" s="296"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="296"/>
-      <c r="AE29" s="296"/>
-      <c r="AF29" s="296"/>
-      <c r="AG29" s="296"/>
-      <c r="AH29" s="296"/>
-      <c r="AI29" s="296"/>
-      <c r="AJ29" s="296"/>
-      <c r="AK29" s="296"/>
-      <c r="AL29" s="296"/>
-      <c r="AM29" s="297"/>
-      <c r="AN29" s="281"/>
-      <c r="AO29" s="282"/>
-      <c r="AP29" s="282"/>
-      <c r="AQ29" s="282"/>
-      <c r="AR29" s="283"/>
-      <c r="AS29" s="281"/>
-      <c r="AT29" s="282"/>
-      <c r="AU29" s="282"/>
-      <c r="AV29" s="282"/>
-      <c r="AW29" s="283"/>
+      <c r="B29" s="300"/>
+      <c r="C29" s="301"/>
+      <c r="D29" s="302"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="292"/>
+      <c r="G29" s="292"/>
+      <c r="H29" s="292"/>
+      <c r="I29" s="292"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="294"/>
+      <c r="L29" s="295"/>
+      <c r="M29" s="303"/>
+      <c r="N29" s="304"/>
+      <c r="O29" s="304"/>
+      <c r="P29" s="304"/>
+      <c r="Q29" s="304"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="290"/>
+      <c r="T29" s="290"/>
+      <c r="U29" s="290"/>
+      <c r="V29" s="306"/>
+      <c r="W29" s="307"/>
+      <c r="X29" s="307"/>
+      <c r="Y29" s="307"/>
+      <c r="Z29" s="307"/>
+      <c r="AA29" s="307"/>
+      <c r="AB29" s="307"/>
+      <c r="AC29" s="307"/>
+      <c r="AD29" s="307"/>
+      <c r="AE29" s="307"/>
+      <c r="AF29" s="307"/>
+      <c r="AG29" s="307"/>
+      <c r="AH29" s="307"/>
+      <c r="AI29" s="307"/>
+      <c r="AJ29" s="307"/>
+      <c r="AK29" s="307"/>
+      <c r="AL29" s="307"/>
+      <c r="AM29" s="308"/>
+      <c r="AN29" s="309"/>
+      <c r="AO29" s="310"/>
+      <c r="AP29" s="310"/>
+      <c r="AQ29" s="310"/>
+      <c r="AR29" s="311"/>
+      <c r="AS29" s="309"/>
+      <c r="AT29" s="310"/>
+      <c r="AU29" s="310"/>
+      <c r="AV29" s="310"/>
+      <c r="AW29" s="311"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="284"/>
-      <c r="C30" s="285"/>
-      <c r="D30" s="286"/>
-      <c r="E30" s="287"/>
-      <c r="F30" s="287"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="287"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="288"/>
-      <c r="K30" s="289"/>
-      <c r="L30" s="290"/>
-      <c r="M30" s="298"/>
-      <c r="N30" s="299"/>
-      <c r="O30" s="299"/>
-      <c r="P30" s="299"/>
-      <c r="Q30" s="299"/>
-      <c r="R30" s="300"/>
-      <c r="S30" s="294"/>
-      <c r="T30" s="294"/>
-      <c r="U30" s="294"/>
-      <c r="V30" s="295"/>
-      <c r="W30" s="296"/>
-      <c r="X30" s="296"/>
-      <c r="Y30" s="296"/>
-      <c r="Z30" s="296"/>
-      <c r="AA30" s="296"/>
-      <c r="AB30" s="296"/>
-      <c r="AC30" s="296"/>
-      <c r="AD30" s="296"/>
-      <c r="AE30" s="296"/>
-      <c r="AF30" s="296"/>
-      <c r="AG30" s="296"/>
-      <c r="AH30" s="296"/>
-      <c r="AI30" s="296"/>
-      <c r="AJ30" s="296"/>
-      <c r="AK30" s="296"/>
-      <c r="AL30" s="296"/>
-      <c r="AM30" s="297"/>
-      <c r="AN30" s="281"/>
-      <c r="AO30" s="282"/>
-      <c r="AP30" s="282"/>
-      <c r="AQ30" s="282"/>
-      <c r="AR30" s="283"/>
-      <c r="AS30" s="281"/>
-      <c r="AT30" s="282"/>
-      <c r="AU30" s="282"/>
-      <c r="AV30" s="282"/>
-      <c r="AW30" s="283"/>
+      <c r="B30" s="300"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="302"/>
+      <c r="E30" s="292"/>
+      <c r="F30" s="292"/>
+      <c r="G30" s="292"/>
+      <c r="H30" s="292"/>
+      <c r="I30" s="292"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="295"/>
+      <c r="M30" s="314"/>
+      <c r="N30" s="304"/>
+      <c r="O30" s="304"/>
+      <c r="P30" s="304"/>
+      <c r="Q30" s="304"/>
+      <c r="R30" s="305"/>
+      <c r="S30" s="290"/>
+      <c r="T30" s="290"/>
+      <c r="U30" s="290"/>
+      <c r="V30" s="306"/>
+      <c r="W30" s="307"/>
+      <c r="X30" s="307"/>
+      <c r="Y30" s="307"/>
+      <c r="Z30" s="307"/>
+      <c r="AA30" s="307"/>
+      <c r="AB30" s="307"/>
+      <c r="AC30" s="307"/>
+      <c r="AD30" s="307"/>
+      <c r="AE30" s="307"/>
+      <c r="AF30" s="307"/>
+      <c r="AG30" s="307"/>
+      <c r="AH30" s="307"/>
+      <c r="AI30" s="307"/>
+      <c r="AJ30" s="307"/>
+      <c r="AK30" s="307"/>
+      <c r="AL30" s="307"/>
+      <c r="AM30" s="308"/>
+      <c r="AN30" s="309"/>
+      <c r="AO30" s="310"/>
+      <c r="AP30" s="310"/>
+      <c r="AQ30" s="310"/>
+      <c r="AR30" s="311"/>
+      <c r="AS30" s="309"/>
+      <c r="AT30" s="310"/>
+      <c r="AU30" s="310"/>
+      <c r="AV30" s="310"/>
+      <c r="AW30" s="311"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="284"/>
-      <c r="C31" s="285"/>
-      <c r="D31" s="286"/>
-      <c r="E31" s="287"/>
-      <c r="F31" s="287"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="288"/>
-      <c r="K31" s="289"/>
-      <c r="L31" s="290"/>
-      <c r="M31" s="298"/>
-      <c r="N31" s="299"/>
-      <c r="O31" s="299"/>
-      <c r="P31" s="299"/>
-      <c r="Q31" s="299"/>
-      <c r="R31" s="300"/>
-      <c r="S31" s="294"/>
-      <c r="T31" s="294"/>
-      <c r="U31" s="294"/>
-      <c r="V31" s="295"/>
-      <c r="W31" s="296"/>
-      <c r="X31" s="296"/>
-      <c r="Y31" s="296"/>
-      <c r="Z31" s="296"/>
-      <c r="AA31" s="296"/>
-      <c r="AB31" s="296"/>
-      <c r="AC31" s="296"/>
-      <c r="AD31" s="296"/>
-      <c r="AE31" s="296"/>
-      <c r="AF31" s="296"/>
-      <c r="AG31" s="296"/>
-      <c r="AH31" s="296"/>
-      <c r="AI31" s="296"/>
-      <c r="AJ31" s="296"/>
-      <c r="AK31" s="296"/>
-      <c r="AL31" s="296"/>
-      <c r="AM31" s="297"/>
-      <c r="AN31" s="281"/>
-      <c r="AO31" s="282"/>
-      <c r="AP31" s="282"/>
-      <c r="AQ31" s="282"/>
-      <c r="AR31" s="283"/>
-      <c r="AS31" s="281"/>
-      <c r="AT31" s="282"/>
-      <c r="AU31" s="282"/>
-      <c r="AV31" s="282"/>
-      <c r="AW31" s="283"/>
+      <c r="B31" s="300"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="302"/>
+      <c r="E31" s="292"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="292"/>
+      <c r="I31" s="292"/>
+      <c r="J31" s="293"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="295"/>
+      <c r="M31" s="314"/>
+      <c r="N31" s="304"/>
+      <c r="O31" s="304"/>
+      <c r="P31" s="304"/>
+      <c r="Q31" s="304"/>
+      <c r="R31" s="305"/>
+      <c r="S31" s="290"/>
+      <c r="T31" s="290"/>
+      <c r="U31" s="290"/>
+      <c r="V31" s="306"/>
+      <c r="W31" s="307"/>
+      <c r="X31" s="307"/>
+      <c r="Y31" s="307"/>
+      <c r="Z31" s="307"/>
+      <c r="AA31" s="307"/>
+      <c r="AB31" s="307"/>
+      <c r="AC31" s="307"/>
+      <c r="AD31" s="307"/>
+      <c r="AE31" s="307"/>
+      <c r="AF31" s="307"/>
+      <c r="AG31" s="307"/>
+      <c r="AH31" s="307"/>
+      <c r="AI31" s="307"/>
+      <c r="AJ31" s="307"/>
+      <c r="AK31" s="307"/>
+      <c r="AL31" s="307"/>
+      <c r="AM31" s="308"/>
+      <c r="AN31" s="309"/>
+      <c r="AO31" s="310"/>
+      <c r="AP31" s="310"/>
+      <c r="AQ31" s="310"/>
+      <c r="AR31" s="311"/>
+      <c r="AS31" s="309"/>
+      <c r="AT31" s="310"/>
+      <c r="AU31" s="310"/>
+      <c r="AV31" s="310"/>
+      <c r="AW31" s="311"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="284"/>
-      <c r="C32" s="285"/>
-      <c r="D32" s="286"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="287"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="287"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="288"/>
-      <c r="K32" s="289"/>
-      <c r="L32" s="290"/>
-      <c r="M32" s="298"/>
-      <c r="N32" s="299"/>
-      <c r="O32" s="299"/>
-      <c r="P32" s="299"/>
-      <c r="Q32" s="299"/>
-      <c r="R32" s="300"/>
-      <c r="S32" s="294"/>
-      <c r="T32" s="294"/>
-      <c r="U32" s="294"/>
-      <c r="V32" s="295"/>
-      <c r="W32" s="296"/>
-      <c r="X32" s="296"/>
-      <c r="Y32" s="296"/>
-      <c r="Z32" s="296"/>
-      <c r="AA32" s="296"/>
-      <c r="AB32" s="296"/>
-      <c r="AC32" s="296"/>
-      <c r="AD32" s="296"/>
-      <c r="AE32" s="296"/>
-      <c r="AF32" s="296"/>
-      <c r="AG32" s="296"/>
-      <c r="AH32" s="296"/>
-      <c r="AI32" s="296"/>
-      <c r="AJ32" s="296"/>
-      <c r="AK32" s="296"/>
-      <c r="AL32" s="296"/>
-      <c r="AM32" s="297"/>
-      <c r="AN32" s="281"/>
-      <c r="AO32" s="282"/>
-      <c r="AP32" s="282"/>
-      <c r="AQ32" s="282"/>
-      <c r="AR32" s="283"/>
-      <c r="AS32" s="281"/>
-      <c r="AT32" s="282"/>
-      <c r="AU32" s="282"/>
-      <c r="AV32" s="282"/>
-      <c r="AW32" s="283"/>
+      <c r="B32" s="300"/>
+      <c r="C32" s="301"/>
+      <c r="D32" s="302"/>
+      <c r="E32" s="292"/>
+      <c r="F32" s="292"/>
+      <c r="G32" s="292"/>
+      <c r="H32" s="292"/>
+      <c r="I32" s="292"/>
+      <c r="J32" s="293"/>
+      <c r="K32" s="294"/>
+      <c r="L32" s="295"/>
+      <c r="M32" s="314"/>
+      <c r="N32" s="304"/>
+      <c r="O32" s="304"/>
+      <c r="P32" s="304"/>
+      <c r="Q32" s="304"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="290"/>
+      <c r="T32" s="290"/>
+      <c r="U32" s="290"/>
+      <c r="V32" s="306"/>
+      <c r="W32" s="307"/>
+      <c r="X32" s="307"/>
+      <c r="Y32" s="307"/>
+      <c r="Z32" s="307"/>
+      <c r="AA32" s="307"/>
+      <c r="AB32" s="307"/>
+      <c r="AC32" s="307"/>
+      <c r="AD32" s="307"/>
+      <c r="AE32" s="307"/>
+      <c r="AF32" s="307"/>
+      <c r="AG32" s="307"/>
+      <c r="AH32" s="307"/>
+      <c r="AI32" s="307"/>
+      <c r="AJ32" s="307"/>
+      <c r="AK32" s="307"/>
+      <c r="AL32" s="307"/>
+      <c r="AM32" s="308"/>
+      <c r="AN32" s="309"/>
+      <c r="AO32" s="310"/>
+      <c r="AP32" s="310"/>
+      <c r="AQ32" s="310"/>
+      <c r="AR32" s="311"/>
+      <c r="AS32" s="309"/>
+      <c r="AT32" s="310"/>
+      <c r="AU32" s="310"/>
+      <c r="AV32" s="310"/>
+      <c r="AW32" s="311"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="284"/>
-      <c r="C33" s="285"/>
-      <c r="D33" s="286"/>
-      <c r="E33" s="287"/>
-      <c r="F33" s="287"/>
-      <c r="G33" s="287"/>
-      <c r="H33" s="287"/>
-      <c r="I33" s="287"/>
-      <c r="J33" s="288"/>
-      <c r="K33" s="289"/>
-      <c r="L33" s="290"/>
-      <c r="M33" s="298"/>
-      <c r="N33" s="299"/>
-      <c r="O33" s="299"/>
-      <c r="P33" s="299"/>
-      <c r="Q33" s="299"/>
-      <c r="R33" s="300"/>
-      <c r="S33" s="294"/>
-      <c r="T33" s="294"/>
-      <c r="U33" s="294"/>
-      <c r="V33" s="295"/>
-      <c r="W33" s="296"/>
-      <c r="X33" s="296"/>
-      <c r="Y33" s="296"/>
-      <c r="Z33" s="296"/>
-      <c r="AA33" s="296"/>
-      <c r="AB33" s="296"/>
-      <c r="AC33" s="296"/>
-      <c r="AD33" s="296"/>
-      <c r="AE33" s="296"/>
-      <c r="AF33" s="296"/>
-      <c r="AG33" s="296"/>
-      <c r="AH33" s="296"/>
-      <c r="AI33" s="296"/>
-      <c r="AJ33" s="296"/>
-      <c r="AK33" s="296"/>
-      <c r="AL33" s="296"/>
-      <c r="AM33" s="297"/>
-      <c r="AN33" s="281"/>
-      <c r="AO33" s="282"/>
-      <c r="AP33" s="282"/>
-      <c r="AQ33" s="282"/>
-      <c r="AR33" s="283"/>
-      <c r="AS33" s="281"/>
-      <c r="AT33" s="282"/>
-      <c r="AU33" s="282"/>
-      <c r="AV33" s="282"/>
-      <c r="AW33" s="283"/>
+      <c r="B33" s="300"/>
+      <c r="C33" s="301"/>
+      <c r="D33" s="302"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="292"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="292"/>
+      <c r="I33" s="292"/>
+      <c r="J33" s="293"/>
+      <c r="K33" s="294"/>
+      <c r="L33" s="295"/>
+      <c r="M33" s="314"/>
+      <c r="N33" s="304"/>
+      <c r="O33" s="304"/>
+      <c r="P33" s="304"/>
+      <c r="Q33" s="304"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="290"/>
+      <c r="T33" s="290"/>
+      <c r="U33" s="290"/>
+      <c r="V33" s="306"/>
+      <c r="W33" s="307"/>
+      <c r="X33" s="307"/>
+      <c r="Y33" s="307"/>
+      <c r="Z33" s="307"/>
+      <c r="AA33" s="307"/>
+      <c r="AB33" s="307"/>
+      <c r="AC33" s="307"/>
+      <c r="AD33" s="307"/>
+      <c r="AE33" s="307"/>
+      <c r="AF33" s="307"/>
+      <c r="AG33" s="307"/>
+      <c r="AH33" s="307"/>
+      <c r="AI33" s="307"/>
+      <c r="AJ33" s="307"/>
+      <c r="AK33" s="307"/>
+      <c r="AL33" s="307"/>
+      <c r="AM33" s="308"/>
+      <c r="AN33" s="309"/>
+      <c r="AO33" s="310"/>
+      <c r="AP33" s="310"/>
+      <c r="AQ33" s="310"/>
+      <c r="AR33" s="311"/>
+      <c r="AS33" s="309"/>
+      <c r="AT33" s="310"/>
+      <c r="AU33" s="310"/>
+      <c r="AV33" s="310"/>
+      <c r="AW33" s="311"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="284"/>
-      <c r="C34" s="285"/>
-      <c r="D34" s="286"/>
-      <c r="E34" s="287"/>
-      <c r="F34" s="287"/>
-      <c r="G34" s="287"/>
-      <c r="H34" s="287"/>
-      <c r="I34" s="287"/>
-      <c r="J34" s="288"/>
-      <c r="K34" s="289"/>
-      <c r="L34" s="290"/>
-      <c r="M34" s="291"/>
-      <c r="N34" s="292"/>
-      <c r="O34" s="292"/>
-      <c r="P34" s="292"/>
-      <c r="Q34" s="292"/>
-      <c r="R34" s="293"/>
-      <c r="S34" s="294"/>
-      <c r="T34" s="294"/>
-      <c r="U34" s="294"/>
-      <c r="V34" s="295"/>
-      <c r="W34" s="296"/>
-      <c r="X34" s="296"/>
-      <c r="Y34" s="296"/>
-      <c r="Z34" s="296"/>
-      <c r="AA34" s="296"/>
-      <c r="AB34" s="296"/>
-      <c r="AC34" s="296"/>
-      <c r="AD34" s="296"/>
-      <c r="AE34" s="296"/>
-      <c r="AF34" s="296"/>
-      <c r="AG34" s="296"/>
-      <c r="AH34" s="296"/>
-      <c r="AI34" s="296"/>
-      <c r="AJ34" s="296"/>
-      <c r="AK34" s="296"/>
-      <c r="AL34" s="296"/>
-      <c r="AM34" s="297"/>
-      <c r="AN34" s="281"/>
-      <c r="AO34" s="282"/>
-      <c r="AP34" s="282"/>
-      <c r="AQ34" s="282"/>
-      <c r="AR34" s="283"/>
-      <c r="AS34" s="281"/>
-      <c r="AT34" s="282"/>
-      <c r="AU34" s="282"/>
-      <c r="AV34" s="282"/>
-      <c r="AW34" s="283"/>
+      <c r="B34" s="300"/>
+      <c r="C34" s="301"/>
+      <c r="D34" s="302"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
+      <c r="G34" s="292"/>
+      <c r="H34" s="292"/>
+      <c r="I34" s="292"/>
+      <c r="J34" s="293"/>
+      <c r="K34" s="294"/>
+      <c r="L34" s="295"/>
+      <c r="M34" s="318"/>
+      <c r="N34" s="319"/>
+      <c r="O34" s="319"/>
+      <c r="P34" s="319"/>
+      <c r="Q34" s="319"/>
+      <c r="R34" s="320"/>
+      <c r="S34" s="290"/>
+      <c r="T34" s="290"/>
+      <c r="U34" s="290"/>
+      <c r="V34" s="306"/>
+      <c r="W34" s="307"/>
+      <c r="X34" s="307"/>
+      <c r="Y34" s="307"/>
+      <c r="Z34" s="307"/>
+      <c r="AA34" s="307"/>
+      <c r="AB34" s="307"/>
+      <c r="AC34" s="307"/>
+      <c r="AD34" s="307"/>
+      <c r="AE34" s="307"/>
+      <c r="AF34" s="307"/>
+      <c r="AG34" s="307"/>
+      <c r="AH34" s="307"/>
+      <c r="AI34" s="307"/>
+      <c r="AJ34" s="307"/>
+      <c r="AK34" s="307"/>
+      <c r="AL34" s="307"/>
+      <c r="AM34" s="308"/>
+      <c r="AN34" s="309"/>
+      <c r="AO34" s="310"/>
+      <c r="AP34" s="310"/>
+      <c r="AQ34" s="310"/>
+      <c r="AR34" s="311"/>
+      <c r="AS34" s="309"/>
+      <c r="AT34" s="310"/>
+      <c r="AU34" s="310"/>
+      <c r="AV34" s="310"/>
+      <c r="AW34" s="311"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -12400,230 +12615,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14638,10 +14638,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="321">
+      <c r="B51" s="323">
         <v>1</v>
       </c>
-      <c r="C51" s="322"/>
+      <c r="C51" s="324"/>
       <c r="D51" s="231" t="s">
         <v>125</v>
       </c>
@@ -14673,16 +14673,16 @@
       <c r="AB51" s="232"/>
       <c r="AC51" s="232"/>
       <c r="AD51" s="233"/>
-      <c r="AE51" s="323" t="s">
+      <c r="AE51" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF51" s="324"/>
-      <c r="AG51" s="323"/>
-      <c r="AH51" s="324"/>
-      <c r="AI51" s="323"/>
-      <c r="AJ51" s="324"/>
-      <c r="AK51" s="323"/>
-      <c r="AL51" s="324"/>
+      <c r="AF51" s="322"/>
+      <c r="AG51" s="321"/>
+      <c r="AH51" s="322"/>
+      <c r="AI51" s="321"/>
+      <c r="AJ51" s="322"/>
+      <c r="AK51" s="321"/>
+      <c r="AL51" s="322"/>
       <c r="AM51" s="234" t="s">
         <v>131</v>
       </c>
@@ -14716,10 +14716,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="321">
+      <c r="B52" s="323">
         <v>2</v>
       </c>
-      <c r="C52" s="322"/>
+      <c r="C52" s="324"/>
       <c r="D52" s="231" t="s">
         <v>125</v>
       </c>
@@ -14751,16 +14751,16 @@
       <c r="AB52" s="232"/>
       <c r="AC52" s="232"/>
       <c r="AD52" s="233"/>
-      <c r="AE52" s="323" t="s">
+      <c r="AE52" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF52" s="324"/>
-      <c r="AG52" s="323"/>
-      <c r="AH52" s="324"/>
-      <c r="AI52" s="323"/>
-      <c r="AJ52" s="324"/>
-      <c r="AK52" s="323"/>
-      <c r="AL52" s="324"/>
+      <c r="AF52" s="322"/>
+      <c r="AG52" s="321"/>
+      <c r="AH52" s="322"/>
+      <c r="AI52" s="321"/>
+      <c r="AJ52" s="322"/>
+      <c r="AK52" s="321"/>
+      <c r="AL52" s="322"/>
       <c r="AM52" s="234" t="s">
         <v>132</v>
       </c>
@@ -14794,10 +14794,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="321">
+      <c r="B53" s="323">
         <v>3</v>
       </c>
-      <c r="C53" s="322"/>
+      <c r="C53" s="324"/>
       <c r="D53" s="231" t="s">
         <v>125</v>
       </c>
@@ -14829,16 +14829,16 @@
       <c r="AB53" s="232"/>
       <c r="AC53" s="232"/>
       <c r="AD53" s="233"/>
-      <c r="AE53" s="323" t="s">
+      <c r="AE53" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF53" s="324"/>
-      <c r="AG53" s="323"/>
-      <c r="AH53" s="324"/>
-      <c r="AI53" s="323"/>
-      <c r="AJ53" s="324"/>
-      <c r="AK53" s="323"/>
-      <c r="AL53" s="324"/>
+      <c r="AF53" s="322"/>
+      <c r="AG53" s="321"/>
+      <c r="AH53" s="322"/>
+      <c r="AI53" s="321"/>
+      <c r="AJ53" s="322"/>
+      <c r="AK53" s="321"/>
+      <c r="AL53" s="322"/>
       <c r="AM53" s="234" t="s">
         <v>133</v>
       </c>
@@ -14872,10 +14872,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="321">
+      <c r="B54" s="323">
         <v>4</v>
       </c>
-      <c r="C54" s="322"/>
+      <c r="C54" s="324"/>
       <c r="D54" s="231" t="s">
         <v>125</v>
       </c>
@@ -14907,16 +14907,16 @@
       <c r="AB54" s="232"/>
       <c r="AC54" s="232"/>
       <c r="AD54" s="233"/>
-      <c r="AE54" s="323" t="s">
+      <c r="AE54" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF54" s="324"/>
-      <c r="AG54" s="323"/>
-      <c r="AH54" s="324"/>
-      <c r="AI54" s="323"/>
-      <c r="AJ54" s="324"/>
-      <c r="AK54" s="323"/>
-      <c r="AL54" s="324"/>
+      <c r="AF54" s="322"/>
+      <c r="AG54" s="321"/>
+      <c r="AH54" s="322"/>
+      <c r="AI54" s="321"/>
+      <c r="AJ54" s="322"/>
+      <c r="AK54" s="321"/>
+      <c r="AL54" s="322"/>
       <c r="AM54" s="234" t="s">
         <v>134</v>
       </c>
@@ -14950,10 +14950,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="321">
+      <c r="B55" s="323">
         <v>5</v>
       </c>
-      <c r="C55" s="322"/>
+      <c r="C55" s="324"/>
       <c r="D55" s="231" t="s">
         <v>125</v>
       </c>
@@ -14985,16 +14985,16 @@
       <c r="AB55" s="232"/>
       <c r="AC55" s="232"/>
       <c r="AD55" s="233"/>
-      <c r="AE55" s="323" t="s">
+      <c r="AE55" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF55" s="324"/>
-      <c r="AG55" s="323"/>
-      <c r="AH55" s="324"/>
-      <c r="AI55" s="323"/>
-      <c r="AJ55" s="324"/>
-      <c r="AK55" s="323"/>
-      <c r="AL55" s="324"/>
+      <c r="AF55" s="322"/>
+      <c r="AG55" s="321"/>
+      <c r="AH55" s="322"/>
+      <c r="AI55" s="321"/>
+      <c r="AJ55" s="322"/>
+      <c r="AK55" s="321"/>
+      <c r="AL55" s="322"/>
       <c r="AM55" s="234" t="s">
         <v>135</v>
       </c>
@@ -15028,10 +15028,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="321">
+      <c r="B56" s="323">
         <v>6</v>
       </c>
-      <c r="C56" s="322"/>
+      <c r="C56" s="324"/>
       <c r="D56" s="231" t="s">
         <v>125</v>
       </c>
@@ -15063,16 +15063,16 @@
       <c r="AB56" s="232"/>
       <c r="AC56" s="232"/>
       <c r="AD56" s="233"/>
-      <c r="AE56" s="323" t="s">
+      <c r="AE56" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF56" s="324"/>
-      <c r="AG56" s="323"/>
-      <c r="AH56" s="324"/>
-      <c r="AI56" s="323"/>
-      <c r="AJ56" s="324"/>
-      <c r="AK56" s="323"/>
-      <c r="AL56" s="324"/>
+      <c r="AF56" s="322"/>
+      <c r="AG56" s="321"/>
+      <c r="AH56" s="322"/>
+      <c r="AI56" s="321"/>
+      <c r="AJ56" s="322"/>
+      <c r="AK56" s="321"/>
+      <c r="AL56" s="322"/>
       <c r="AM56" s="234" t="s">
         <v>136</v>
       </c>
@@ -15106,10 +15106,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="321">
+      <c r="B57" s="323">
         <v>7</v>
       </c>
-      <c r="C57" s="322"/>
+      <c r="C57" s="324"/>
       <c r="D57" s="231" t="s">
         <v>126</v>
       </c>
@@ -15141,16 +15141,16 @@
       <c r="AB57" s="232"/>
       <c r="AC57" s="232"/>
       <c r="AD57" s="233"/>
-      <c r="AE57" s="323" t="s">
+      <c r="AE57" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF57" s="324"/>
-      <c r="AG57" s="323"/>
-      <c r="AH57" s="324"/>
-      <c r="AI57" s="323"/>
-      <c r="AJ57" s="324"/>
-      <c r="AK57" s="323"/>
-      <c r="AL57" s="324"/>
+      <c r="AF57" s="322"/>
+      <c r="AG57" s="321"/>
+      <c r="AH57" s="322"/>
+      <c r="AI57" s="321"/>
+      <c r="AJ57" s="322"/>
+      <c r="AK57" s="321"/>
+      <c r="AL57" s="322"/>
       <c r="AM57" s="234" t="s">
         <v>558</v>
       </c>
@@ -15184,10 +15184,10 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
-      <c r="B58" s="321">
+      <c r="B58" s="323">
         <v>8</v>
       </c>
-      <c r="C58" s="322"/>
+      <c r="C58" s="324"/>
       <c r="D58" s="231" t="s">
         <v>126</v>
       </c>
@@ -15219,16 +15219,16 @@
       <c r="AB58" s="232"/>
       <c r="AC58" s="232"/>
       <c r="AD58" s="233"/>
-      <c r="AE58" s="323" t="s">
+      <c r="AE58" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF58" s="324"/>
-      <c r="AG58" s="323"/>
-      <c r="AH58" s="324"/>
-      <c r="AI58" s="323"/>
-      <c r="AJ58" s="324"/>
-      <c r="AK58" s="323"/>
-      <c r="AL58" s="324"/>
+      <c r="AF58" s="322"/>
+      <c r="AG58" s="321"/>
+      <c r="AH58" s="322"/>
+      <c r="AI58" s="321"/>
+      <c r="AJ58" s="322"/>
+      <c r="AK58" s="321"/>
+      <c r="AL58" s="322"/>
       <c r="AM58" s="234" t="s">
         <v>560</v>
       </c>
@@ -15262,10 +15262,10 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
-      <c r="B59" s="321">
+      <c r="B59" s="323">
         <v>9</v>
       </c>
-      <c r="C59" s="322"/>
+      <c r="C59" s="324"/>
       <c r="D59" s="231" t="s">
         <v>126</v>
       </c>
@@ -15297,16 +15297,16 @@
       <c r="AB59" s="232"/>
       <c r="AC59" s="232"/>
       <c r="AD59" s="233"/>
-      <c r="AE59" s="323" t="s">
+      <c r="AE59" s="321" t="s">
         <v>112</v>
       </c>
-      <c r="AF59" s="324"/>
-      <c r="AG59" s="323"/>
-      <c r="AH59" s="324"/>
-      <c r="AI59" s="323"/>
-      <c r="AJ59" s="324"/>
-      <c r="AK59" s="323"/>
-      <c r="AL59" s="324"/>
+      <c r="AF59" s="322"/>
+      <c r="AG59" s="321"/>
+      <c r="AH59" s="322"/>
+      <c r="AI59" s="321"/>
+      <c r="AJ59" s="322"/>
+      <c r="AK59" s="321"/>
+      <c r="AL59" s="322"/>
       <c r="AM59" s="234" t="s">
         <v>562</v>
       </c>
@@ -15345,6 +15345,44 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
     <mergeCell ref="AG58:AH58"/>
     <mergeCell ref="AI58:AJ58"/>
     <mergeCell ref="AK58:AL58"/>
@@ -15353,46 +15391,8 @@
     <mergeCell ref="AG59:AH59"/>
     <mergeCell ref="AI59:AJ59"/>
     <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15886,22 +15886,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="314" t="s">
+      <c r="C6" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="314" t="s">
+      <c r="D6" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="314" t="s">
+      <c r="E6" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="314" t="s">
+      <c r="F6" s="283" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="314" t="s">
+      <c r="G6" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="314" t="s">
+      <c r="H6" s="283" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="342" t="s">
@@ -15910,13 +15910,13 @@
       <c r="J6" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="314" t="s">
+      <c r="K6" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="314" t="s">
+      <c r="L6" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="314" t="s">
+      <c r="M6" s="283" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="74" t="s">
@@ -15931,17 +15931,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="314"/>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="283"/>
       <c r="I7" s="342"/>
       <c r="J7" s="342"/>
-      <c r="K7" s="314"/>
-      <c r="L7" s="314"/>
-      <c r="M7" s="314"/>
+      <c r="K7" s="283"/>
+      <c r="L7" s="283"/>
+      <c r="M7" s="283"/>
       <c r="N7" s="43" t="s">
         <v>81</v>
       </c>
@@ -16105,22 +16105,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="314" t="s">
+      <c r="C13" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="314" t="s">
+      <c r="D13" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="314" t="s">
+      <c r="E13" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="314" t="s">
+      <c r="F13" s="283" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="314" t="s">
+      <c r="G13" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="314" t="s">
+      <c r="H13" s="283" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="343" t="s">
@@ -16129,13 +16129,13 @@
       <c r="J13" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="314" t="s">
+      <c r="K13" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="314" t="s">
+      <c r="L13" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="314" t="s">
+      <c r="M13" s="283" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="74" t="s">
@@ -16150,17 +16150,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="314"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="314"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="314"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
+      <c r="H14" s="283"/>
       <c r="I14" s="344"/>
       <c r="J14" s="342"/>
-      <c r="K14" s="314"/>
-      <c r="L14" s="314"/>
-      <c r="M14" s="314"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="283"/>
+      <c r="M14" s="283"/>
       <c r="N14" s="43" t="s">
         <v>81</v>
       </c>
@@ -16766,22 +16766,22 @@
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="111"/>
-      <c r="C29" s="314" t="s">
+      <c r="C29" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="314" t="s">
+      <c r="D29" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="314" t="s">
+      <c r="E29" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="314" t="s">
+      <c r="F29" s="283" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="314" t="s">
+      <c r="G29" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="314" t="s">
+      <c r="H29" s="283" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="342" t="s">
@@ -16790,13 +16790,13 @@
       <c r="J29" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="314" t="s">
+      <c r="K29" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="314" t="s">
+      <c r="L29" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="314" t="s">
+      <c r="M29" s="283" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="74" t="s">
@@ -16810,17 +16810,17 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="111"/>
-      <c r="C30" s="314"/>
-      <c r="D30" s="314"/>
-      <c r="E30" s="314"/>
-      <c r="F30" s="314"/>
-      <c r="G30" s="314"/>
-      <c r="H30" s="314"/>
+      <c r="C30" s="283"/>
+      <c r="D30" s="283"/>
+      <c r="E30" s="283"/>
+      <c r="F30" s="283"/>
+      <c r="G30" s="283"/>
+      <c r="H30" s="283"/>
       <c r="I30" s="342"/>
       <c r="J30" s="342"/>
-      <c r="K30" s="314"/>
-      <c r="L30" s="314"/>
-      <c r="M30" s="314"/>
+      <c r="K30" s="283"/>
+      <c r="L30" s="283"/>
+      <c r="M30" s="283"/>
       <c r="N30" s="109" t="s">
         <v>81</v>
       </c>
@@ -17196,6 +17196,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="Q29:Q30"/>
@@ -17204,34 +17232,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19258,7 +19258,7 @@
       <c r="F48" s="77"/>
       <c r="G48" s="76"/>
       <c r="K48" s="77"/>
-      <c r="N48" s="17" t="s">
+      <c r="O48" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA48" s="17" t="s">
@@ -19275,7 +19275,7 @@
       <c r="F49" s="77"/>
       <c r="G49" s="76"/>
       <c r="K49" s="77"/>
-      <c r="N49" s="17" t="s">
+      <c r="O49" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA49" s="17" t="s">
@@ -19292,7 +19292,7 @@
       <c r="F50" s="77"/>
       <c r="G50" s="76"/>
       <c r="K50" s="77"/>
-      <c r="N50" s="17" t="s">
+      <c r="O50" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA50" s="17" t="s">
@@ -19309,7 +19309,7 @@
       <c r="F51" s="77"/>
       <c r="G51" s="76"/>
       <c r="K51" s="77"/>
-      <c r="N51" s="17" t="s">
+      <c r="O51" s="17" t="s">
         <v>376</v>
       </c>
       <c r="AA51" s="17" t="s">
@@ -19326,7 +19326,7 @@
       <c r="F52" s="77"/>
       <c r="G52" s="76"/>
       <c r="K52" s="77"/>
-      <c r="N52" s="17" t="s">
+      <c r="O52" s="17" t="s">
         <v>378</v>
       </c>
       <c r="AA52" s="17" t="s">
@@ -19343,7 +19343,7 @@
       <c r="F53" s="77"/>
       <c r="G53" s="76"/>
       <c r="K53" s="77"/>
-      <c r="N53" s="17" t="s">
+      <c r="O53" s="17" t="s">
         <v>380</v>
       </c>
       <c r="AA53" s="17" t="s">
@@ -19360,7 +19360,7 @@
       <c r="F54" s="77"/>
       <c r="G54" s="76"/>
       <c r="K54" s="77"/>
-      <c r="N54" s="17" t="s">
+      <c r="O54" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA54" s="17" t="s">
@@ -19388,7 +19388,7 @@
       <c r="F56" s="77"/>
       <c r="G56" s="76"/>
       <c r="K56" s="77"/>
-      <c r="N56" s="17" t="s">
+      <c r="O56" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA56" s="17" t="s">
@@ -19405,7 +19405,7 @@
       <c r="F57" s="77"/>
       <c r="G57" s="76"/>
       <c r="K57" s="77"/>
-      <c r="N57" s="17" t="s">
+      <c r="O57" s="17" t="s">
         <v>376</v>
       </c>
       <c r="AA57" s="17" t="s">
@@ -19422,7 +19422,7 @@
       <c r="F58" s="77"/>
       <c r="G58" s="76"/>
       <c r="K58" s="77"/>
-      <c r="N58" s="17" t="s">
+      <c r="O58" s="17" t="s">
         <v>378</v>
       </c>
       <c r="AA58" s="17" t="s">
@@ -19439,7 +19439,7 @@
       <c r="F59" s="77"/>
       <c r="G59" s="76"/>
       <c r="K59" s="77"/>
-      <c r="N59" s="17" t="s">
+      <c r="O59" s="17" t="s">
         <v>380</v>
       </c>
       <c r="AA59" s="17" t="s">
@@ -19456,7 +19456,7 @@
       <c r="F60" s="77"/>
       <c r="G60" s="76"/>
       <c r="K60" s="77"/>
-      <c r="N60" s="17" t="s">
+      <c r="O60" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA60" s="17" t="s">
@@ -19484,7 +19484,7 @@
       <c r="F62" s="275"/>
       <c r="G62" s="273"/>
       <c r="K62" s="275"/>
-      <c r="N62" s="274" t="s">
+      <c r="O62" s="274" t="s">
         <v>373</v>
       </c>
       <c r="AA62" s="274" t="s">
@@ -19501,7 +19501,7 @@
       <c r="F63" s="275"/>
       <c r="G63" s="273"/>
       <c r="K63" s="275"/>
-      <c r="N63" s="274" t="s">
+      <c r="O63" s="274" t="s">
         <v>376</v>
       </c>
       <c r="AA63" s="274" t="s">
@@ -19518,7 +19518,7 @@
       <c r="F64" s="275"/>
       <c r="G64" s="273"/>
       <c r="K64" s="275"/>
-      <c r="N64" s="274" t="s">
+      <c r="O64" s="274" t="s">
         <v>378</v>
       </c>
       <c r="AA64" s="274" t="s">
@@ -19535,7 +19535,7 @@
       <c r="F65" s="275"/>
       <c r="G65" s="273"/>
       <c r="K65" s="275"/>
-      <c r="N65" s="274" t="s">
+      <c r="O65" s="274" t="s">
         <v>380</v>
       </c>
       <c r="AA65" s="274" t="s">
@@ -19552,7 +19552,7 @@
       <c r="F66" s="275"/>
       <c r="G66" s="273"/>
       <c r="K66" s="275"/>
-      <c r="N66" s="274" t="s">
+      <c r="O66" s="274" t="s">
         <v>382</v>
       </c>
       <c r="AA66" s="274" t="s">
@@ -21050,7 +21050,7 @@
       <c r="F131" s="77"/>
       <c r="G131" s="76"/>
       <c r="K131" s="77"/>
-      <c r="N131" s="17" t="s">
+      <c r="O131" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA131" s="17" t="s">
@@ -21067,7 +21067,7 @@
       <c r="F132" s="77"/>
       <c r="G132" s="76"/>
       <c r="K132" s="77"/>
-      <c r="N132" s="17" t="s">
+      <c r="O132" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA132" s="17" t="s">
@@ -21084,7 +21084,7 @@
       <c r="F133" s="77"/>
       <c r="G133" s="76"/>
       <c r="K133" s="77"/>
-      <c r="N133" s="17" t="s">
+      <c r="O133" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA133" s="17" t="s">
@@ -21101,7 +21101,7 @@
       <c r="F134" s="77"/>
       <c r="G134" s="76"/>
       <c r="K134" s="77"/>
-      <c r="N134" s="17" t="s">
+      <c r="O134" s="17" t="s">
         <v>376</v>
       </c>
       <c r="AA134" s="17" t="s">
@@ -21118,7 +21118,7 @@
       <c r="F135" s="77"/>
       <c r="G135" s="76"/>
       <c r="K135" s="77"/>
-      <c r="N135" s="17" t="s">
+      <c r="O135" s="17" t="s">
         <v>378</v>
       </c>
       <c r="AA135" s="17" t="s">
@@ -21135,7 +21135,7 @@
       <c r="F136" s="77"/>
       <c r="G136" s="76"/>
       <c r="K136" s="77"/>
-      <c r="N136" s="17" t="s">
+      <c r="O136" s="17" t="s">
         <v>380</v>
       </c>
       <c r="AA136" s="17" t="s">
@@ -21152,7 +21152,7 @@
       <c r="F137" s="77"/>
       <c r="G137" s="76"/>
       <c r="K137" s="77"/>
-      <c r="N137" s="17" t="s">
+      <c r="O137" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA137" s="17" t="s">
@@ -21180,7 +21180,7 @@
       <c r="F139" s="77"/>
       <c r="G139" s="76"/>
       <c r="K139" s="77"/>
-      <c r="N139" s="17" t="s">
+      <c r="O139" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA139" s="17" t="s">
@@ -21197,7 +21197,7 @@
       <c r="F140" s="77"/>
       <c r="G140" s="76"/>
       <c r="K140" s="77"/>
-      <c r="N140" s="17" t="s">
+      <c r="O140" s="17" t="s">
         <v>376</v>
       </c>
       <c r="AA140" s="17" t="s">
@@ -21214,7 +21214,7 @@
       <c r="F141" s="77"/>
       <c r="G141" s="76"/>
       <c r="K141" s="77"/>
-      <c r="N141" s="17" t="s">
+      <c r="O141" s="17" t="s">
         <v>378</v>
       </c>
       <c r="AA141" s="17" t="s">
@@ -21231,7 +21231,7 @@
       <c r="F142" s="77"/>
       <c r="G142" s="76"/>
       <c r="K142" s="77"/>
-      <c r="N142" s="17" t="s">
+      <c r="O142" s="17" t="s">
         <v>380</v>
       </c>
       <c r="AA142" s="17" t="s">
@@ -21248,7 +21248,7 @@
       <c r="F143" s="77"/>
       <c r="G143" s="76"/>
       <c r="K143" s="77"/>
-      <c r="N143" s="17" t="s">
+      <c r="O143" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA143" s="17" t="s">
@@ -21276,7 +21276,7 @@
       <c r="F145" s="275"/>
       <c r="G145" s="273"/>
       <c r="K145" s="275"/>
-      <c r="N145" s="274" t="s">
+      <c r="O145" s="274" t="s">
         <v>373</v>
       </c>
       <c r="AA145" s="274" t="s">
@@ -21293,7 +21293,7 @@
       <c r="F146" s="275"/>
       <c r="G146" s="273"/>
       <c r="K146" s="275"/>
-      <c r="N146" s="274" t="s">
+      <c r="O146" s="274" t="s">
         <v>376</v>
       </c>
       <c r="AA146" s="274" t="s">
@@ -21310,7 +21310,7 @@
       <c r="F147" s="275"/>
       <c r="G147" s="273"/>
       <c r="K147" s="275"/>
-      <c r="N147" s="274" t="s">
+      <c r="O147" s="274" t="s">
         <v>378</v>
       </c>
       <c r="AA147" s="274" t="s">
@@ -21327,7 +21327,7 @@
       <c r="F148" s="275"/>
       <c r="G148" s="273"/>
       <c r="K148" s="275"/>
-      <c r="N148" s="274" t="s">
+      <c r="O148" s="274" t="s">
         <v>380</v>
       </c>
       <c r="AA148" s="274" t="s">
@@ -21344,7 +21344,7 @@
       <c r="F149" s="275"/>
       <c r="G149" s="273"/>
       <c r="K149" s="275"/>
-      <c r="N149" s="274" t="s">
+      <c r="O149" s="274" t="s">
         <v>382</v>
       </c>
       <c r="AA149" s="274" t="s">
@@ -21372,7 +21372,7 @@
       <c r="F151" s="77"/>
       <c r="G151" s="76"/>
       <c r="K151" s="77"/>
-      <c r="N151" s="17" t="s">
+      <c r="O151" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA151" s="17" t="s">
@@ -21389,7 +21389,7 @@
       <c r="F152" s="77"/>
       <c r="G152" s="76"/>
       <c r="K152" s="77"/>
-      <c r="N152" s="17" t="s">
+      <c r="O152" s="17" t="s">
         <v>455</v>
       </c>
       <c r="AA152" s="17" t="s">
@@ -21406,7 +21406,7 @@
       <c r="F153" s="77"/>
       <c r="G153" s="76"/>
       <c r="K153" s="77"/>
-      <c r="N153" s="17" t="s">
+      <c r="O153" s="17" t="s">
         <v>541</v>
       </c>
       <c r="AA153" s="17" t="s">
@@ -21420,10 +21420,9 @@
       <c r="F154" s="77"/>
       <c r="G154" s="76"/>
       <c r="K154" s="77"/>
-      <c r="N154" s="255" t="s">
+      <c r="O154" s="255" t="s">
         <v>542</v>
       </c>
-      <c r="O154" s="255"/>
       <c r="P154" s="255"/>
       <c r="Q154" s="255"/>
       <c r="R154" s="255"/>
@@ -21461,7 +21460,7 @@
       <c r="F156" s="77"/>
       <c r="G156" s="76"/>
       <c r="K156" s="77"/>
-      <c r="N156" s="17" t="s">
+      <c r="O156" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA156" s="17" t="s">
@@ -21478,7 +21477,7 @@
       <c r="F157" s="77"/>
       <c r="G157" s="76"/>
       <c r="K157" s="77"/>
-      <c r="N157" s="17" t="s">
+      <c r="O157" s="17" t="s">
         <v>455</v>
       </c>
       <c r="AA157" s="17" t="s">
@@ -21495,7 +21494,7 @@
       <c r="F158" s="77"/>
       <c r="G158" s="76"/>
       <c r="K158" s="77"/>
-      <c r="N158" s="17" t="s">
+      <c r="O158" s="17" t="s">
         <v>543</v>
       </c>
       <c r="AA158" s="17" t="s">
@@ -21509,10 +21508,9 @@
       <c r="F159" s="77"/>
       <c r="G159" s="76"/>
       <c r="K159" s="77"/>
-      <c r="N159" s="255" t="s">
+      <c r="O159" s="255" t="s">
         <v>544</v>
       </c>
-      <c r="O159" s="255"/>
       <c r="P159" s="255"/>
       <c r="Q159" s="255"/>
       <c r="R159" s="255"/>
@@ -21550,7 +21548,7 @@
       <c r="F161" s="77"/>
       <c r="G161" s="76"/>
       <c r="K161" s="77"/>
-      <c r="N161" s="17" t="s">
+      <c r="O161" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA161" s="17" t="s">
@@ -21567,7 +21565,7 @@
       <c r="F162" s="77"/>
       <c r="G162" s="76"/>
       <c r="K162" s="77"/>
-      <c r="N162" s="17" t="s">
+      <c r="O162" s="17" t="s">
         <v>455</v>
       </c>
       <c r="AA162" s="17" t="s">
@@ -21584,7 +21582,7 @@
       <c r="F163" s="77"/>
       <c r="G163" s="76"/>
       <c r="K163" s="77"/>
-      <c r="N163" s="17" t="s">
+      <c r="O163" s="17" t="s">
         <v>545</v>
       </c>
       <c r="AA163" s="17" t="s">
@@ -21598,7 +21596,7 @@
       <c r="F164" s="77"/>
       <c r="G164" s="76"/>
       <c r="K164" s="77"/>
-      <c r="N164" s="17" t="s">
+      <c r="O164" s="17" t="s">
         <v>546</v>
       </c>
       <c r="AA164" s="17" t="s">
@@ -21627,7 +21625,7 @@
       <c r="F166" s="77"/>
       <c r="G166" s="76"/>
       <c r="K166" s="77"/>
-      <c r="N166" s="17" t="s">
+      <c r="O166" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA166" s="17" t="s">
@@ -21644,7 +21642,7 @@
       <c r="F167" s="77"/>
       <c r="G167" s="76"/>
       <c r="K167" s="77"/>
-      <c r="N167" s="17" t="s">
+      <c r="O167" s="17" t="s">
         <v>455</v>
       </c>
       <c r="AA167" s="17" t="s">
@@ -21661,7 +21659,7 @@
       <c r="F168" s="77"/>
       <c r="G168" s="76"/>
       <c r="K168" s="77"/>
-      <c r="N168" s="17" t="s">
+      <c r="O168" s="17" t="s">
         <v>547</v>
       </c>
       <c r="AA168" s="17" t="s">
@@ -21675,7 +21673,7 @@
       <c r="F169" s="77"/>
       <c r="G169" s="76"/>
       <c r="K169" s="77"/>
-      <c r="N169" s="17" t="s">
+      <c r="O169" s="17" t="s">
         <v>548</v>
       </c>
       <c r="AA169" s="17" t="s">
@@ -21703,7 +21701,7 @@
       <c r="F171" s="77"/>
       <c r="G171" s="76"/>
       <c r="K171" s="77"/>
-      <c r="N171" s="17" t="s">
+      <c r="O171" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA171" s="17" t="s">
@@ -21720,7 +21718,7 @@
       <c r="F172" s="77"/>
       <c r="G172" s="76"/>
       <c r="K172" s="77"/>
-      <c r="N172" s="17" t="s">
+      <c r="O172" s="17" t="s">
         <v>455</v>
       </c>
       <c r="AA172" s="17" t="s">
@@ -21737,7 +21735,7 @@
       <c r="F173" s="77"/>
       <c r="G173" s="76"/>
       <c r="K173" s="77"/>
-      <c r="N173" s="17" t="s">
+      <c r="O173" s="17" t="s">
         <v>549</v>
       </c>
       <c r="AA173" s="17" t="s">
@@ -21751,7 +21749,7 @@
       <c r="F174" s="77"/>
       <c r="G174" s="76"/>
       <c r="K174" s="77"/>
-      <c r="N174" s="17" t="s">
+      <c r="O174" s="17" t="s">
         <v>550</v>
       </c>
       <c r="AA174" s="17" t="s">
@@ -21779,7 +21777,7 @@
       <c r="F176" s="77"/>
       <c r="G176" s="76"/>
       <c r="K176" s="77"/>
-      <c r="N176" s="17" t="s">
+      <c r="O176" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA176" s="17" t="s">
@@ -21796,7 +21794,7 @@
       <c r="F177" s="77"/>
       <c r="G177" s="76"/>
       <c r="K177" s="77"/>
-      <c r="N177" s="17" t="s">
+      <c r="O177" s="17" t="s">
         <v>455</v>
       </c>
       <c r="AA177" s="17" t="s">
@@ -21813,7 +21811,7 @@
       <c r="F178" s="77"/>
       <c r="G178" s="76"/>
       <c r="K178" s="77"/>
-      <c r="N178" s="17" t="s">
+      <c r="O178" s="17" t="s">
         <v>551</v>
       </c>
       <c r="AA178" s="17" t="s">
@@ -21827,7 +21825,7 @@
       <c r="F179" s="77"/>
       <c r="G179" s="76"/>
       <c r="K179" s="77"/>
-      <c r="N179" s="17" t="s">
+      <c r="O179" s="17" t="s">
         <v>552</v>
       </c>
       <c r="AA179" s="17" t="s">
@@ -23426,7 +23424,7 @@
       <c r="F255" s="77"/>
       <c r="G255" s="76"/>
       <c r="K255" s="77"/>
-      <c r="N255" s="17" t="s">
+      <c r="O255" s="17" t="s">
         <v>389</v>
       </c>
       <c r="AA255" s="17" t="s">
@@ -23443,7 +23441,7 @@
       <c r="F256" s="77"/>
       <c r="G256" s="76"/>
       <c r="K256" s="77"/>
-      <c r="N256" s="17" t="s">
+      <c r="O256" s="17" t="s">
         <v>391</v>
       </c>
       <c r="AA256" s="17" t="s">
@@ -23460,7 +23458,7 @@
       <c r="F257" s="77"/>
       <c r="G257" s="76"/>
       <c r="K257" s="77"/>
-      <c r="N257" s="17" t="s">
+      <c r="O257" s="17" t="s">
         <v>393</v>
       </c>
       <c r="AA257" s="17" t="s">
@@ -23477,7 +23475,7 @@
       <c r="F258" s="77"/>
       <c r="G258" s="76"/>
       <c r="K258" s="77"/>
-      <c r="N258" s="17" t="s">
+      <c r="O258" s="17" t="s">
         <v>376</v>
       </c>
       <c r="AA258" s="17" t="s">
@@ -23494,7 +23492,7 @@
       <c r="F259" s="77"/>
       <c r="G259" s="76"/>
       <c r="K259" s="77"/>
-      <c r="N259" s="17" t="s">
+      <c r="O259" s="17" t="s">
         <v>378</v>
       </c>
       <c r="AA259" s="17" t="s">
@@ -23511,7 +23509,7 @@
       <c r="F260" s="77"/>
       <c r="G260" s="76"/>
       <c r="K260" s="77"/>
-      <c r="N260" s="17" t="s">
+      <c r="O260" s="17" t="s">
         <v>380</v>
       </c>
       <c r="AA260" s="17" t="s">
@@ -23528,7 +23526,7 @@
       <c r="F261" s="77"/>
       <c r="G261" s="76"/>
       <c r="K261" s="77"/>
-      <c r="N261" s="17" t="s">
+      <c r="O261" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA261" s="17" t="s">
@@ -23556,7 +23554,7 @@
       <c r="F263" s="77"/>
       <c r="G263" s="76"/>
       <c r="K263" s="77"/>
-      <c r="N263" s="17" t="s">
+      <c r="O263" s="17" t="s">
         <v>373</v>
       </c>
       <c r="AA263" s="17" t="s">
@@ -23573,7 +23571,7 @@
       <c r="F264" s="77"/>
       <c r="G264" s="76"/>
       <c r="K264" s="77"/>
-      <c r="N264" s="17" t="s">
+      <c r="O264" s="17" t="s">
         <v>376</v>
       </c>
       <c r="AA264" s="17" t="s">
@@ -23590,7 +23588,7 @@
       <c r="F265" s="77"/>
       <c r="G265" s="76"/>
       <c r="K265" s="77"/>
-      <c r="N265" s="17" t="s">
+      <c r="O265" s="17" t="s">
         <v>378</v>
       </c>
       <c r="AA265" s="17" t="s">
@@ -23607,7 +23605,7 @@
       <c r="F266" s="77"/>
       <c r="G266" s="76"/>
       <c r="K266" s="77"/>
-      <c r="N266" s="17" t="s">
+      <c r="O266" s="17" t="s">
         <v>380</v>
       </c>
       <c r="AA266" s="17" t="s">
@@ -23624,7 +23622,7 @@
       <c r="F267" s="77"/>
       <c r="G267" s="76"/>
       <c r="K267" s="77"/>
-      <c r="N267" s="17" t="s">
+      <c r="O267" s="17" t="s">
         <v>382</v>
       </c>
       <c r="AA267" s="17" t="s">
@@ -23652,7 +23650,7 @@
       <c r="F269" s="275"/>
       <c r="G269" s="273"/>
       <c r="K269" s="275"/>
-      <c r="N269" s="274" t="s">
+      <c r="O269" s="274" t="s">
         <v>373</v>
       </c>
       <c r="AA269" s="274" t="s">
@@ -23669,7 +23667,7 @@
       <c r="F270" s="275"/>
       <c r="G270" s="273"/>
       <c r="K270" s="275"/>
-      <c r="N270" s="274" t="s">
+      <c r="O270" s="274" t="s">
         <v>376</v>
       </c>
       <c r="AA270" s="274" t="s">
@@ -23686,7 +23684,7 @@
       <c r="F271" s="275"/>
       <c r="G271" s="273"/>
       <c r="K271" s="275"/>
-      <c r="N271" s="274" t="s">
+      <c r="O271" s="274" t="s">
         <v>378</v>
       </c>
       <c r="AA271" s="274" t="s">
@@ -23703,7 +23701,7 @@
       <c r="F272" s="275"/>
       <c r="G272" s="273"/>
       <c r="K272" s="275"/>
-      <c r="N272" s="274" t="s">
+      <c r="O272" s="274" t="s">
         <v>380</v>
       </c>
       <c r="AA272" s="274" t="s">
@@ -23720,7 +23718,7 @@
       <c r="F273" s="275"/>
       <c r="G273" s="273"/>
       <c r="K273" s="275"/>
-      <c r="N273" s="274" t="s">
+      <c r="O273" s="274" t="s">
         <v>382</v>
       </c>
       <c r="AA273" s="274" t="s">
@@ -65452,18 +65450,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65485,6 +65483,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -65498,12 +65504,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A0CAD-A953-4710-9570-20D701071E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AAD728-710C-4B79-A491-C13563136A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5702,6 +5702,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5729,102 +5814,17 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -6939,7 +6939,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3823"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3832"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7004,7 +7004,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3824"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3833"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7069,7 +7069,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3825"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3834"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10611,1770 +10611,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
-      <c r="O1" s="281"/>
-      <c r="P1" s="281"/>
-      <c r="Q1" s="281"/>
-      <c r="R1" s="281"/>
-      <c r="S1" s="281"/>
-      <c r="T1" s="281"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="281"/>
-      <c r="W1" s="281"/>
-      <c r="X1" s="281"/>
-      <c r="Y1" s="281"/>
-      <c r="Z1" s="281"/>
-      <c r="AA1" s="281"/>
-      <c r="AB1" s="281"/>
-      <c r="AC1" s="281"/>
-      <c r="AD1" s="281"/>
-      <c r="AE1" s="281"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="281"/>
-      <c r="AH1" s="281"/>
-      <c r="AI1" s="281"/>
-      <c r="AJ1" s="281"/>
-      <c r="AK1" s="281"/>
-      <c r="AL1" s="281"/>
-      <c r="AM1" s="281"/>
-      <c r="AN1" s="281"/>
-      <c r="AO1" s="281"/>
-      <c r="AP1" s="281"/>
-      <c r="AQ1" s="281"/>
-      <c r="AR1" s="281"/>
-      <c r="AS1" s="281"/>
-      <c r="AT1" s="281"/>
-      <c r="AU1" s="281"/>
-      <c r="AV1" s="281"/>
-      <c r="AW1" s="281"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="312"/>
+      <c r="S1" s="312"/>
+      <c r="T1" s="312"/>
+      <c r="U1" s="312"/>
+      <c r="V1" s="312"/>
+      <c r="W1" s="312"/>
+      <c r="X1" s="312"/>
+      <c r="Y1" s="312"/>
+      <c r="Z1" s="312"/>
+      <c r="AA1" s="312"/>
+      <c r="AB1" s="312"/>
+      <c r="AC1" s="312"/>
+      <c r="AD1" s="312"/>
+      <c r="AE1" s="312"/>
+      <c r="AF1" s="312"/>
+      <c r="AG1" s="312"/>
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="312"/>
+      <c r="AK1" s="312"/>
+      <c r="AL1" s="312"/>
+      <c r="AM1" s="312"/>
+      <c r="AN1" s="312"/>
+      <c r="AO1" s="312"/>
+      <c r="AP1" s="312"/>
+      <c r="AQ1" s="312"/>
+      <c r="AR1" s="312"/>
+      <c r="AS1" s="312"/>
+      <c r="AT1" s="312"/>
+      <c r="AU1" s="312"/>
+      <c r="AV1" s="312"/>
+      <c r="AW1" s="312"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="282"/>
-      <c r="V2" s="282"/>
-      <c r="W2" s="282"/>
-      <c r="X2" s="282"/>
-      <c r="Y2" s="282"/>
-      <c r="Z2" s="282"/>
-      <c r="AA2" s="282"/>
-      <c r="AB2" s="282"/>
-      <c r="AC2" s="282"/>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="282"/>
-      <c r="AG2" s="282"/>
-      <c r="AH2" s="282"/>
-      <c r="AI2" s="282"/>
-      <c r="AJ2" s="282"/>
-      <c r="AK2" s="282"/>
-      <c r="AL2" s="282"/>
-      <c r="AM2" s="282"/>
-      <c r="AN2" s="282"/>
-      <c r="AO2" s="282"/>
-      <c r="AP2" s="282"/>
-      <c r="AQ2" s="282"/>
-      <c r="AR2" s="282"/>
-      <c r="AS2" s="282"/>
-      <c r="AT2" s="282"/>
-      <c r="AU2" s="282"/>
-      <c r="AV2" s="282"/>
-      <c r="AW2" s="282"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="313"/>
+      <c r="S2" s="313"/>
+      <c r="T2" s="313"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="313"/>
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="313"/>
+      <c r="AG2" s="313"/>
+      <c r="AH2" s="313"/>
+      <c r="AI2" s="313"/>
+      <c r="AJ2" s="313"/>
+      <c r="AK2" s="313"/>
+      <c r="AL2" s="313"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="313"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="313"/>
+      <c r="AS2" s="313"/>
+      <c r="AT2" s="313"/>
+      <c r="AU2" s="313"/>
+      <c r="AV2" s="313"/>
+      <c r="AW2" s="313"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283" t="s">
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="284" t="s">
+      <c r="F3" s="314"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="285"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="284" t="s">
+      <c r="K3" s="316"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="315" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="283" t="s">
+      <c r="N3" s="316"/>
+      <c r="O3" s="316"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="316"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="283"/>
-      <c r="U3" s="283"/>
-      <c r="V3" s="283" t="s">
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="283"/>
-      <c r="X3" s="283"/>
-      <c r="Y3" s="283"/>
-      <c r="Z3" s="283"/>
-      <c r="AA3" s="283"/>
-      <c r="AB3" s="283"/>
-      <c r="AC3" s="283"/>
-      <c r="AD3" s="283"/>
-      <c r="AE3" s="283"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="283"/>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="283"/>
-      <c r="AJ3" s="283"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="283" t="s">
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="314"/>
+      <c r="AA3" s="314"/>
+      <c r="AB3" s="314"/>
+      <c r="AC3" s="314"/>
+      <c r="AD3" s="314"/>
+      <c r="AE3" s="314"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="314"/>
+      <c r="AH3" s="314"/>
+      <c r="AI3" s="314"/>
+      <c r="AJ3" s="314"/>
+      <c r="AK3" s="314"/>
+      <c r="AL3" s="314"/>
+      <c r="AM3" s="314"/>
+      <c r="AN3" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="283"/>
-      <c r="AP3" s="283"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="283"/>
-      <c r="AS3" s="283" t="s">
+      <c r="AO3" s="314"/>
+      <c r="AP3" s="314"/>
+      <c r="AQ3" s="314"/>
+      <c r="AR3" s="314"/>
+      <c r="AS3" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="283"/>
-      <c r="AU3" s="283"/>
-      <c r="AV3" s="283"/>
-      <c r="AW3" s="283"/>
+      <c r="AT3" s="314"/>
+      <c r="AU3" s="314"/>
+      <c r="AV3" s="314"/>
+      <c r="AW3" s="314"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="289"/>
-      <c r="M4" s="287"/>
-      <c r="N4" s="288"/>
-      <c r="O4" s="288"/>
-      <c r="P4" s="288"/>
-      <c r="Q4" s="288"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
-      <c r="AD4" s="283"/>
-      <c r="AE4" s="283"/>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="283"/>
-      <c r="AI4" s="283"/>
-      <c r="AJ4" s="283"/>
-      <c r="AK4" s="283"/>
-      <c r="AL4" s="283"/>
-      <c r="AM4" s="283"/>
-      <c r="AN4" s="283"/>
-      <c r="AO4" s="283"/>
-      <c r="AP4" s="283"/>
-      <c r="AQ4" s="283"/>
-      <c r="AR4" s="283"/>
-      <c r="AS4" s="283"/>
-      <c r="AT4" s="283"/>
-      <c r="AU4" s="283"/>
-      <c r="AV4" s="283"/>
-      <c r="AW4" s="283"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="319"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="319"/>
+      <c r="O4" s="319"/>
+      <c r="P4" s="319"/>
+      <c r="Q4" s="319"/>
+      <c r="R4" s="320"/>
+      <c r="S4" s="314"/>
+      <c r="T4" s="314"/>
+      <c r="U4" s="314"/>
+      <c r="V4" s="314"/>
+      <c r="W4" s="314"/>
+      <c r="X4" s="314"/>
+      <c r="Y4" s="314"/>
+      <c r="Z4" s="314"/>
+      <c r="AA4" s="314"/>
+      <c r="AB4" s="314"/>
+      <c r="AC4" s="314"/>
+      <c r="AD4" s="314"/>
+      <c r="AE4" s="314"/>
+      <c r="AF4" s="314"/>
+      <c r="AG4" s="314"/>
+      <c r="AH4" s="314"/>
+      <c r="AI4" s="314"/>
+      <c r="AJ4" s="314"/>
+      <c r="AK4" s="314"/>
+      <c r="AL4" s="314"/>
+      <c r="AM4" s="314"/>
+      <c r="AN4" s="314"/>
+      <c r="AO4" s="314"/>
+      <c r="AP4" s="314"/>
+      <c r="AQ4" s="314"/>
+      <c r="AR4" s="314"/>
+      <c r="AS4" s="314"/>
+      <c r="AT4" s="314"/>
+      <c r="AU4" s="314"/>
+      <c r="AV4" s="314"/>
+      <c r="AW4" s="314"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
-      <c r="B5" s="291">
+      <c r="B5" s="306">
         <v>1</v>
       </c>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="292">
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="287">
         <v>43720</v>
       </c>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="293" t="s">
+      <c r="F5" s="287"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="294"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="293" t="s">
+      <c r="K5" s="289"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="288" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="294"/>
-      <c r="O5" s="294"/>
-      <c r="P5" s="294"/>
-      <c r="Q5" s="294"/>
-      <c r="R5" s="295"/>
-      <c r="S5" s="290" t="s">
+      <c r="N5" s="289"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="289"/>
+      <c r="Q5" s="289"/>
+      <c r="R5" s="290"/>
+      <c r="S5" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="290"/>
-      <c r="U5" s="290"/>
-      <c r="V5" s="299" t="s">
+      <c r="T5" s="294"/>
+      <c r="U5" s="294"/>
+      <c r="V5" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="299"/>
-      <c r="X5" s="299"/>
-      <c r="Y5" s="299"/>
-      <c r="Z5" s="299"/>
-      <c r="AA5" s="299"/>
-      <c r="AB5" s="299"/>
-      <c r="AC5" s="299"/>
-      <c r="AD5" s="299"/>
-      <c r="AE5" s="299"/>
-      <c r="AF5" s="299"/>
-      <c r="AG5" s="299"/>
-      <c r="AH5" s="299"/>
-      <c r="AI5" s="299"/>
-      <c r="AJ5" s="299"/>
-      <c r="AK5" s="299"/>
-      <c r="AL5" s="299"/>
-      <c r="AM5" s="299"/>
-      <c r="AN5" s="290" t="s">
+      <c r="W5" s="305"/>
+      <c r="X5" s="305"/>
+      <c r="Y5" s="305"/>
+      <c r="Z5" s="305"/>
+      <c r="AA5" s="305"/>
+      <c r="AB5" s="305"/>
+      <c r="AC5" s="305"/>
+      <c r="AD5" s="305"/>
+      <c r="AE5" s="305"/>
+      <c r="AF5" s="305"/>
+      <c r="AG5" s="305"/>
+      <c r="AH5" s="305"/>
+      <c r="AI5" s="305"/>
+      <c r="AJ5" s="305"/>
+      <c r="AK5" s="305"/>
+      <c r="AL5" s="305"/>
+      <c r="AM5" s="305"/>
+      <c r="AN5" s="294" t="s">
         <v>216</v>
       </c>
-      <c r="AO5" s="290"/>
-      <c r="AP5" s="290"/>
-      <c r="AQ5" s="290"/>
-      <c r="AR5" s="290"/>
-      <c r="AS5" s="290"/>
-      <c r="AT5" s="290"/>
-      <c r="AU5" s="290"/>
-      <c r="AV5" s="290"/>
-      <c r="AW5" s="290"/>
+      <c r="AO5" s="294"/>
+      <c r="AP5" s="294"/>
+      <c r="AQ5" s="294"/>
+      <c r="AR5" s="294"/>
+      <c r="AS5" s="294"/>
+      <c r="AT5" s="294"/>
+      <c r="AU5" s="294"/>
+      <c r="AV5" s="294"/>
+      <c r="AW5" s="294"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="291"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="292"/>
-      <c r="F6" s="292"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="292"/>
-      <c r="I6" s="292"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="295"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="297"/>
-      <c r="O6" s="297"/>
-      <c r="P6" s="297"/>
-      <c r="Q6" s="297"/>
-      <c r="R6" s="298"/>
-      <c r="S6" s="290"/>
-      <c r="T6" s="290"/>
-      <c r="U6" s="290"/>
-      <c r="V6" s="299"/>
-      <c r="W6" s="299"/>
-      <c r="X6" s="299"/>
-      <c r="Y6" s="299"/>
-      <c r="Z6" s="299"/>
-      <c r="AA6" s="299"/>
-      <c r="AB6" s="299"/>
-      <c r="AC6" s="299"/>
-      <c r="AD6" s="299"/>
-      <c r="AE6" s="299"/>
-      <c r="AF6" s="299"/>
-      <c r="AG6" s="299"/>
-      <c r="AH6" s="299"/>
-      <c r="AI6" s="299"/>
-      <c r="AJ6" s="299"/>
-      <c r="AK6" s="299"/>
-      <c r="AL6" s="299"/>
-      <c r="AM6" s="299"/>
-      <c r="AN6" s="290"/>
-      <c r="AO6" s="290"/>
-      <c r="AP6" s="290"/>
-      <c r="AQ6" s="290"/>
-      <c r="AR6" s="290"/>
-      <c r="AS6" s="290"/>
-      <c r="AT6" s="290"/>
-      <c r="AU6" s="290"/>
-      <c r="AV6" s="290"/>
-      <c r="AW6" s="290"/>
+      <c r="B6" s="306"/>
+      <c r="C6" s="306"/>
+      <c r="D6" s="306"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="288"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="309"/>
+      <c r="N6" s="310"/>
+      <c r="O6" s="310"/>
+      <c r="P6" s="310"/>
+      <c r="Q6" s="310"/>
+      <c r="R6" s="311"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="305"/>
+      <c r="AB6" s="305"/>
+      <c r="AC6" s="305"/>
+      <c r="AD6" s="305"/>
+      <c r="AE6" s="305"/>
+      <c r="AF6" s="305"/>
+      <c r="AG6" s="305"/>
+      <c r="AH6" s="305"/>
+      <c r="AI6" s="305"/>
+      <c r="AJ6" s="305"/>
+      <c r="AK6" s="305"/>
+      <c r="AL6" s="305"/>
+      <c r="AM6" s="305"/>
+      <c r="AN6" s="294"/>
+      <c r="AO6" s="294"/>
+      <c r="AP6" s="294"/>
+      <c r="AQ6" s="294"/>
+      <c r="AR6" s="294"/>
+      <c r="AS6" s="294"/>
+      <c r="AT6" s="294"/>
+      <c r="AU6" s="294"/>
+      <c r="AV6" s="294"/>
+      <c r="AW6" s="294"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="294"/>
-      <c r="L7" s="295"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="297"/>
-      <c r="O7" s="297"/>
-      <c r="P7" s="297"/>
-      <c r="Q7" s="297"/>
-      <c r="R7" s="298"/>
-      <c r="S7" s="290"/>
-      <c r="T7" s="290"/>
-      <c r="U7" s="290"/>
-      <c r="V7" s="299"/>
-      <c r="W7" s="299"/>
-      <c r="X7" s="299"/>
-      <c r="Y7" s="299"/>
-      <c r="Z7" s="299"/>
-      <c r="AA7" s="299"/>
-      <c r="AB7" s="299"/>
-      <c r="AC7" s="299"/>
-      <c r="AD7" s="299"/>
-      <c r="AE7" s="299"/>
-      <c r="AF7" s="299"/>
-      <c r="AG7" s="299"/>
-      <c r="AH7" s="299"/>
-      <c r="AI7" s="299"/>
-      <c r="AJ7" s="299"/>
-      <c r="AK7" s="299"/>
-      <c r="AL7" s="299"/>
-      <c r="AM7" s="299"/>
-      <c r="AN7" s="290"/>
-      <c r="AO7" s="290"/>
-      <c r="AP7" s="290"/>
-      <c r="AQ7" s="290"/>
-      <c r="AR7" s="290"/>
-      <c r="AS7" s="290"/>
-      <c r="AT7" s="290"/>
-      <c r="AU7" s="290"/>
-      <c r="AV7" s="290"/>
-      <c r="AW7" s="290"/>
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="288"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="290"/>
+      <c r="M7" s="309"/>
+      <c r="N7" s="310"/>
+      <c r="O7" s="310"/>
+      <c r="P7" s="310"/>
+      <c r="Q7" s="310"/>
+      <c r="R7" s="311"/>
+      <c r="S7" s="294"/>
+      <c r="T7" s="294"/>
+      <c r="U7" s="294"/>
+      <c r="V7" s="305"/>
+      <c r="W7" s="305"/>
+      <c r="X7" s="305"/>
+      <c r="Y7" s="305"/>
+      <c r="Z7" s="305"/>
+      <c r="AA7" s="305"/>
+      <c r="AB7" s="305"/>
+      <c r="AC7" s="305"/>
+      <c r="AD7" s="305"/>
+      <c r="AE7" s="305"/>
+      <c r="AF7" s="305"/>
+      <c r="AG7" s="305"/>
+      <c r="AH7" s="305"/>
+      <c r="AI7" s="305"/>
+      <c r="AJ7" s="305"/>
+      <c r="AK7" s="305"/>
+      <c r="AL7" s="305"/>
+      <c r="AM7" s="305"/>
+      <c r="AN7" s="294"/>
+      <c r="AO7" s="294"/>
+      <c r="AP7" s="294"/>
+      <c r="AQ7" s="294"/>
+      <c r="AR7" s="294"/>
+      <c r="AS7" s="294"/>
+      <c r="AT7" s="294"/>
+      <c r="AU7" s="294"/>
+      <c r="AV7" s="294"/>
+      <c r="AW7" s="294"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
-      <c r="B8" s="291"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="293"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="296"/>
-      <c r="N8" s="297"/>
-      <c r="O8" s="297"/>
-      <c r="P8" s="297"/>
-      <c r="Q8" s="297"/>
-      <c r="R8" s="298"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="299"/>
-      <c r="W8" s="299"/>
-      <c r="X8" s="299"/>
-      <c r="Y8" s="299"/>
-      <c r="Z8" s="299"/>
-      <c r="AA8" s="299"/>
-      <c r="AB8" s="299"/>
-      <c r="AC8" s="299"/>
-      <c r="AD8" s="299"/>
-      <c r="AE8" s="299"/>
-      <c r="AF8" s="299"/>
-      <c r="AG8" s="299"/>
-      <c r="AH8" s="299"/>
-      <c r="AI8" s="299"/>
-      <c r="AJ8" s="299"/>
-      <c r="AK8" s="299"/>
-      <c r="AL8" s="299"/>
-      <c r="AM8" s="299"/>
-      <c r="AN8" s="290"/>
-      <c r="AO8" s="290"/>
-      <c r="AP8" s="290"/>
-      <c r="AQ8" s="290"/>
-      <c r="AR8" s="290"/>
-      <c r="AS8" s="290"/>
-      <c r="AT8" s="290"/>
-      <c r="AU8" s="290"/>
-      <c r="AV8" s="290"/>
-      <c r="AW8" s="290"/>
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="289"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="309"/>
+      <c r="N8" s="310"/>
+      <c r="O8" s="310"/>
+      <c r="P8" s="310"/>
+      <c r="Q8" s="310"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="294"/>
+      <c r="T8" s="294"/>
+      <c r="U8" s="294"/>
+      <c r="V8" s="305"/>
+      <c r="W8" s="305"/>
+      <c r="X8" s="305"/>
+      <c r="Y8" s="305"/>
+      <c r="Z8" s="305"/>
+      <c r="AA8" s="305"/>
+      <c r="AB8" s="305"/>
+      <c r="AC8" s="305"/>
+      <c r="AD8" s="305"/>
+      <c r="AE8" s="305"/>
+      <c r="AF8" s="305"/>
+      <c r="AG8" s="305"/>
+      <c r="AH8" s="305"/>
+      <c r="AI8" s="305"/>
+      <c r="AJ8" s="305"/>
+      <c r="AK8" s="305"/>
+      <c r="AL8" s="305"/>
+      <c r="AM8" s="305"/>
+      <c r="AN8" s="294"/>
+      <c r="AO8" s="294"/>
+      <c r="AP8" s="294"/>
+      <c r="AQ8" s="294"/>
+      <c r="AR8" s="294"/>
+      <c r="AS8" s="294"/>
+      <c r="AT8" s="294"/>
+      <c r="AU8" s="294"/>
+      <c r="AV8" s="294"/>
+      <c r="AW8" s="294"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="293"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="295"/>
-      <c r="M9" s="296"/>
-      <c r="N9" s="297"/>
-      <c r="O9" s="297"/>
-      <c r="P9" s="297"/>
-      <c r="Q9" s="297"/>
-      <c r="R9" s="298"/>
-      <c r="S9" s="290"/>
-      <c r="T9" s="290"/>
-      <c r="U9" s="290"/>
-      <c r="V9" s="299"/>
-      <c r="W9" s="299"/>
-      <c r="X9" s="299"/>
-      <c r="Y9" s="299"/>
-      <c r="Z9" s="299"/>
-      <c r="AA9" s="299"/>
-      <c r="AB9" s="299"/>
-      <c r="AC9" s="299"/>
-      <c r="AD9" s="299"/>
-      <c r="AE9" s="299"/>
-      <c r="AF9" s="299"/>
-      <c r="AG9" s="299"/>
-      <c r="AH9" s="299"/>
-      <c r="AI9" s="299"/>
-      <c r="AJ9" s="299"/>
-      <c r="AK9" s="299"/>
-      <c r="AL9" s="299"/>
-      <c r="AM9" s="299"/>
-      <c r="AN9" s="290"/>
-      <c r="AO9" s="290"/>
-      <c r="AP9" s="290"/>
-      <c r="AQ9" s="290"/>
-      <c r="AR9" s="290"/>
-      <c r="AS9" s="290"/>
-      <c r="AT9" s="290"/>
-      <c r="AU9" s="290"/>
-      <c r="AV9" s="290"/>
-      <c r="AW9" s="290"/>
+      <c r="B9" s="306"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="287"/>
+      <c r="I9" s="287"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="290"/>
+      <c r="M9" s="309"/>
+      <c r="N9" s="310"/>
+      <c r="O9" s="310"/>
+      <c r="P9" s="310"/>
+      <c r="Q9" s="310"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="294"/>
+      <c r="T9" s="294"/>
+      <c r="U9" s="294"/>
+      <c r="V9" s="305"/>
+      <c r="W9" s="305"/>
+      <c r="X9" s="305"/>
+      <c r="Y9" s="305"/>
+      <c r="Z9" s="305"/>
+      <c r="AA9" s="305"/>
+      <c r="AB9" s="305"/>
+      <c r="AC9" s="305"/>
+      <c r="AD9" s="305"/>
+      <c r="AE9" s="305"/>
+      <c r="AF9" s="305"/>
+      <c r="AG9" s="305"/>
+      <c r="AH9" s="305"/>
+      <c r="AI9" s="305"/>
+      <c r="AJ9" s="305"/>
+      <c r="AK9" s="305"/>
+      <c r="AL9" s="305"/>
+      <c r="AM9" s="305"/>
+      <c r="AN9" s="294"/>
+      <c r="AO9" s="294"/>
+      <c r="AP9" s="294"/>
+      <c r="AQ9" s="294"/>
+      <c r="AR9" s="294"/>
+      <c r="AS9" s="294"/>
+      <c r="AT9" s="294"/>
+      <c r="AU9" s="294"/>
+      <c r="AV9" s="294"/>
+      <c r="AW9" s="294"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="292"/>
-      <c r="J10" s="293"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="296"/>
-      <c r="N10" s="297"/>
-      <c r="O10" s="297"/>
-      <c r="P10" s="297"/>
-      <c r="Q10" s="297"/>
-      <c r="R10" s="298"/>
-      <c r="S10" s="290"/>
-      <c r="T10" s="290"/>
-      <c r="U10" s="290"/>
-      <c r="V10" s="299"/>
-      <c r="W10" s="299"/>
-      <c r="X10" s="299"/>
-      <c r="Y10" s="299"/>
-      <c r="Z10" s="299"/>
-      <c r="AA10" s="299"/>
-      <c r="AB10" s="299"/>
-      <c r="AC10" s="299"/>
-      <c r="AD10" s="299"/>
-      <c r="AE10" s="299"/>
-      <c r="AF10" s="299"/>
-      <c r="AG10" s="299"/>
-      <c r="AH10" s="299"/>
-      <c r="AI10" s="299"/>
-      <c r="AJ10" s="299"/>
-      <c r="AK10" s="299"/>
-      <c r="AL10" s="299"/>
-      <c r="AM10" s="299"/>
-      <c r="AN10" s="290"/>
-      <c r="AO10" s="290"/>
-      <c r="AP10" s="290"/>
-      <c r="AQ10" s="290"/>
-      <c r="AR10" s="290"/>
-      <c r="AS10" s="290"/>
-      <c r="AT10" s="290"/>
-      <c r="AU10" s="290"/>
-      <c r="AV10" s="290"/>
-      <c r="AW10" s="290"/>
+      <c r="B10" s="306"/>
+      <c r="C10" s="306"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="289"/>
+      <c r="L10" s="290"/>
+      <c r="M10" s="309"/>
+      <c r="N10" s="310"/>
+      <c r="O10" s="310"/>
+      <c r="P10" s="310"/>
+      <c r="Q10" s="310"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="294"/>
+      <c r="T10" s="294"/>
+      <c r="U10" s="294"/>
+      <c r="V10" s="305"/>
+      <c r="W10" s="305"/>
+      <c r="X10" s="305"/>
+      <c r="Y10" s="305"/>
+      <c r="Z10" s="305"/>
+      <c r="AA10" s="305"/>
+      <c r="AB10" s="305"/>
+      <c r="AC10" s="305"/>
+      <c r="AD10" s="305"/>
+      <c r="AE10" s="305"/>
+      <c r="AF10" s="305"/>
+      <c r="AG10" s="305"/>
+      <c r="AH10" s="305"/>
+      <c r="AI10" s="305"/>
+      <c r="AJ10" s="305"/>
+      <c r="AK10" s="305"/>
+      <c r="AL10" s="305"/>
+      <c r="AM10" s="305"/>
+      <c r="AN10" s="294"/>
+      <c r="AO10" s="294"/>
+      <c r="AP10" s="294"/>
+      <c r="AQ10" s="294"/>
+      <c r="AR10" s="294"/>
+      <c r="AS10" s="294"/>
+      <c r="AT10" s="294"/>
+      <c r="AU10" s="294"/>
+      <c r="AV10" s="294"/>
+      <c r="AW10" s="294"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
-      <c r="B11" s="291"/>
-      <c r="C11" s="291"/>
-      <c r="D11" s="291"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="292"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="292"/>
-      <c r="J11" s="293"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="295"/>
-      <c r="M11" s="303"/>
-      <c r="N11" s="304"/>
-      <c r="O11" s="304"/>
-      <c r="P11" s="304"/>
-      <c r="Q11" s="304"/>
-      <c r="R11" s="305"/>
-      <c r="S11" s="290"/>
-      <c r="T11" s="290"/>
-      <c r="U11" s="290"/>
-      <c r="V11" s="306"/>
-      <c r="W11" s="312"/>
-      <c r="X11" s="312"/>
-      <c r="Y11" s="312"/>
-      <c r="Z11" s="312"/>
-      <c r="AA11" s="312"/>
-      <c r="AB11" s="312"/>
-      <c r="AC11" s="312"/>
-      <c r="AD11" s="312"/>
-      <c r="AE11" s="312"/>
-      <c r="AF11" s="312"/>
-      <c r="AG11" s="312"/>
-      <c r="AH11" s="312"/>
-      <c r="AI11" s="312"/>
-      <c r="AJ11" s="312"/>
-      <c r="AK11" s="312"/>
-      <c r="AL11" s="312"/>
-      <c r="AM11" s="313"/>
-      <c r="AN11" s="290"/>
-      <c r="AO11" s="290"/>
-      <c r="AP11" s="290"/>
-      <c r="AQ11" s="290"/>
-      <c r="AR11" s="290"/>
-      <c r="AS11" s="290"/>
-      <c r="AT11" s="290"/>
-      <c r="AU11" s="290"/>
-      <c r="AV11" s="290"/>
-      <c r="AW11" s="290"/>
+      <c r="B11" s="306"/>
+      <c r="C11" s="306"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="287"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="287"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="289"/>
+      <c r="L11" s="290"/>
+      <c r="M11" s="301"/>
+      <c r="N11" s="299"/>
+      <c r="O11" s="299"/>
+      <c r="P11" s="299"/>
+      <c r="Q11" s="299"/>
+      <c r="R11" s="300"/>
+      <c r="S11" s="294"/>
+      <c r="T11" s="294"/>
+      <c r="U11" s="294"/>
+      <c r="V11" s="295"/>
+      <c r="W11" s="307"/>
+      <c r="X11" s="307"/>
+      <c r="Y11" s="307"/>
+      <c r="Z11" s="307"/>
+      <c r="AA11" s="307"/>
+      <c r="AB11" s="307"/>
+      <c r="AC11" s="307"/>
+      <c r="AD11" s="307"/>
+      <c r="AE11" s="307"/>
+      <c r="AF11" s="307"/>
+      <c r="AG11" s="307"/>
+      <c r="AH11" s="307"/>
+      <c r="AI11" s="307"/>
+      <c r="AJ11" s="307"/>
+      <c r="AK11" s="307"/>
+      <c r="AL11" s="307"/>
+      <c r="AM11" s="308"/>
+      <c r="AN11" s="294"/>
+      <c r="AO11" s="294"/>
+      <c r="AP11" s="294"/>
+      <c r="AQ11" s="294"/>
+      <c r="AR11" s="294"/>
+      <c r="AS11" s="294"/>
+      <c r="AT11" s="294"/>
+      <c r="AU11" s="294"/>
+      <c r="AV11" s="294"/>
+      <c r="AW11" s="294"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
-      <c r="B12" s="300"/>
-      <c r="C12" s="301"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="292"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="292"/>
-      <c r="H12" s="292"/>
-      <c r="I12" s="292"/>
-      <c r="J12" s="293"/>
-      <c r="K12" s="294"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="304"/>
-      <c r="O12" s="304"/>
-      <c r="P12" s="304"/>
-      <c r="Q12" s="304"/>
-      <c r="R12" s="305"/>
-      <c r="S12" s="290"/>
-      <c r="T12" s="290"/>
-      <c r="U12" s="290"/>
-      <c r="V12" s="306"/>
-      <c r="W12" s="307"/>
-      <c r="X12" s="307"/>
-      <c r="Y12" s="307"/>
-      <c r="Z12" s="307"/>
-      <c r="AA12" s="307"/>
-      <c r="AB12" s="307"/>
-      <c r="AC12" s="307"/>
-      <c r="AD12" s="307"/>
-      <c r="AE12" s="307"/>
-      <c r="AF12" s="307"/>
-      <c r="AG12" s="307"/>
-      <c r="AH12" s="307"/>
-      <c r="AI12" s="307"/>
-      <c r="AJ12" s="307"/>
-      <c r="AK12" s="307"/>
-      <c r="AL12" s="307"/>
-      <c r="AM12" s="308"/>
-      <c r="AN12" s="309"/>
-      <c r="AO12" s="310"/>
-      <c r="AP12" s="310"/>
-      <c r="AQ12" s="310"/>
-      <c r="AR12" s="311"/>
-      <c r="AS12" s="309"/>
-      <c r="AT12" s="310"/>
-      <c r="AU12" s="310"/>
-      <c r="AV12" s="310"/>
-      <c r="AW12" s="311"/>
+      <c r="B12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="287"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="289"/>
+      <c r="L12" s="290"/>
+      <c r="M12" s="301"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="299"/>
+      <c r="Q12" s="299"/>
+      <c r="R12" s="300"/>
+      <c r="S12" s="294"/>
+      <c r="T12" s="294"/>
+      <c r="U12" s="294"/>
+      <c r="V12" s="295"/>
+      <c r="W12" s="296"/>
+      <c r="X12" s="296"/>
+      <c r="Y12" s="296"/>
+      <c r="Z12" s="296"/>
+      <c r="AA12" s="296"/>
+      <c r="AB12" s="296"/>
+      <c r="AC12" s="296"/>
+      <c r="AD12" s="296"/>
+      <c r="AE12" s="296"/>
+      <c r="AF12" s="296"/>
+      <c r="AG12" s="296"/>
+      <c r="AH12" s="296"/>
+      <c r="AI12" s="296"/>
+      <c r="AJ12" s="296"/>
+      <c r="AK12" s="296"/>
+      <c r="AL12" s="296"/>
+      <c r="AM12" s="297"/>
+      <c r="AN12" s="281"/>
+      <c r="AO12" s="282"/>
+      <c r="AP12" s="282"/>
+      <c r="AQ12" s="282"/>
+      <c r="AR12" s="283"/>
+      <c r="AS12" s="281"/>
+      <c r="AT12" s="282"/>
+      <c r="AU12" s="282"/>
+      <c r="AV12" s="282"/>
+      <c r="AW12" s="283"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
-      <c r="B13" s="300"/>
-      <c r="C13" s="301"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="292"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="292"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="292"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
-      <c r="M13" s="314"/>
-      <c r="N13" s="304"/>
-      <c r="O13" s="304"/>
-      <c r="P13" s="304"/>
-      <c r="Q13" s="304"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="290"/>
-      <c r="T13" s="290"/>
-      <c r="U13" s="290"/>
-      <c r="V13" s="306"/>
-      <c r="W13" s="307"/>
-      <c r="X13" s="307"/>
-      <c r="Y13" s="307"/>
-      <c r="Z13" s="307"/>
-      <c r="AA13" s="307"/>
-      <c r="AB13" s="307"/>
-      <c r="AC13" s="307"/>
-      <c r="AD13" s="307"/>
-      <c r="AE13" s="307"/>
-      <c r="AF13" s="307"/>
-      <c r="AG13" s="307"/>
-      <c r="AH13" s="307"/>
-      <c r="AI13" s="307"/>
-      <c r="AJ13" s="307"/>
-      <c r="AK13" s="307"/>
-      <c r="AL13" s="307"/>
-      <c r="AM13" s="308"/>
-      <c r="AN13" s="309"/>
-      <c r="AO13" s="310"/>
-      <c r="AP13" s="310"/>
-      <c r="AQ13" s="310"/>
-      <c r="AR13" s="311"/>
-      <c r="AS13" s="309"/>
-      <c r="AT13" s="310"/>
-      <c r="AU13" s="310"/>
-      <c r="AV13" s="310"/>
-      <c r="AW13" s="311"/>
+      <c r="B13" s="284"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="287"/>
+      <c r="I13" s="287"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="290"/>
+      <c r="M13" s="298"/>
+      <c r="N13" s="299"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="299"/>
+      <c r="Q13" s="299"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="294"/>
+      <c r="T13" s="294"/>
+      <c r="U13" s="294"/>
+      <c r="V13" s="295"/>
+      <c r="W13" s="296"/>
+      <c r="X13" s="296"/>
+      <c r="Y13" s="296"/>
+      <c r="Z13" s="296"/>
+      <c r="AA13" s="296"/>
+      <c r="AB13" s="296"/>
+      <c r="AC13" s="296"/>
+      <c r="AD13" s="296"/>
+      <c r="AE13" s="296"/>
+      <c r="AF13" s="296"/>
+      <c r="AG13" s="296"/>
+      <c r="AH13" s="296"/>
+      <c r="AI13" s="296"/>
+      <c r="AJ13" s="296"/>
+      <c r="AK13" s="296"/>
+      <c r="AL13" s="296"/>
+      <c r="AM13" s="297"/>
+      <c r="AN13" s="281"/>
+      <c r="AO13" s="282"/>
+      <c r="AP13" s="282"/>
+      <c r="AQ13" s="282"/>
+      <c r="AR13" s="283"/>
+      <c r="AS13" s="281"/>
+      <c r="AT13" s="282"/>
+      <c r="AU13" s="282"/>
+      <c r="AV13" s="282"/>
+      <c r="AW13" s="283"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
-      <c r="B14" s="300"/>
-      <c r="C14" s="301"/>
-      <c r="D14" s="302"/>
-      <c r="E14" s="292"/>
-      <c r="F14" s="292"/>
-      <c r="G14" s="292"/>
-      <c r="H14" s="292"/>
-      <c r="I14" s="292"/>
-      <c r="J14" s="293"/>
-      <c r="K14" s="294"/>
-      <c r="L14" s="295"/>
-      <c r="M14" s="314"/>
-      <c r="N14" s="304"/>
-      <c r="O14" s="304"/>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="304"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="290"/>
-      <c r="T14" s="290"/>
-      <c r="U14" s="290"/>
-      <c r="V14" s="315"/>
-      <c r="W14" s="299"/>
-      <c r="X14" s="299"/>
-      <c r="Y14" s="299"/>
-      <c r="Z14" s="299"/>
-      <c r="AA14" s="299"/>
-      <c r="AB14" s="299"/>
-      <c r="AC14" s="299"/>
-      <c r="AD14" s="299"/>
-      <c r="AE14" s="299"/>
-      <c r="AF14" s="299"/>
-      <c r="AG14" s="299"/>
-      <c r="AH14" s="299"/>
-      <c r="AI14" s="299"/>
-      <c r="AJ14" s="299"/>
-      <c r="AK14" s="299"/>
-      <c r="AL14" s="299"/>
-      <c r="AM14" s="299"/>
-      <c r="AN14" s="290"/>
-      <c r="AO14" s="290"/>
-      <c r="AP14" s="290"/>
-      <c r="AQ14" s="290"/>
-      <c r="AR14" s="290"/>
-      <c r="AS14" s="309"/>
-      <c r="AT14" s="310"/>
-      <c r="AU14" s="310"/>
-      <c r="AV14" s="310"/>
-      <c r="AW14" s="311"/>
+      <c r="B14" s="284"/>
+      <c r="C14" s="285"/>
+      <c r="D14" s="286"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="290"/>
+      <c r="M14" s="298"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="299"/>
+      <c r="Q14" s="299"/>
+      <c r="R14" s="300"/>
+      <c r="S14" s="294"/>
+      <c r="T14" s="294"/>
+      <c r="U14" s="294"/>
+      <c r="V14" s="304"/>
+      <c r="W14" s="305"/>
+      <c r="X14" s="305"/>
+      <c r="Y14" s="305"/>
+      <c r="Z14" s="305"/>
+      <c r="AA14" s="305"/>
+      <c r="AB14" s="305"/>
+      <c r="AC14" s="305"/>
+      <c r="AD14" s="305"/>
+      <c r="AE14" s="305"/>
+      <c r="AF14" s="305"/>
+      <c r="AG14" s="305"/>
+      <c r="AH14" s="305"/>
+      <c r="AI14" s="305"/>
+      <c r="AJ14" s="305"/>
+      <c r="AK14" s="305"/>
+      <c r="AL14" s="305"/>
+      <c r="AM14" s="305"/>
+      <c r="AN14" s="294"/>
+      <c r="AO14" s="294"/>
+      <c r="AP14" s="294"/>
+      <c r="AQ14" s="294"/>
+      <c r="AR14" s="294"/>
+      <c r="AS14" s="281"/>
+      <c r="AT14" s="282"/>
+      <c r="AU14" s="282"/>
+      <c r="AV14" s="282"/>
+      <c r="AW14" s="283"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
-      <c r="B15" s="300"/>
-      <c r="C15" s="301"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="292"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="292"/>
-      <c r="H15" s="292"/>
-      <c r="I15" s="292"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="294"/>
-      <c r="L15" s="295"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="304"/>
-      <c r="O15" s="304"/>
-      <c r="P15" s="304"/>
-      <c r="Q15" s="304"/>
-      <c r="R15" s="305"/>
-      <c r="S15" s="290"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="290"/>
-      <c r="V15" s="306"/>
-      <c r="W15" s="307"/>
-      <c r="X15" s="307"/>
-      <c r="Y15" s="307"/>
-      <c r="Z15" s="307"/>
-      <c r="AA15" s="307"/>
-      <c r="AB15" s="307"/>
-      <c r="AC15" s="307"/>
-      <c r="AD15" s="307"/>
-      <c r="AE15" s="307"/>
-      <c r="AF15" s="307"/>
-      <c r="AG15" s="307"/>
-      <c r="AH15" s="307"/>
-      <c r="AI15" s="307"/>
-      <c r="AJ15" s="307"/>
-      <c r="AK15" s="307"/>
-      <c r="AL15" s="307"/>
-      <c r="AM15" s="308"/>
-      <c r="AN15" s="309"/>
-      <c r="AO15" s="310"/>
-      <c r="AP15" s="310"/>
-      <c r="AQ15" s="310"/>
-      <c r="AR15" s="311"/>
-      <c r="AS15" s="309"/>
-      <c r="AT15" s="310"/>
-      <c r="AU15" s="310"/>
-      <c r="AV15" s="310"/>
-      <c r="AW15" s="311"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="286"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="287"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="289"/>
+      <c r="L15" s="290"/>
+      <c r="M15" s="301"/>
+      <c r="N15" s="299"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="299"/>
+      <c r="Q15" s="299"/>
+      <c r="R15" s="300"/>
+      <c r="S15" s="294"/>
+      <c r="T15" s="294"/>
+      <c r="U15" s="294"/>
+      <c r="V15" s="295"/>
+      <c r="W15" s="296"/>
+      <c r="X15" s="296"/>
+      <c r="Y15" s="296"/>
+      <c r="Z15" s="296"/>
+      <c r="AA15" s="296"/>
+      <c r="AB15" s="296"/>
+      <c r="AC15" s="296"/>
+      <c r="AD15" s="296"/>
+      <c r="AE15" s="296"/>
+      <c r="AF15" s="296"/>
+      <c r="AG15" s="296"/>
+      <c r="AH15" s="296"/>
+      <c r="AI15" s="296"/>
+      <c r="AJ15" s="296"/>
+      <c r="AK15" s="296"/>
+      <c r="AL15" s="296"/>
+      <c r="AM15" s="297"/>
+      <c r="AN15" s="281"/>
+      <c r="AO15" s="282"/>
+      <c r="AP15" s="282"/>
+      <c r="AQ15" s="282"/>
+      <c r="AR15" s="283"/>
+      <c r="AS15" s="281"/>
+      <c r="AT15" s="282"/>
+      <c r="AU15" s="282"/>
+      <c r="AV15" s="282"/>
+      <c r="AW15" s="283"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
-      <c r="B16" s="300"/>
-      <c r="C16" s="301"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="292"/>
-      <c r="I16" s="292"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="295"/>
-      <c r="M16" s="303"/>
-      <c r="N16" s="304"/>
-      <c r="O16" s="304"/>
-      <c r="P16" s="304"/>
-      <c r="Q16" s="304"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="290"/>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="306"/>
-      <c r="W16" s="307"/>
-      <c r="X16" s="307"/>
-      <c r="Y16" s="307"/>
-      <c r="Z16" s="307"/>
-      <c r="AA16" s="307"/>
-      <c r="AB16" s="307"/>
-      <c r="AC16" s="307"/>
-      <c r="AD16" s="307"/>
-      <c r="AE16" s="307"/>
-      <c r="AF16" s="307"/>
-      <c r="AG16" s="307"/>
-      <c r="AH16" s="307"/>
-      <c r="AI16" s="307"/>
-      <c r="AJ16" s="307"/>
-      <c r="AK16" s="307"/>
-      <c r="AL16" s="307"/>
-      <c r="AM16" s="308"/>
-      <c r="AN16" s="309"/>
-      <c r="AO16" s="310"/>
-      <c r="AP16" s="310"/>
-      <c r="AQ16" s="310"/>
-      <c r="AR16" s="311"/>
-      <c r="AS16" s="309"/>
-      <c r="AT16" s="310"/>
-      <c r="AU16" s="310"/>
-      <c r="AV16" s="310"/>
-      <c r="AW16" s="311"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="286"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="290"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="299"/>
+      <c r="O16" s="299"/>
+      <c r="P16" s="299"/>
+      <c r="Q16" s="299"/>
+      <c r="R16" s="300"/>
+      <c r="S16" s="294"/>
+      <c r="T16" s="294"/>
+      <c r="U16" s="294"/>
+      <c r="V16" s="295"/>
+      <c r="W16" s="296"/>
+      <c r="X16" s="296"/>
+      <c r="Y16" s="296"/>
+      <c r="Z16" s="296"/>
+      <c r="AA16" s="296"/>
+      <c r="AB16" s="296"/>
+      <c r="AC16" s="296"/>
+      <c r="AD16" s="296"/>
+      <c r="AE16" s="296"/>
+      <c r="AF16" s="296"/>
+      <c r="AG16" s="296"/>
+      <c r="AH16" s="296"/>
+      <c r="AI16" s="296"/>
+      <c r="AJ16" s="296"/>
+      <c r="AK16" s="296"/>
+      <c r="AL16" s="296"/>
+      <c r="AM16" s="297"/>
+      <c r="AN16" s="281"/>
+      <c r="AO16" s="282"/>
+      <c r="AP16" s="282"/>
+      <c r="AQ16" s="282"/>
+      <c r="AR16" s="283"/>
+      <c r="AS16" s="281"/>
+      <c r="AT16" s="282"/>
+      <c r="AU16" s="282"/>
+      <c r="AV16" s="282"/>
+      <c r="AW16" s="283"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
-      <c r="B17" s="300"/>
-      <c r="C17" s="301"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="292"/>
-      <c r="I17" s="292"/>
-      <c r="J17" s="293"/>
-      <c r="K17" s="294"/>
-      <c r="L17" s="295"/>
-      <c r="M17" s="303"/>
-      <c r="N17" s="304"/>
-      <c r="O17" s="304"/>
-      <c r="P17" s="304"/>
-      <c r="Q17" s="304"/>
-      <c r="R17" s="316"/>
-      <c r="S17" s="317"/>
-      <c r="T17" s="317"/>
-      <c r="U17" s="317"/>
-      <c r="V17" s="306"/>
-      <c r="W17" s="307"/>
-      <c r="X17" s="307"/>
-      <c r="Y17" s="307"/>
-      <c r="Z17" s="307"/>
-      <c r="AA17" s="307"/>
-      <c r="AB17" s="307"/>
-      <c r="AC17" s="307"/>
-      <c r="AD17" s="307"/>
-      <c r="AE17" s="307"/>
-      <c r="AF17" s="307"/>
-      <c r="AG17" s="307"/>
-      <c r="AH17" s="307"/>
-      <c r="AI17" s="307"/>
-      <c r="AJ17" s="307"/>
-      <c r="AK17" s="307"/>
-      <c r="AL17" s="307"/>
-      <c r="AM17" s="308"/>
-      <c r="AN17" s="309"/>
-      <c r="AO17" s="310"/>
-      <c r="AP17" s="310"/>
-      <c r="AQ17" s="310"/>
-      <c r="AR17" s="311"/>
-      <c r="AS17" s="309"/>
-      <c r="AT17" s="310"/>
-      <c r="AU17" s="310"/>
-      <c r="AV17" s="310"/>
-      <c r="AW17" s="311"/>
+      <c r="B17" s="284"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="286"/>
+      <c r="E17" s="287"/>
+      <c r="F17" s="287"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="290"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="299"/>
+      <c r="O17" s="299"/>
+      <c r="P17" s="299"/>
+      <c r="Q17" s="299"/>
+      <c r="R17" s="302"/>
+      <c r="S17" s="303"/>
+      <c r="T17" s="303"/>
+      <c r="U17" s="303"/>
+      <c r="V17" s="295"/>
+      <c r="W17" s="296"/>
+      <c r="X17" s="296"/>
+      <c r="Y17" s="296"/>
+      <c r="Z17" s="296"/>
+      <c r="AA17" s="296"/>
+      <c r="AB17" s="296"/>
+      <c r="AC17" s="296"/>
+      <c r="AD17" s="296"/>
+      <c r="AE17" s="296"/>
+      <c r="AF17" s="296"/>
+      <c r="AG17" s="296"/>
+      <c r="AH17" s="296"/>
+      <c r="AI17" s="296"/>
+      <c r="AJ17" s="296"/>
+      <c r="AK17" s="296"/>
+      <c r="AL17" s="296"/>
+      <c r="AM17" s="297"/>
+      <c r="AN17" s="281"/>
+      <c r="AO17" s="282"/>
+      <c r="AP17" s="282"/>
+      <c r="AQ17" s="282"/>
+      <c r="AR17" s="283"/>
+      <c r="AS17" s="281"/>
+      <c r="AT17" s="282"/>
+      <c r="AU17" s="282"/>
+      <c r="AV17" s="282"/>
+      <c r="AW17" s="283"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="300"/>
-      <c r="C18" s="301"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="293"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="295"/>
-      <c r="M18" s="314"/>
-      <c r="N18" s="304"/>
-      <c r="O18" s="304"/>
-      <c r="P18" s="304"/>
-      <c r="Q18" s="304"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="290"/>
-      <c r="T18" s="290"/>
-      <c r="U18" s="290"/>
-      <c r="V18" s="306"/>
-      <c r="W18" s="307"/>
-      <c r="X18" s="307"/>
-      <c r="Y18" s="307"/>
-      <c r="Z18" s="307"/>
-      <c r="AA18" s="307"/>
-      <c r="AB18" s="307"/>
-      <c r="AC18" s="307"/>
-      <c r="AD18" s="307"/>
-      <c r="AE18" s="307"/>
-      <c r="AF18" s="307"/>
-      <c r="AG18" s="307"/>
-      <c r="AH18" s="307"/>
-      <c r="AI18" s="307"/>
-      <c r="AJ18" s="307"/>
-      <c r="AK18" s="307"/>
-      <c r="AL18" s="307"/>
-      <c r="AM18" s="308"/>
-      <c r="AN18" s="309"/>
-      <c r="AO18" s="310"/>
-      <c r="AP18" s="310"/>
-      <c r="AQ18" s="310"/>
-      <c r="AR18" s="311"/>
-      <c r="AS18" s="309"/>
-      <c r="AT18" s="310"/>
-      <c r="AU18" s="310"/>
-      <c r="AV18" s="310"/>
-      <c r="AW18" s="311"/>
+      <c r="B18" s="284"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="286"/>
+      <c r="E18" s="287"/>
+      <c r="F18" s="287"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="287"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="290"/>
+      <c r="M18" s="298"/>
+      <c r="N18" s="299"/>
+      <c r="O18" s="299"/>
+      <c r="P18" s="299"/>
+      <c r="Q18" s="299"/>
+      <c r="R18" s="300"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="294"/>
+      <c r="V18" s="295"/>
+      <c r="W18" s="296"/>
+      <c r="X18" s="296"/>
+      <c r="Y18" s="296"/>
+      <c r="Z18" s="296"/>
+      <c r="AA18" s="296"/>
+      <c r="AB18" s="296"/>
+      <c r="AC18" s="296"/>
+      <c r="AD18" s="296"/>
+      <c r="AE18" s="296"/>
+      <c r="AF18" s="296"/>
+      <c r="AG18" s="296"/>
+      <c r="AH18" s="296"/>
+      <c r="AI18" s="296"/>
+      <c r="AJ18" s="296"/>
+      <c r="AK18" s="296"/>
+      <c r="AL18" s="296"/>
+      <c r="AM18" s="297"/>
+      <c r="AN18" s="281"/>
+      <c r="AO18" s="282"/>
+      <c r="AP18" s="282"/>
+      <c r="AQ18" s="282"/>
+      <c r="AR18" s="283"/>
+      <c r="AS18" s="281"/>
+      <c r="AT18" s="282"/>
+      <c r="AU18" s="282"/>
+      <c r="AV18" s="282"/>
+      <c r="AW18" s="283"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="301"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="292"/>
-      <c r="F19" s="292"/>
-      <c r="G19" s="292"/>
-      <c r="H19" s="292"/>
-      <c r="I19" s="292"/>
-      <c r="J19" s="293"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="295"/>
-      <c r="M19" s="303"/>
-      <c r="N19" s="304"/>
-      <c r="O19" s="304"/>
-      <c r="P19" s="304"/>
-      <c r="Q19" s="304"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="290"/>
-      <c r="T19" s="290"/>
-      <c r="U19" s="290"/>
-      <c r="V19" s="306"/>
-      <c r="W19" s="307"/>
-      <c r="X19" s="307"/>
-      <c r="Y19" s="307"/>
-      <c r="Z19" s="307"/>
-      <c r="AA19" s="307"/>
-      <c r="AB19" s="307"/>
-      <c r="AC19" s="307"/>
-      <c r="AD19" s="307"/>
-      <c r="AE19" s="307"/>
-      <c r="AF19" s="307"/>
-      <c r="AG19" s="307"/>
-      <c r="AH19" s="307"/>
-      <c r="AI19" s="307"/>
-      <c r="AJ19" s="307"/>
-      <c r="AK19" s="307"/>
-      <c r="AL19" s="307"/>
-      <c r="AM19" s="308"/>
-      <c r="AN19" s="290"/>
-      <c r="AO19" s="290"/>
-      <c r="AP19" s="290"/>
-      <c r="AQ19" s="290"/>
-      <c r="AR19" s="290"/>
-      <c r="AS19" s="309"/>
-      <c r="AT19" s="310"/>
-      <c r="AU19" s="310"/>
-      <c r="AV19" s="310"/>
-      <c r="AW19" s="311"/>
+      <c r="B19" s="284"/>
+      <c r="C19" s="285"/>
+      <c r="D19" s="286"/>
+      <c r="E19" s="287"/>
+      <c r="F19" s="287"/>
+      <c r="G19" s="287"/>
+      <c r="H19" s="287"/>
+      <c r="I19" s="287"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="290"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="299"/>
+      <c r="O19" s="299"/>
+      <c r="P19" s="299"/>
+      <c r="Q19" s="299"/>
+      <c r="R19" s="300"/>
+      <c r="S19" s="294"/>
+      <c r="T19" s="294"/>
+      <c r="U19" s="294"/>
+      <c r="V19" s="295"/>
+      <c r="W19" s="296"/>
+      <c r="X19" s="296"/>
+      <c r="Y19" s="296"/>
+      <c r="Z19" s="296"/>
+      <c r="AA19" s="296"/>
+      <c r="AB19" s="296"/>
+      <c r="AC19" s="296"/>
+      <c r="AD19" s="296"/>
+      <c r="AE19" s="296"/>
+      <c r="AF19" s="296"/>
+      <c r="AG19" s="296"/>
+      <c r="AH19" s="296"/>
+      <c r="AI19" s="296"/>
+      <c r="AJ19" s="296"/>
+      <c r="AK19" s="296"/>
+      <c r="AL19" s="296"/>
+      <c r="AM19" s="297"/>
+      <c r="AN19" s="294"/>
+      <c r="AO19" s="294"/>
+      <c r="AP19" s="294"/>
+      <c r="AQ19" s="294"/>
+      <c r="AR19" s="294"/>
+      <c r="AS19" s="281"/>
+      <c r="AT19" s="282"/>
+      <c r="AU19" s="282"/>
+      <c r="AV19" s="282"/>
+      <c r="AW19" s="283"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="301"/>
-      <c r="D20" s="302"/>
-      <c r="E20" s="292"/>
-      <c r="F20" s="292"/>
-      <c r="G20" s="292"/>
-      <c r="H20" s="292"/>
-      <c r="I20" s="292"/>
-      <c r="J20" s="293"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="295"/>
-      <c r="M20" s="303"/>
-      <c r="N20" s="304"/>
-      <c r="O20" s="304"/>
-      <c r="P20" s="304"/>
-      <c r="Q20" s="304"/>
-      <c r="R20" s="305"/>
-      <c r="S20" s="309"/>
-      <c r="T20" s="310"/>
-      <c r="U20" s="311"/>
-      <c r="V20" s="306"/>
-      <c r="W20" s="307"/>
-      <c r="X20" s="307"/>
-      <c r="Y20" s="307"/>
-      <c r="Z20" s="307"/>
-      <c r="AA20" s="307"/>
-      <c r="AB20" s="307"/>
-      <c r="AC20" s="307"/>
-      <c r="AD20" s="307"/>
-      <c r="AE20" s="307"/>
-      <c r="AF20" s="307"/>
-      <c r="AG20" s="307"/>
-      <c r="AH20" s="307"/>
-      <c r="AI20" s="307"/>
-      <c r="AJ20" s="307"/>
-      <c r="AK20" s="307"/>
-      <c r="AL20" s="307"/>
-      <c r="AM20" s="308"/>
-      <c r="AN20" s="309"/>
-      <c r="AO20" s="310"/>
-      <c r="AP20" s="310"/>
-      <c r="AQ20" s="310"/>
-      <c r="AR20" s="311"/>
-      <c r="AS20" s="309"/>
-      <c r="AT20" s="310"/>
-      <c r="AU20" s="310"/>
-      <c r="AV20" s="310"/>
-      <c r="AW20" s="311"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="286"/>
+      <c r="E20" s="287"/>
+      <c r="F20" s="287"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="287"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="289"/>
+      <c r="L20" s="290"/>
+      <c r="M20" s="301"/>
+      <c r="N20" s="299"/>
+      <c r="O20" s="299"/>
+      <c r="P20" s="299"/>
+      <c r="Q20" s="299"/>
+      <c r="R20" s="300"/>
+      <c r="S20" s="281"/>
+      <c r="T20" s="282"/>
+      <c r="U20" s="283"/>
+      <c r="V20" s="295"/>
+      <c r="W20" s="296"/>
+      <c r="X20" s="296"/>
+      <c r="Y20" s="296"/>
+      <c r="Z20" s="296"/>
+      <c r="AA20" s="296"/>
+      <c r="AB20" s="296"/>
+      <c r="AC20" s="296"/>
+      <c r="AD20" s="296"/>
+      <c r="AE20" s="296"/>
+      <c r="AF20" s="296"/>
+      <c r="AG20" s="296"/>
+      <c r="AH20" s="296"/>
+      <c r="AI20" s="296"/>
+      <c r="AJ20" s="296"/>
+      <c r="AK20" s="296"/>
+      <c r="AL20" s="296"/>
+      <c r="AM20" s="297"/>
+      <c r="AN20" s="281"/>
+      <c r="AO20" s="282"/>
+      <c r="AP20" s="282"/>
+      <c r="AQ20" s="282"/>
+      <c r="AR20" s="283"/>
+      <c r="AS20" s="281"/>
+      <c r="AT20" s="282"/>
+      <c r="AU20" s="282"/>
+      <c r="AV20" s="282"/>
+      <c r="AW20" s="283"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="300"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="302"/>
-      <c r="E21" s="292"/>
-      <c r="F21" s="292"/>
-      <c r="G21" s="292"/>
-      <c r="H21" s="292"/>
-      <c r="I21" s="292"/>
-      <c r="J21" s="293"/>
-      <c r="K21" s="294"/>
-      <c r="L21" s="295"/>
-      <c r="M21" s="303"/>
-      <c r="N21" s="304"/>
-      <c r="O21" s="304"/>
-      <c r="P21" s="304"/>
-      <c r="Q21" s="304"/>
-      <c r="R21" s="305"/>
-      <c r="S21" s="290"/>
-      <c r="T21" s="290"/>
-      <c r="U21" s="290"/>
-      <c r="V21" s="306"/>
-      <c r="W21" s="307"/>
-      <c r="X21" s="307"/>
-      <c r="Y21" s="307"/>
-      <c r="Z21" s="307"/>
-      <c r="AA21" s="307"/>
-      <c r="AB21" s="307"/>
-      <c r="AC21" s="307"/>
-      <c r="AD21" s="307"/>
-      <c r="AE21" s="307"/>
-      <c r="AF21" s="307"/>
-      <c r="AG21" s="307"/>
-      <c r="AH21" s="307"/>
-      <c r="AI21" s="307"/>
-      <c r="AJ21" s="307"/>
-      <c r="AK21" s="307"/>
-      <c r="AL21" s="307"/>
-      <c r="AM21" s="308"/>
-      <c r="AN21" s="309"/>
-      <c r="AO21" s="310"/>
-      <c r="AP21" s="310"/>
-      <c r="AQ21" s="310"/>
-      <c r="AR21" s="311"/>
-      <c r="AS21" s="309"/>
-      <c r="AT21" s="310"/>
-      <c r="AU21" s="310"/>
-      <c r="AV21" s="310"/>
-      <c r="AW21" s="311"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="285"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="289"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="301"/>
+      <c r="N21" s="299"/>
+      <c r="O21" s="299"/>
+      <c r="P21" s="299"/>
+      <c r="Q21" s="299"/>
+      <c r="R21" s="300"/>
+      <c r="S21" s="294"/>
+      <c r="T21" s="294"/>
+      <c r="U21" s="294"/>
+      <c r="V21" s="295"/>
+      <c r="W21" s="296"/>
+      <c r="X21" s="296"/>
+      <c r="Y21" s="296"/>
+      <c r="Z21" s="296"/>
+      <c r="AA21" s="296"/>
+      <c r="AB21" s="296"/>
+      <c r="AC21" s="296"/>
+      <c r="AD21" s="296"/>
+      <c r="AE21" s="296"/>
+      <c r="AF21" s="296"/>
+      <c r="AG21" s="296"/>
+      <c r="AH21" s="296"/>
+      <c r="AI21" s="296"/>
+      <c r="AJ21" s="296"/>
+      <c r="AK21" s="296"/>
+      <c r="AL21" s="296"/>
+      <c r="AM21" s="297"/>
+      <c r="AN21" s="281"/>
+      <c r="AO21" s="282"/>
+      <c r="AP21" s="282"/>
+      <c r="AQ21" s="282"/>
+      <c r="AR21" s="283"/>
+      <c r="AS21" s="281"/>
+      <c r="AT21" s="282"/>
+      <c r="AU21" s="282"/>
+      <c r="AV21" s="282"/>
+      <c r="AW21" s="283"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="300"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="302"/>
-      <c r="E22" s="292"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="292"/>
-      <c r="H22" s="292"/>
-      <c r="I22" s="292"/>
-      <c r="J22" s="293"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="295"/>
-      <c r="M22" s="303"/>
-      <c r="N22" s="304"/>
-      <c r="O22" s="304"/>
-      <c r="P22" s="304"/>
-      <c r="Q22" s="304"/>
-      <c r="R22" s="305"/>
-      <c r="S22" s="290"/>
-      <c r="T22" s="290"/>
-      <c r="U22" s="290"/>
-      <c r="V22" s="306"/>
-      <c r="W22" s="307"/>
-      <c r="X22" s="307"/>
-      <c r="Y22" s="307"/>
-      <c r="Z22" s="307"/>
-      <c r="AA22" s="307"/>
-      <c r="AB22" s="307"/>
-      <c r="AC22" s="307"/>
-      <c r="AD22" s="307"/>
-      <c r="AE22" s="307"/>
-      <c r="AF22" s="307"/>
-      <c r="AG22" s="307"/>
-      <c r="AH22" s="307"/>
-      <c r="AI22" s="307"/>
-      <c r="AJ22" s="307"/>
-      <c r="AK22" s="307"/>
-      <c r="AL22" s="307"/>
-      <c r="AM22" s="308"/>
-      <c r="AN22" s="309"/>
-      <c r="AO22" s="310"/>
-      <c r="AP22" s="310"/>
-      <c r="AQ22" s="310"/>
-      <c r="AR22" s="311"/>
-      <c r="AS22" s="309"/>
-      <c r="AT22" s="310"/>
-      <c r="AU22" s="310"/>
-      <c r="AV22" s="310"/>
-      <c r="AW22" s="311"/>
+      <c r="B22" s="284"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="286"/>
+      <c r="E22" s="287"/>
+      <c r="F22" s="287"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="287"/>
+      <c r="I22" s="287"/>
+      <c r="J22" s="288"/>
+      <c r="K22" s="289"/>
+      <c r="L22" s="290"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="299"/>
+      <c r="Q22" s="299"/>
+      <c r="R22" s="300"/>
+      <c r="S22" s="294"/>
+      <c r="T22" s="294"/>
+      <c r="U22" s="294"/>
+      <c r="V22" s="295"/>
+      <c r="W22" s="296"/>
+      <c r="X22" s="296"/>
+      <c r="Y22" s="296"/>
+      <c r="Z22" s="296"/>
+      <c r="AA22" s="296"/>
+      <c r="AB22" s="296"/>
+      <c r="AC22" s="296"/>
+      <c r="AD22" s="296"/>
+      <c r="AE22" s="296"/>
+      <c r="AF22" s="296"/>
+      <c r="AG22" s="296"/>
+      <c r="AH22" s="296"/>
+      <c r="AI22" s="296"/>
+      <c r="AJ22" s="296"/>
+      <c r="AK22" s="296"/>
+      <c r="AL22" s="296"/>
+      <c r="AM22" s="297"/>
+      <c r="AN22" s="281"/>
+      <c r="AO22" s="282"/>
+      <c r="AP22" s="282"/>
+      <c r="AQ22" s="282"/>
+      <c r="AR22" s="283"/>
+      <c r="AS22" s="281"/>
+      <c r="AT22" s="282"/>
+      <c r="AU22" s="282"/>
+      <c r="AV22" s="282"/>
+      <c r="AW22" s="283"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="300"/>
-      <c r="C23" s="301"/>
-      <c r="D23" s="302"/>
-      <c r="E23" s="292"/>
-      <c r="F23" s="292"/>
-      <c r="G23" s="292"/>
-      <c r="H23" s="292"/>
-      <c r="I23" s="292"/>
-      <c r="J23" s="293"/>
-      <c r="K23" s="294"/>
-      <c r="L23" s="295"/>
-      <c r="M23" s="303"/>
-      <c r="N23" s="304"/>
-      <c r="O23" s="304"/>
-      <c r="P23" s="304"/>
-      <c r="Q23" s="304"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="290"/>
-      <c r="T23" s="290"/>
-      <c r="U23" s="290"/>
-      <c r="V23" s="306"/>
-      <c r="W23" s="307"/>
-      <c r="X23" s="307"/>
-      <c r="Y23" s="307"/>
-      <c r="Z23" s="307"/>
-      <c r="AA23" s="307"/>
-      <c r="AB23" s="307"/>
-      <c r="AC23" s="307"/>
-      <c r="AD23" s="307"/>
-      <c r="AE23" s="307"/>
-      <c r="AF23" s="307"/>
-      <c r="AG23" s="307"/>
-      <c r="AH23" s="307"/>
-      <c r="AI23" s="307"/>
-      <c r="AJ23" s="307"/>
-      <c r="AK23" s="307"/>
-      <c r="AL23" s="307"/>
-      <c r="AM23" s="308"/>
-      <c r="AN23" s="309"/>
-      <c r="AO23" s="310"/>
-      <c r="AP23" s="310"/>
-      <c r="AQ23" s="310"/>
-      <c r="AR23" s="311"/>
-      <c r="AS23" s="309"/>
-      <c r="AT23" s="310"/>
-      <c r="AU23" s="310"/>
-      <c r="AV23" s="310"/>
-      <c r="AW23" s="311"/>
+      <c r="B23" s="284"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="287"/>
+      <c r="F23" s="287"/>
+      <c r="G23" s="287"/>
+      <c r="H23" s="287"/>
+      <c r="I23" s="287"/>
+      <c r="J23" s="288"/>
+      <c r="K23" s="289"/>
+      <c r="L23" s="290"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="299"/>
+      <c r="O23" s="299"/>
+      <c r="P23" s="299"/>
+      <c r="Q23" s="299"/>
+      <c r="R23" s="300"/>
+      <c r="S23" s="294"/>
+      <c r="T23" s="294"/>
+      <c r="U23" s="294"/>
+      <c r="V23" s="295"/>
+      <c r="W23" s="296"/>
+      <c r="X23" s="296"/>
+      <c r="Y23" s="296"/>
+      <c r="Z23" s="296"/>
+      <c r="AA23" s="296"/>
+      <c r="AB23" s="296"/>
+      <c r="AC23" s="296"/>
+      <c r="AD23" s="296"/>
+      <c r="AE23" s="296"/>
+      <c r="AF23" s="296"/>
+      <c r="AG23" s="296"/>
+      <c r="AH23" s="296"/>
+      <c r="AI23" s="296"/>
+      <c r="AJ23" s="296"/>
+      <c r="AK23" s="296"/>
+      <c r="AL23" s="296"/>
+      <c r="AM23" s="297"/>
+      <c r="AN23" s="281"/>
+      <c r="AO23" s="282"/>
+      <c r="AP23" s="282"/>
+      <c r="AQ23" s="282"/>
+      <c r="AR23" s="283"/>
+      <c r="AS23" s="281"/>
+      <c r="AT23" s="282"/>
+      <c r="AU23" s="282"/>
+      <c r="AV23" s="282"/>
+      <c r="AW23" s="283"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="300"/>
-      <c r="C24" s="301"/>
-      <c r="D24" s="302"/>
-      <c r="E24" s="292"/>
-      <c r="F24" s="292"/>
-      <c r="G24" s="292"/>
-      <c r="H24" s="292"/>
-      <c r="I24" s="292"/>
-      <c r="J24" s="293"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="295"/>
-      <c r="M24" s="303"/>
-      <c r="N24" s="304"/>
-      <c r="O24" s="304"/>
-      <c r="P24" s="304"/>
-      <c r="Q24" s="304"/>
-      <c r="R24" s="305"/>
-      <c r="S24" s="290"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="290"/>
-      <c r="V24" s="306"/>
-      <c r="W24" s="307"/>
-      <c r="X24" s="307"/>
-      <c r="Y24" s="307"/>
-      <c r="Z24" s="307"/>
-      <c r="AA24" s="307"/>
-      <c r="AB24" s="307"/>
-      <c r="AC24" s="307"/>
-      <c r="AD24" s="307"/>
-      <c r="AE24" s="307"/>
-      <c r="AF24" s="307"/>
-      <c r="AG24" s="307"/>
-      <c r="AH24" s="307"/>
-      <c r="AI24" s="307"/>
-      <c r="AJ24" s="307"/>
-      <c r="AK24" s="307"/>
-      <c r="AL24" s="307"/>
-      <c r="AM24" s="308"/>
-      <c r="AN24" s="309"/>
-      <c r="AO24" s="310"/>
-      <c r="AP24" s="310"/>
-      <c r="AQ24" s="310"/>
-      <c r="AR24" s="311"/>
-      <c r="AS24" s="309"/>
-      <c r="AT24" s="310"/>
-      <c r="AU24" s="310"/>
-      <c r="AV24" s="310"/>
-      <c r="AW24" s="311"/>
+      <c r="B24" s="284"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="287"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="287"/>
+      <c r="I24" s="287"/>
+      <c r="J24" s="288"/>
+      <c r="K24" s="289"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="299"/>
+      <c r="O24" s="299"/>
+      <c r="P24" s="299"/>
+      <c r="Q24" s="299"/>
+      <c r="R24" s="300"/>
+      <c r="S24" s="294"/>
+      <c r="T24" s="294"/>
+      <c r="U24" s="294"/>
+      <c r="V24" s="295"/>
+      <c r="W24" s="296"/>
+      <c r="X24" s="296"/>
+      <c r="Y24" s="296"/>
+      <c r="Z24" s="296"/>
+      <c r="AA24" s="296"/>
+      <c r="AB24" s="296"/>
+      <c r="AC24" s="296"/>
+      <c r="AD24" s="296"/>
+      <c r="AE24" s="296"/>
+      <c r="AF24" s="296"/>
+      <c r="AG24" s="296"/>
+      <c r="AH24" s="296"/>
+      <c r="AI24" s="296"/>
+      <c r="AJ24" s="296"/>
+      <c r="AK24" s="296"/>
+      <c r="AL24" s="296"/>
+      <c r="AM24" s="297"/>
+      <c r="AN24" s="281"/>
+      <c r="AO24" s="282"/>
+      <c r="AP24" s="282"/>
+      <c r="AQ24" s="282"/>
+      <c r="AR24" s="283"/>
+      <c r="AS24" s="281"/>
+      <c r="AT24" s="282"/>
+      <c r="AU24" s="282"/>
+      <c r="AV24" s="282"/>
+      <c r="AW24" s="283"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="301"/>
-      <c r="D25" s="302"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="294"/>
-      <c r="L25" s="295"/>
-      <c r="M25" s="314"/>
-      <c r="N25" s="304"/>
-      <c r="O25" s="304"/>
-      <c r="P25" s="304"/>
-      <c r="Q25" s="304"/>
-      <c r="R25" s="305"/>
-      <c r="S25" s="290"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="290"/>
-      <c r="V25" s="306"/>
-      <c r="W25" s="307"/>
-      <c r="X25" s="307"/>
-      <c r="Y25" s="307"/>
-      <c r="Z25" s="307"/>
-      <c r="AA25" s="307"/>
-      <c r="AB25" s="307"/>
-      <c r="AC25" s="307"/>
-      <c r="AD25" s="307"/>
-      <c r="AE25" s="307"/>
-      <c r="AF25" s="307"/>
-      <c r="AG25" s="307"/>
-      <c r="AH25" s="307"/>
-      <c r="AI25" s="307"/>
-      <c r="AJ25" s="307"/>
-      <c r="AK25" s="307"/>
-      <c r="AL25" s="307"/>
-      <c r="AM25" s="308"/>
-      <c r="AN25" s="309"/>
-      <c r="AO25" s="310"/>
-      <c r="AP25" s="310"/>
-      <c r="AQ25" s="310"/>
-      <c r="AR25" s="311"/>
-      <c r="AS25" s="309"/>
-      <c r="AT25" s="310"/>
-      <c r="AU25" s="310"/>
-      <c r="AV25" s="310"/>
-      <c r="AW25" s="311"/>
+      <c r="B25" s="284"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="288"/>
+      <c r="K25" s="289"/>
+      <c r="L25" s="290"/>
+      <c r="M25" s="298"/>
+      <c r="N25" s="299"/>
+      <c r="O25" s="299"/>
+      <c r="P25" s="299"/>
+      <c r="Q25" s="299"/>
+      <c r="R25" s="300"/>
+      <c r="S25" s="294"/>
+      <c r="T25" s="294"/>
+      <c r="U25" s="294"/>
+      <c r="V25" s="295"/>
+      <c r="W25" s="296"/>
+      <c r="X25" s="296"/>
+      <c r="Y25" s="296"/>
+      <c r="Z25" s="296"/>
+      <c r="AA25" s="296"/>
+      <c r="AB25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="296"/>
+      <c r="AE25" s="296"/>
+      <c r="AF25" s="296"/>
+      <c r="AG25" s="296"/>
+      <c r="AH25" s="296"/>
+      <c r="AI25" s="296"/>
+      <c r="AJ25" s="296"/>
+      <c r="AK25" s="296"/>
+      <c r="AL25" s="296"/>
+      <c r="AM25" s="297"/>
+      <c r="AN25" s="281"/>
+      <c r="AO25" s="282"/>
+      <c r="AP25" s="282"/>
+      <c r="AQ25" s="282"/>
+      <c r="AR25" s="283"/>
+      <c r="AS25" s="281"/>
+      <c r="AT25" s="282"/>
+      <c r="AU25" s="282"/>
+      <c r="AV25" s="282"/>
+      <c r="AW25" s="283"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="300"/>
-      <c r="C26" s="301"/>
-      <c r="D26" s="302"/>
-      <c r="E26" s="292"/>
-      <c r="F26" s="292"/>
-      <c r="G26" s="292"/>
-      <c r="H26" s="292"/>
-      <c r="I26" s="292"/>
-      <c r="J26" s="293"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="295"/>
-      <c r="M26" s="314"/>
-      <c r="N26" s="304"/>
-      <c r="O26" s="304"/>
-      <c r="P26" s="304"/>
-      <c r="Q26" s="304"/>
-      <c r="R26" s="305"/>
-      <c r="S26" s="290"/>
-      <c r="T26" s="290"/>
-      <c r="U26" s="290"/>
-      <c r="V26" s="306"/>
-      <c r="W26" s="307"/>
-      <c r="X26" s="307"/>
-      <c r="Y26" s="307"/>
-      <c r="Z26" s="307"/>
-      <c r="AA26" s="307"/>
-      <c r="AB26" s="307"/>
-      <c r="AC26" s="307"/>
-      <c r="AD26" s="307"/>
-      <c r="AE26" s="307"/>
-      <c r="AF26" s="307"/>
-      <c r="AG26" s="307"/>
-      <c r="AH26" s="307"/>
-      <c r="AI26" s="307"/>
-      <c r="AJ26" s="307"/>
-      <c r="AK26" s="307"/>
-      <c r="AL26" s="307"/>
-      <c r="AM26" s="308"/>
-      <c r="AN26" s="309"/>
-      <c r="AO26" s="310"/>
-      <c r="AP26" s="310"/>
-      <c r="AQ26" s="310"/>
-      <c r="AR26" s="311"/>
-      <c r="AS26" s="309"/>
-      <c r="AT26" s="310"/>
-      <c r="AU26" s="310"/>
-      <c r="AV26" s="310"/>
-      <c r="AW26" s="311"/>
+      <c r="B26" s="284"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="287"/>
+      <c r="F26" s="287"/>
+      <c r="G26" s="287"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="288"/>
+      <c r="K26" s="289"/>
+      <c r="L26" s="290"/>
+      <c r="M26" s="298"/>
+      <c r="N26" s="299"/>
+      <c r="O26" s="299"/>
+      <c r="P26" s="299"/>
+      <c r="Q26" s="299"/>
+      <c r="R26" s="300"/>
+      <c r="S26" s="294"/>
+      <c r="T26" s="294"/>
+      <c r="U26" s="294"/>
+      <c r="V26" s="295"/>
+      <c r="W26" s="296"/>
+      <c r="X26" s="296"/>
+      <c r="Y26" s="296"/>
+      <c r="Z26" s="296"/>
+      <c r="AA26" s="296"/>
+      <c r="AB26" s="296"/>
+      <c r="AC26" s="296"/>
+      <c r="AD26" s="296"/>
+      <c r="AE26" s="296"/>
+      <c r="AF26" s="296"/>
+      <c r="AG26" s="296"/>
+      <c r="AH26" s="296"/>
+      <c r="AI26" s="296"/>
+      <c r="AJ26" s="296"/>
+      <c r="AK26" s="296"/>
+      <c r="AL26" s="296"/>
+      <c r="AM26" s="297"/>
+      <c r="AN26" s="281"/>
+      <c r="AO26" s="282"/>
+      <c r="AP26" s="282"/>
+      <c r="AQ26" s="282"/>
+      <c r="AR26" s="283"/>
+      <c r="AS26" s="281"/>
+      <c r="AT26" s="282"/>
+      <c r="AU26" s="282"/>
+      <c r="AV26" s="282"/>
+      <c r="AW26" s="283"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="300"/>
-      <c r="C27" s="301"/>
-      <c r="D27" s="302"/>
-      <c r="E27" s="292"/>
-      <c r="F27" s="292"/>
-      <c r="G27" s="292"/>
-      <c r="H27" s="292"/>
-      <c r="I27" s="292"/>
-      <c r="J27" s="293"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="295"/>
-      <c r="M27" s="314"/>
-      <c r="N27" s="304"/>
-      <c r="O27" s="304"/>
-      <c r="P27" s="304"/>
-      <c r="Q27" s="304"/>
-      <c r="R27" s="305"/>
-      <c r="S27" s="290"/>
-      <c r="T27" s="290"/>
-      <c r="U27" s="290"/>
-      <c r="V27" s="306"/>
-      <c r="W27" s="307"/>
-      <c r="X27" s="307"/>
-      <c r="Y27" s="307"/>
-      <c r="Z27" s="307"/>
-      <c r="AA27" s="307"/>
-      <c r="AB27" s="307"/>
-      <c r="AC27" s="307"/>
-      <c r="AD27" s="307"/>
-      <c r="AE27" s="307"/>
-      <c r="AF27" s="307"/>
-      <c r="AG27" s="307"/>
-      <c r="AH27" s="307"/>
-      <c r="AI27" s="307"/>
-      <c r="AJ27" s="307"/>
-      <c r="AK27" s="307"/>
-      <c r="AL27" s="307"/>
-      <c r="AM27" s="308"/>
-      <c r="AN27" s="309"/>
-      <c r="AO27" s="310"/>
-      <c r="AP27" s="310"/>
-      <c r="AQ27" s="310"/>
-      <c r="AR27" s="311"/>
-      <c r="AS27" s="309"/>
-      <c r="AT27" s="310"/>
-      <c r="AU27" s="310"/>
-      <c r="AV27" s="310"/>
-      <c r="AW27" s="311"/>
+      <c r="B27" s="284"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="287"/>
+      <c r="F27" s="287"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="287"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="288"/>
+      <c r="K27" s="289"/>
+      <c r="L27" s="290"/>
+      <c r="M27" s="298"/>
+      <c r="N27" s="299"/>
+      <c r="O27" s="299"/>
+      <c r="P27" s="299"/>
+      <c r="Q27" s="299"/>
+      <c r="R27" s="300"/>
+      <c r="S27" s="294"/>
+      <c r="T27" s="294"/>
+      <c r="U27" s="294"/>
+      <c r="V27" s="295"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
+      <c r="AC27" s="296"/>
+      <c r="AD27" s="296"/>
+      <c r="AE27" s="296"/>
+      <c r="AF27" s="296"/>
+      <c r="AG27" s="296"/>
+      <c r="AH27" s="296"/>
+      <c r="AI27" s="296"/>
+      <c r="AJ27" s="296"/>
+      <c r="AK27" s="296"/>
+      <c r="AL27" s="296"/>
+      <c r="AM27" s="297"/>
+      <c r="AN27" s="281"/>
+      <c r="AO27" s="282"/>
+      <c r="AP27" s="282"/>
+      <c r="AQ27" s="282"/>
+      <c r="AR27" s="283"/>
+      <c r="AS27" s="281"/>
+      <c r="AT27" s="282"/>
+      <c r="AU27" s="282"/>
+      <c r="AV27" s="282"/>
+      <c r="AW27" s="283"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="300"/>
-      <c r="C28" s="301"/>
-      <c r="D28" s="302"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="292"/>
-      <c r="J28" s="293"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="295"/>
-      <c r="M28" s="303"/>
-      <c r="N28" s="304"/>
-      <c r="O28" s="304"/>
-      <c r="P28" s="304"/>
-      <c r="Q28" s="304"/>
-      <c r="R28" s="305"/>
-      <c r="S28" s="290"/>
-      <c r="T28" s="290"/>
-      <c r="U28" s="290"/>
-      <c r="V28" s="306"/>
-      <c r="W28" s="307"/>
-      <c r="X28" s="307"/>
-      <c r="Y28" s="307"/>
-      <c r="Z28" s="307"/>
-      <c r="AA28" s="307"/>
-      <c r="AB28" s="307"/>
-      <c r="AC28" s="307"/>
-      <c r="AD28" s="307"/>
-      <c r="AE28" s="307"/>
-      <c r="AF28" s="307"/>
-      <c r="AG28" s="307"/>
-      <c r="AH28" s="307"/>
-      <c r="AI28" s="307"/>
-      <c r="AJ28" s="307"/>
-      <c r="AK28" s="307"/>
-      <c r="AL28" s="307"/>
-      <c r="AM28" s="308"/>
-      <c r="AN28" s="309"/>
-      <c r="AO28" s="310"/>
-      <c r="AP28" s="310"/>
-      <c r="AQ28" s="310"/>
-      <c r="AR28" s="311"/>
-      <c r="AS28" s="309"/>
-      <c r="AT28" s="310"/>
-      <c r="AU28" s="310"/>
-      <c r="AV28" s="310"/>
-      <c r="AW28" s="311"/>
+      <c r="B28" s="284"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="286"/>
+      <c r="E28" s="287"/>
+      <c r="F28" s="287"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="287"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="288"/>
+      <c r="K28" s="289"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="301"/>
+      <c r="N28" s="299"/>
+      <c r="O28" s="299"/>
+      <c r="P28" s="299"/>
+      <c r="Q28" s="299"/>
+      <c r="R28" s="300"/>
+      <c r="S28" s="294"/>
+      <c r="T28" s="294"/>
+      <c r="U28" s="294"/>
+      <c r="V28" s="295"/>
+      <c r="W28" s="296"/>
+      <c r="X28" s="296"/>
+      <c r="Y28" s="296"/>
+      <c r="Z28" s="296"/>
+      <c r="AA28" s="296"/>
+      <c r="AB28" s="296"/>
+      <c r="AC28" s="296"/>
+      <c r="AD28" s="296"/>
+      <c r="AE28" s="296"/>
+      <c r="AF28" s="296"/>
+      <c r="AG28" s="296"/>
+      <c r="AH28" s="296"/>
+      <c r="AI28" s="296"/>
+      <c r="AJ28" s="296"/>
+      <c r="AK28" s="296"/>
+      <c r="AL28" s="296"/>
+      <c r="AM28" s="297"/>
+      <c r="AN28" s="281"/>
+      <c r="AO28" s="282"/>
+      <c r="AP28" s="282"/>
+      <c r="AQ28" s="282"/>
+      <c r="AR28" s="283"/>
+      <c r="AS28" s="281"/>
+      <c r="AT28" s="282"/>
+      <c r="AU28" s="282"/>
+      <c r="AV28" s="282"/>
+      <c r="AW28" s="283"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="300"/>
-      <c r="C29" s="301"/>
-      <c r="D29" s="302"/>
-      <c r="E29" s="292"/>
-      <c r="F29" s="292"/>
-      <c r="G29" s="292"/>
-      <c r="H29" s="292"/>
-      <c r="I29" s="292"/>
-      <c r="J29" s="293"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="295"/>
-      <c r="M29" s="303"/>
-      <c r="N29" s="304"/>
-      <c r="O29" s="304"/>
-      <c r="P29" s="304"/>
-      <c r="Q29" s="304"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="290"/>
-      <c r="T29" s="290"/>
-      <c r="U29" s="290"/>
-      <c r="V29" s="306"/>
-      <c r="W29" s="307"/>
-      <c r="X29" s="307"/>
-      <c r="Y29" s="307"/>
-      <c r="Z29" s="307"/>
-      <c r="AA29" s="307"/>
-      <c r="AB29" s="307"/>
-      <c r="AC29" s="307"/>
-      <c r="AD29" s="307"/>
-      <c r="AE29" s="307"/>
-      <c r="AF29" s="307"/>
-      <c r="AG29" s="307"/>
-      <c r="AH29" s="307"/>
-      <c r="AI29" s="307"/>
-      <c r="AJ29" s="307"/>
-      <c r="AK29" s="307"/>
-      <c r="AL29" s="307"/>
-      <c r="AM29" s="308"/>
-      <c r="AN29" s="309"/>
-      <c r="AO29" s="310"/>
-      <c r="AP29" s="310"/>
-      <c r="AQ29" s="310"/>
-      <c r="AR29" s="311"/>
-      <c r="AS29" s="309"/>
-      <c r="AT29" s="310"/>
-      <c r="AU29" s="310"/>
-      <c r="AV29" s="310"/>
-      <c r="AW29" s="311"/>
+      <c r="B29" s="284"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="286"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="287"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="289"/>
+      <c r="L29" s="290"/>
+      <c r="M29" s="301"/>
+      <c r="N29" s="299"/>
+      <c r="O29" s="299"/>
+      <c r="P29" s="299"/>
+      <c r="Q29" s="299"/>
+      <c r="R29" s="300"/>
+      <c r="S29" s="294"/>
+      <c r="T29" s="294"/>
+      <c r="U29" s="294"/>
+      <c r="V29" s="295"/>
+      <c r="W29" s="296"/>
+      <c r="X29" s="296"/>
+      <c r="Y29" s="296"/>
+      <c r="Z29" s="296"/>
+      <c r="AA29" s="296"/>
+      <c r="AB29" s="296"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="296"/>
+      <c r="AE29" s="296"/>
+      <c r="AF29" s="296"/>
+      <c r="AG29" s="296"/>
+      <c r="AH29" s="296"/>
+      <c r="AI29" s="296"/>
+      <c r="AJ29" s="296"/>
+      <c r="AK29" s="296"/>
+      <c r="AL29" s="296"/>
+      <c r="AM29" s="297"/>
+      <c r="AN29" s="281"/>
+      <c r="AO29" s="282"/>
+      <c r="AP29" s="282"/>
+      <c r="AQ29" s="282"/>
+      <c r="AR29" s="283"/>
+      <c r="AS29" s="281"/>
+      <c r="AT29" s="282"/>
+      <c r="AU29" s="282"/>
+      <c r="AV29" s="282"/>
+      <c r="AW29" s="283"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="300"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="302"/>
-      <c r="E30" s="292"/>
-      <c r="F30" s="292"/>
-      <c r="G30" s="292"/>
-      <c r="H30" s="292"/>
-      <c r="I30" s="292"/>
-      <c r="J30" s="293"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="295"/>
-      <c r="M30" s="314"/>
-      <c r="N30" s="304"/>
-      <c r="O30" s="304"/>
-      <c r="P30" s="304"/>
-      <c r="Q30" s="304"/>
-      <c r="R30" s="305"/>
-      <c r="S30" s="290"/>
-      <c r="T30" s="290"/>
-      <c r="U30" s="290"/>
-      <c r="V30" s="306"/>
-      <c r="W30" s="307"/>
-      <c r="X30" s="307"/>
-      <c r="Y30" s="307"/>
-      <c r="Z30" s="307"/>
-      <c r="AA30" s="307"/>
-      <c r="AB30" s="307"/>
-      <c r="AC30" s="307"/>
-      <c r="AD30" s="307"/>
-      <c r="AE30" s="307"/>
-      <c r="AF30" s="307"/>
-      <c r="AG30" s="307"/>
-      <c r="AH30" s="307"/>
-      <c r="AI30" s="307"/>
-      <c r="AJ30" s="307"/>
-      <c r="AK30" s="307"/>
-      <c r="AL30" s="307"/>
-      <c r="AM30" s="308"/>
-      <c r="AN30" s="309"/>
-      <c r="AO30" s="310"/>
-      <c r="AP30" s="310"/>
-      <c r="AQ30" s="310"/>
-      <c r="AR30" s="311"/>
-      <c r="AS30" s="309"/>
-      <c r="AT30" s="310"/>
-      <c r="AU30" s="310"/>
-      <c r="AV30" s="310"/>
-      <c r="AW30" s="311"/>
+      <c r="B30" s="284"/>
+      <c r="C30" s="285"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="287"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="288"/>
+      <c r="K30" s="289"/>
+      <c r="L30" s="290"/>
+      <c r="M30" s="298"/>
+      <c r="N30" s="299"/>
+      <c r="O30" s="299"/>
+      <c r="P30" s="299"/>
+      <c r="Q30" s="299"/>
+      <c r="R30" s="300"/>
+      <c r="S30" s="294"/>
+      <c r="T30" s="294"/>
+      <c r="U30" s="294"/>
+      <c r="V30" s="295"/>
+      <c r="W30" s="296"/>
+      <c r="X30" s="296"/>
+      <c r="Y30" s="296"/>
+      <c r="Z30" s="296"/>
+      <c r="AA30" s="296"/>
+      <c r="AB30" s="296"/>
+      <c r="AC30" s="296"/>
+      <c r="AD30" s="296"/>
+      <c r="AE30" s="296"/>
+      <c r="AF30" s="296"/>
+      <c r="AG30" s="296"/>
+      <c r="AH30" s="296"/>
+      <c r="AI30" s="296"/>
+      <c r="AJ30" s="296"/>
+      <c r="AK30" s="296"/>
+      <c r="AL30" s="296"/>
+      <c r="AM30" s="297"/>
+      <c r="AN30" s="281"/>
+      <c r="AO30" s="282"/>
+      <c r="AP30" s="282"/>
+      <c r="AQ30" s="282"/>
+      <c r="AR30" s="283"/>
+      <c r="AS30" s="281"/>
+      <c r="AT30" s="282"/>
+      <c r="AU30" s="282"/>
+      <c r="AV30" s="282"/>
+      <c r="AW30" s="283"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="300"/>
-      <c r="C31" s="301"/>
-      <c r="D31" s="302"/>
-      <c r="E31" s="292"/>
-      <c r="F31" s="292"/>
-      <c r="G31" s="292"/>
-      <c r="H31" s="292"/>
-      <c r="I31" s="292"/>
-      <c r="J31" s="293"/>
-      <c r="K31" s="294"/>
-      <c r="L31" s="295"/>
-      <c r="M31" s="314"/>
-      <c r="N31" s="304"/>
-      <c r="O31" s="304"/>
-      <c r="P31" s="304"/>
-      <c r="Q31" s="304"/>
-      <c r="R31" s="305"/>
-      <c r="S31" s="290"/>
-      <c r="T31" s="290"/>
-      <c r="U31" s="290"/>
-      <c r="V31" s="306"/>
-      <c r="W31" s="307"/>
-      <c r="X31" s="307"/>
-      <c r="Y31" s="307"/>
-      <c r="Z31" s="307"/>
-      <c r="AA31" s="307"/>
-      <c r="AB31" s="307"/>
-      <c r="AC31" s="307"/>
-      <c r="AD31" s="307"/>
-      <c r="AE31" s="307"/>
-      <c r="AF31" s="307"/>
-      <c r="AG31" s="307"/>
-      <c r="AH31" s="307"/>
-      <c r="AI31" s="307"/>
-      <c r="AJ31" s="307"/>
-      <c r="AK31" s="307"/>
-      <c r="AL31" s="307"/>
-      <c r="AM31" s="308"/>
-      <c r="AN31" s="309"/>
-      <c r="AO31" s="310"/>
-      <c r="AP31" s="310"/>
-      <c r="AQ31" s="310"/>
-      <c r="AR31" s="311"/>
-      <c r="AS31" s="309"/>
-      <c r="AT31" s="310"/>
-      <c r="AU31" s="310"/>
-      <c r="AV31" s="310"/>
-      <c r="AW31" s="311"/>
+      <c r="B31" s="284"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="286"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="287"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="288"/>
+      <c r="K31" s="289"/>
+      <c r="L31" s="290"/>
+      <c r="M31" s="298"/>
+      <c r="N31" s="299"/>
+      <c r="O31" s="299"/>
+      <c r="P31" s="299"/>
+      <c r="Q31" s="299"/>
+      <c r="R31" s="300"/>
+      <c r="S31" s="294"/>
+      <c r="T31" s="294"/>
+      <c r="U31" s="294"/>
+      <c r="V31" s="295"/>
+      <c r="W31" s="296"/>
+      <c r="X31" s="296"/>
+      <c r="Y31" s="296"/>
+      <c r="Z31" s="296"/>
+      <c r="AA31" s="296"/>
+      <c r="AB31" s="296"/>
+      <c r="AC31" s="296"/>
+      <c r="AD31" s="296"/>
+      <c r="AE31" s="296"/>
+      <c r="AF31" s="296"/>
+      <c r="AG31" s="296"/>
+      <c r="AH31" s="296"/>
+      <c r="AI31" s="296"/>
+      <c r="AJ31" s="296"/>
+      <c r="AK31" s="296"/>
+      <c r="AL31" s="296"/>
+      <c r="AM31" s="297"/>
+      <c r="AN31" s="281"/>
+      <c r="AO31" s="282"/>
+      <c r="AP31" s="282"/>
+      <c r="AQ31" s="282"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="281"/>
+      <c r="AT31" s="282"/>
+      <c r="AU31" s="282"/>
+      <c r="AV31" s="282"/>
+      <c r="AW31" s="283"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="300"/>
-      <c r="C32" s="301"/>
-      <c r="D32" s="302"/>
-      <c r="E32" s="292"/>
-      <c r="F32" s="292"/>
-      <c r="G32" s="292"/>
-      <c r="H32" s="292"/>
-      <c r="I32" s="292"/>
-      <c r="J32" s="293"/>
-      <c r="K32" s="294"/>
-      <c r="L32" s="295"/>
-      <c r="M32" s="314"/>
-      <c r="N32" s="304"/>
-      <c r="O32" s="304"/>
-      <c r="P32" s="304"/>
-      <c r="Q32" s="304"/>
-      <c r="R32" s="305"/>
-      <c r="S32" s="290"/>
-      <c r="T32" s="290"/>
-      <c r="U32" s="290"/>
-      <c r="V32" s="306"/>
-      <c r="W32" s="307"/>
-      <c r="X32" s="307"/>
-      <c r="Y32" s="307"/>
-      <c r="Z32" s="307"/>
-      <c r="AA32" s="307"/>
-      <c r="AB32" s="307"/>
-      <c r="AC32" s="307"/>
-      <c r="AD32" s="307"/>
-      <c r="AE32" s="307"/>
-      <c r="AF32" s="307"/>
-      <c r="AG32" s="307"/>
-      <c r="AH32" s="307"/>
-      <c r="AI32" s="307"/>
-      <c r="AJ32" s="307"/>
-      <c r="AK32" s="307"/>
-      <c r="AL32" s="307"/>
-      <c r="AM32" s="308"/>
-      <c r="AN32" s="309"/>
-      <c r="AO32" s="310"/>
-      <c r="AP32" s="310"/>
-      <c r="AQ32" s="310"/>
-      <c r="AR32" s="311"/>
-      <c r="AS32" s="309"/>
-      <c r="AT32" s="310"/>
-      <c r="AU32" s="310"/>
-      <c r="AV32" s="310"/>
-      <c r="AW32" s="311"/>
+      <c r="B32" s="284"/>
+      <c r="C32" s="285"/>
+      <c r="D32" s="286"/>
+      <c r="E32" s="287"/>
+      <c r="F32" s="287"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="287"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="288"/>
+      <c r="K32" s="289"/>
+      <c r="L32" s="290"/>
+      <c r="M32" s="298"/>
+      <c r="N32" s="299"/>
+      <c r="O32" s="299"/>
+      <c r="P32" s="299"/>
+      <c r="Q32" s="299"/>
+      <c r="R32" s="300"/>
+      <c r="S32" s="294"/>
+      <c r="T32" s="294"/>
+      <c r="U32" s="294"/>
+      <c r="V32" s="295"/>
+      <c r="W32" s="296"/>
+      <c r="X32" s="296"/>
+      <c r="Y32" s="296"/>
+      <c r="Z32" s="296"/>
+      <c r="AA32" s="296"/>
+      <c r="AB32" s="296"/>
+      <c r="AC32" s="296"/>
+      <c r="AD32" s="296"/>
+      <c r="AE32" s="296"/>
+      <c r="AF32" s="296"/>
+      <c r="AG32" s="296"/>
+      <c r="AH32" s="296"/>
+      <c r="AI32" s="296"/>
+      <c r="AJ32" s="296"/>
+      <c r="AK32" s="296"/>
+      <c r="AL32" s="296"/>
+      <c r="AM32" s="297"/>
+      <c r="AN32" s="281"/>
+      <c r="AO32" s="282"/>
+      <c r="AP32" s="282"/>
+      <c r="AQ32" s="282"/>
+      <c r="AR32" s="283"/>
+      <c r="AS32" s="281"/>
+      <c r="AT32" s="282"/>
+      <c r="AU32" s="282"/>
+      <c r="AV32" s="282"/>
+      <c r="AW32" s="283"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="300"/>
-      <c r="C33" s="301"/>
-      <c r="D33" s="302"/>
-      <c r="E33" s="292"/>
-      <c r="F33" s="292"/>
-      <c r="G33" s="292"/>
-      <c r="H33" s="292"/>
-      <c r="I33" s="292"/>
-      <c r="J33" s="293"/>
-      <c r="K33" s="294"/>
-      <c r="L33" s="295"/>
-      <c r="M33" s="314"/>
-      <c r="N33" s="304"/>
-      <c r="O33" s="304"/>
-      <c r="P33" s="304"/>
-      <c r="Q33" s="304"/>
-      <c r="R33" s="305"/>
-      <c r="S33" s="290"/>
-      <c r="T33" s="290"/>
-      <c r="U33" s="290"/>
-      <c r="V33" s="306"/>
-      <c r="W33" s="307"/>
-      <c r="X33" s="307"/>
-      <c r="Y33" s="307"/>
-      <c r="Z33" s="307"/>
-      <c r="AA33" s="307"/>
-      <c r="AB33" s="307"/>
-      <c r="AC33" s="307"/>
-      <c r="AD33" s="307"/>
-      <c r="AE33" s="307"/>
-      <c r="AF33" s="307"/>
-      <c r="AG33" s="307"/>
-      <c r="AH33" s="307"/>
-      <c r="AI33" s="307"/>
-      <c r="AJ33" s="307"/>
-      <c r="AK33" s="307"/>
-      <c r="AL33" s="307"/>
-      <c r="AM33" s="308"/>
-      <c r="AN33" s="309"/>
-      <c r="AO33" s="310"/>
-      <c r="AP33" s="310"/>
-      <c r="AQ33" s="310"/>
-      <c r="AR33" s="311"/>
-      <c r="AS33" s="309"/>
-      <c r="AT33" s="310"/>
-      <c r="AU33" s="310"/>
-      <c r="AV33" s="310"/>
-      <c r="AW33" s="311"/>
+      <c r="B33" s="284"/>
+      <c r="C33" s="285"/>
+      <c r="D33" s="286"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="287"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="287"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="289"/>
+      <c r="L33" s="290"/>
+      <c r="M33" s="298"/>
+      <c r="N33" s="299"/>
+      <c r="O33" s="299"/>
+      <c r="P33" s="299"/>
+      <c r="Q33" s="299"/>
+      <c r="R33" s="300"/>
+      <c r="S33" s="294"/>
+      <c r="T33" s="294"/>
+      <c r="U33" s="294"/>
+      <c r="V33" s="295"/>
+      <c r="W33" s="296"/>
+      <c r="X33" s="296"/>
+      <c r="Y33" s="296"/>
+      <c r="Z33" s="296"/>
+      <c r="AA33" s="296"/>
+      <c r="AB33" s="296"/>
+      <c r="AC33" s="296"/>
+      <c r="AD33" s="296"/>
+      <c r="AE33" s="296"/>
+      <c r="AF33" s="296"/>
+      <c r="AG33" s="296"/>
+      <c r="AH33" s="296"/>
+      <c r="AI33" s="296"/>
+      <c r="AJ33" s="296"/>
+      <c r="AK33" s="296"/>
+      <c r="AL33" s="296"/>
+      <c r="AM33" s="297"/>
+      <c r="AN33" s="281"/>
+      <c r="AO33" s="282"/>
+      <c r="AP33" s="282"/>
+      <c r="AQ33" s="282"/>
+      <c r="AR33" s="283"/>
+      <c r="AS33" s="281"/>
+      <c r="AT33" s="282"/>
+      <c r="AU33" s="282"/>
+      <c r="AV33" s="282"/>
+      <c r="AW33" s="283"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="300"/>
-      <c r="C34" s="301"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
-      <c r="G34" s="292"/>
-      <c r="H34" s="292"/>
-      <c r="I34" s="292"/>
-      <c r="J34" s="293"/>
-      <c r="K34" s="294"/>
-      <c r="L34" s="295"/>
-      <c r="M34" s="318"/>
-      <c r="N34" s="319"/>
-      <c r="O34" s="319"/>
-      <c r="P34" s="319"/>
-      <c r="Q34" s="319"/>
-      <c r="R34" s="320"/>
-      <c r="S34" s="290"/>
-      <c r="T34" s="290"/>
-      <c r="U34" s="290"/>
-      <c r="V34" s="306"/>
-      <c r="W34" s="307"/>
-      <c r="X34" s="307"/>
-      <c r="Y34" s="307"/>
-      <c r="Z34" s="307"/>
-      <c r="AA34" s="307"/>
-      <c r="AB34" s="307"/>
-      <c r="AC34" s="307"/>
-      <c r="AD34" s="307"/>
-      <c r="AE34" s="307"/>
-      <c r="AF34" s="307"/>
-      <c r="AG34" s="307"/>
-      <c r="AH34" s="307"/>
-      <c r="AI34" s="307"/>
-      <c r="AJ34" s="307"/>
-      <c r="AK34" s="307"/>
-      <c r="AL34" s="307"/>
-      <c r="AM34" s="308"/>
-      <c r="AN34" s="309"/>
-      <c r="AO34" s="310"/>
-      <c r="AP34" s="310"/>
-      <c r="AQ34" s="310"/>
-      <c r="AR34" s="311"/>
-      <c r="AS34" s="309"/>
-      <c r="AT34" s="310"/>
-      <c r="AU34" s="310"/>
-      <c r="AV34" s="310"/>
-      <c r="AW34" s="311"/>
+      <c r="B34" s="284"/>
+      <c r="C34" s="285"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="287"/>
+      <c r="F34" s="287"/>
+      <c r="G34" s="287"/>
+      <c r="H34" s="287"/>
+      <c r="I34" s="287"/>
+      <c r="J34" s="288"/>
+      <c r="K34" s="289"/>
+      <c r="L34" s="290"/>
+      <c r="M34" s="291"/>
+      <c r="N34" s="292"/>
+      <c r="O34" s="292"/>
+      <c r="P34" s="292"/>
+      <c r="Q34" s="292"/>
+      <c r="R34" s="293"/>
+      <c r="S34" s="294"/>
+      <c r="T34" s="294"/>
+      <c r="U34" s="294"/>
+      <c r="V34" s="295"/>
+      <c r="W34" s="296"/>
+      <c r="X34" s="296"/>
+      <c r="Y34" s="296"/>
+      <c r="Z34" s="296"/>
+      <c r="AA34" s="296"/>
+      <c r="AB34" s="296"/>
+      <c r="AC34" s="296"/>
+      <c r="AD34" s="296"/>
+      <c r="AE34" s="296"/>
+      <c r="AF34" s="296"/>
+      <c r="AG34" s="296"/>
+      <c r="AH34" s="296"/>
+      <c r="AI34" s="296"/>
+      <c r="AJ34" s="296"/>
+      <c r="AK34" s="296"/>
+      <c r="AL34" s="296"/>
+      <c r="AM34" s="297"/>
+      <c r="AN34" s="281"/>
+      <c r="AO34" s="282"/>
+      <c r="AP34" s="282"/>
+      <c r="AQ34" s="282"/>
+      <c r="AR34" s="283"/>
+      <c r="AS34" s="281"/>
+      <c r="AT34" s="282"/>
+      <c r="AU34" s="282"/>
+      <c r="AV34" s="282"/>
+      <c r="AW34" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -12391,239 +12624,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14638,10 +14638,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="323">
+      <c r="B51" s="321">
         <v>1</v>
       </c>
-      <c r="C51" s="324"/>
+      <c r="C51" s="322"/>
       <c r="D51" s="231" t="s">
         <v>125</v>
       </c>
@@ -14673,16 +14673,16 @@
       <c r="AB51" s="232"/>
       <c r="AC51" s="232"/>
       <c r="AD51" s="233"/>
-      <c r="AE51" s="321" t="s">
+      <c r="AE51" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF51" s="322"/>
-      <c r="AG51" s="321"/>
-      <c r="AH51" s="322"/>
-      <c r="AI51" s="321"/>
-      <c r="AJ51" s="322"/>
-      <c r="AK51" s="321"/>
-      <c r="AL51" s="322"/>
+      <c r="AF51" s="324"/>
+      <c r="AG51" s="323"/>
+      <c r="AH51" s="324"/>
+      <c r="AI51" s="323"/>
+      <c r="AJ51" s="324"/>
+      <c r="AK51" s="323"/>
+      <c r="AL51" s="324"/>
       <c r="AM51" s="234" t="s">
         <v>131</v>
       </c>
@@ -14716,10 +14716,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="323">
+      <c r="B52" s="321">
         <v>2</v>
       </c>
-      <c r="C52" s="324"/>
+      <c r="C52" s="322"/>
       <c r="D52" s="231" t="s">
         <v>125</v>
       </c>
@@ -14751,16 +14751,16 @@
       <c r="AB52" s="232"/>
       <c r="AC52" s="232"/>
       <c r="AD52" s="233"/>
-      <c r="AE52" s="321" t="s">
+      <c r="AE52" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF52" s="322"/>
-      <c r="AG52" s="321"/>
-      <c r="AH52" s="322"/>
-      <c r="AI52" s="321"/>
-      <c r="AJ52" s="322"/>
-      <c r="AK52" s="321"/>
-      <c r="AL52" s="322"/>
+      <c r="AF52" s="324"/>
+      <c r="AG52" s="323"/>
+      <c r="AH52" s="324"/>
+      <c r="AI52" s="323"/>
+      <c r="AJ52" s="324"/>
+      <c r="AK52" s="323"/>
+      <c r="AL52" s="324"/>
       <c r="AM52" s="234" t="s">
         <v>132</v>
       </c>
@@ -14794,10 +14794,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="323">
+      <c r="B53" s="321">
         <v>3</v>
       </c>
-      <c r="C53" s="324"/>
+      <c r="C53" s="322"/>
       <c r="D53" s="231" t="s">
         <v>125</v>
       </c>
@@ -14829,16 +14829,16 @@
       <c r="AB53" s="232"/>
       <c r="AC53" s="232"/>
       <c r="AD53" s="233"/>
-      <c r="AE53" s="321" t="s">
+      <c r="AE53" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF53" s="322"/>
-      <c r="AG53" s="321"/>
-      <c r="AH53" s="322"/>
-      <c r="AI53" s="321"/>
-      <c r="AJ53" s="322"/>
-      <c r="AK53" s="321"/>
-      <c r="AL53" s="322"/>
+      <c r="AF53" s="324"/>
+      <c r="AG53" s="323"/>
+      <c r="AH53" s="324"/>
+      <c r="AI53" s="323"/>
+      <c r="AJ53" s="324"/>
+      <c r="AK53" s="323"/>
+      <c r="AL53" s="324"/>
       <c r="AM53" s="234" t="s">
         <v>133</v>
       </c>
@@ -14872,10 +14872,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="323">
+      <c r="B54" s="321">
         <v>4</v>
       </c>
-      <c r="C54" s="324"/>
+      <c r="C54" s="322"/>
       <c r="D54" s="231" t="s">
         <v>125</v>
       </c>
@@ -14907,16 +14907,16 @@
       <c r="AB54" s="232"/>
       <c r="AC54" s="232"/>
       <c r="AD54" s="233"/>
-      <c r="AE54" s="321" t="s">
+      <c r="AE54" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF54" s="322"/>
-      <c r="AG54" s="321"/>
-      <c r="AH54" s="322"/>
-      <c r="AI54" s="321"/>
-      <c r="AJ54" s="322"/>
-      <c r="AK54" s="321"/>
-      <c r="AL54" s="322"/>
+      <c r="AF54" s="324"/>
+      <c r="AG54" s="323"/>
+      <c r="AH54" s="324"/>
+      <c r="AI54" s="323"/>
+      <c r="AJ54" s="324"/>
+      <c r="AK54" s="323"/>
+      <c r="AL54" s="324"/>
       <c r="AM54" s="234" t="s">
         <v>134</v>
       </c>
@@ -14950,10 +14950,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="323">
+      <c r="B55" s="321">
         <v>5</v>
       </c>
-      <c r="C55" s="324"/>
+      <c r="C55" s="322"/>
       <c r="D55" s="231" t="s">
         <v>125</v>
       </c>
@@ -14985,16 +14985,16 @@
       <c r="AB55" s="232"/>
       <c r="AC55" s="232"/>
       <c r="AD55" s="233"/>
-      <c r="AE55" s="321" t="s">
+      <c r="AE55" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF55" s="322"/>
-      <c r="AG55" s="321"/>
-      <c r="AH55" s="322"/>
-      <c r="AI55" s="321"/>
-      <c r="AJ55" s="322"/>
-      <c r="AK55" s="321"/>
-      <c r="AL55" s="322"/>
+      <c r="AF55" s="324"/>
+      <c r="AG55" s="323"/>
+      <c r="AH55" s="324"/>
+      <c r="AI55" s="323"/>
+      <c r="AJ55" s="324"/>
+      <c r="AK55" s="323"/>
+      <c r="AL55" s="324"/>
       <c r="AM55" s="234" t="s">
         <v>135</v>
       </c>
@@ -15028,10 +15028,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="323">
+      <c r="B56" s="321">
         <v>6</v>
       </c>
-      <c r="C56" s="324"/>
+      <c r="C56" s="322"/>
       <c r="D56" s="231" t="s">
         <v>125</v>
       </c>
@@ -15063,16 +15063,16 @@
       <c r="AB56" s="232"/>
       <c r="AC56" s="232"/>
       <c r="AD56" s="233"/>
-      <c r="AE56" s="321" t="s">
+      <c r="AE56" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF56" s="322"/>
-      <c r="AG56" s="321"/>
-      <c r="AH56" s="322"/>
-      <c r="AI56" s="321"/>
-      <c r="AJ56" s="322"/>
-      <c r="AK56" s="321"/>
-      <c r="AL56" s="322"/>
+      <c r="AF56" s="324"/>
+      <c r="AG56" s="323"/>
+      <c r="AH56" s="324"/>
+      <c r="AI56" s="323"/>
+      <c r="AJ56" s="324"/>
+      <c r="AK56" s="323"/>
+      <c r="AL56" s="324"/>
       <c r="AM56" s="234" t="s">
         <v>136</v>
       </c>
@@ -15106,10 +15106,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="323">
+      <c r="B57" s="321">
         <v>7</v>
       </c>
-      <c r="C57" s="324"/>
+      <c r="C57" s="322"/>
       <c r="D57" s="231" t="s">
         <v>126</v>
       </c>
@@ -15141,16 +15141,16 @@
       <c r="AB57" s="232"/>
       <c r="AC57" s="232"/>
       <c r="AD57" s="233"/>
-      <c r="AE57" s="321" t="s">
+      <c r="AE57" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF57" s="322"/>
-      <c r="AG57" s="321"/>
-      <c r="AH57" s="322"/>
-      <c r="AI57" s="321"/>
-      <c r="AJ57" s="322"/>
-      <c r="AK57" s="321"/>
-      <c r="AL57" s="322"/>
+      <c r="AF57" s="324"/>
+      <c r="AG57" s="323"/>
+      <c r="AH57" s="324"/>
+      <c r="AI57" s="323"/>
+      <c r="AJ57" s="324"/>
+      <c r="AK57" s="323"/>
+      <c r="AL57" s="324"/>
       <c r="AM57" s="234" t="s">
         <v>558</v>
       </c>
@@ -15184,10 +15184,10 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
-      <c r="B58" s="323">
+      <c r="B58" s="321">
         <v>8</v>
       </c>
-      <c r="C58" s="324"/>
+      <c r="C58" s="322"/>
       <c r="D58" s="231" t="s">
         <v>126</v>
       </c>
@@ -15219,16 +15219,16 @@
       <c r="AB58" s="232"/>
       <c r="AC58" s="232"/>
       <c r="AD58" s="233"/>
-      <c r="AE58" s="321" t="s">
+      <c r="AE58" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF58" s="322"/>
-      <c r="AG58" s="321"/>
-      <c r="AH58" s="322"/>
-      <c r="AI58" s="321"/>
-      <c r="AJ58" s="322"/>
-      <c r="AK58" s="321"/>
-      <c r="AL58" s="322"/>
+      <c r="AF58" s="324"/>
+      <c r="AG58" s="323"/>
+      <c r="AH58" s="324"/>
+      <c r="AI58" s="323"/>
+      <c r="AJ58" s="324"/>
+      <c r="AK58" s="323"/>
+      <c r="AL58" s="324"/>
       <c r="AM58" s="234" t="s">
         <v>560</v>
       </c>
@@ -15262,10 +15262,10 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
-      <c r="B59" s="323">
+      <c r="B59" s="321">
         <v>9</v>
       </c>
-      <c r="C59" s="324"/>
+      <c r="C59" s="322"/>
       <c r="D59" s="231" t="s">
         <v>126</v>
       </c>
@@ -15297,16 +15297,16 @@
       <c r="AB59" s="232"/>
       <c r="AC59" s="232"/>
       <c r="AD59" s="233"/>
-      <c r="AE59" s="321" t="s">
+      <c r="AE59" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="AF59" s="322"/>
-      <c r="AG59" s="321"/>
-      <c r="AH59" s="322"/>
-      <c r="AI59" s="321"/>
-      <c r="AJ59" s="322"/>
-      <c r="AK59" s="321"/>
-      <c r="AL59" s="322"/>
+      <c r="AF59" s="324"/>
+      <c r="AG59" s="323"/>
+      <c r="AH59" s="324"/>
+      <c r="AI59" s="323"/>
+      <c r="AJ59" s="324"/>
+      <c r="AK59" s="323"/>
+      <c r="AL59" s="324"/>
       <c r="AM59" s="234" t="s">
         <v>562</v>
       </c>
@@ -15345,44 +15345,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
     <mergeCell ref="AG58:AH58"/>
     <mergeCell ref="AI58:AJ58"/>
     <mergeCell ref="AK58:AL58"/>
@@ -15393,6 +15355,44 @@
     <mergeCell ref="AK59:AL59"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15886,22 +15886,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="314" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="314" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="283" t="s">
+      <c r="G6" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="283" t="s">
+      <c r="H6" s="314" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="342" t="s">
@@ -15910,13 +15910,13 @@
       <c r="J6" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="283" t="s">
+      <c r="K6" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="283" t="s">
+      <c r="L6" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="283" t="s">
+      <c r="M6" s="314" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="74" t="s">
@@ -15931,17 +15931,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
+      <c r="C7" s="314"/>
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="314"/>
+      <c r="H7" s="314"/>
       <c r="I7" s="342"/>
       <c r="J7" s="342"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="283"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
       <c r="N7" s="43" t="s">
         <v>81</v>
       </c>
@@ -16105,22 +16105,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="283" t="s">
+      <c r="C13" s="314" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="283" t="s">
+      <c r="D13" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="283" t="s">
+      <c r="E13" s="314" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="283" t="s">
+      <c r="F13" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="283" t="s">
+      <c r="G13" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="283" t="s">
+      <c r="H13" s="314" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="343" t="s">
@@ -16129,13 +16129,13 @@
       <c r="J13" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="283" t="s">
+      <c r="K13" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="283" t="s">
+      <c r="L13" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="283" t="s">
+      <c r="M13" s="314" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="74" t="s">
@@ -16150,17 +16150,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="283"/>
-      <c r="E14" s="283"/>
-      <c r="F14" s="283"/>
-      <c r="G14" s="283"/>
-      <c r="H14" s="283"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="314"/>
+      <c r="G14" s="314"/>
+      <c r="H14" s="314"/>
       <c r="I14" s="344"/>
       <c r="J14" s="342"/>
-      <c r="K14" s="283"/>
-      <c r="L14" s="283"/>
-      <c r="M14" s="283"/>
+      <c r="K14" s="314"/>
+      <c r="L14" s="314"/>
+      <c r="M14" s="314"/>
       <c r="N14" s="43" t="s">
         <v>81</v>
       </c>
@@ -16766,22 +16766,22 @@
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="111"/>
-      <c r="C29" s="283" t="s">
+      <c r="C29" s="314" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="283" t="s">
+      <c r="D29" s="314" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="283" t="s">
+      <c r="E29" s="314" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="283" t="s">
+      <c r="F29" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="283" t="s">
+      <c r="G29" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="283" t="s">
+      <c r="H29" s="314" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="342" t="s">
@@ -16790,13 +16790,13 @@
       <c r="J29" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="283" t="s">
+      <c r="K29" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="283" t="s">
+      <c r="L29" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="283" t="s">
+      <c r="M29" s="314" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="74" t="s">
@@ -16810,17 +16810,17 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="111"/>
-      <c r="C30" s="283"/>
-      <c r="D30" s="283"/>
-      <c r="E30" s="283"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="283"/>
-      <c r="H30" s="283"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="314"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="314"/>
+      <c r="G30" s="314"/>
+      <c r="H30" s="314"/>
       <c r="I30" s="342"/>
       <c r="J30" s="342"/>
-      <c r="K30" s="283"/>
-      <c r="L30" s="283"/>
-      <c r="M30" s="283"/>
+      <c r="K30" s="314"/>
+      <c r="L30" s="314"/>
+      <c r="M30" s="314"/>
       <c r="N30" s="109" t="s">
         <v>81</v>
       </c>
@@ -17196,16 +17196,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="C13:C14"/>
@@ -17214,24 +17222,16 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32487,6 +32487,9 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="320" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -65450,18 +65453,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65483,14 +65486,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -65504,4 +65499,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K14_前日以前実績参照.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{843478B5-C9EF-4C38-AB57-7ED71F04BFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61441AE8-85B7-4744-80F6-846FCB1E6127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -130,14 +130,12 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -145,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="582">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -4285,6 +4283,26 @@
     <t>K-14</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>成形の場合：</t>
+    <rPh sb="0" eb="2">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大工程 = '10'の場合</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -5845,91 +5863,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5957,17 +5890,102 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -7094,7 +7112,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3862"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$46" spid="_x0000_s3868"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7159,7 +7177,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3863"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$48:$CX$91" spid="_x0000_s3869"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7224,7 +7242,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3864"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$93:$CX$136" spid="_x0000_s3870"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10777,1779 +10795,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
-      <c r="B1" s="313" t="s">
+      <c r="B1" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="313"/>
-      <c r="T1" s="313"/>
-      <c r="U1" s="313"/>
-      <c r="V1" s="313"/>
-      <c r="W1" s="313"/>
-      <c r="X1" s="313"/>
-      <c r="Y1" s="313"/>
-      <c r="Z1" s="313"/>
-      <c r="AA1" s="313"/>
-      <c r="AB1" s="313"/>
-      <c r="AC1" s="313"/>
-      <c r="AD1" s="313"/>
-      <c r="AE1" s="313"/>
-      <c r="AF1" s="313"/>
-      <c r="AG1" s="313"/>
-      <c r="AH1" s="313"/>
-      <c r="AI1" s="313"/>
-      <c r="AJ1" s="313"/>
-      <c r="AK1" s="313"/>
-      <c r="AL1" s="313"/>
-      <c r="AM1" s="313"/>
-      <c r="AN1" s="313"/>
-      <c r="AO1" s="313"/>
-      <c r="AP1" s="313"/>
-      <c r="AQ1" s="313"/>
-      <c r="AR1" s="313"/>
-      <c r="AS1" s="313"/>
-      <c r="AT1" s="313"/>
-      <c r="AU1" s="313"/>
-      <c r="AV1" s="313"/>
-      <c r="AW1" s="313"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
+      <c r="L1" s="282"/>
+      <c r="M1" s="282"/>
+      <c r="N1" s="282"/>
+      <c r="O1" s="282"/>
+      <c r="P1" s="282"/>
+      <c r="Q1" s="282"/>
+      <c r="R1" s="282"/>
+      <c r="S1" s="282"/>
+      <c r="T1" s="282"/>
+      <c r="U1" s="282"/>
+      <c r="V1" s="282"/>
+      <c r="W1" s="282"/>
+      <c r="X1" s="282"/>
+      <c r="Y1" s="282"/>
+      <c r="Z1" s="282"/>
+      <c r="AA1" s="282"/>
+      <c r="AB1" s="282"/>
+      <c r="AC1" s="282"/>
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="282"/>
+      <c r="AG1" s="282"/>
+      <c r="AH1" s="282"/>
+      <c r="AI1" s="282"/>
+      <c r="AJ1" s="282"/>
+      <c r="AK1" s="282"/>
+      <c r="AL1" s="282"/>
+      <c r="AM1" s="282"/>
+      <c r="AN1" s="282"/>
+      <c r="AO1" s="282"/>
+      <c r="AP1" s="282"/>
+      <c r="AQ1" s="282"/>
+      <c r="AR1" s="282"/>
+      <c r="AS1" s="282"/>
+      <c r="AT1" s="282"/>
+      <c r="AU1" s="282"/>
+      <c r="AV1" s="282"/>
+      <c r="AW1" s="282"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
-      <c r="Q2" s="314"/>
-      <c r="R2" s="314"/>
-      <c r="S2" s="314"/>
-      <c r="T2" s="314"/>
-      <c r="U2" s="314"/>
-      <c r="V2" s="314"/>
-      <c r="W2" s="314"/>
-      <c r="X2" s="314"/>
-      <c r="Y2" s="314"/>
-      <c r="Z2" s="314"/>
-      <c r="AA2" s="314"/>
-      <c r="AB2" s="314"/>
-      <c r="AC2" s="314"/>
-      <c r="AD2" s="314"/>
-      <c r="AE2" s="314"/>
-      <c r="AF2" s="314"/>
-      <c r="AG2" s="314"/>
-      <c r="AH2" s="314"/>
-      <c r="AI2" s="314"/>
-      <c r="AJ2" s="314"/>
-      <c r="AK2" s="314"/>
-      <c r="AL2" s="314"/>
-      <c r="AM2" s="314"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="314"/>
-      <c r="AP2" s="314"/>
-      <c r="AQ2" s="314"/>
-      <c r="AR2" s="314"/>
-      <c r="AS2" s="314"/>
-      <c r="AT2" s="314"/>
-      <c r="AU2" s="314"/>
-      <c r="AV2" s="314"/>
-      <c r="AW2" s="314"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="283"/>
+      <c r="V2" s="283"/>
+      <c r="W2" s="283"/>
+      <c r="X2" s="283"/>
+      <c r="Y2" s="283"/>
+      <c r="Z2" s="283"/>
+      <c r="AA2" s="283"/>
+      <c r="AB2" s="283"/>
+      <c r="AC2" s="283"/>
+      <c r="AD2" s="283"/>
+      <c r="AE2" s="283"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="283"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="283"/>
+      <c r="AJ2" s="283"/>
+      <c r="AK2" s="283"/>
+      <c r="AL2" s="283"/>
+      <c r="AM2" s="283"/>
+      <c r="AN2" s="283"/>
+      <c r="AO2" s="283"/>
+      <c r="AP2" s="283"/>
+      <c r="AQ2" s="283"/>
+      <c r="AR2" s="283"/>
+      <c r="AS2" s="283"/>
+      <c r="AT2" s="283"/>
+      <c r="AU2" s="283"/>
+      <c r="AV2" s="283"/>
+      <c r="AW2" s="283"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="315" t="s">
+      <c r="B3" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315" t="s">
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="316" t="s">
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="317"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="316" t="s">
+      <c r="K3" s="286"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="317"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="317"/>
-      <c r="Q3" s="317"/>
-      <c r="R3" s="318"/>
-      <c r="S3" s="315" t="s">
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="287"/>
+      <c r="S3" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="315" t="s">
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="315"/>
-      <c r="X3" s="315"/>
-      <c r="Y3" s="315"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="315"/>
-      <c r="AB3" s="315"/>
-      <c r="AC3" s="315"/>
-      <c r="AD3" s="315"/>
-      <c r="AE3" s="315"/>
-      <c r="AF3" s="315"/>
-      <c r="AG3" s="315"/>
-      <c r="AH3" s="315"/>
-      <c r="AI3" s="315"/>
-      <c r="AJ3" s="315"/>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315"/>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="315" t="s">
+      <c r="W3" s="284"/>
+      <c r="X3" s="284"/>
+      <c r="Y3" s="284"/>
+      <c r="Z3" s="284"/>
+      <c r="AA3" s="284"/>
+      <c r="AB3" s="284"/>
+      <c r="AC3" s="284"/>
+      <c r="AD3" s="284"/>
+      <c r="AE3" s="284"/>
+      <c r="AF3" s="284"/>
+      <c r="AG3" s="284"/>
+      <c r="AH3" s="284"/>
+      <c r="AI3" s="284"/>
+      <c r="AJ3" s="284"/>
+      <c r="AK3" s="284"/>
+      <c r="AL3" s="284"/>
+      <c r="AM3" s="284"/>
+      <c r="AN3" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="315"/>
-      <c r="AS3" s="315" t="s">
+      <c r="AO3" s="284"/>
+      <c r="AP3" s="284"/>
+      <c r="AQ3" s="284"/>
+      <c r="AR3" s="284"/>
+      <c r="AS3" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="315"/>
-      <c r="AU3" s="315"/>
-      <c r="AV3" s="315"/>
-      <c r="AW3" s="315"/>
+      <c r="AT3" s="284"/>
+      <c r="AU3" s="284"/>
+      <c r="AV3" s="284"/>
+      <c r="AW3" s="284"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
-      <c r="B4" s="315"/>
-      <c r="C4" s="315"/>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="319"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="321"/>
-      <c r="M4" s="319"/>
-      <c r="N4" s="320"/>
-      <c r="O4" s="320"/>
-      <c r="P4" s="320"/>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="321"/>
-      <c r="S4" s="315"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="315"/>
-      <c r="V4" s="315"/>
-      <c r="W4" s="315"/>
-      <c r="X4" s="315"/>
-      <c r="Y4" s="315"/>
-      <c r="Z4" s="315"/>
-      <c r="AA4" s="315"/>
-      <c r="AB4" s="315"/>
-      <c r="AC4" s="315"/>
-      <c r="AD4" s="315"/>
-      <c r="AE4" s="315"/>
-      <c r="AF4" s="315"/>
-      <c r="AG4" s="315"/>
-      <c r="AH4" s="315"/>
-      <c r="AI4" s="315"/>
-      <c r="AJ4" s="315"/>
-      <c r="AK4" s="315"/>
-      <c r="AL4" s="315"/>
-      <c r="AM4" s="315"/>
-      <c r="AN4" s="315"/>
-      <c r="AO4" s="315"/>
-      <c r="AP4" s="315"/>
-      <c r="AQ4" s="315"/>
-      <c r="AR4" s="315"/>
-      <c r="AS4" s="315"/>
-      <c r="AT4" s="315"/>
-      <c r="AU4" s="315"/>
-      <c r="AV4" s="315"/>
-      <c r="AW4" s="315"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="290"/>
+      <c r="M4" s="288"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="289"/>
+      <c r="Q4" s="289"/>
+      <c r="R4" s="290"/>
+      <c r="S4" s="284"/>
+      <c r="T4" s="284"/>
+      <c r="U4" s="284"/>
+      <c r="V4" s="284"/>
+      <c r="W4" s="284"/>
+      <c r="X4" s="284"/>
+      <c r="Y4" s="284"/>
+      <c r="Z4" s="284"/>
+      <c r="AA4" s="284"/>
+      <c r="AB4" s="284"/>
+      <c r="AC4" s="284"/>
+      <c r="AD4" s="284"/>
+      <c r="AE4" s="284"/>
+      <c r="AF4" s="284"/>
+      <c r="AG4" s="284"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="284"/>
+      <c r="AK4" s="284"/>
+      <c r="AL4" s="284"/>
+      <c r="AM4" s="284"/>
+      <c r="AN4" s="284"/>
+      <c r="AO4" s="284"/>
+      <c r="AP4" s="284"/>
+      <c r="AQ4" s="284"/>
+      <c r="AR4" s="284"/>
+      <c r="AS4" s="284"/>
+      <c r="AT4" s="284"/>
+      <c r="AU4" s="284"/>
+      <c r="AV4" s="284"/>
+      <c r="AW4" s="284"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
-      <c r="B5" s="307">
+      <c r="B5" s="292">
         <v>1</v>
       </c>
-      <c r="C5" s="307"/>
-      <c r="D5" s="307"/>
-      <c r="E5" s="288">
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="293">
         <v>43720</v>
       </c>
-      <c r="F5" s="288"/>
-      <c r="G5" s="288"/>
-      <c r="H5" s="288"/>
-      <c r="I5" s="288"/>
-      <c r="J5" s="289" t="s">
+      <c r="F5" s="293"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="290"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="289" t="s">
+      <c r="K5" s="295"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="290"/>
-      <c r="O5" s="290"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="290"/>
-      <c r="R5" s="291"/>
-      <c r="S5" s="295" t="s">
+      <c r="N5" s="295"/>
+      <c r="O5" s="295"/>
+      <c r="P5" s="295"/>
+      <c r="Q5" s="295"/>
+      <c r="R5" s="296"/>
+      <c r="S5" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="295"/>
-      <c r="U5" s="295"/>
-      <c r="V5" s="306" t="s">
+      <c r="T5" s="291"/>
+      <c r="U5" s="291"/>
+      <c r="V5" s="300" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="306"/>
-      <c r="X5" s="306"/>
-      <c r="Y5" s="306"/>
-      <c r="Z5" s="306"/>
-      <c r="AA5" s="306"/>
-      <c r="AB5" s="306"/>
-      <c r="AC5" s="306"/>
-      <c r="AD5" s="306"/>
-      <c r="AE5" s="306"/>
-      <c r="AF5" s="306"/>
-      <c r="AG5" s="306"/>
-      <c r="AH5" s="306"/>
-      <c r="AI5" s="306"/>
-      <c r="AJ5" s="306"/>
-      <c r="AK5" s="306"/>
-      <c r="AL5" s="306"/>
-      <c r="AM5" s="306"/>
-      <c r="AN5" s="295" t="s">
+      <c r="W5" s="300"/>
+      <c r="X5" s="300"/>
+      <c r="Y5" s="300"/>
+      <c r="Z5" s="300"/>
+      <c r="AA5" s="300"/>
+      <c r="AB5" s="300"/>
+      <c r="AC5" s="300"/>
+      <c r="AD5" s="300"/>
+      <c r="AE5" s="300"/>
+      <c r="AF5" s="300"/>
+      <c r="AG5" s="300"/>
+      <c r="AH5" s="300"/>
+      <c r="AI5" s="300"/>
+      <c r="AJ5" s="300"/>
+      <c r="AK5" s="300"/>
+      <c r="AL5" s="300"/>
+      <c r="AM5" s="300"/>
+      <c r="AN5" s="291" t="s">
         <v>213</v>
       </c>
-      <c r="AO5" s="295"/>
-      <c r="AP5" s="295"/>
-      <c r="AQ5" s="295"/>
-      <c r="AR5" s="295"/>
-      <c r="AS5" s="295"/>
-      <c r="AT5" s="295"/>
-      <c r="AU5" s="295"/>
-      <c r="AV5" s="295"/>
-      <c r="AW5" s="295"/>
+      <c r="AO5" s="291"/>
+      <c r="AP5" s="291"/>
+      <c r="AQ5" s="291"/>
+      <c r="AR5" s="291"/>
+      <c r="AS5" s="291"/>
+      <c r="AT5" s="291"/>
+      <c r="AU5" s="291"/>
+      <c r="AV5" s="291"/>
+      <c r="AW5" s="291"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="307"/>
-      <c r="D6" s="307"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="288"/>
-      <c r="G6" s="288"/>
-      <c r="H6" s="288"/>
-      <c r="I6" s="288"/>
-      <c r="J6" s="289"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="291"/>
-      <c r="M6" s="310"/>
-      <c r="N6" s="311"/>
-      <c r="O6" s="311"/>
-      <c r="P6" s="311"/>
-      <c r="Q6" s="311"/>
-      <c r="R6" s="312"/>
-      <c r="S6" s="295"/>
-      <c r="T6" s="295"/>
-      <c r="U6" s="295"/>
-      <c r="V6" s="306"/>
-      <c r="W6" s="306"/>
-      <c r="X6" s="306"/>
-      <c r="Y6" s="306"/>
-      <c r="Z6" s="306"/>
-      <c r="AA6" s="306"/>
-      <c r="AB6" s="306"/>
-      <c r="AC6" s="306"/>
-      <c r="AD6" s="306"/>
-      <c r="AE6" s="306"/>
-      <c r="AF6" s="306"/>
-      <c r="AG6" s="306"/>
-      <c r="AH6" s="306"/>
-      <c r="AI6" s="306"/>
-      <c r="AJ6" s="306"/>
-      <c r="AK6" s="306"/>
-      <c r="AL6" s="306"/>
-      <c r="AM6" s="306"/>
-      <c r="AN6" s="295"/>
-      <c r="AO6" s="295"/>
-      <c r="AP6" s="295"/>
-      <c r="AQ6" s="295"/>
-      <c r="AR6" s="295"/>
-      <c r="AS6" s="295"/>
-      <c r="AT6" s="295"/>
-      <c r="AU6" s="295"/>
-      <c r="AV6" s="295"/>
-      <c r="AW6" s="295"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="292"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="293"/>
+      <c r="G6" s="293"/>
+      <c r="H6" s="293"/>
+      <c r="I6" s="293"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="295"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="297"/>
+      <c r="N6" s="298"/>
+      <c r="O6" s="298"/>
+      <c r="P6" s="298"/>
+      <c r="Q6" s="298"/>
+      <c r="R6" s="299"/>
+      <c r="S6" s="291"/>
+      <c r="T6" s="291"/>
+      <c r="U6" s="291"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="300"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="300"/>
+      <c r="AF6" s="300"/>
+      <c r="AG6" s="300"/>
+      <c r="AH6" s="300"/>
+      <c r="AI6" s="300"/>
+      <c r="AJ6" s="300"/>
+      <c r="AK6" s="300"/>
+      <c r="AL6" s="300"/>
+      <c r="AM6" s="300"/>
+      <c r="AN6" s="291"/>
+      <c r="AO6" s="291"/>
+      <c r="AP6" s="291"/>
+      <c r="AQ6" s="291"/>
+      <c r="AR6" s="291"/>
+      <c r="AS6" s="291"/>
+      <c r="AT6" s="291"/>
+      <c r="AU6" s="291"/>
+      <c r="AV6" s="291"/>
+      <c r="AW6" s="291"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
-      <c r="B7" s="307"/>
-      <c r="C7" s="307"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="288"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="288"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="289"/>
-      <c r="K7" s="290"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="310"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="311"/>
-      <c r="Q7" s="311"/>
-      <c r="R7" s="312"/>
-      <c r="S7" s="295"/>
-      <c r="T7" s="295"/>
-      <c r="U7" s="295"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="306"/>
-      <c r="AB7" s="306"/>
-      <c r="AC7" s="306"/>
-      <c r="AD7" s="306"/>
-      <c r="AE7" s="306"/>
-      <c r="AF7" s="306"/>
-      <c r="AG7" s="306"/>
-      <c r="AH7" s="306"/>
-      <c r="AI7" s="306"/>
-      <c r="AJ7" s="306"/>
-      <c r="AK7" s="306"/>
-      <c r="AL7" s="306"/>
-      <c r="AM7" s="306"/>
-      <c r="AN7" s="295"/>
-      <c r="AO7" s="295"/>
-      <c r="AP7" s="295"/>
-      <c r="AQ7" s="295"/>
-      <c r="AR7" s="295"/>
-      <c r="AS7" s="295"/>
-      <c r="AT7" s="295"/>
-      <c r="AU7" s="295"/>
-      <c r="AV7" s="295"/>
-      <c r="AW7" s="295"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="294"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="296"/>
+      <c r="M7" s="297"/>
+      <c r="N7" s="298"/>
+      <c r="O7" s="298"/>
+      <c r="P7" s="298"/>
+      <c r="Q7" s="298"/>
+      <c r="R7" s="299"/>
+      <c r="S7" s="291"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="291"/>
+      <c r="V7" s="300"/>
+      <c r="W7" s="300"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="300"/>
+      <c r="AC7" s="300"/>
+      <c r="AD7" s="300"/>
+      <c r="AE7" s="300"/>
+      <c r="AF7" s="300"/>
+      <c r="AG7" s="300"/>
+      <c r="AH7" s="300"/>
+      <c r="AI7" s="300"/>
+      <c r="AJ7" s="300"/>
+      <c r="AK7" s="300"/>
+      <c r="AL7" s="300"/>
+      <c r="AM7" s="300"/>
+      <c r="AN7" s="291"/>
+      <c r="AO7" s="291"/>
+      <c r="AP7" s="291"/>
+      <c r="AQ7" s="291"/>
+      <c r="AR7" s="291"/>
+      <c r="AS7" s="291"/>
+      <c r="AT7" s="291"/>
+      <c r="AU7" s="291"/>
+      <c r="AV7" s="291"/>
+      <c r="AW7" s="291"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="307"/>
-      <c r="D8" s="307"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="289"/>
-      <c r="K8" s="290"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="310"/>
-      <c r="N8" s="311"/>
-      <c r="O8" s="311"/>
-      <c r="P8" s="311"/>
-      <c r="Q8" s="311"/>
-      <c r="R8" s="312"/>
-      <c r="S8" s="295"/>
-      <c r="T8" s="295"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="306"/>
-      <c r="W8" s="306"/>
-      <c r="X8" s="306"/>
-      <c r="Y8" s="306"/>
-      <c r="Z8" s="306"/>
-      <c r="AA8" s="306"/>
-      <c r="AB8" s="306"/>
-      <c r="AC8" s="306"/>
-      <c r="AD8" s="306"/>
-      <c r="AE8" s="306"/>
-      <c r="AF8" s="306"/>
-      <c r="AG8" s="306"/>
-      <c r="AH8" s="306"/>
-      <c r="AI8" s="306"/>
-      <c r="AJ8" s="306"/>
-      <c r="AK8" s="306"/>
-      <c r="AL8" s="306"/>
-      <c r="AM8" s="306"/>
-      <c r="AN8" s="295"/>
-      <c r="AO8" s="295"/>
-      <c r="AP8" s="295"/>
-      <c r="AQ8" s="295"/>
-      <c r="AR8" s="295"/>
-      <c r="AS8" s="295"/>
-      <c r="AT8" s="295"/>
-      <c r="AU8" s="295"/>
-      <c r="AV8" s="295"/>
-      <c r="AW8" s="295"/>
+      <c r="B8" s="292"/>
+      <c r="C8" s="292"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="296"/>
+      <c r="M8" s="297"/>
+      <c r="N8" s="298"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="298"/>
+      <c r="R8" s="299"/>
+      <c r="S8" s="291"/>
+      <c r="T8" s="291"/>
+      <c r="U8" s="291"/>
+      <c r="V8" s="300"/>
+      <c r="W8" s="300"/>
+      <c r="X8" s="300"/>
+      <c r="Y8" s="300"/>
+      <c r="Z8" s="300"/>
+      <c r="AA8" s="300"/>
+      <c r="AB8" s="300"/>
+      <c r="AC8" s="300"/>
+      <c r="AD8" s="300"/>
+      <c r="AE8" s="300"/>
+      <c r="AF8" s="300"/>
+      <c r="AG8" s="300"/>
+      <c r="AH8" s="300"/>
+      <c r="AI8" s="300"/>
+      <c r="AJ8" s="300"/>
+      <c r="AK8" s="300"/>
+      <c r="AL8" s="300"/>
+      <c r="AM8" s="300"/>
+      <c r="AN8" s="291"/>
+      <c r="AO8" s="291"/>
+      <c r="AP8" s="291"/>
+      <c r="AQ8" s="291"/>
+      <c r="AR8" s="291"/>
+      <c r="AS8" s="291"/>
+      <c r="AT8" s="291"/>
+      <c r="AU8" s="291"/>
+      <c r="AV8" s="291"/>
+      <c r="AW8" s="291"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="57"/>
-      <c r="B9" s="307"/>
-      <c r="C9" s="307"/>
-      <c r="D9" s="307"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="291"/>
-      <c r="M9" s="310"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="311"/>
-      <c r="Q9" s="311"/>
-      <c r="R9" s="312"/>
-      <c r="S9" s="295"/>
-      <c r="T9" s="295"/>
-      <c r="U9" s="295"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="306"/>
-      <c r="AD9" s="306"/>
-      <c r="AE9" s="306"/>
-      <c r="AF9" s="306"/>
-      <c r="AG9" s="306"/>
-      <c r="AH9" s="306"/>
-      <c r="AI9" s="306"/>
-      <c r="AJ9" s="306"/>
-      <c r="AK9" s="306"/>
-      <c r="AL9" s="306"/>
-      <c r="AM9" s="306"/>
-      <c r="AN9" s="295"/>
-      <c r="AO9" s="295"/>
-      <c r="AP9" s="295"/>
-      <c r="AQ9" s="295"/>
-      <c r="AR9" s="295"/>
-      <c r="AS9" s="295"/>
-      <c r="AT9" s="295"/>
-      <c r="AU9" s="295"/>
-      <c r="AV9" s="295"/>
-      <c r="AW9" s="295"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="297"/>
+      <c r="N9" s="298"/>
+      <c r="O9" s="298"/>
+      <c r="P9" s="298"/>
+      <c r="Q9" s="298"/>
+      <c r="R9" s="299"/>
+      <c r="S9" s="291"/>
+      <c r="T9" s="291"/>
+      <c r="U9" s="291"/>
+      <c r="V9" s="300"/>
+      <c r="W9" s="300"/>
+      <c r="X9" s="300"/>
+      <c r="Y9" s="300"/>
+      <c r="Z9" s="300"/>
+      <c r="AA9" s="300"/>
+      <c r="AB9" s="300"/>
+      <c r="AC9" s="300"/>
+      <c r="AD9" s="300"/>
+      <c r="AE9" s="300"/>
+      <c r="AF9" s="300"/>
+      <c r="AG9" s="300"/>
+      <c r="AH9" s="300"/>
+      <c r="AI9" s="300"/>
+      <c r="AJ9" s="300"/>
+      <c r="AK9" s="300"/>
+      <c r="AL9" s="300"/>
+      <c r="AM9" s="300"/>
+      <c r="AN9" s="291"/>
+      <c r="AO9" s="291"/>
+      <c r="AP9" s="291"/>
+      <c r="AQ9" s="291"/>
+      <c r="AR9" s="291"/>
+      <c r="AS9" s="291"/>
+      <c r="AT9" s="291"/>
+      <c r="AU9" s="291"/>
+      <c r="AV9" s="291"/>
+      <c r="AW9" s="291"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
-      <c r="B10" s="307"/>
-      <c r="C10" s="307"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="290"/>
-      <c r="L10" s="291"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="311"/>
-      <c r="O10" s="311"/>
-      <c r="P10" s="311"/>
-      <c r="Q10" s="311"/>
-      <c r="R10" s="312"/>
-      <c r="S10" s="295"/>
-      <c r="T10" s="295"/>
-      <c r="U10" s="295"/>
-      <c r="V10" s="306"/>
-      <c r="W10" s="306"/>
-      <c r="X10" s="306"/>
-      <c r="Y10" s="306"/>
-      <c r="Z10" s="306"/>
-      <c r="AA10" s="306"/>
-      <c r="AB10" s="306"/>
-      <c r="AC10" s="306"/>
-      <c r="AD10" s="306"/>
-      <c r="AE10" s="306"/>
-      <c r="AF10" s="306"/>
-      <c r="AG10" s="306"/>
-      <c r="AH10" s="306"/>
-      <c r="AI10" s="306"/>
-      <c r="AJ10" s="306"/>
-      <c r="AK10" s="306"/>
-      <c r="AL10" s="306"/>
-      <c r="AM10" s="306"/>
-      <c r="AN10" s="295"/>
-      <c r="AO10" s="295"/>
-      <c r="AP10" s="295"/>
-      <c r="AQ10" s="295"/>
-      <c r="AR10" s="295"/>
-      <c r="AS10" s="295"/>
-      <c r="AT10" s="295"/>
-      <c r="AU10" s="295"/>
-      <c r="AV10" s="295"/>
-      <c r="AW10" s="295"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="295"/>
+      <c r="L10" s="296"/>
+      <c r="M10" s="297"/>
+      <c r="N10" s="298"/>
+      <c r="O10" s="298"/>
+      <c r="P10" s="298"/>
+      <c r="Q10" s="298"/>
+      <c r="R10" s="299"/>
+      <c r="S10" s="291"/>
+      <c r="T10" s="291"/>
+      <c r="U10" s="291"/>
+      <c r="V10" s="300"/>
+      <c r="W10" s="300"/>
+      <c r="X10" s="300"/>
+      <c r="Y10" s="300"/>
+      <c r="Z10" s="300"/>
+      <c r="AA10" s="300"/>
+      <c r="AB10" s="300"/>
+      <c r="AC10" s="300"/>
+      <c r="AD10" s="300"/>
+      <c r="AE10" s="300"/>
+      <c r="AF10" s="300"/>
+      <c r="AG10" s="300"/>
+      <c r="AH10" s="300"/>
+      <c r="AI10" s="300"/>
+      <c r="AJ10" s="300"/>
+      <c r="AK10" s="300"/>
+      <c r="AL10" s="300"/>
+      <c r="AM10" s="300"/>
+      <c r="AN10" s="291"/>
+      <c r="AO10" s="291"/>
+      <c r="AP10" s="291"/>
+      <c r="AQ10" s="291"/>
+      <c r="AR10" s="291"/>
+      <c r="AS10" s="291"/>
+      <c r="AT10" s="291"/>
+      <c r="AU10" s="291"/>
+      <c r="AV10" s="291"/>
+      <c r="AW10" s="291"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
-      <c r="B11" s="307"/>
-      <c r="C11" s="307"/>
-      <c r="D11" s="307"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="290"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="302"/>
-      <c r="N11" s="300"/>
-      <c r="O11" s="300"/>
-      <c r="P11" s="300"/>
-      <c r="Q11" s="300"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="295"/>
-      <c r="T11" s="295"/>
-      <c r="U11" s="295"/>
-      <c r="V11" s="296"/>
-      <c r="W11" s="308"/>
-      <c r="X11" s="308"/>
-      <c r="Y11" s="308"/>
-      <c r="Z11" s="308"/>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="308"/>
-      <c r="AC11" s="308"/>
-      <c r="AD11" s="308"/>
-      <c r="AE11" s="308"/>
-      <c r="AF11" s="308"/>
-      <c r="AG11" s="308"/>
-      <c r="AH11" s="308"/>
-      <c r="AI11" s="308"/>
-      <c r="AJ11" s="308"/>
-      <c r="AK11" s="308"/>
-      <c r="AL11" s="308"/>
-      <c r="AM11" s="309"/>
-      <c r="AN11" s="295"/>
-      <c r="AO11" s="295"/>
-      <c r="AP11" s="295"/>
-      <c r="AQ11" s="295"/>
-      <c r="AR11" s="295"/>
-      <c r="AS11" s="295"/>
-      <c r="AT11" s="295"/>
-      <c r="AU11" s="295"/>
-      <c r="AV11" s="295"/>
-      <c r="AW11" s="295"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="292"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="293"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="293"/>
+      <c r="J11" s="294"/>
+      <c r="K11" s="295"/>
+      <c r="L11" s="296"/>
+      <c r="M11" s="304"/>
+      <c r="N11" s="305"/>
+      <c r="O11" s="305"/>
+      <c r="P11" s="305"/>
+      <c r="Q11" s="305"/>
+      <c r="R11" s="306"/>
+      <c r="S11" s="291"/>
+      <c r="T11" s="291"/>
+      <c r="U11" s="291"/>
+      <c r="V11" s="307"/>
+      <c r="W11" s="313"/>
+      <c r="X11" s="313"/>
+      <c r="Y11" s="313"/>
+      <c r="Z11" s="313"/>
+      <c r="AA11" s="313"/>
+      <c r="AB11" s="313"/>
+      <c r="AC11" s="313"/>
+      <c r="AD11" s="313"/>
+      <c r="AE11" s="313"/>
+      <c r="AF11" s="313"/>
+      <c r="AG11" s="313"/>
+      <c r="AH11" s="313"/>
+      <c r="AI11" s="313"/>
+      <c r="AJ11" s="313"/>
+      <c r="AK11" s="313"/>
+      <c r="AL11" s="313"/>
+      <c r="AM11" s="314"/>
+      <c r="AN11" s="291"/>
+      <c r="AO11" s="291"/>
+      <c r="AP11" s="291"/>
+      <c r="AQ11" s="291"/>
+      <c r="AR11" s="291"/>
+      <c r="AS11" s="291"/>
+      <c r="AT11" s="291"/>
+      <c r="AU11" s="291"/>
+      <c r="AV11" s="291"/>
+      <c r="AW11" s="291"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
-      <c r="B12" s="285"/>
-      <c r="C12" s="286"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="289"/>
-      <c r="K12" s="290"/>
-      <c r="L12" s="291"/>
-      <c r="M12" s="302"/>
-      <c r="N12" s="300"/>
-      <c r="O12" s="300"/>
-      <c r="P12" s="300"/>
-      <c r="Q12" s="300"/>
-      <c r="R12" s="301"/>
-      <c r="S12" s="295"/>
-      <c r="T12" s="295"/>
-      <c r="U12" s="295"/>
-      <c r="V12" s="296"/>
-      <c r="W12" s="297"/>
-      <c r="X12" s="297"/>
-      <c r="Y12" s="297"/>
-      <c r="Z12" s="297"/>
-      <c r="AA12" s="297"/>
-      <c r="AB12" s="297"/>
-      <c r="AC12" s="297"/>
-      <c r="AD12" s="297"/>
-      <c r="AE12" s="297"/>
-      <c r="AF12" s="297"/>
-      <c r="AG12" s="297"/>
-      <c r="AH12" s="297"/>
-      <c r="AI12" s="297"/>
-      <c r="AJ12" s="297"/>
-      <c r="AK12" s="297"/>
-      <c r="AL12" s="297"/>
-      <c r="AM12" s="298"/>
-      <c r="AN12" s="282"/>
-      <c r="AO12" s="283"/>
-      <c r="AP12" s="283"/>
-      <c r="AQ12" s="283"/>
-      <c r="AR12" s="284"/>
-      <c r="AS12" s="282"/>
-      <c r="AT12" s="283"/>
-      <c r="AU12" s="283"/>
-      <c r="AV12" s="283"/>
-      <c r="AW12" s="284"/>
+      <c r="B12" s="301"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="293"/>
+      <c r="H12" s="293"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="295"/>
+      <c r="L12" s="296"/>
+      <c r="M12" s="304"/>
+      <c r="N12" s="305"/>
+      <c r="O12" s="305"/>
+      <c r="P12" s="305"/>
+      <c r="Q12" s="305"/>
+      <c r="R12" s="306"/>
+      <c r="S12" s="291"/>
+      <c r="T12" s="291"/>
+      <c r="U12" s="291"/>
+      <c r="V12" s="307"/>
+      <c r="W12" s="308"/>
+      <c r="X12" s="308"/>
+      <c r="Y12" s="308"/>
+      <c r="Z12" s="308"/>
+      <c r="AA12" s="308"/>
+      <c r="AB12" s="308"/>
+      <c r="AC12" s="308"/>
+      <c r="AD12" s="308"/>
+      <c r="AE12" s="308"/>
+      <c r="AF12" s="308"/>
+      <c r="AG12" s="308"/>
+      <c r="AH12" s="308"/>
+      <c r="AI12" s="308"/>
+      <c r="AJ12" s="308"/>
+      <c r="AK12" s="308"/>
+      <c r="AL12" s="308"/>
+      <c r="AM12" s="309"/>
+      <c r="AN12" s="310"/>
+      <c r="AO12" s="311"/>
+      <c r="AP12" s="311"/>
+      <c r="AQ12" s="311"/>
+      <c r="AR12" s="312"/>
+      <c r="AS12" s="310"/>
+      <c r="AT12" s="311"/>
+      <c r="AU12" s="311"/>
+      <c r="AV12" s="311"/>
+      <c r="AW12" s="312"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
-      <c r="B13" s="285"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="289"/>
-      <c r="K13" s="290"/>
-      <c r="L13" s="291"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="300"/>
-      <c r="O13" s="300"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="295"/>
-      <c r="T13" s="295"/>
-      <c r="U13" s="295"/>
-      <c r="V13" s="296"/>
-      <c r="W13" s="297"/>
-      <c r="X13" s="297"/>
-      <c r="Y13" s="297"/>
-      <c r="Z13" s="297"/>
-      <c r="AA13" s="297"/>
-      <c r="AB13" s="297"/>
-      <c r="AC13" s="297"/>
-      <c r="AD13" s="297"/>
-      <c r="AE13" s="297"/>
-      <c r="AF13" s="297"/>
-      <c r="AG13" s="297"/>
-      <c r="AH13" s="297"/>
-      <c r="AI13" s="297"/>
-      <c r="AJ13" s="297"/>
-      <c r="AK13" s="297"/>
-      <c r="AL13" s="297"/>
-      <c r="AM13" s="298"/>
-      <c r="AN13" s="282"/>
-      <c r="AO13" s="283"/>
-      <c r="AP13" s="283"/>
-      <c r="AQ13" s="283"/>
-      <c r="AR13" s="284"/>
-      <c r="AS13" s="282"/>
-      <c r="AT13" s="283"/>
-      <c r="AU13" s="283"/>
-      <c r="AV13" s="283"/>
-      <c r="AW13" s="284"/>
+      <c r="B13" s="301"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="303"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="295"/>
+      <c r="L13" s="296"/>
+      <c r="M13" s="315"/>
+      <c r="N13" s="305"/>
+      <c r="O13" s="305"/>
+      <c r="P13" s="305"/>
+      <c r="Q13" s="305"/>
+      <c r="R13" s="306"/>
+      <c r="S13" s="291"/>
+      <c r="T13" s="291"/>
+      <c r="U13" s="291"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="308"/>
+      <c r="X13" s="308"/>
+      <c r="Y13" s="308"/>
+      <c r="Z13" s="308"/>
+      <c r="AA13" s="308"/>
+      <c r="AB13" s="308"/>
+      <c r="AC13" s="308"/>
+      <c r="AD13" s="308"/>
+      <c r="AE13" s="308"/>
+      <c r="AF13" s="308"/>
+      <c r="AG13" s="308"/>
+      <c r="AH13" s="308"/>
+      <c r="AI13" s="308"/>
+      <c r="AJ13" s="308"/>
+      <c r="AK13" s="308"/>
+      <c r="AL13" s="308"/>
+      <c r="AM13" s="309"/>
+      <c r="AN13" s="310"/>
+      <c r="AO13" s="311"/>
+      <c r="AP13" s="311"/>
+      <c r="AQ13" s="311"/>
+      <c r="AR13" s="312"/>
+      <c r="AS13" s="310"/>
+      <c r="AT13" s="311"/>
+      <c r="AU13" s="311"/>
+      <c r="AV13" s="311"/>
+      <c r="AW13" s="312"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
-      <c r="B14" s="285"/>
-      <c r="C14" s="286"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="288"/>
-      <c r="F14" s="288"/>
-      <c r="G14" s="288"/>
-      <c r="H14" s="288"/>
-      <c r="I14" s="288"/>
-      <c r="J14" s="289"/>
-      <c r="K14" s="290"/>
-      <c r="L14" s="291"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="300"/>
-      <c r="O14" s="300"/>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="300"/>
-      <c r="R14" s="301"/>
-      <c r="S14" s="295"/>
-      <c r="T14" s="295"/>
-      <c r="U14" s="295"/>
-      <c r="V14" s="305"/>
-      <c r="W14" s="306"/>
-      <c r="X14" s="306"/>
-      <c r="Y14" s="306"/>
-      <c r="Z14" s="306"/>
-      <c r="AA14" s="306"/>
-      <c r="AB14" s="306"/>
-      <c r="AC14" s="306"/>
-      <c r="AD14" s="306"/>
-      <c r="AE14" s="306"/>
-      <c r="AF14" s="306"/>
-      <c r="AG14" s="306"/>
-      <c r="AH14" s="306"/>
-      <c r="AI14" s="306"/>
-      <c r="AJ14" s="306"/>
-      <c r="AK14" s="306"/>
-      <c r="AL14" s="306"/>
-      <c r="AM14" s="306"/>
-      <c r="AN14" s="295"/>
-      <c r="AO14" s="295"/>
-      <c r="AP14" s="295"/>
-      <c r="AQ14" s="295"/>
-      <c r="AR14" s="295"/>
-      <c r="AS14" s="282"/>
-      <c r="AT14" s="283"/>
-      <c r="AU14" s="283"/>
-      <c r="AV14" s="283"/>
-      <c r="AW14" s="284"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="293"/>
+      <c r="H14" s="293"/>
+      <c r="I14" s="293"/>
+      <c r="J14" s="294"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="315"/>
+      <c r="N14" s="305"/>
+      <c r="O14" s="305"/>
+      <c r="P14" s="305"/>
+      <c r="Q14" s="305"/>
+      <c r="R14" s="306"/>
+      <c r="S14" s="291"/>
+      <c r="T14" s="291"/>
+      <c r="U14" s="291"/>
+      <c r="V14" s="316"/>
+      <c r="W14" s="300"/>
+      <c r="X14" s="300"/>
+      <c r="Y14" s="300"/>
+      <c r="Z14" s="300"/>
+      <c r="AA14" s="300"/>
+      <c r="AB14" s="300"/>
+      <c r="AC14" s="300"/>
+      <c r="AD14" s="300"/>
+      <c r="AE14" s="300"/>
+      <c r="AF14" s="300"/>
+      <c r="AG14" s="300"/>
+      <c r="AH14" s="300"/>
+      <c r="AI14" s="300"/>
+      <c r="AJ14" s="300"/>
+      <c r="AK14" s="300"/>
+      <c r="AL14" s="300"/>
+      <c r="AM14" s="300"/>
+      <c r="AN14" s="291"/>
+      <c r="AO14" s="291"/>
+      <c r="AP14" s="291"/>
+      <c r="AQ14" s="291"/>
+      <c r="AR14" s="291"/>
+      <c r="AS14" s="310"/>
+      <c r="AT14" s="311"/>
+      <c r="AU14" s="311"/>
+      <c r="AV14" s="311"/>
+      <c r="AW14" s="312"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
-      <c r="B15" s="285"/>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="288"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="288"/>
-      <c r="J15" s="289"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="291"/>
-      <c r="M15" s="302"/>
-      <c r="N15" s="300"/>
-      <c r="O15" s="300"/>
-      <c r="P15" s="300"/>
-      <c r="Q15" s="300"/>
-      <c r="R15" s="301"/>
-      <c r="S15" s="295"/>
-      <c r="T15" s="295"/>
-      <c r="U15" s="295"/>
-      <c r="V15" s="296"/>
-      <c r="W15" s="297"/>
-      <c r="X15" s="297"/>
-      <c r="Y15" s="297"/>
-      <c r="Z15" s="297"/>
-      <c r="AA15" s="297"/>
-      <c r="AB15" s="297"/>
-      <c r="AC15" s="297"/>
-      <c r="AD15" s="297"/>
-      <c r="AE15" s="297"/>
-      <c r="AF15" s="297"/>
-      <c r="AG15" s="297"/>
-      <c r="AH15" s="297"/>
-      <c r="AI15" s="297"/>
-      <c r="AJ15" s="297"/>
-      <c r="AK15" s="297"/>
-      <c r="AL15" s="297"/>
-      <c r="AM15" s="298"/>
-      <c r="AN15" s="282"/>
-      <c r="AO15" s="283"/>
-      <c r="AP15" s="283"/>
-      <c r="AQ15" s="283"/>
-      <c r="AR15" s="284"/>
-      <c r="AS15" s="282"/>
-      <c r="AT15" s="283"/>
-      <c r="AU15" s="283"/>
-      <c r="AV15" s="283"/>
-      <c r="AW15" s="284"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="295"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="304"/>
+      <c r="N15" s="305"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="305"/>
+      <c r="Q15" s="305"/>
+      <c r="R15" s="306"/>
+      <c r="S15" s="291"/>
+      <c r="T15" s="291"/>
+      <c r="U15" s="291"/>
+      <c r="V15" s="307"/>
+      <c r="W15" s="308"/>
+      <c r="X15" s="308"/>
+      <c r="Y15" s="308"/>
+      <c r="Z15" s="308"/>
+      <c r="AA15" s="308"/>
+      <c r="AB15" s="308"/>
+      <c r="AC15" s="308"/>
+      <c r="AD15" s="308"/>
+      <c r="AE15" s="308"/>
+      <c r="AF15" s="308"/>
+      <c r="AG15" s="308"/>
+      <c r="AH15" s="308"/>
+      <c r="AI15" s="308"/>
+      <c r="AJ15" s="308"/>
+      <c r="AK15" s="308"/>
+      <c r="AL15" s="308"/>
+      <c r="AM15" s="309"/>
+      <c r="AN15" s="310"/>
+      <c r="AO15" s="311"/>
+      <c r="AP15" s="311"/>
+      <c r="AQ15" s="311"/>
+      <c r="AR15" s="312"/>
+      <c r="AS15" s="310"/>
+      <c r="AT15" s="311"/>
+      <c r="AU15" s="311"/>
+      <c r="AV15" s="311"/>
+      <c r="AW15" s="312"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
-      <c r="B16" s="285"/>
-      <c r="C16" s="286"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="288"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="289"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="291"/>
-      <c r="M16" s="302"/>
-      <c r="N16" s="300"/>
-      <c r="O16" s="300"/>
-      <c r="P16" s="300"/>
-      <c r="Q16" s="300"/>
-      <c r="R16" s="301"/>
-      <c r="S16" s="295"/>
-      <c r="T16" s="295"/>
-      <c r="U16" s="295"/>
-      <c r="V16" s="296"/>
-      <c r="W16" s="297"/>
-      <c r="X16" s="297"/>
-      <c r="Y16" s="297"/>
-      <c r="Z16" s="297"/>
-      <c r="AA16" s="297"/>
-      <c r="AB16" s="297"/>
-      <c r="AC16" s="297"/>
-      <c r="AD16" s="297"/>
-      <c r="AE16" s="297"/>
-      <c r="AF16" s="297"/>
-      <c r="AG16" s="297"/>
-      <c r="AH16" s="297"/>
-      <c r="AI16" s="297"/>
-      <c r="AJ16" s="297"/>
-      <c r="AK16" s="297"/>
-      <c r="AL16" s="297"/>
-      <c r="AM16" s="298"/>
-      <c r="AN16" s="282"/>
-      <c r="AO16" s="283"/>
-      <c r="AP16" s="283"/>
-      <c r="AQ16" s="283"/>
-      <c r="AR16" s="284"/>
-      <c r="AS16" s="282"/>
-      <c r="AT16" s="283"/>
-      <c r="AU16" s="283"/>
-      <c r="AV16" s="283"/>
-      <c r="AW16" s="284"/>
+      <c r="B16" s="301"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="303"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="293"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="295"/>
+      <c r="L16" s="296"/>
+      <c r="M16" s="304"/>
+      <c r="N16" s="305"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="305"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="306"/>
+      <c r="S16" s="291"/>
+      <c r="T16" s="291"/>
+      <c r="U16" s="291"/>
+      <c r="V16" s="307"/>
+      <c r="W16" s="308"/>
+      <c r="X16" s="308"/>
+      <c r="Y16" s="308"/>
+      <c r="Z16" s="308"/>
+      <c r="AA16" s="308"/>
+      <c r="AB16" s="308"/>
+      <c r="AC16" s="308"/>
+      <c r="AD16" s="308"/>
+      <c r="AE16" s="308"/>
+      <c r="AF16" s="308"/>
+      <c r="AG16" s="308"/>
+      <c r="AH16" s="308"/>
+      <c r="AI16" s="308"/>
+      <c r="AJ16" s="308"/>
+      <c r="AK16" s="308"/>
+      <c r="AL16" s="308"/>
+      <c r="AM16" s="309"/>
+      <c r="AN16" s="310"/>
+      <c r="AO16" s="311"/>
+      <c r="AP16" s="311"/>
+      <c r="AQ16" s="311"/>
+      <c r="AR16" s="312"/>
+      <c r="AS16" s="310"/>
+      <c r="AT16" s="311"/>
+      <c r="AU16" s="311"/>
+      <c r="AV16" s="311"/>
+      <c r="AW16" s="312"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
-      <c r="B17" s="285"/>
-      <c r="C17" s="286"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="288"/>
-      <c r="F17" s="288"/>
-      <c r="G17" s="288"/>
-      <c r="H17" s="288"/>
-      <c r="I17" s="288"/>
-      <c r="J17" s="289"/>
-      <c r="K17" s="290"/>
-      <c r="L17" s="291"/>
-      <c r="M17" s="302"/>
-      <c r="N17" s="300"/>
-      <c r="O17" s="300"/>
-      <c r="P17" s="300"/>
-      <c r="Q17" s="300"/>
-      <c r="R17" s="303"/>
-      <c r="S17" s="304"/>
-      <c r="T17" s="304"/>
-      <c r="U17" s="304"/>
-      <c r="V17" s="296"/>
-      <c r="W17" s="297"/>
-      <c r="X17" s="297"/>
-      <c r="Y17" s="297"/>
-      <c r="Z17" s="297"/>
-      <c r="AA17" s="297"/>
-      <c r="AB17" s="297"/>
-      <c r="AC17" s="297"/>
-      <c r="AD17" s="297"/>
-      <c r="AE17" s="297"/>
-      <c r="AF17" s="297"/>
-      <c r="AG17" s="297"/>
-      <c r="AH17" s="297"/>
-      <c r="AI17" s="297"/>
-      <c r="AJ17" s="297"/>
-      <c r="AK17" s="297"/>
-      <c r="AL17" s="297"/>
-      <c r="AM17" s="298"/>
-      <c r="AN17" s="282"/>
-      <c r="AO17" s="283"/>
-      <c r="AP17" s="283"/>
-      <c r="AQ17" s="283"/>
-      <c r="AR17" s="284"/>
-      <c r="AS17" s="282"/>
-      <c r="AT17" s="283"/>
-      <c r="AU17" s="283"/>
-      <c r="AV17" s="283"/>
-      <c r="AW17" s="284"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="294"/>
+      <c r="K17" s="295"/>
+      <c r="L17" s="296"/>
+      <c r="M17" s="304"/>
+      <c r="N17" s="305"/>
+      <c r="O17" s="305"/>
+      <c r="P17" s="305"/>
+      <c r="Q17" s="305"/>
+      <c r="R17" s="317"/>
+      <c r="S17" s="318"/>
+      <c r="T17" s="318"/>
+      <c r="U17" s="318"/>
+      <c r="V17" s="307"/>
+      <c r="W17" s="308"/>
+      <c r="X17" s="308"/>
+      <c r="Y17" s="308"/>
+      <c r="Z17" s="308"/>
+      <c r="AA17" s="308"/>
+      <c r="AB17" s="308"/>
+      <c r="AC17" s="308"/>
+      <c r="AD17" s="308"/>
+      <c r="AE17" s="308"/>
+      <c r="AF17" s="308"/>
+      <c r="AG17" s="308"/>
+      <c r="AH17" s="308"/>
+      <c r="AI17" s="308"/>
+      <c r="AJ17" s="308"/>
+      <c r="AK17" s="308"/>
+      <c r="AL17" s="308"/>
+      <c r="AM17" s="309"/>
+      <c r="AN17" s="310"/>
+      <c r="AO17" s="311"/>
+      <c r="AP17" s="311"/>
+      <c r="AQ17" s="311"/>
+      <c r="AR17" s="312"/>
+      <c r="AS17" s="310"/>
+      <c r="AT17" s="311"/>
+      <c r="AU17" s="311"/>
+      <c r="AV17" s="311"/>
+      <c r="AW17" s="312"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="285"/>
-      <c r="C18" s="286"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="289"/>
-      <c r="K18" s="290"/>
-      <c r="L18" s="291"/>
-      <c r="M18" s="299"/>
-      <c r="N18" s="300"/>
-      <c r="O18" s="300"/>
-      <c r="P18" s="300"/>
-      <c r="Q18" s="300"/>
-      <c r="R18" s="301"/>
-      <c r="S18" s="295"/>
-      <c r="T18" s="295"/>
-      <c r="U18" s="295"/>
-      <c r="V18" s="296"/>
-      <c r="W18" s="297"/>
-      <c r="X18" s="297"/>
-      <c r="Y18" s="297"/>
-      <c r="Z18" s="297"/>
-      <c r="AA18" s="297"/>
-      <c r="AB18" s="297"/>
-      <c r="AC18" s="297"/>
-      <c r="AD18" s="297"/>
-      <c r="AE18" s="297"/>
-      <c r="AF18" s="297"/>
-      <c r="AG18" s="297"/>
-      <c r="AH18" s="297"/>
-      <c r="AI18" s="297"/>
-      <c r="AJ18" s="297"/>
-      <c r="AK18" s="297"/>
-      <c r="AL18" s="297"/>
-      <c r="AM18" s="298"/>
-      <c r="AN18" s="282"/>
-      <c r="AO18" s="283"/>
-      <c r="AP18" s="283"/>
-      <c r="AQ18" s="283"/>
-      <c r="AR18" s="284"/>
-      <c r="AS18" s="282"/>
-      <c r="AT18" s="283"/>
-      <c r="AU18" s="283"/>
-      <c r="AV18" s="283"/>
-      <c r="AW18" s="284"/>
+      <c r="B18" s="301"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="303"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="293"/>
+      <c r="I18" s="293"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="295"/>
+      <c r="L18" s="296"/>
+      <c r="M18" s="315"/>
+      <c r="N18" s="305"/>
+      <c r="O18" s="305"/>
+      <c r="P18" s="305"/>
+      <c r="Q18" s="305"/>
+      <c r="R18" s="306"/>
+      <c r="S18" s="291"/>
+      <c r="T18" s="291"/>
+      <c r="U18" s="291"/>
+      <c r="V18" s="307"/>
+      <c r="W18" s="308"/>
+      <c r="X18" s="308"/>
+      <c r="Y18" s="308"/>
+      <c r="Z18" s="308"/>
+      <c r="AA18" s="308"/>
+      <c r="AB18" s="308"/>
+      <c r="AC18" s="308"/>
+      <c r="AD18" s="308"/>
+      <c r="AE18" s="308"/>
+      <c r="AF18" s="308"/>
+      <c r="AG18" s="308"/>
+      <c r="AH18" s="308"/>
+      <c r="AI18" s="308"/>
+      <c r="AJ18" s="308"/>
+      <c r="AK18" s="308"/>
+      <c r="AL18" s="308"/>
+      <c r="AM18" s="309"/>
+      <c r="AN18" s="310"/>
+      <c r="AO18" s="311"/>
+      <c r="AP18" s="311"/>
+      <c r="AQ18" s="311"/>
+      <c r="AR18" s="312"/>
+      <c r="AS18" s="310"/>
+      <c r="AT18" s="311"/>
+      <c r="AU18" s="311"/>
+      <c r="AV18" s="311"/>
+      <c r="AW18" s="312"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
-      <c r="B19" s="285"/>
-      <c r="C19" s="286"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="288"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="289"/>
-      <c r="K19" s="290"/>
-      <c r="L19" s="291"/>
-      <c r="M19" s="302"/>
-      <c r="N19" s="300"/>
-      <c r="O19" s="300"/>
-      <c r="P19" s="300"/>
-      <c r="Q19" s="300"/>
-      <c r="R19" s="301"/>
-      <c r="S19" s="295"/>
-      <c r="T19" s="295"/>
-      <c r="U19" s="295"/>
-      <c r="V19" s="296"/>
-      <c r="W19" s="297"/>
-      <c r="X19" s="297"/>
-      <c r="Y19" s="297"/>
-      <c r="Z19" s="297"/>
-      <c r="AA19" s="297"/>
-      <c r="AB19" s="297"/>
-      <c r="AC19" s="297"/>
-      <c r="AD19" s="297"/>
-      <c r="AE19" s="297"/>
-      <c r="AF19" s="297"/>
-      <c r="AG19" s="297"/>
-      <c r="AH19" s="297"/>
-      <c r="AI19" s="297"/>
-      <c r="AJ19" s="297"/>
-      <c r="AK19" s="297"/>
-      <c r="AL19" s="297"/>
-      <c r="AM19" s="298"/>
-      <c r="AN19" s="295"/>
-      <c r="AO19" s="295"/>
-      <c r="AP19" s="295"/>
-      <c r="AQ19" s="295"/>
-      <c r="AR19" s="295"/>
-      <c r="AS19" s="282"/>
-      <c r="AT19" s="283"/>
-      <c r="AU19" s="283"/>
-      <c r="AV19" s="283"/>
-      <c r="AW19" s="284"/>
+      <c r="B19" s="301"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="293"/>
+      <c r="F19" s="293"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="294"/>
+      <c r="K19" s="295"/>
+      <c r="L19" s="296"/>
+      <c r="M19" s="304"/>
+      <c r="N19" s="305"/>
+      <c r="O19" s="305"/>
+      <c r="P19" s="305"/>
+      <c r="Q19" s="305"/>
+      <c r="R19" s="306"/>
+      <c r="S19" s="291"/>
+      <c r="T19" s="291"/>
+      <c r="U19" s="291"/>
+      <c r="V19" s="307"/>
+      <c r="W19" s="308"/>
+      <c r="X19" s="308"/>
+      <c r="Y19" s="308"/>
+      <c r="Z19" s="308"/>
+      <c r="AA19" s="308"/>
+      <c r="AB19" s="308"/>
+      <c r="AC19" s="308"/>
+      <c r="AD19" s="308"/>
+      <c r="AE19" s="308"/>
+      <c r="AF19" s="308"/>
+      <c r="AG19" s="308"/>
+      <c r="AH19" s="308"/>
+      <c r="AI19" s="308"/>
+      <c r="AJ19" s="308"/>
+      <c r="AK19" s="308"/>
+      <c r="AL19" s="308"/>
+      <c r="AM19" s="309"/>
+      <c r="AN19" s="291"/>
+      <c r="AO19" s="291"/>
+      <c r="AP19" s="291"/>
+      <c r="AQ19" s="291"/>
+      <c r="AR19" s="291"/>
+      <c r="AS19" s="310"/>
+      <c r="AT19" s="311"/>
+      <c r="AU19" s="311"/>
+      <c r="AV19" s="311"/>
+      <c r="AW19" s="312"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="285"/>
-      <c r="C20" s="286"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="288"/>
-      <c r="H20" s="288"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="289"/>
-      <c r="K20" s="290"/>
-      <c r="L20" s="291"/>
-      <c r="M20" s="302"/>
-      <c r="N20" s="300"/>
-      <c r="O20" s="300"/>
-      <c r="P20" s="300"/>
-      <c r="Q20" s="300"/>
-      <c r="R20" s="301"/>
-      <c r="S20" s="282"/>
-      <c r="T20" s="283"/>
-      <c r="U20" s="284"/>
-      <c r="V20" s="296"/>
-      <c r="W20" s="297"/>
-      <c r="X20" s="297"/>
-      <c r="Y20" s="297"/>
-      <c r="Z20" s="297"/>
-      <c r="AA20" s="297"/>
-      <c r="AB20" s="297"/>
-      <c r="AC20" s="297"/>
-      <c r="AD20" s="297"/>
-      <c r="AE20" s="297"/>
-      <c r="AF20" s="297"/>
-      <c r="AG20" s="297"/>
-      <c r="AH20" s="297"/>
-      <c r="AI20" s="297"/>
-      <c r="AJ20" s="297"/>
-      <c r="AK20" s="297"/>
-      <c r="AL20" s="297"/>
-      <c r="AM20" s="298"/>
-      <c r="AN20" s="282"/>
-      <c r="AO20" s="283"/>
-      <c r="AP20" s="283"/>
-      <c r="AQ20" s="283"/>
-      <c r="AR20" s="284"/>
-      <c r="AS20" s="282"/>
-      <c r="AT20" s="283"/>
-      <c r="AU20" s="283"/>
-      <c r="AV20" s="283"/>
-      <c r="AW20" s="284"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="303"/>
+      <c r="E20" s="293"/>
+      <c r="F20" s="293"/>
+      <c r="G20" s="293"/>
+      <c r="H20" s="293"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="295"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="304"/>
+      <c r="N20" s="305"/>
+      <c r="O20" s="305"/>
+      <c r="P20" s="305"/>
+      <c r="Q20" s="305"/>
+      <c r="R20" s="306"/>
+      <c r="S20" s="310"/>
+      <c r="T20" s="311"/>
+      <c r="U20" s="312"/>
+      <c r="V20" s="307"/>
+      <c r="W20" s="308"/>
+      <c r="X20" s="308"/>
+      <c r="Y20" s="308"/>
+      <c r="Z20" s="308"/>
+      <c r="AA20" s="308"/>
+      <c r="AB20" s="308"/>
+      <c r="AC20" s="308"/>
+      <c r="AD20" s="308"/>
+      <c r="AE20" s="308"/>
+      <c r="AF20" s="308"/>
+      <c r="AG20" s="308"/>
+      <c r="AH20" s="308"/>
+      <c r="AI20" s="308"/>
+      <c r="AJ20" s="308"/>
+      <c r="AK20" s="308"/>
+      <c r="AL20" s="308"/>
+      <c r="AM20" s="309"/>
+      <c r="AN20" s="310"/>
+      <c r="AO20" s="311"/>
+      <c r="AP20" s="311"/>
+      <c r="AQ20" s="311"/>
+      <c r="AR20" s="312"/>
+      <c r="AS20" s="310"/>
+      <c r="AT20" s="311"/>
+      <c r="AU20" s="311"/>
+      <c r="AV20" s="311"/>
+      <c r="AW20" s="312"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
-      <c r="B21" s="285"/>
-      <c r="C21" s="286"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="289"/>
-      <c r="K21" s="290"/>
-      <c r="L21" s="291"/>
-      <c r="M21" s="302"/>
-      <c r="N21" s="300"/>
-      <c r="O21" s="300"/>
-      <c r="P21" s="300"/>
-      <c r="Q21" s="300"/>
-      <c r="R21" s="301"/>
-      <c r="S21" s="295"/>
-      <c r="T21" s="295"/>
-      <c r="U21" s="295"/>
-      <c r="V21" s="296"/>
-      <c r="W21" s="297"/>
-      <c r="X21" s="297"/>
-      <c r="Y21" s="297"/>
-      <c r="Z21" s="297"/>
-      <c r="AA21" s="297"/>
-      <c r="AB21" s="297"/>
-      <c r="AC21" s="297"/>
-      <c r="AD21" s="297"/>
-      <c r="AE21" s="297"/>
-      <c r="AF21" s="297"/>
-      <c r="AG21" s="297"/>
-      <c r="AH21" s="297"/>
-      <c r="AI21" s="297"/>
-      <c r="AJ21" s="297"/>
-      <c r="AK21" s="297"/>
-      <c r="AL21" s="297"/>
-      <c r="AM21" s="298"/>
-      <c r="AN21" s="282"/>
-      <c r="AO21" s="283"/>
-      <c r="AP21" s="283"/>
-      <c r="AQ21" s="283"/>
-      <c r="AR21" s="284"/>
-      <c r="AS21" s="282"/>
-      <c r="AT21" s="283"/>
-      <c r="AU21" s="283"/>
-      <c r="AV21" s="283"/>
-      <c r="AW21" s="284"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="295"/>
+      <c r="L21" s="296"/>
+      <c r="M21" s="304"/>
+      <c r="N21" s="305"/>
+      <c r="O21" s="305"/>
+      <c r="P21" s="305"/>
+      <c r="Q21" s="305"/>
+      <c r="R21" s="306"/>
+      <c r="S21" s="291"/>
+      <c r="T21" s="291"/>
+      <c r="U21" s="291"/>
+      <c r="V21" s="307"/>
+      <c r="W21" s="308"/>
+      <c r="X21" s="308"/>
+      <c r="Y21" s="308"/>
+      <c r="Z21" s="308"/>
+      <c r="AA21" s="308"/>
+      <c r="AB21" s="308"/>
+      <c r="AC21" s="308"/>
+      <c r="AD21" s="308"/>
+      <c r="AE21" s="308"/>
+      <c r="AF21" s="308"/>
+      <c r="AG21" s="308"/>
+      <c r="AH21" s="308"/>
+      <c r="AI21" s="308"/>
+      <c r="AJ21" s="308"/>
+      <c r="AK21" s="308"/>
+      <c r="AL21" s="308"/>
+      <c r="AM21" s="309"/>
+      <c r="AN21" s="310"/>
+      <c r="AO21" s="311"/>
+      <c r="AP21" s="311"/>
+      <c r="AQ21" s="311"/>
+      <c r="AR21" s="312"/>
+      <c r="AS21" s="310"/>
+      <c r="AT21" s="311"/>
+      <c r="AU21" s="311"/>
+      <c r="AV21" s="311"/>
+      <c r="AW21" s="312"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="285"/>
-      <c r="C22" s="286"/>
-      <c r="D22" s="287"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="288"/>
-      <c r="H22" s="288"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="289"/>
-      <c r="K22" s="290"/>
-      <c r="L22" s="291"/>
-      <c r="M22" s="302"/>
-      <c r="N22" s="300"/>
-      <c r="O22" s="300"/>
-      <c r="P22" s="300"/>
-      <c r="Q22" s="300"/>
-      <c r="R22" s="301"/>
-      <c r="S22" s="295"/>
-      <c r="T22" s="295"/>
-      <c r="U22" s="295"/>
-      <c r="V22" s="296"/>
-      <c r="W22" s="297"/>
-      <c r="X22" s="297"/>
-      <c r="Y22" s="297"/>
-      <c r="Z22" s="297"/>
-      <c r="AA22" s="297"/>
-      <c r="AB22" s="297"/>
-      <c r="AC22" s="297"/>
-      <c r="AD22" s="297"/>
-      <c r="AE22" s="297"/>
-      <c r="AF22" s="297"/>
-      <c r="AG22" s="297"/>
-      <c r="AH22" s="297"/>
-      <c r="AI22" s="297"/>
-      <c r="AJ22" s="297"/>
-      <c r="AK22" s="297"/>
-      <c r="AL22" s="297"/>
-      <c r="AM22" s="298"/>
-      <c r="AN22" s="282"/>
-      <c r="AO22" s="283"/>
-      <c r="AP22" s="283"/>
-      <c r="AQ22" s="283"/>
-      <c r="AR22" s="284"/>
-      <c r="AS22" s="282"/>
-      <c r="AT22" s="283"/>
-      <c r="AU22" s="283"/>
-      <c r="AV22" s="283"/>
-      <c r="AW22" s="284"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="293"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="295"/>
+      <c r="L22" s="296"/>
+      <c r="M22" s="304"/>
+      <c r="N22" s="305"/>
+      <c r="O22" s="305"/>
+      <c r="P22" s="305"/>
+      <c r="Q22" s="305"/>
+      <c r="R22" s="306"/>
+      <c r="S22" s="291"/>
+      <c r="T22" s="291"/>
+      <c r="U22" s="291"/>
+      <c r="V22" s="307"/>
+      <c r="W22" s="308"/>
+      <c r="X22" s="308"/>
+      <c r="Y22" s="308"/>
+      <c r="Z22" s="308"/>
+      <c r="AA22" s="308"/>
+      <c r="AB22" s="308"/>
+      <c r="AC22" s="308"/>
+      <c r="AD22" s="308"/>
+      <c r="AE22" s="308"/>
+      <c r="AF22" s="308"/>
+      <c r="AG22" s="308"/>
+      <c r="AH22" s="308"/>
+      <c r="AI22" s="308"/>
+      <c r="AJ22" s="308"/>
+      <c r="AK22" s="308"/>
+      <c r="AL22" s="308"/>
+      <c r="AM22" s="309"/>
+      <c r="AN22" s="310"/>
+      <c r="AO22" s="311"/>
+      <c r="AP22" s="311"/>
+      <c r="AQ22" s="311"/>
+      <c r="AR22" s="312"/>
+      <c r="AS22" s="310"/>
+      <c r="AT22" s="311"/>
+      <c r="AU22" s="311"/>
+      <c r="AV22" s="311"/>
+      <c r="AW22" s="312"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="285"/>
-      <c r="C23" s="286"/>
-      <c r="D23" s="287"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="288"/>
-      <c r="G23" s="288"/>
-      <c r="H23" s="288"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="289"/>
-      <c r="K23" s="290"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="302"/>
-      <c r="N23" s="300"/>
-      <c r="O23" s="300"/>
-      <c r="P23" s="300"/>
-      <c r="Q23" s="300"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="295"/>
-      <c r="T23" s="295"/>
-      <c r="U23" s="295"/>
-      <c r="V23" s="296"/>
-      <c r="W23" s="297"/>
-      <c r="X23" s="297"/>
-      <c r="Y23" s="297"/>
-      <c r="Z23" s="297"/>
-      <c r="AA23" s="297"/>
-      <c r="AB23" s="297"/>
-      <c r="AC23" s="297"/>
-      <c r="AD23" s="297"/>
-      <c r="AE23" s="297"/>
-      <c r="AF23" s="297"/>
-      <c r="AG23" s="297"/>
-      <c r="AH23" s="297"/>
-      <c r="AI23" s="297"/>
-      <c r="AJ23" s="297"/>
-      <c r="AK23" s="297"/>
-      <c r="AL23" s="297"/>
-      <c r="AM23" s="298"/>
-      <c r="AN23" s="282"/>
-      <c r="AO23" s="283"/>
-      <c r="AP23" s="283"/>
-      <c r="AQ23" s="283"/>
-      <c r="AR23" s="284"/>
-      <c r="AS23" s="282"/>
-      <c r="AT23" s="283"/>
-      <c r="AU23" s="283"/>
-      <c r="AV23" s="283"/>
-      <c r="AW23" s="284"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="302"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="293"/>
+      <c r="F23" s="293"/>
+      <c r="G23" s="293"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="295"/>
+      <c r="L23" s="296"/>
+      <c r="M23" s="304"/>
+      <c r="N23" s="305"/>
+      <c r="O23" s="305"/>
+      <c r="P23" s="305"/>
+      <c r="Q23" s="305"/>
+      <c r="R23" s="306"/>
+      <c r="S23" s="291"/>
+      <c r="T23" s="291"/>
+      <c r="U23" s="291"/>
+      <c r="V23" s="307"/>
+      <c r="W23" s="308"/>
+      <c r="X23" s="308"/>
+      <c r="Y23" s="308"/>
+      <c r="Z23" s="308"/>
+      <c r="AA23" s="308"/>
+      <c r="AB23" s="308"/>
+      <c r="AC23" s="308"/>
+      <c r="AD23" s="308"/>
+      <c r="AE23" s="308"/>
+      <c r="AF23" s="308"/>
+      <c r="AG23" s="308"/>
+      <c r="AH23" s="308"/>
+      <c r="AI23" s="308"/>
+      <c r="AJ23" s="308"/>
+      <c r="AK23" s="308"/>
+      <c r="AL23" s="308"/>
+      <c r="AM23" s="309"/>
+      <c r="AN23" s="310"/>
+      <c r="AO23" s="311"/>
+      <c r="AP23" s="311"/>
+      <c r="AQ23" s="311"/>
+      <c r="AR23" s="312"/>
+      <c r="AS23" s="310"/>
+      <c r="AT23" s="311"/>
+      <c r="AU23" s="311"/>
+      <c r="AV23" s="311"/>
+      <c r="AW23" s="312"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="285"/>
-      <c r="C24" s="286"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="288"/>
-      <c r="H24" s="288"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="289"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="302"/>
-      <c r="N24" s="300"/>
-      <c r="O24" s="300"/>
-      <c r="P24" s="300"/>
-      <c r="Q24" s="300"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="295"/>
-      <c r="T24" s="295"/>
-      <c r="U24" s="295"/>
-      <c r="V24" s="296"/>
-      <c r="W24" s="297"/>
-      <c r="X24" s="297"/>
-      <c r="Y24" s="297"/>
-      <c r="Z24" s="297"/>
-      <c r="AA24" s="297"/>
-      <c r="AB24" s="297"/>
-      <c r="AC24" s="297"/>
-      <c r="AD24" s="297"/>
-      <c r="AE24" s="297"/>
-      <c r="AF24" s="297"/>
-      <c r="AG24" s="297"/>
-      <c r="AH24" s="297"/>
-      <c r="AI24" s="297"/>
-      <c r="AJ24" s="297"/>
-      <c r="AK24" s="297"/>
-      <c r="AL24" s="297"/>
-      <c r="AM24" s="298"/>
-      <c r="AN24" s="282"/>
-      <c r="AO24" s="283"/>
-      <c r="AP24" s="283"/>
-      <c r="AQ24" s="283"/>
-      <c r="AR24" s="284"/>
-      <c r="AS24" s="282"/>
-      <c r="AT24" s="283"/>
-      <c r="AU24" s="283"/>
-      <c r="AV24" s="283"/>
-      <c r="AW24" s="284"/>
+      <c r="B24" s="301"/>
+      <c r="C24" s="302"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="293"/>
+      <c r="F24" s="293"/>
+      <c r="G24" s="293"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="293"/>
+      <c r="J24" s="294"/>
+      <c r="K24" s="295"/>
+      <c r="L24" s="296"/>
+      <c r="M24" s="304"/>
+      <c r="N24" s="305"/>
+      <c r="O24" s="305"/>
+      <c r="P24" s="305"/>
+      <c r="Q24" s="305"/>
+      <c r="R24" s="306"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="291"/>
+      <c r="U24" s="291"/>
+      <c r="V24" s="307"/>
+      <c r="W24" s="308"/>
+      <c r="X24" s="308"/>
+      <c r="Y24" s="308"/>
+      <c r="Z24" s="308"/>
+      <c r="AA24" s="308"/>
+      <c r="AB24" s="308"/>
+      <c r="AC24" s="308"/>
+      <c r="AD24" s="308"/>
+      <c r="AE24" s="308"/>
+      <c r="AF24" s="308"/>
+      <c r="AG24" s="308"/>
+      <c r="AH24" s="308"/>
+      <c r="AI24" s="308"/>
+      <c r="AJ24" s="308"/>
+      <c r="AK24" s="308"/>
+      <c r="AL24" s="308"/>
+      <c r="AM24" s="309"/>
+      <c r="AN24" s="310"/>
+      <c r="AO24" s="311"/>
+      <c r="AP24" s="311"/>
+      <c r="AQ24" s="311"/>
+      <c r="AR24" s="312"/>
+      <c r="AS24" s="310"/>
+      <c r="AT24" s="311"/>
+      <c r="AU24" s="311"/>
+      <c r="AV24" s="311"/>
+      <c r="AW24" s="312"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="285"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="288"/>
-      <c r="G25" s="288"/>
-      <c r="H25" s="288"/>
-      <c r="I25" s="288"/>
-      <c r="J25" s="289"/>
-      <c r="K25" s="290"/>
-      <c r="L25" s="291"/>
-      <c r="M25" s="299"/>
-      <c r="N25" s="300"/>
-      <c r="O25" s="300"/>
-      <c r="P25" s="300"/>
-      <c r="Q25" s="300"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="295"/>
-      <c r="T25" s="295"/>
-      <c r="U25" s="295"/>
-      <c r="V25" s="296"/>
-      <c r="W25" s="297"/>
-      <c r="X25" s="297"/>
-      <c r="Y25" s="297"/>
-      <c r="Z25" s="297"/>
-      <c r="AA25" s="297"/>
-      <c r="AB25" s="297"/>
-      <c r="AC25" s="297"/>
-      <c r="AD25" s="297"/>
-      <c r="AE25" s="297"/>
-      <c r="AF25" s="297"/>
-      <c r="AG25" s="297"/>
-      <c r="AH25" s="297"/>
-      <c r="AI25" s="297"/>
-      <c r="AJ25" s="297"/>
-      <c r="AK25" s="297"/>
-      <c r="AL25" s="297"/>
-      <c r="AM25" s="298"/>
-      <c r="AN25" s="282"/>
-      <c r="AO25" s="283"/>
-      <c r="AP25" s="283"/>
-      <c r="AQ25" s="283"/>
-      <c r="AR25" s="284"/>
-      <c r="AS25" s="282"/>
-      <c r="AT25" s="283"/>
-      <c r="AU25" s="283"/>
-      <c r="AV25" s="283"/>
-      <c r="AW25" s="284"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="302"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="295"/>
+      <c r="L25" s="296"/>
+      <c r="M25" s="315"/>
+      <c r="N25" s="305"/>
+      <c r="O25" s="305"/>
+      <c r="P25" s="305"/>
+      <c r="Q25" s="305"/>
+      <c r="R25" s="306"/>
+      <c r="S25" s="291"/>
+      <c r="T25" s="291"/>
+      <c r="U25" s="291"/>
+      <c r="V25" s="307"/>
+      <c r="W25" s="308"/>
+      <c r="X25" s="308"/>
+      <c r="Y25" s="308"/>
+      <c r="Z25" s="308"/>
+      <c r="AA25" s="308"/>
+      <c r="AB25" s="308"/>
+      <c r="AC25" s="308"/>
+      <c r="AD25" s="308"/>
+      <c r="AE25" s="308"/>
+      <c r="AF25" s="308"/>
+      <c r="AG25" s="308"/>
+      <c r="AH25" s="308"/>
+      <c r="AI25" s="308"/>
+      <c r="AJ25" s="308"/>
+      <c r="AK25" s="308"/>
+      <c r="AL25" s="308"/>
+      <c r="AM25" s="309"/>
+      <c r="AN25" s="310"/>
+      <c r="AO25" s="311"/>
+      <c r="AP25" s="311"/>
+      <c r="AQ25" s="311"/>
+      <c r="AR25" s="312"/>
+      <c r="AS25" s="310"/>
+      <c r="AT25" s="311"/>
+      <c r="AU25" s="311"/>
+      <c r="AV25" s="311"/>
+      <c r="AW25" s="312"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="285"/>
-      <c r="C26" s="286"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="288"/>
-      <c r="H26" s="288"/>
-      <c r="I26" s="288"/>
-      <c r="J26" s="289"/>
-      <c r="K26" s="290"/>
-      <c r="L26" s="291"/>
-      <c r="M26" s="299"/>
-      <c r="N26" s="300"/>
-      <c r="O26" s="300"/>
-      <c r="P26" s="300"/>
-      <c r="Q26" s="300"/>
-      <c r="R26" s="301"/>
-      <c r="S26" s="295"/>
-      <c r="T26" s="295"/>
-      <c r="U26" s="295"/>
-      <c r="V26" s="296"/>
-      <c r="W26" s="297"/>
-      <c r="X26" s="297"/>
-      <c r="Y26" s="297"/>
-      <c r="Z26" s="297"/>
-      <c r="AA26" s="297"/>
-      <c r="AB26" s="297"/>
-      <c r="AC26" s="297"/>
-      <c r="AD26" s="297"/>
-      <c r="AE26" s="297"/>
-      <c r="AF26" s="297"/>
-      <c r="AG26" s="297"/>
-      <c r="AH26" s="297"/>
-      <c r="AI26" s="297"/>
-      <c r="AJ26" s="297"/>
-      <c r="AK26" s="297"/>
-      <c r="AL26" s="297"/>
-      <c r="AM26" s="298"/>
-      <c r="AN26" s="282"/>
-      <c r="AO26" s="283"/>
-      <c r="AP26" s="283"/>
-      <c r="AQ26" s="283"/>
-      <c r="AR26" s="284"/>
-      <c r="AS26" s="282"/>
-      <c r="AT26" s="283"/>
-      <c r="AU26" s="283"/>
-      <c r="AV26" s="283"/>
-      <c r="AW26" s="284"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="302"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="293"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="293"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="294"/>
+      <c r="K26" s="295"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="315"/>
+      <c r="N26" s="305"/>
+      <c r="O26" s="305"/>
+      <c r="P26" s="305"/>
+      <c r="Q26" s="305"/>
+      <c r="R26" s="306"/>
+      <c r="S26" s="291"/>
+      <c r="T26" s="291"/>
+      <c r="U26" s="291"/>
+      <c r="V26" s="307"/>
+      <c r="W26" s="308"/>
+      <c r="X26" s="308"/>
+      <c r="Y26" s="308"/>
+      <c r="Z26" s="308"/>
+      <c r="AA26" s="308"/>
+      <c r="AB26" s="308"/>
+      <c r="AC26" s="308"/>
+      <c r="AD26" s="308"/>
+      <c r="AE26" s="308"/>
+      <c r="AF26" s="308"/>
+      <c r="AG26" s="308"/>
+      <c r="AH26" s="308"/>
+      <c r="AI26" s="308"/>
+      <c r="AJ26" s="308"/>
+      <c r="AK26" s="308"/>
+      <c r="AL26" s="308"/>
+      <c r="AM26" s="309"/>
+      <c r="AN26" s="310"/>
+      <c r="AO26" s="311"/>
+      <c r="AP26" s="311"/>
+      <c r="AQ26" s="311"/>
+      <c r="AR26" s="312"/>
+      <c r="AS26" s="310"/>
+      <c r="AT26" s="311"/>
+      <c r="AU26" s="311"/>
+      <c r="AV26" s="311"/>
+      <c r="AW26" s="312"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="285"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="288"/>
-      <c r="I27" s="288"/>
-      <c r="J27" s="289"/>
-      <c r="K27" s="290"/>
-      <c r="L27" s="291"/>
-      <c r="M27" s="299"/>
-      <c r="N27" s="300"/>
-      <c r="O27" s="300"/>
-      <c r="P27" s="300"/>
-      <c r="Q27" s="300"/>
-      <c r="R27" s="301"/>
-      <c r="S27" s="295"/>
-      <c r="T27" s="295"/>
-      <c r="U27" s="295"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="297"/>
-      <c r="X27" s="297"/>
-      <c r="Y27" s="297"/>
-      <c r="Z27" s="297"/>
-      <c r="AA27" s="297"/>
-      <c r="AB27" s="297"/>
-      <c r="AC27" s="297"/>
-      <c r="AD27" s="297"/>
-      <c r="AE27" s="297"/>
-      <c r="AF27" s="297"/>
-      <c r="AG27" s="297"/>
-      <c r="AH27" s="297"/>
-      <c r="AI27" s="297"/>
-      <c r="AJ27" s="297"/>
-      <c r="AK27" s="297"/>
-      <c r="AL27" s="297"/>
-      <c r="AM27" s="298"/>
-      <c r="AN27" s="282"/>
-      <c r="AO27" s="283"/>
-      <c r="AP27" s="283"/>
-      <c r="AQ27" s="283"/>
-      <c r="AR27" s="284"/>
-      <c r="AS27" s="282"/>
-      <c r="AT27" s="283"/>
-      <c r="AU27" s="283"/>
-      <c r="AV27" s="283"/>
-      <c r="AW27" s="284"/>
+      <c r="B27" s="301"/>
+      <c r="C27" s="302"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="293"/>
+      <c r="F27" s="293"/>
+      <c r="G27" s="293"/>
+      <c r="H27" s="293"/>
+      <c r="I27" s="293"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="295"/>
+      <c r="L27" s="296"/>
+      <c r="M27" s="315"/>
+      <c r="N27" s="305"/>
+      <c r="O27" s="305"/>
+      <c r="P27" s="305"/>
+      <c r="Q27" s="305"/>
+      <c r="R27" s="306"/>
+      <c r="S27" s="291"/>
+      <c r="T27" s="291"/>
+      <c r="U27" s="291"/>
+      <c r="V27" s="307"/>
+      <c r="W27" s="308"/>
+      <c r="X27" s="308"/>
+      <c r="Y27" s="308"/>
+      <c r="Z27" s="308"/>
+      <c r="AA27" s="308"/>
+      <c r="AB27" s="308"/>
+      <c r="AC27" s="308"/>
+      <c r="AD27" s="308"/>
+      <c r="AE27" s="308"/>
+      <c r="AF27" s="308"/>
+      <c r="AG27" s="308"/>
+      <c r="AH27" s="308"/>
+      <c r="AI27" s="308"/>
+      <c r="AJ27" s="308"/>
+      <c r="AK27" s="308"/>
+      <c r="AL27" s="308"/>
+      <c r="AM27" s="309"/>
+      <c r="AN27" s="310"/>
+      <c r="AO27" s="311"/>
+      <c r="AP27" s="311"/>
+      <c r="AQ27" s="311"/>
+      <c r="AR27" s="312"/>
+      <c r="AS27" s="310"/>
+      <c r="AT27" s="311"/>
+      <c r="AU27" s="311"/>
+      <c r="AV27" s="311"/>
+      <c r="AW27" s="312"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="285"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="287"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="288"/>
-      <c r="H28" s="288"/>
-      <c r="I28" s="288"/>
-      <c r="J28" s="289"/>
-      <c r="K28" s="290"/>
-      <c r="L28" s="291"/>
-      <c r="M28" s="302"/>
-      <c r="N28" s="300"/>
-      <c r="O28" s="300"/>
-      <c r="P28" s="300"/>
-      <c r="Q28" s="300"/>
-      <c r="R28" s="301"/>
-      <c r="S28" s="295"/>
-      <c r="T28" s="295"/>
-      <c r="U28" s="295"/>
-      <c r="V28" s="296"/>
-      <c r="W28" s="297"/>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="297"/>
-      <c r="Z28" s="297"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="297"/>
-      <c r="AC28" s="297"/>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="297"/>
-      <c r="AG28" s="297"/>
-      <c r="AH28" s="297"/>
-      <c r="AI28" s="297"/>
-      <c r="AJ28" s="297"/>
-      <c r="AK28" s="297"/>
-      <c r="AL28" s="297"/>
-      <c r="AM28" s="298"/>
-      <c r="AN28" s="282"/>
-      <c r="AO28" s="283"/>
-      <c r="AP28" s="283"/>
-      <c r="AQ28" s="283"/>
-      <c r="AR28" s="284"/>
-      <c r="AS28" s="282"/>
-      <c r="AT28" s="283"/>
-      <c r="AU28" s="283"/>
-      <c r="AV28" s="283"/>
-      <c r="AW28" s="284"/>
+      <c r="B28" s="301"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="294"/>
+      <c r="K28" s="295"/>
+      <c r="L28" s="296"/>
+      <c r="M28" s="304"/>
+      <c r="N28" s="305"/>
+      <c r="O28" s="305"/>
+      <c r="P28" s="305"/>
+      <c r="Q28" s="305"/>
+      <c r="R28" s="306"/>
+      <c r="S28" s="291"/>
+      <c r="T28" s="291"/>
+      <c r="U28" s="291"/>
+      <c r="V28" s="307"/>
+      <c r="W28" s="308"/>
+      <c r="X28" s="308"/>
+      <c r="Y28" s="308"/>
+      <c r="Z28" s="308"/>
+      <c r="AA28" s="308"/>
+      <c r="AB28" s="308"/>
+      <c r="AC28" s="308"/>
+      <c r="AD28" s="308"/>
+      <c r="AE28" s="308"/>
+      <c r="AF28" s="308"/>
+      <c r="AG28" s="308"/>
+      <c r="AH28" s="308"/>
+      <c r="AI28" s="308"/>
+      <c r="AJ28" s="308"/>
+      <c r="AK28" s="308"/>
+      <c r="AL28" s="308"/>
+      <c r="AM28" s="309"/>
+      <c r="AN28" s="310"/>
+      <c r="AO28" s="311"/>
+      <c r="AP28" s="311"/>
+      <c r="AQ28" s="311"/>
+      <c r="AR28" s="312"/>
+      <c r="AS28" s="310"/>
+      <c r="AT28" s="311"/>
+      <c r="AU28" s="311"/>
+      <c r="AV28" s="311"/>
+      <c r="AW28" s="312"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="285"/>
-      <c r="C29" s="286"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="288"/>
-      <c r="F29" s="288"/>
-      <c r="G29" s="288"/>
-      <c r="H29" s="288"/>
-      <c r="I29" s="288"/>
-      <c r="J29" s="289"/>
-      <c r="K29" s="290"/>
-      <c r="L29" s="291"/>
-      <c r="M29" s="302"/>
-      <c r="N29" s="300"/>
-      <c r="O29" s="300"/>
-      <c r="P29" s="300"/>
-      <c r="Q29" s="300"/>
-      <c r="R29" s="301"/>
-      <c r="S29" s="295"/>
-      <c r="T29" s="295"/>
-      <c r="U29" s="295"/>
-      <c r="V29" s="296"/>
-      <c r="W29" s="297"/>
-      <c r="X29" s="297"/>
-      <c r="Y29" s="297"/>
-      <c r="Z29" s="297"/>
-      <c r="AA29" s="297"/>
-      <c r="AB29" s="297"/>
-      <c r="AC29" s="297"/>
-      <c r="AD29" s="297"/>
-      <c r="AE29" s="297"/>
-      <c r="AF29" s="297"/>
-      <c r="AG29" s="297"/>
-      <c r="AH29" s="297"/>
-      <c r="AI29" s="297"/>
-      <c r="AJ29" s="297"/>
-      <c r="AK29" s="297"/>
-      <c r="AL29" s="297"/>
-      <c r="AM29" s="298"/>
-      <c r="AN29" s="282"/>
-      <c r="AO29" s="283"/>
-      <c r="AP29" s="283"/>
-      <c r="AQ29" s="283"/>
-      <c r="AR29" s="284"/>
-      <c r="AS29" s="282"/>
-      <c r="AT29" s="283"/>
-      <c r="AU29" s="283"/>
-      <c r="AV29" s="283"/>
-      <c r="AW29" s="284"/>
+      <c r="B29" s="301"/>
+      <c r="C29" s="302"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="293"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="294"/>
+      <c r="K29" s="295"/>
+      <c r="L29" s="296"/>
+      <c r="M29" s="304"/>
+      <c r="N29" s="305"/>
+      <c r="O29" s="305"/>
+      <c r="P29" s="305"/>
+      <c r="Q29" s="305"/>
+      <c r="R29" s="306"/>
+      <c r="S29" s="291"/>
+      <c r="T29" s="291"/>
+      <c r="U29" s="291"/>
+      <c r="V29" s="307"/>
+      <c r="W29" s="308"/>
+      <c r="X29" s="308"/>
+      <c r="Y29" s="308"/>
+      <c r="Z29" s="308"/>
+      <c r="AA29" s="308"/>
+      <c r="AB29" s="308"/>
+      <c r="AC29" s="308"/>
+      <c r="AD29" s="308"/>
+      <c r="AE29" s="308"/>
+      <c r="AF29" s="308"/>
+      <c r="AG29" s="308"/>
+      <c r="AH29" s="308"/>
+      <c r="AI29" s="308"/>
+      <c r="AJ29" s="308"/>
+      <c r="AK29" s="308"/>
+      <c r="AL29" s="308"/>
+      <c r="AM29" s="309"/>
+      <c r="AN29" s="310"/>
+      <c r="AO29" s="311"/>
+      <c r="AP29" s="311"/>
+      <c r="AQ29" s="311"/>
+      <c r="AR29" s="312"/>
+      <c r="AS29" s="310"/>
+      <c r="AT29" s="311"/>
+      <c r="AU29" s="311"/>
+      <c r="AV29" s="311"/>
+      <c r="AW29" s="312"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="285"/>
-      <c r="C30" s="286"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="288"/>
-      <c r="H30" s="288"/>
-      <c r="I30" s="288"/>
-      <c r="J30" s="289"/>
-      <c r="K30" s="290"/>
-      <c r="L30" s="291"/>
-      <c r="M30" s="299"/>
-      <c r="N30" s="300"/>
-      <c r="O30" s="300"/>
-      <c r="P30" s="300"/>
-      <c r="Q30" s="300"/>
-      <c r="R30" s="301"/>
-      <c r="S30" s="295"/>
-      <c r="T30" s="295"/>
-      <c r="U30" s="295"/>
-      <c r="V30" s="296"/>
-      <c r="W30" s="297"/>
-      <c r="X30" s="297"/>
-      <c r="Y30" s="297"/>
-      <c r="Z30" s="297"/>
-      <c r="AA30" s="297"/>
-      <c r="AB30" s="297"/>
-      <c r="AC30" s="297"/>
-      <c r="AD30" s="297"/>
-      <c r="AE30" s="297"/>
-      <c r="AF30" s="297"/>
-      <c r="AG30" s="297"/>
-      <c r="AH30" s="297"/>
-      <c r="AI30" s="297"/>
-      <c r="AJ30" s="297"/>
-      <c r="AK30" s="297"/>
-      <c r="AL30" s="297"/>
-      <c r="AM30" s="298"/>
-      <c r="AN30" s="282"/>
-      <c r="AO30" s="283"/>
-      <c r="AP30" s="283"/>
-      <c r="AQ30" s="283"/>
-      <c r="AR30" s="284"/>
-      <c r="AS30" s="282"/>
-      <c r="AT30" s="283"/>
-      <c r="AU30" s="283"/>
-      <c r="AV30" s="283"/>
-      <c r="AW30" s="284"/>
+      <c r="B30" s="301"/>
+      <c r="C30" s="302"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="293"/>
+      <c r="F30" s="293"/>
+      <c r="G30" s="293"/>
+      <c r="H30" s="293"/>
+      <c r="I30" s="293"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="295"/>
+      <c r="L30" s="296"/>
+      <c r="M30" s="315"/>
+      <c r="N30" s="305"/>
+      <c r="O30" s="305"/>
+      <c r="P30" s="305"/>
+      <c r="Q30" s="305"/>
+      <c r="R30" s="306"/>
+      <c r="S30" s="291"/>
+      <c r="T30" s="291"/>
+      <c r="U30" s="291"/>
+      <c r="V30" s="307"/>
+      <c r="W30" s="308"/>
+      <c r="X30" s="308"/>
+      <c r="Y30" s="308"/>
+      <c r="Z30" s="308"/>
+      <c r="AA30" s="308"/>
+      <c r="AB30" s="308"/>
+      <c r="AC30" s="308"/>
+      <c r="AD30" s="308"/>
+      <c r="AE30" s="308"/>
+      <c r="AF30" s="308"/>
+      <c r="AG30" s="308"/>
+      <c r="AH30" s="308"/>
+      <c r="AI30" s="308"/>
+      <c r="AJ30" s="308"/>
+      <c r="AK30" s="308"/>
+      <c r="AL30" s="308"/>
+      <c r="AM30" s="309"/>
+      <c r="AN30" s="310"/>
+      <c r="AO30" s="311"/>
+      <c r="AP30" s="311"/>
+      <c r="AQ30" s="311"/>
+      <c r="AR30" s="312"/>
+      <c r="AS30" s="310"/>
+      <c r="AT30" s="311"/>
+      <c r="AU30" s="311"/>
+      <c r="AV30" s="311"/>
+      <c r="AW30" s="312"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="285"/>
-      <c r="C31" s="286"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="288"/>
-      <c r="G31" s="288"/>
-      <c r="H31" s="288"/>
-      <c r="I31" s="288"/>
-      <c r="J31" s="289"/>
-      <c r="K31" s="290"/>
-      <c r="L31" s="291"/>
-      <c r="M31" s="299"/>
-      <c r="N31" s="300"/>
-      <c r="O31" s="300"/>
-      <c r="P31" s="300"/>
-      <c r="Q31" s="300"/>
-      <c r="R31" s="301"/>
-      <c r="S31" s="295"/>
-      <c r="T31" s="295"/>
-      <c r="U31" s="295"/>
-      <c r="V31" s="296"/>
-      <c r="W31" s="297"/>
-      <c r="X31" s="297"/>
-      <c r="Y31" s="297"/>
-      <c r="Z31" s="297"/>
-      <c r="AA31" s="297"/>
-      <c r="AB31" s="297"/>
-      <c r="AC31" s="297"/>
-      <c r="AD31" s="297"/>
-      <c r="AE31" s="297"/>
-      <c r="AF31" s="297"/>
-      <c r="AG31" s="297"/>
-      <c r="AH31" s="297"/>
-      <c r="AI31" s="297"/>
-      <c r="AJ31" s="297"/>
-      <c r="AK31" s="297"/>
-      <c r="AL31" s="297"/>
-      <c r="AM31" s="298"/>
-      <c r="AN31" s="282"/>
-      <c r="AO31" s="283"/>
-      <c r="AP31" s="283"/>
-      <c r="AQ31" s="283"/>
-      <c r="AR31" s="284"/>
-      <c r="AS31" s="282"/>
-      <c r="AT31" s="283"/>
-      <c r="AU31" s="283"/>
-      <c r="AV31" s="283"/>
-      <c r="AW31" s="284"/>
+      <c r="B31" s="301"/>
+      <c r="C31" s="302"/>
+      <c r="D31" s="303"/>
+      <c r="E31" s="293"/>
+      <c r="F31" s="293"/>
+      <c r="G31" s="293"/>
+      <c r="H31" s="293"/>
+      <c r="I31" s="293"/>
+      <c r="J31" s="294"/>
+      <c r="K31" s="295"/>
+      <c r="L31" s="296"/>
+      <c r="M31" s="315"/>
+      <c r="N31" s="305"/>
+      <c r="O31" s="305"/>
+      <c r="P31" s="305"/>
+      <c r="Q31" s="305"/>
+      <c r="R31" s="306"/>
+      <c r="S31" s="291"/>
+      <c r="T31" s="291"/>
+      <c r="U31" s="291"/>
+      <c r="V31" s="307"/>
+      <c r="W31" s="308"/>
+      <c r="X31" s="308"/>
+      <c r="Y31" s="308"/>
+      <c r="Z31" s="308"/>
+      <c r="AA31" s="308"/>
+      <c r="AB31" s="308"/>
+      <c r="AC31" s="308"/>
+      <c r="AD31" s="308"/>
+      <c r="AE31" s="308"/>
+      <c r="AF31" s="308"/>
+      <c r="AG31" s="308"/>
+      <c r="AH31" s="308"/>
+      <c r="AI31" s="308"/>
+      <c r="AJ31" s="308"/>
+      <c r="AK31" s="308"/>
+      <c r="AL31" s="308"/>
+      <c r="AM31" s="309"/>
+      <c r="AN31" s="310"/>
+      <c r="AO31" s="311"/>
+      <c r="AP31" s="311"/>
+      <c r="AQ31" s="311"/>
+      <c r="AR31" s="312"/>
+      <c r="AS31" s="310"/>
+      <c r="AT31" s="311"/>
+      <c r="AU31" s="311"/>
+      <c r="AV31" s="311"/>
+      <c r="AW31" s="312"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="285"/>
-      <c r="C32" s="286"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="288"/>
-      <c r="F32" s="288"/>
-      <c r="G32" s="288"/>
-      <c r="H32" s="288"/>
-      <c r="I32" s="288"/>
-      <c r="J32" s="289"/>
-      <c r="K32" s="290"/>
-      <c r="L32" s="291"/>
-      <c r="M32" s="299"/>
-      <c r="N32" s="300"/>
-      <c r="O32" s="300"/>
-      <c r="P32" s="300"/>
-      <c r="Q32" s="300"/>
-      <c r="R32" s="301"/>
-      <c r="S32" s="295"/>
-      <c r="T32" s="295"/>
-      <c r="U32" s="295"/>
-      <c r="V32" s="296"/>
-      <c r="W32" s="297"/>
-      <c r="X32" s="297"/>
-      <c r="Y32" s="297"/>
-      <c r="Z32" s="297"/>
-      <c r="AA32" s="297"/>
-      <c r="AB32" s="297"/>
-      <c r="AC32" s="297"/>
-      <c r="AD32" s="297"/>
-      <c r="AE32" s="297"/>
-      <c r="AF32" s="297"/>
-      <c r="AG32" s="297"/>
-      <c r="AH32" s="297"/>
-      <c r="AI32" s="297"/>
-      <c r="AJ32" s="297"/>
-      <c r="AK32" s="297"/>
-      <c r="AL32" s="297"/>
-      <c r="AM32" s="298"/>
-      <c r="AN32" s="282"/>
-      <c r="AO32" s="283"/>
-      <c r="AP32" s="283"/>
-      <c r="AQ32" s="283"/>
-      <c r="AR32" s="284"/>
-      <c r="AS32" s="282"/>
-      <c r="AT32" s="283"/>
-      <c r="AU32" s="283"/>
-      <c r="AV32" s="283"/>
-      <c r="AW32" s="284"/>
+      <c r="B32" s="301"/>
+      <c r="C32" s="302"/>
+      <c r="D32" s="303"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
+      <c r="H32" s="293"/>
+      <c r="I32" s="293"/>
+      <c r="J32" s="294"/>
+      <c r="K32" s="295"/>
+      <c r="L32" s="296"/>
+      <c r="M32" s="315"/>
+      <c r="N32" s="305"/>
+      <c r="O32" s="305"/>
+      <c r="P32" s="305"/>
+      <c r="Q32" s="305"/>
+      <c r="R32" s="306"/>
+      <c r="S32" s="291"/>
+      <c r="T32" s="291"/>
+      <c r="U32" s="291"/>
+      <c r="V32" s="307"/>
+      <c r="W32" s="308"/>
+      <c r="X32" s="308"/>
+      <c r="Y32" s="308"/>
+      <c r="Z32" s="308"/>
+      <c r="AA32" s="308"/>
+      <c r="AB32" s="308"/>
+      <c r="AC32" s="308"/>
+      <c r="AD32" s="308"/>
+      <c r="AE32" s="308"/>
+      <c r="AF32" s="308"/>
+      <c r="AG32" s="308"/>
+      <c r="AH32" s="308"/>
+      <c r="AI32" s="308"/>
+      <c r="AJ32" s="308"/>
+      <c r="AK32" s="308"/>
+      <c r="AL32" s="308"/>
+      <c r="AM32" s="309"/>
+      <c r="AN32" s="310"/>
+      <c r="AO32" s="311"/>
+      <c r="AP32" s="311"/>
+      <c r="AQ32" s="311"/>
+      <c r="AR32" s="312"/>
+      <c r="AS32" s="310"/>
+      <c r="AT32" s="311"/>
+      <c r="AU32" s="311"/>
+      <c r="AV32" s="311"/>
+      <c r="AW32" s="312"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="285"/>
-      <c r="C33" s="286"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="288"/>
-      <c r="F33" s="288"/>
-      <c r="G33" s="288"/>
-      <c r="H33" s="288"/>
-      <c r="I33" s="288"/>
-      <c r="J33" s="289"/>
-      <c r="K33" s="290"/>
-      <c r="L33" s="291"/>
-      <c r="M33" s="299"/>
-      <c r="N33" s="300"/>
-      <c r="O33" s="300"/>
-      <c r="P33" s="300"/>
-      <c r="Q33" s="300"/>
-      <c r="R33" s="301"/>
-      <c r="S33" s="295"/>
-      <c r="T33" s="295"/>
-      <c r="U33" s="295"/>
-      <c r="V33" s="296"/>
-      <c r="W33" s="297"/>
-      <c r="X33" s="297"/>
-      <c r="Y33" s="297"/>
-      <c r="Z33" s="297"/>
-      <c r="AA33" s="297"/>
-      <c r="AB33" s="297"/>
-      <c r="AC33" s="297"/>
-      <c r="AD33" s="297"/>
-      <c r="AE33" s="297"/>
-      <c r="AF33" s="297"/>
-      <c r="AG33" s="297"/>
-      <c r="AH33" s="297"/>
-      <c r="AI33" s="297"/>
-      <c r="AJ33" s="297"/>
-      <c r="AK33" s="297"/>
-      <c r="AL33" s="297"/>
-      <c r="AM33" s="298"/>
-      <c r="AN33" s="282"/>
-      <c r="AO33" s="283"/>
-      <c r="AP33" s="283"/>
-      <c r="AQ33" s="283"/>
-      <c r="AR33" s="284"/>
-      <c r="AS33" s="282"/>
-      <c r="AT33" s="283"/>
-      <c r="AU33" s="283"/>
-      <c r="AV33" s="283"/>
-      <c r="AW33" s="284"/>
+      <c r="B33" s="301"/>
+      <c r="C33" s="302"/>
+      <c r="D33" s="303"/>
+      <c r="E33" s="293"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="293"/>
+      <c r="H33" s="293"/>
+      <c r="I33" s="293"/>
+      <c r="J33" s="294"/>
+      <c r="K33" s="295"/>
+      <c r="L33" s="296"/>
+      <c r="M33" s="315"/>
+      <c r="N33" s="305"/>
+      <c r="O33" s="305"/>
+      <c r="P33" s="305"/>
+      <c r="Q33" s="305"/>
+      <c r="R33" s="306"/>
+      <c r="S33" s="291"/>
+      <c r="T33" s="291"/>
+      <c r="U33" s="291"/>
+      <c r="V33" s="307"/>
+      <c r="W33" s="308"/>
+      <c r="X33" s="308"/>
+      <c r="Y33" s="308"/>
+      <c r="Z33" s="308"/>
+      <c r="AA33" s="308"/>
+      <c r="AB33" s="308"/>
+      <c r="AC33" s="308"/>
+      <c r="AD33" s="308"/>
+      <c r="AE33" s="308"/>
+      <c r="AF33" s="308"/>
+      <c r="AG33" s="308"/>
+      <c r="AH33" s="308"/>
+      <c r="AI33" s="308"/>
+      <c r="AJ33" s="308"/>
+      <c r="AK33" s="308"/>
+      <c r="AL33" s="308"/>
+      <c r="AM33" s="309"/>
+      <c r="AN33" s="310"/>
+      <c r="AO33" s="311"/>
+      <c r="AP33" s="311"/>
+      <c r="AQ33" s="311"/>
+      <c r="AR33" s="312"/>
+      <c r="AS33" s="310"/>
+      <c r="AT33" s="311"/>
+      <c r="AU33" s="311"/>
+      <c r="AV33" s="311"/>
+      <c r="AW33" s="312"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="285"/>
-      <c r="C34" s="286"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
-      <c r="F34" s="288"/>
-      <c r="G34" s="288"/>
-      <c r="H34" s="288"/>
-      <c r="I34" s="288"/>
-      <c r="J34" s="289"/>
-      <c r="K34" s="290"/>
-      <c r="L34" s="291"/>
-      <c r="M34" s="292"/>
-      <c r="N34" s="293"/>
-      <c r="O34" s="293"/>
-      <c r="P34" s="293"/>
-      <c r="Q34" s="293"/>
-      <c r="R34" s="294"/>
-      <c r="S34" s="295"/>
-      <c r="T34" s="295"/>
-      <c r="U34" s="295"/>
-      <c r="V34" s="296"/>
-      <c r="W34" s="297"/>
-      <c r="X34" s="297"/>
-      <c r="Y34" s="297"/>
-      <c r="Z34" s="297"/>
-      <c r="AA34" s="297"/>
-      <c r="AB34" s="297"/>
-      <c r="AC34" s="297"/>
-      <c r="AD34" s="297"/>
-      <c r="AE34" s="297"/>
-      <c r="AF34" s="297"/>
-      <c r="AG34" s="297"/>
-      <c r="AH34" s="297"/>
-      <c r="AI34" s="297"/>
-      <c r="AJ34" s="297"/>
-      <c r="AK34" s="297"/>
-      <c r="AL34" s="297"/>
-      <c r="AM34" s="298"/>
-      <c r="AN34" s="282"/>
-      <c r="AO34" s="283"/>
-      <c r="AP34" s="283"/>
-      <c r="AQ34" s="283"/>
-      <c r="AR34" s="284"/>
-      <c r="AS34" s="282"/>
-      <c r="AT34" s="283"/>
-      <c r="AU34" s="283"/>
-      <c r="AV34" s="283"/>
-      <c r="AW34" s="284"/>
+      <c r="B34" s="301"/>
+      <c r="C34" s="302"/>
+      <c r="D34" s="303"/>
+      <c r="E34" s="293"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="293"/>
+      <c r="H34" s="293"/>
+      <c r="I34" s="293"/>
+      <c r="J34" s="294"/>
+      <c r="K34" s="295"/>
+      <c r="L34" s="296"/>
+      <c r="M34" s="319"/>
+      <c r="N34" s="320"/>
+      <c r="O34" s="320"/>
+      <c r="P34" s="320"/>
+      <c r="Q34" s="320"/>
+      <c r="R34" s="321"/>
+      <c r="S34" s="291"/>
+      <c r="T34" s="291"/>
+      <c r="U34" s="291"/>
+      <c r="V34" s="307"/>
+      <c r="W34" s="308"/>
+      <c r="X34" s="308"/>
+      <c r="Y34" s="308"/>
+      <c r="Z34" s="308"/>
+      <c r="AA34" s="308"/>
+      <c r="AB34" s="308"/>
+      <c r="AC34" s="308"/>
+      <c r="AD34" s="308"/>
+      <c r="AE34" s="308"/>
+      <c r="AF34" s="308"/>
+      <c r="AG34" s="308"/>
+      <c r="AH34" s="308"/>
+      <c r="AI34" s="308"/>
+      <c r="AJ34" s="308"/>
+      <c r="AK34" s="308"/>
+      <c r="AL34" s="308"/>
+      <c r="AM34" s="309"/>
+      <c r="AN34" s="310"/>
+      <c r="AO34" s="311"/>
+      <c r="AP34" s="311"/>
+      <c r="AQ34" s="311"/>
+      <c r="AR34" s="312"/>
+      <c r="AS34" s="310"/>
+      <c r="AT34" s="311"/>
+      <c r="AU34" s="311"/>
+      <c r="AV34" s="311"/>
+      <c r="AW34" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -12566,230 +12799,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14804,10 +14822,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="322">
+      <c r="B51" s="324">
         <v>1</v>
       </c>
-      <c r="C51" s="323"/>
+      <c r="C51" s="325"/>
       <c r="D51" s="231" t="s">
         <v>125</v>
       </c>
@@ -14839,16 +14857,16 @@
       <c r="AB51" s="232"/>
       <c r="AC51" s="232"/>
       <c r="AD51" s="233"/>
-      <c r="AE51" s="324" t="s">
+      <c r="AE51" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF51" s="325"/>
-      <c r="AG51" s="324"/>
-      <c r="AH51" s="325"/>
-      <c r="AI51" s="324"/>
-      <c r="AJ51" s="325"/>
-      <c r="AK51" s="324"/>
-      <c r="AL51" s="325"/>
+      <c r="AF51" s="323"/>
+      <c r="AG51" s="322"/>
+      <c r="AH51" s="323"/>
+      <c r="AI51" s="322"/>
+      <c r="AJ51" s="323"/>
+      <c r="AK51" s="322"/>
+      <c r="AL51" s="323"/>
       <c r="AM51" s="234" t="s">
         <v>131</v>
       </c>
@@ -14882,10 +14900,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="322">
+      <c r="B52" s="324">
         <v>2</v>
       </c>
-      <c r="C52" s="323"/>
+      <c r="C52" s="325"/>
       <c r="D52" s="231" t="s">
         <v>125</v>
       </c>
@@ -14917,16 +14935,16 @@
       <c r="AB52" s="232"/>
       <c r="AC52" s="232"/>
       <c r="AD52" s="233"/>
-      <c r="AE52" s="324" t="s">
+      <c r="AE52" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF52" s="325"/>
-      <c r="AG52" s="324"/>
-      <c r="AH52" s="325"/>
-      <c r="AI52" s="324"/>
-      <c r="AJ52" s="325"/>
-      <c r="AK52" s="324"/>
-      <c r="AL52" s="325"/>
+      <c r="AF52" s="323"/>
+      <c r="AG52" s="322"/>
+      <c r="AH52" s="323"/>
+      <c r="AI52" s="322"/>
+      <c r="AJ52" s="323"/>
+      <c r="AK52" s="322"/>
+      <c r="AL52" s="323"/>
       <c r="AM52" s="234" t="s">
         <v>132</v>
       </c>
@@ -14960,10 +14978,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="322">
+      <c r="B53" s="324">
         <v>3</v>
       </c>
-      <c r="C53" s="323"/>
+      <c r="C53" s="325"/>
       <c r="D53" s="231" t="s">
         <v>125</v>
       </c>
@@ -14995,16 +15013,16 @@
       <c r="AB53" s="232"/>
       <c r="AC53" s="232"/>
       <c r="AD53" s="233"/>
-      <c r="AE53" s="324" t="s">
+      <c r="AE53" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF53" s="325"/>
-      <c r="AG53" s="324"/>
-      <c r="AH53" s="325"/>
-      <c r="AI53" s="324"/>
-      <c r="AJ53" s="325"/>
-      <c r="AK53" s="324"/>
-      <c r="AL53" s="325"/>
+      <c r="AF53" s="323"/>
+      <c r="AG53" s="322"/>
+      <c r="AH53" s="323"/>
+      <c r="AI53" s="322"/>
+      <c r="AJ53" s="323"/>
+      <c r="AK53" s="322"/>
+      <c r="AL53" s="323"/>
       <c r="AM53" s="234" t="s">
         <v>133</v>
       </c>
@@ -15038,10 +15056,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="322">
+      <c r="B54" s="324">
         <v>4</v>
       </c>
-      <c r="C54" s="323"/>
+      <c r="C54" s="325"/>
       <c r="D54" s="231" t="s">
         <v>125</v>
       </c>
@@ -15073,16 +15091,16 @@
       <c r="AB54" s="232"/>
       <c r="AC54" s="232"/>
       <c r="AD54" s="233"/>
-      <c r="AE54" s="324" t="s">
+      <c r="AE54" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF54" s="325"/>
-      <c r="AG54" s="324"/>
-      <c r="AH54" s="325"/>
-      <c r="AI54" s="324"/>
-      <c r="AJ54" s="325"/>
-      <c r="AK54" s="324"/>
-      <c r="AL54" s="325"/>
+      <c r="AF54" s="323"/>
+      <c r="AG54" s="322"/>
+      <c r="AH54" s="323"/>
+      <c r="AI54" s="322"/>
+      <c r="AJ54" s="323"/>
+      <c r="AK54" s="322"/>
+      <c r="AL54" s="323"/>
       <c r="AM54" s="234" t="s">
         <v>134</v>
       </c>
@@ -15116,10 +15134,10 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
-      <c r="B55" s="322">
+      <c r="B55" s="324">
         <v>5</v>
       </c>
-      <c r="C55" s="323"/>
+      <c r="C55" s="325"/>
       <c r="D55" s="231" t="s">
         <v>125</v>
       </c>
@@ -15151,16 +15169,16 @@
       <c r="AB55" s="232"/>
       <c r="AC55" s="232"/>
       <c r="AD55" s="233"/>
-      <c r="AE55" s="324" t="s">
+      <c r="AE55" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF55" s="325"/>
-      <c r="AG55" s="324"/>
-      <c r="AH55" s="325"/>
-      <c r="AI55" s="324"/>
-      <c r="AJ55" s="325"/>
-      <c r="AK55" s="324"/>
-      <c r="AL55" s="325"/>
+      <c r="AF55" s="323"/>
+      <c r="AG55" s="322"/>
+      <c r="AH55" s="323"/>
+      <c r="AI55" s="322"/>
+      <c r="AJ55" s="323"/>
+      <c r="AK55" s="322"/>
+      <c r="AL55" s="323"/>
       <c r="AM55" s="234" t="s">
         <v>135</v>
       </c>
@@ -15194,10 +15212,10 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
-      <c r="B56" s="322">
+      <c r="B56" s="324">
         <v>6</v>
       </c>
-      <c r="C56" s="323"/>
+      <c r="C56" s="325"/>
       <c r="D56" s="231" t="s">
         <v>125</v>
       </c>
@@ -15229,16 +15247,16 @@
       <c r="AB56" s="232"/>
       <c r="AC56" s="232"/>
       <c r="AD56" s="233"/>
-      <c r="AE56" s="324" t="s">
+      <c r="AE56" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF56" s="325"/>
-      <c r="AG56" s="324"/>
-      <c r="AH56" s="325"/>
-      <c r="AI56" s="324"/>
-      <c r="AJ56" s="325"/>
-      <c r="AK56" s="324"/>
-      <c r="AL56" s="325"/>
+      <c r="AF56" s="323"/>
+      <c r="AG56" s="322"/>
+      <c r="AH56" s="323"/>
+      <c r="AI56" s="322"/>
+      <c r="AJ56" s="323"/>
+      <c r="AK56" s="322"/>
+      <c r="AL56" s="323"/>
       <c r="AM56" s="234" t="s">
         <v>136</v>
       </c>
@@ -15272,10 +15290,10 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
-      <c r="B57" s="322">
+      <c r="B57" s="324">
         <v>7</v>
       </c>
-      <c r="C57" s="323"/>
+      <c r="C57" s="325"/>
       <c r="D57" s="231" t="s">
         <v>126</v>
       </c>
@@ -15307,16 +15325,16 @@
       <c r="AB57" s="232"/>
       <c r="AC57" s="232"/>
       <c r="AD57" s="233"/>
-      <c r="AE57" s="324" t="s">
+      <c r="AE57" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF57" s="325"/>
-      <c r="AG57" s="324"/>
-      <c r="AH57" s="325"/>
-      <c r="AI57" s="324"/>
-      <c r="AJ57" s="325"/>
-      <c r="AK57" s="324"/>
-      <c r="AL57" s="325"/>
+      <c r="AF57" s="323"/>
+      <c r="AG57" s="322"/>
+      <c r="AH57" s="323"/>
+      <c r="AI57" s="322"/>
+      <c r="AJ57" s="323"/>
+      <c r="AK57" s="322"/>
+      <c r="AL57" s="323"/>
       <c r="AM57" s="234" t="s">
         <v>545</v>
       </c>
@@ -15350,10 +15368,10 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
-      <c r="B58" s="322">
+      <c r="B58" s="324">
         <v>8</v>
       </c>
-      <c r="C58" s="323"/>
+      <c r="C58" s="325"/>
       <c r="D58" s="231" t="s">
         <v>126</v>
       </c>
@@ -15385,16 +15403,16 @@
       <c r="AB58" s="232"/>
       <c r="AC58" s="232"/>
       <c r="AD58" s="233"/>
-      <c r="AE58" s="324" t="s">
+      <c r="AE58" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF58" s="325"/>
-      <c r="AG58" s="324"/>
-      <c r="AH58" s="325"/>
-      <c r="AI58" s="324"/>
-      <c r="AJ58" s="325"/>
-      <c r="AK58" s="324"/>
-      <c r="AL58" s="325"/>
+      <c r="AF58" s="323"/>
+      <c r="AG58" s="322"/>
+      <c r="AH58" s="323"/>
+      <c r="AI58" s="322"/>
+      <c r="AJ58" s="323"/>
+      <c r="AK58" s="322"/>
+      <c r="AL58" s="323"/>
       <c r="AM58" s="234" t="s">
         <v>547</v>
       </c>
@@ -15428,10 +15446,10 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
-      <c r="B59" s="322">
+      <c r="B59" s="324">
         <v>9</v>
       </c>
-      <c r="C59" s="323"/>
+      <c r="C59" s="325"/>
       <c r="D59" s="231" t="s">
         <v>126</v>
       </c>
@@ -15463,16 +15481,16 @@
       <c r="AB59" s="232"/>
       <c r="AC59" s="232"/>
       <c r="AD59" s="233"/>
-      <c r="AE59" s="324" t="s">
+      <c r="AE59" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="AF59" s="325"/>
-      <c r="AG59" s="324"/>
-      <c r="AH59" s="325"/>
-      <c r="AI59" s="324"/>
-      <c r="AJ59" s="325"/>
-      <c r="AK59" s="324"/>
-      <c r="AL59" s="325"/>
+      <c r="AF59" s="323"/>
+      <c r="AG59" s="322"/>
+      <c r="AH59" s="323"/>
+      <c r="AI59" s="322"/>
+      <c r="AJ59" s="323"/>
+      <c r="AK59" s="322"/>
+      <c r="AL59" s="323"/>
       <c r="AM59" s="234" t="s">
         <v>549</v>
       </c>
@@ -15511,6 +15529,44 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
     <mergeCell ref="AG58:AH58"/>
     <mergeCell ref="AI58:AJ58"/>
     <mergeCell ref="AK58:AL58"/>
@@ -15521,49 +15577,11 @@
     <mergeCell ref="AK59:AL59"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -16052,22 +16070,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="315" t="s">
+      <c r="C6" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="315" t="s">
+      <c r="D6" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="315" t="s">
+      <c r="E6" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="315" t="s">
+      <c r="F6" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="315" t="s">
+      <c r="G6" s="284" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="315" t="s">
+      <c r="H6" s="284" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="343" t="s">
@@ -16076,13 +16094,13 @@
       <c r="J6" s="343" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="315" t="s">
+      <c r="K6" s="284" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="315" t="s">
+      <c r="L6" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="315" t="s">
+      <c r="M6" s="284" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="74" t="s">
@@ -16097,17 +16115,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
       <c r="I7" s="343"/>
       <c r="J7" s="343"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="315"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="284"/>
       <c r="N7" s="43" t="s">
         <v>81</v>
       </c>
@@ -16271,22 +16289,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="315" t="s">
+      <c r="C13" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="315" t="s">
+      <c r="D13" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="315" t="s">
+      <c r="E13" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="315" t="s">
+      <c r="F13" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="315" t="s">
+      <c r="G13" s="284" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="315" t="s">
+      <c r="H13" s="284" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="344" t="s">
@@ -16295,13 +16313,13 @@
       <c r="J13" s="343" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="315" t="s">
+      <c r="K13" s="284" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="315" t="s">
+      <c r="L13" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="315" t="s">
+      <c r="M13" s="284" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="74" t="s">
@@ -16316,17 +16334,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="315"/>
-      <c r="D14" s="315"/>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="284"/>
+      <c r="H14" s="284"/>
       <c r="I14" s="345"/>
       <c r="J14" s="343"/>
-      <c r="K14" s="315"/>
-      <c r="L14" s="315"/>
-      <c r="M14" s="315"/>
+      <c r="K14" s="284"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="284"/>
       <c r="N14" s="43" t="s">
         <v>81</v>
       </c>
@@ -16932,22 +16950,22 @@
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="111"/>
-      <c r="C29" s="315" t="s">
+      <c r="C29" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="315" t="s">
+      <c r="D29" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="315" t="s">
+      <c r="E29" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="315" t="s">
+      <c r="F29" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="315" t="s">
+      <c r="G29" s="284" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="315" t="s">
+      <c r="H29" s="284" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="343" t="s">
@@ -16956,13 +16974,13 @@
       <c r="J29" s="343" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="315" t="s">
+      <c r="K29" s="284" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="315" t="s">
+      <c r="L29" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="315" t="s">
+      <c r="M29" s="284" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="74" t="s">
@@ -16976,17 +16994,17 @@
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="111"/>
-      <c r="C30" s="315"/>
-      <c r="D30" s="315"/>
-      <c r="E30" s="315"/>
-      <c r="F30" s="315"/>
-      <c r="G30" s="315"/>
-      <c r="H30" s="315"/>
+      <c r="C30" s="284"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="284"/>
+      <c r="F30" s="284"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="284"/>
       <c r="I30" s="343"/>
       <c r="J30" s="343"/>
-      <c r="K30" s="315"/>
-      <c r="L30" s="315"/>
-      <c r="M30" s="315"/>
+      <c r="K30" s="284"/>
+      <c r="L30" s="284"/>
+      <c r="M30" s="284"/>
       <c r="N30" s="109" t="s">
         <v>81</v>
       </c>
@@ -17548,6 +17566,34 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="Q29:Q30"/>
@@ -17556,34 +17602,6 @@
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19384,7 +19402,7 @@
       <c r="E35" s="114"/>
       <c r="F35" s="115"/>
       <c r="G35" s="116" t="s">
-        <v>417</v>
+        <v>580</v>
       </c>
       <c r="H35" s="117"/>
       <c r="I35" s="117"/>
@@ -19437,7 +19455,7 @@
       <c r="E36" s="114"/>
       <c r="F36" s="115"/>
       <c r="G36" s="113" t="s">
-        <v>418</v>
+        <v>581</v>
       </c>
       <c r="H36" s="114"/>
       <c r="I36" s="114"/>
@@ -19487,7 +19505,9 @@
       <c r="B37" s="268"/>
       <c r="C37" s="268"/>
       <c r="F37" s="270"/>
-      <c r="G37" s="268"/>
+      <c r="G37" s="268" t="s">
+        <v>417</v>
+      </c>
       <c r="K37" s="270"/>
       <c r="N37" s="269" t="s">
         <v>517</v>
@@ -19498,7 +19518,9 @@
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
       <c r="F38" s="77"/>
-      <c r="G38" s="76"/>
+      <c r="G38" s="76" t="s">
+        <v>418</v>
+      </c>
       <c r="K38" s="77"/>
       <c r="N38" s="17" t="s">
         <v>376</v>
@@ -65409,6 +65431,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -65566,35 +65603,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -65616,9 +65628,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>